--- a/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
+++ b/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2576" uniqueCount="1494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2578" uniqueCount="1496">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -4038,13 +4038,13 @@
     <t xml:space="preserve">ind_q17a</t>
   </si>
   <si>
-    <t xml:space="preserve">17a. What form of care did this participant seek?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17a. Que tipo de cuidados é que o participante procurou?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17a. Ni huduma ya aina gani aliyoitafuta mshiriki huyu?</t>
+    <t xml:space="preserve">17a. What form of care did this participant seek? (check all that apply)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17a. Que tipo de cuidados é que o participante procurou? (Assinalar todas as opções que se apliquem)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17a. Ni huduma ya aina gani aliyoitafuta mshiriki huyu? (chagua yote yatakayo husika)</t>
   </si>
   <si>
     <t xml:space="preserve">ind_q17b</t>
@@ -4069,6 +4069,12 @@
   </si>
   <si>
     <t xml:space="preserve">17b (i). [Ikiwa ndiyo] Matokeo ya kipimo cha malaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_q17bi.hint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indicate result</t>
   </si>
   <si>
     <t xml:space="preserve">ind_q17c</t>
@@ -4862,7 +4868,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="8.69"/>
   </cols>
@@ -5913,7 +5919,7 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.67"/>
@@ -7402,7 +7408,7 @@
       <selection pane="bottomLeft" activeCell="B213" activeCellId="0" sqref="B213"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.16"/>
@@ -11192,7 +11198,7 @@
       <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.79"/>
@@ -29620,7 +29626,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.04"/>
@@ -30754,15 +30760,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D355"/>
+  <dimension ref="A1:D356"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A299" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D82" activeCellId="0" sqref="D82"/>
+      <selection pane="bottomLeft" activeCell="D315" activeCellId="0" sqref="D315"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.41796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.41015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="35.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="13" width="37.56"/>
@@ -35084,501 +35090,495 @@
       <c r="B317" s="13" t="s">
         <v>1349</v>
       </c>
-      <c r="C317" s="13" t="s">
-        <v>1350</v>
-      </c>
-      <c r="D317" s="13" t="s">
-        <v>1351</v>
-      </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="13" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B318" s="13" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C318" s="13" t="s">
         <v>1352</v>
       </c>
-      <c r="B318" s="13" t="s">
+      <c r="D318" s="13" t="s">
         <v>1353</v>
-      </c>
-      <c r="C318" s="13" t="s">
-        <v>1354</v>
-      </c>
-      <c r="D318" s="13" t="s">
-        <v>1355</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="13" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B319" s="13" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C319" s="13" t="s">
         <v>1356</v>
       </c>
-      <c r="B319" s="13" t="s">
+      <c r="D319" s="13" t="s">
         <v>1357</v>
-      </c>
-      <c r="C319" s="13" t="s">
-        <v>1358</v>
-      </c>
-      <c r="D319" s="13" t="s">
-        <v>1359</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="13" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B320" s="13" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C320" s="13" t="s">
         <v>1360</v>
       </c>
-      <c r="B320" s="13" t="s">
+      <c r="D320" s="13" t="s">
         <v>1361</v>
-      </c>
-      <c r="C320" s="13" t="s">
-        <v>1362</v>
-      </c>
-      <c r="D320" s="13" t="s">
-        <v>1363</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="13" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B321" s="13" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C321" s="13" t="s">
         <v>1364</v>
       </c>
-      <c r="B321" s="13" t="s">
+      <c r="D321" s="13" t="s">
         <v>1365</v>
-      </c>
-      <c r="C321" s="13" t="s">
-        <v>1366</v>
-      </c>
-      <c r="D321" s="13" t="s">
-        <v>1367</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="13" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B322" s="13" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C322" s="13" t="s">
         <v>1368</v>
       </c>
-      <c r="B322" s="13" t="s">
+      <c r="D322" s="13" t="s">
         <v>1369</v>
-      </c>
-      <c r="C322" s="13" t="s">
-        <v>1370</v>
-      </c>
-      <c r="D322" s="13" t="s">
-        <v>1371</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="13" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B323" s="13" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C323" s="13" t="s">
         <v>1372</v>
       </c>
-      <c r="B323" s="13" t="s">
+      <c r="D323" s="13" t="s">
         <v>1373</v>
-      </c>
-      <c r="C323" s="13" t="s">
-        <v>1374</v>
-      </c>
-      <c r="D323" s="13" t="s">
-        <v>1375</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="13" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B324" s="13" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C324" s="13" t="s">
         <v>1376</v>
       </c>
-      <c r="B324" s="13" t="s">
+      <c r="D324" s="13" t="s">
         <v>1377</v>
-      </c>
-      <c r="C324" s="13" t="s">
-        <v>1378</v>
-      </c>
-      <c r="D324" s="13" t="s">
-        <v>1379</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="13" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B325" s="13" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C325" s="13" t="s">
         <v>1380</v>
       </c>
-      <c r="B325" s="13" t="s">
+      <c r="D325" s="13" t="s">
         <v>1381</v>
-      </c>
-      <c r="C325" s="13" t="s">
-        <v>1382</v>
-      </c>
-      <c r="D325" s="13" t="s">
-        <v>1383</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="13" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B326" s="13" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C326" s="13" t="s">
         <v>1384</v>
       </c>
-      <c r="B326" s="13" t="s">
+      <c r="D326" s="13" t="s">
         <v>1385</v>
-      </c>
-      <c r="C326" s="13" t="s">
-        <v>1386</v>
-      </c>
-      <c r="D326" s="13" t="s">
-        <v>1387</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="13" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B327" s="13" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C327" s="13" t="s">
         <v>1388</v>
       </c>
-      <c r="B327" s="13" t="s">
+      <c r="D327" s="13" t="s">
         <v>1389</v>
-      </c>
-      <c r="C327" s="13" t="s">
-        <v>1390</v>
-      </c>
-      <c r="D327" s="13" t="s">
-        <v>1391</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="13" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B328" s="13" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C328" s="13" t="s">
         <v>1392</v>
       </c>
-      <c r="B328" s="13" t="s">
+      <c r="D328" s="13" t="s">
         <v>1393</v>
-      </c>
-      <c r="C328" s="13" t="s">
-        <v>1394</v>
-      </c>
-      <c r="D328" s="13" t="s">
-        <v>1395</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="13" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B329" s="13" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C329" s="13" t="s">
         <v>1396</v>
       </c>
-      <c r="B329" s="13" t="s">
+      <c r="D329" s="13" t="s">
         <v>1397</v>
-      </c>
-      <c r="C329" s="13" t="s">
-        <v>1398</v>
-      </c>
-      <c r="D329" s="13" t="s">
-        <v>1399</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="13" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B330" s="13" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C330" s="13" t="s">
         <v>1400</v>
       </c>
-      <c r="B330" s="13" t="s">
+      <c r="D330" s="13" t="s">
         <v>1401</v>
-      </c>
-      <c r="C330" s="13" t="s">
-        <v>1402</v>
-      </c>
-      <c r="D330" s="13" t="s">
-        <v>1403</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="13" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B331" s="13" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C331" s="13" t="s">
         <v>1404</v>
       </c>
-      <c r="B331" s="13" t="s">
+      <c r="D331" s="13" t="s">
         <v>1405</v>
-      </c>
-      <c r="C331" s="13" t="s">
-        <v>1406</v>
-      </c>
-      <c r="D331" s="13" t="s">
-        <v>1407</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="13" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B332" s="13" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C332" s="13" t="s">
         <v>1408</v>
       </c>
-      <c r="B332" s="13" t="s">
+      <c r="D332" s="13" t="s">
         <v>1409</v>
-      </c>
-      <c r="C332" s="13" t="s">
-        <v>1410</v>
-      </c>
-      <c r="D332" s="13" t="s">
-        <v>1411</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="13" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B333" s="13" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C333" s="13" t="s">
         <v>1412</v>
       </c>
-      <c r="B333" s="13" t="s">
+      <c r="D333" s="13" t="s">
         <v>1413</v>
-      </c>
-      <c r="C333" s="13" t="s">
-        <v>1414</v>
-      </c>
-      <c r="D333" s="13" t="s">
-        <v>1415</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="13" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B334" s="13" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C334" s="13" t="s">
         <v>1416</v>
       </c>
-      <c r="B334" s="13" t="s">
+      <c r="D334" s="13" t="s">
         <v>1417</v>
-      </c>
-      <c r="C334" s="13" t="s">
-        <v>1418</v>
-      </c>
-      <c r="D334" s="13" t="s">
-        <v>1419</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="13" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B335" s="13" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C335" s="13" t="s">
         <v>1420</v>
       </c>
-      <c r="B335" s="13" t="s">
+      <c r="D335" s="13" t="s">
         <v>1421</v>
-      </c>
-      <c r="C335" s="13" t="s">
-        <v>1422</v>
-      </c>
-      <c r="D335" s="13" t="s">
-        <v>1423</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="13" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B336" s="13" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C336" s="13" t="s">
         <v>1424</v>
       </c>
-      <c r="B336" s="13" t="s">
+      <c r="D336" s="13" t="s">
         <v>1425</v>
-      </c>
-      <c r="C336" s="13" t="s">
-        <v>1426</v>
-      </c>
-      <c r="D336" s="13" t="s">
-        <v>1427</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="13" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B337" s="13" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C337" s="13" t="s">
         <v>1428</v>
       </c>
-      <c r="B337" s="13" t="s">
+      <c r="D337" s="13" t="s">
         <v>1429</v>
-      </c>
-      <c r="C337" s="13" t="s">
-        <v>1430</v>
-      </c>
-      <c r="D337" s="13" t="s">
-        <v>1431</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="13" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B338" s="13" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C338" s="13" t="s">
         <v>1432</v>
       </c>
-      <c r="B338" s="13" t="s">
+      <c r="D338" s="13" t="s">
         <v>1433</v>
-      </c>
-      <c r="C338" s="13" t="s">
-        <v>1434</v>
-      </c>
-      <c r="D338" s="13" t="s">
-        <v>1435</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="13" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B339" s="13" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C339" s="13" t="s">
         <v>1436</v>
       </c>
-      <c r="B339" s="13" t="s">
+      <c r="D339" s="13" t="s">
         <v>1437</v>
       </c>
-      <c r="C339" s="13" t="s">
+    </row>
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="13" t="s">
         <v>1438</v>
       </c>
-      <c r="D339" s="13" t="s">
+      <c r="B340" s="13" t="s">
         <v>1439</v>
       </c>
-    </row>
-    <row r="341" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="13" t="s">
+      <c r="C340" s="13" t="s">
         <v>1440</v>
       </c>
-      <c r="B341" s="13" t="s">
+      <c r="D340" s="13" t="s">
         <v>1441</v>
-      </c>
-      <c r="C341" s="14" t="s">
-        <v>1442</v>
-      </c>
-      <c r="D341" s="14" t="s">
-        <v>1443</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="13" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B342" s="13" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C342" s="14" t="s">
         <v>1444</v>
       </c>
-      <c r="B342" s="13" t="s">
+      <c r="D342" s="14" t="s">
         <v>1445</v>
-      </c>
-      <c r="C342" s="14" t="s">
-        <v>1446</v>
-      </c>
-      <c r="D342" s="14" t="s">
-        <v>1447</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="13" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B343" s="13" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C343" s="14" t="s">
         <v>1448</v>
       </c>
-      <c r="B343" s="13" t="s">
+      <c r="D343" s="14" t="s">
         <v>1449</v>
       </c>
-      <c r="C343" s="14" t="s">
+    </row>
+    <row r="344" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="13" t="s">
         <v>1450</v>
       </c>
-      <c r="D343" s="14" t="s">
+      <c r="B344" s="13" t="s">
         <v>1451</v>
       </c>
-    </row>
-    <row r="344" customFormat="false" ht="34.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="13" t="s">
+      <c r="C344" s="14" t="s">
         <v>1452</v>
       </c>
-      <c r="B344" s="13" t="s">
+      <c r="D344" s="14" t="s">
         <v>1453</v>
-      </c>
-      <c r="C344" s="14" t="s">
-        <v>1454</v>
-      </c>
-      <c r="D344" s="14" t="s">
-        <v>1455</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="34.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="13" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B345" s="13" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C345" s="14" t="s">
         <v>1456</v>
       </c>
-      <c r="B345" s="13" t="s">
+      <c r="D345" s="14" t="s">
         <v>1457</v>
       </c>
-      <c r="C345" s="14" t="s">
+    </row>
+    <row r="346" customFormat="false" ht="34.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="13" t="s">
         <v>1458</v>
       </c>
-      <c r="D345" s="14" t="s">
+      <c r="B346" s="13" t="s">
         <v>1459</v>
       </c>
-    </row>
-    <row r="346" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="13" t="s">
+      <c r="C346" s="14" t="s">
         <v>1460</v>
       </c>
-      <c r="B346" s="13" t="s">
+      <c r="D346" s="14" t="s">
         <v>1461</v>
-      </c>
-      <c r="C346" s="14" t="s">
-        <v>1462</v>
-      </c>
-      <c r="D346" s="14" t="s">
-        <v>1463</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B347" s="13" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C347" s="14" t="s">
         <v>1464</v>
       </c>
-      <c r="B347" s="13" t="s">
+      <c r="D347" s="14" t="s">
         <v>1465</v>
-      </c>
-      <c r="C347" s="14" t="s">
-        <v>1466</v>
-      </c>
-      <c r="D347" s="14" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="13" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B348" s="13" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C348" s="14" t="s">
         <v>1468</v>
       </c>
-      <c r="B348" s="13" t="s">
+      <c r="D348" s="14" t="s">
         <v>1469</v>
       </c>
-      <c r="C348" s="14" t="s">
+    </row>
+    <row r="349" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="13" t="s">
         <v>1470</v>
       </c>
-      <c r="D348" s="14" t="s">
+      <c r="B349" s="13" t="s">
         <v>1471</v>
       </c>
-    </row>
-    <row r="349" customFormat="false" ht="34.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="13" t="s">
+      <c r="C349" s="14" t="s">
         <v>1472</v>
       </c>
-      <c r="B349" s="13" t="s">
+      <c r="D349" s="14" t="s">
         <v>1473</v>
       </c>
-      <c r="C349" s="14" t="s">
+    </row>
+    <row r="350" customFormat="false" ht="34.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="13" t="s">
         <v>1474</v>
       </c>
-      <c r="D349" s="14" t="s">
+      <c r="B350" s="13" t="s">
         <v>1475</v>
       </c>
-    </row>
-    <row r="350" customFormat="false" ht="16.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A350" s="13" t="s">
+      <c r="C350" s="14" t="s">
         <v>1476</v>
       </c>
-      <c r="B350" s="16" t="s">
+      <c r="D350" s="14" t="s">
         <v>1477</v>
       </c>
-      <c r="C350" s="14" t="s">
+    </row>
+    <row r="351" customFormat="false" ht="16.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A351" s="13" t="s">
         <v>1478</v>
       </c>
-      <c r="D350" s="14" t="s">
+      <c r="B351" s="16" t="s">
         <v>1479</v>
       </c>
-    </row>
-    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="13" t="s">
+      <c r="C351" s="14" t="s">
         <v>1480</v>
       </c>
-      <c r="B351" s="13" t="s">
+      <c r="D351" s="14" t="s">
         <v>1481</v>
-      </c>
-      <c r="C351" s="13" t="s">
-        <v>1482</v>
-      </c>
-      <c r="D351" s="13" t="s">
-        <v>1483</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="13" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B352" s="13" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C352" s="13" t="s">
         <v>1484</v>
       </c>
-      <c r="B352" s="13" t="s">
+      <c r="D352" s="13" t="s">
         <v>1485</v>
       </c>
-      <c r="C352" s="13" t="s">
+    </row>
+    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="13" t="s">
         <v>1486</v>
       </c>
-      <c r="D352" s="13" t="s">
+      <c r="B353" s="13" t="s">
         <v>1487</v>
       </c>
-    </row>
-    <row r="353" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="13" t="s">
+      <c r="C353" s="13" t="s">
         <v>1488</v>
       </c>
-      <c r="B353" s="13" t="s">
+      <c r="D353" s="13" t="s">
         <v>1489</v>
-      </c>
-      <c r="C353" s="14" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D353" s="14" t="s">
-        <v>1088</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35589,10 +35589,10 @@
         <v>1491</v>
       </c>
       <c r="C354" s="14" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="D354" s="14" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35603,14 +35603,28 @@
         <v>1493</v>
       </c>
       <c r="C355" s="14" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D355" s="14" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="13" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B356" s="13" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C356" s="14" t="s">
         <v>1095</v>
       </c>
-      <c r="D355" s="14" t="s">
+      <c r="D356" s="14" t="s">
         <v>1096</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:D1 B251:D259 B263:D263 B266:D291 B351:B1048576 C69:D212 C225:D225 C249:D340 D356:D1048576 C351:D352 C227:D230 C354:C1048576 B1:B349 C219:D222 C239:D239 C1:D64 C246:C247">
+  <conditionalFormatting sqref="B1:D1 B251:D259 B263:D263 B266:D291 B352:B1048576 C69:D212 C225:D225 C249:D341 D357:D1048576 C352:D353 C227:D230 C355:C1048576 B1:B350 C219:D222 C239:D239 C1:D64 C246:C247">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>

--- a/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
+++ b/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2578" uniqueCount="1496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2582" uniqueCount="1500">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -3523,6 +3523,18 @@
   </si>
   <si>
     <t xml:space="preserve">15a. Ikiwa mwaka haujulikani tafadhali jaza umri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q15b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16b. Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16b. Género</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16b. Jinsia</t>
   </si>
   <si>
     <t xml:space="preserve">q16</t>
@@ -4868,7 +4880,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.17578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="8.69"/>
   </cols>
@@ -5919,7 +5931,7 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.17578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.67"/>
@@ -7403,12 +7415,12 @@
   <dimension ref="A1:Y1011"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B213" activeCellId="0" sqref="B213"/>
+      <selection pane="bottomLeft" activeCell="A82" activeCellId="0" sqref="A82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.17578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.16"/>
@@ -11198,7 +11210,7 @@
       <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.17578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.79"/>
@@ -29626,7 +29638,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.17578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.04"/>
@@ -30760,12 +30772,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D356"/>
+  <dimension ref="A1:D357"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A299" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D315" activeCellId="0" sqref="D315"/>
+      <selection pane="bottomLeft" activeCell="D270" activeCellId="0" sqref="D270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.41015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -34444,38 +34456,38 @@
         <v>1170</v>
       </c>
       <c r="B270" s="13" t="s">
-        <v>1119</v>
+        <v>1171</v>
       </c>
       <c r="C270" s="13" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="D270" s="13" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="13" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B271" s="13" t="s">
-        <v>1174</v>
+        <v>1119</v>
       </c>
       <c r="C271" s="13" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="D271" s="13" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="13" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="B272" s="13" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="C272" s="13" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="D272" s="13" t="s">
         <v>1178</v>
@@ -34556,27 +34568,27 @@
         <v>1199</v>
       </c>
       <c r="B278" s="13" t="s">
-        <v>1119</v>
+        <v>1200</v>
       </c>
       <c r="C278" s="13" t="s">
-        <v>1171</v>
+        <v>1201</v>
       </c>
       <c r="D278" s="13" t="s">
-        <v>1172</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="13" t="s">
-        <v>1200</v>
+        <v>1203</v>
       </c>
       <c r="B279" s="13" t="s">
-        <v>1201</v>
+        <v>1119</v>
       </c>
       <c r="C279" s="13" t="s">
-        <v>1202</v>
+        <v>1175</v>
       </c>
       <c r="D279" s="13" t="s">
-        <v>1203</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34747,17 +34759,17 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="13" t="s">
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="13" t="s">
         <v>1252</v>
       </c>
-      <c r="B293" s="13" t="s">
+      <c r="B292" s="13" t="s">
         <v>1253</v>
       </c>
-      <c r="C293" s="13" t="s">
+      <c r="C292" s="13" t="s">
         <v>1254</v>
       </c>
-      <c r="D293" s="13" t="s">
+      <c r="D292" s="13" t="s">
         <v>1255</v>
       </c>
     </row>
@@ -35090,18 +35102,18 @@
       <c r="B317" s="13" t="s">
         <v>1349</v>
       </c>
+      <c r="C317" s="13" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D317" s="13" t="s">
+        <v>1351</v>
+      </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="13" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="B318" s="13" t="s">
-        <v>1351</v>
-      </c>
-      <c r="C318" s="13" t="s">
-        <v>1352</v>
-      </c>
-      <c r="D318" s="13" t="s">
         <v>1353</v>
       </c>
     </row>
@@ -35413,17 +35425,17 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="13" t="s">
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="13" t="s">
         <v>1442</v>
       </c>
-      <c r="B342" s="13" t="s">
+      <c r="B341" s="13" t="s">
         <v>1443</v>
       </c>
-      <c r="C342" s="14" t="s">
+      <c r="C341" s="13" t="s">
         <v>1444</v>
       </c>
-      <c r="D342" s="14" t="s">
+      <c r="D341" s="13" t="s">
         <v>1445</v>
       </c>
     </row>
@@ -35455,7 +35467,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="34.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="13" t="s">
         <v>1454</v>
       </c>
@@ -35483,7 +35495,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="34.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="13" t="s">
         <v>1462</v>
       </c>
@@ -35525,7 +35537,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="34.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="13" t="s">
         <v>1474</v>
       </c>
@@ -35539,11 +35551,11 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="16.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="34.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="13" t="s">
         <v>1478</v>
       </c>
-      <c r="B351" s="16" t="s">
+      <c r="B351" s="13" t="s">
         <v>1479</v>
       </c>
       <c r="C351" s="14" t="s">
@@ -35553,17 +35565,17 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="16.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A352" s="13" t="s">
         <v>1482</v>
       </c>
-      <c r="B352" s="13" t="s">
+      <c r="B352" s="16" t="s">
         <v>1483</v>
       </c>
-      <c r="C352" s="13" t="s">
+      <c r="C352" s="14" t="s">
         <v>1484</v>
       </c>
-      <c r="D352" s="13" t="s">
+      <c r="D352" s="14" t="s">
         <v>1485</v>
       </c>
     </row>
@@ -35581,50 +35593,64 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="13" t="s">
         <v>1490</v>
       </c>
       <c r="B354" s="13" t="s">
         <v>1491</v>
       </c>
-      <c r="C354" s="14" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D354" s="14" t="s">
-        <v>1088</v>
+      <c r="C354" s="13" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D354" s="13" t="s">
+        <v>1493</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="13" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="B355" s="13" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="C355" s="14" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="D355" s="14" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="13" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="B356" s="13" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="C356" s="14" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D356" s="14" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="13" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B357" s="13" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C357" s="14" t="s">
         <v>1095</v>
       </c>
-      <c r="D356" s="14" t="s">
+      <c r="D357" s="14" t="s">
         <v>1096</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:D1 B251:D259 B263:D263 B266:D291 B352:B1048576 C69:D212 C225:D225 C249:D341 D357:D1048576 C352:D353 C227:D230 C355:C1048576 B1:B350 C219:D222 C239:D239 C1:D64 C246:C247">
+  <conditionalFormatting sqref="B1:D1 B251:D259 B263:D263 B266:D292 B353:B1048576 C69:D212 C225:D225 C249:D342 D358:D1048576 C353:D354 C227:D230 C356:C1048576 B1:B351 C219:D222 C239:D239 C1:D64 C246:C247">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>

--- a/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
+++ b/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2582" uniqueCount="1500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2590" uniqueCount="1506">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -4525,6 +4525,24 @@
   </si>
   <si>
     <t xml:space="preserve">Year entered must be a number from 1920 to 2021. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hh_head_first_hint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The household head should be the first member added and must be a resident member. His/her ExtID should end in -001 unless he/she has an existing ID assigned from the minicensus. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">check_all_that_apply_hint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Check all that apply)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Assinalar todas as opções que se apliquem)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Chagua yote inayohusika)</t>
   </si>
 </sst>
 </file>
@@ -4534,7 +4552,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4598,6 +4616,19 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -4693,7 +4724,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4759,6 +4790,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4876,11 +4915,11 @@
   </sheetPr>
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.17578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="8.69"/>
   </cols>
@@ -5927,11 +5966,11 @@
   </sheetPr>
   <dimension ref="A1:Q1016"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.17578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.67"/>
@@ -7414,13 +7453,13 @@
   </sheetPr>
   <dimension ref="A1:Y1011"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A82" activeCellId="0" sqref="A82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.17578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.16"/>
@@ -11206,11 +11245,11 @@
   </sheetPr>
   <dimension ref="A1:Y763"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.17578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.79"/>
@@ -29634,11 +29673,11 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.17578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.04"/>
@@ -30772,15 +30811,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D357"/>
+  <dimension ref="A1:D359"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A350" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D270" activeCellId="0" sqref="D270"/>
+      <selection pane="bottomLeft" activeCell="A359" activeCellId="0" sqref="A359"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.41015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.41796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="35.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="13" width="37.56"/>
@@ -35649,8 +35688,36 @@
         <v>1096</v>
       </c>
     </row>
+    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="17" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B358" s="13" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C358" s="13" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D358" s="13" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="13" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B359" s="13" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C359" s="18" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D359" s="18" t="s">
+        <v>1505</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:D1 B251:D259 B263:D263 B266:D292 B353:B1048576 C69:D212 C225:D225 C249:D342 D358:D1048576 C353:D354 C227:D230 C356:C1048576 B1:B351 C219:D222 C239:D239 C1:D64 C246:C247">
+  <conditionalFormatting sqref="B1:D1 B251:D259 B263:D263 B266:D292 B359:B1048576 C69:D212 C225:D225 C249:D342 D359:D1048576 C353:D354 C227:D230 C359:C1048576 B1:B351 C219:D222 C239:D239 C1:D64 C246:C247 B353:B357 C356:C357 B358:D358">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>

--- a/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
+++ b/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3464" uniqueCount="1791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3465" uniqueCount="1792">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -1744,6 +1744,9 @@
   </si>
   <si>
     <t xml:space="preserve">Kiswahili</t>
+  </si>
+  <si>
+    <t xml:space="preserve">showFooter</t>
   </si>
   <si>
     <t xml:space="preserve">string_token</t>
@@ -5769,7 +5772,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.23828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.25390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="8.69"/>
   </cols>
@@ -6820,7 +6823,7 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.67"/>
@@ -8309,7 +8312,7 @@
       <selection pane="bottomLeft" activeCell="A256" activeCellId="0" sqref="A256"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.16"/>
@@ -13549,7 +13552,7 @@
       <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.79"/>
@@ -31973,11 +31976,11 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.23828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.25390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.04"/>
@@ -32104,7 +32107,14 @@
         <v>572</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -33113,7 +33123,7 @@
   </sheetPr>
   <dimension ref="A1:D505"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A358" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="B396" activeCellId="0" sqref="B396"/>
@@ -33128,16 +33138,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33145,13 +33155,13 @@
         <v>81</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33162,10 +33172,10 @@
         <v>130</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33173,13 +33183,13 @@
         <v>42</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33187,13 +33197,13 @@
         <v>85</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33201,13 +33211,13 @@
         <v>98</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33215,13 +33225,13 @@
         <v>79</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33229,13 +33239,13 @@
         <v>61</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33243,27 +33253,27 @@
         <v>152</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33271,13 +33281,13 @@
         <v>88</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33285,13 +33295,13 @@
         <v>89</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33299,13 +33309,13 @@
         <v>90</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33313,13 +33323,13 @@
         <v>91</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33327,13 +33337,13 @@
         <v>92</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33341,13 +33351,13 @@
         <v>93</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33355,13 +33365,13 @@
         <v>94</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33369,13 +33379,13 @@
         <v>95</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33383,13 +33393,13 @@
         <v>96</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33397,13 +33407,13 @@
         <v>97</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33411,13 +33421,13 @@
         <v>100</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33428,10 +33438,10 @@
         <v>101</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33439,13 +33449,13 @@
         <v>102</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33453,13 +33463,13 @@
         <v>103</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33470,10 +33480,10 @@
         <v>104</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33484,10 +33494,10 @@
         <v>105</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33498,10 +33508,10 @@
         <v>106</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33509,13 +33519,13 @@
         <v>107</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33523,13 +33533,13 @@
         <v>108</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33537,13 +33547,13 @@
         <v>109</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33554,10 +33564,10 @@
         <v>110</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33565,13 +33575,13 @@
         <v>112</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33579,13 +33589,13 @@
         <v>113</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33593,13 +33603,13 @@
         <v>118</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33607,13 +33617,13 @@
         <v>119</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33621,13 +33631,13 @@
         <v>120</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33635,13 +33645,13 @@
         <v>121</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33649,13 +33659,13 @@
         <v>123</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33663,13 +33673,13 @@
         <v>124</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33677,13 +33687,13 @@
         <v>125</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33691,13 +33701,13 @@
         <v>126</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33705,13 +33715,13 @@
         <v>128</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33719,13 +33729,13 @@
         <v>129</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33733,13 +33743,13 @@
         <v>132</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33750,10 +33760,10 @@
         <v>133</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33761,13 +33771,13 @@
         <v>134</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33775,13 +33785,13 @@
         <v>135</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33789,13 +33799,13 @@
         <v>136</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33806,10 +33816,10 @@
         <v>137</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33823,7 +33833,7 @@
         <v>138</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33837,7 +33847,7 @@
         <v>139</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33848,10 +33858,10 @@
         <v>140</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33859,13 +33869,13 @@
         <v>141</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33873,13 +33883,13 @@
         <v>142</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33893,7 +33903,7 @@
         <v>143</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33904,10 +33914,10 @@
         <v>144</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33918,10 +33928,10 @@
         <v>146</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33932,10 +33942,10 @@
         <v>147</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33943,13 +33953,13 @@
         <v>148</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33957,13 +33967,13 @@
         <v>149</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33974,10 +33984,10 @@
         <v>150</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33988,10 +33998,10 @@
         <v>151</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33999,13 +34009,13 @@
         <v>154</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34013,13 +34023,13 @@
         <v>155</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34027,13 +34037,13 @@
         <v>156</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34041,13 +34051,13 @@
         <v>158</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34055,13 +34065,13 @@
         <v>159</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34069,13 +34079,13 @@
         <v>160</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34083,13 +34093,13 @@
         <v>161</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34097,13 +34107,13 @@
         <v>163</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34114,7 +34124,7 @@
         <v>164</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D72" s="13" t="s">
         <v>164</v>
@@ -34125,13 +34135,13 @@
         <v>165</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34139,13 +34149,13 @@
         <v>166</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34156,10 +34166,10 @@
         <v>167</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34167,13 +34177,13 @@
         <v>168</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34181,13 +34191,13 @@
         <v>169</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34195,13 +34205,13 @@
         <v>170</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34209,13 +34219,13 @@
         <v>171</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34223,13 +34233,13 @@
         <v>172</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34237,13 +34247,13 @@
         <v>173</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34251,13 +34261,13 @@
         <v>175</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34265,13 +34275,13 @@
         <v>176</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34282,10 +34292,10 @@
         <v>178</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34296,10 +34306,10 @@
         <v>179</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34310,10 +34320,10 @@
         <v>180</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34324,10 +34334,10 @@
         <v>181</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34338,10 +34348,10 @@
         <v>182</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34355,7 +34365,7 @@
         <v>183</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34366,10 +34376,10 @@
         <v>184</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34380,10 +34390,10 @@
         <v>185</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34394,10 +34404,10 @@
         <v>186</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D92" s="13" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34408,10 +34418,10 @@
         <v>187</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34422,10 +34432,10 @@
         <v>189</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34436,10 +34446,10 @@
         <v>190</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34450,10 +34460,10 @@
         <v>191</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34464,10 +34474,10 @@
         <v>192</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34475,13 +34485,13 @@
         <v>194</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34489,13 +34499,13 @@
         <v>195</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34503,13 +34513,13 @@
         <v>197</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34517,13 +34527,13 @@
         <v>198</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34531,13 +34541,13 @@
         <v>199</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34548,10 +34558,10 @@
         <v>201</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34562,10 +34572,10 @@
         <v>202</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D104" s="13" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34576,10 +34586,10 @@
         <v>203</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="D105" s="13" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34590,10 +34600,10 @@
         <v>204</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34604,10 +34614,10 @@
         <v>206</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34618,10 +34628,10 @@
         <v>207</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34632,10 +34642,10 @@
         <v>208</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34643,13 +34653,13 @@
         <v>210</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34657,13 +34667,13 @@
         <v>211</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34671,13 +34681,13 @@
         <v>212</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="D112" s="13" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34685,13 +34695,13 @@
         <v>213</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34699,13 +34709,13 @@
         <v>214</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34713,13 +34723,13 @@
         <v>215</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34727,13 +34737,13 @@
         <v>216</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34741,13 +34751,13 @@
         <v>217</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34755,13 +34765,13 @@
         <v>218</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34769,13 +34779,13 @@
         <v>219</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34783,13 +34793,13 @@
         <v>220</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="D120" s="13" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34797,13 +34807,13 @@
         <v>221</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34811,13 +34821,13 @@
         <v>222</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="D122" s="13" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34825,13 +34835,13 @@
         <v>223</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="D123" s="13" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34839,13 +34849,13 @@
         <v>225</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="D124" s="13" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34853,13 +34863,13 @@
         <v>226</v>
       </c>
       <c r="B125" s="13" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="D125" s="13" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34870,7 +34880,7 @@
         <v>228</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="D126" s="13" t="s">
         <v>228</v>
@@ -34884,10 +34894,10 @@
         <v>229</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="D127" s="13" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34898,10 +34908,10 @@
         <v>230</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="D128" s="13" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34909,13 +34919,13 @@
         <v>231</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="D129" s="13" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34926,10 +34936,10 @@
         <v>233</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="D130" s="13" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34940,10 +34950,10 @@
         <v>234</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="D131" s="13" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34951,13 +34961,13 @@
         <v>235</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="D132" s="13" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34968,10 +34978,10 @@
         <v>236</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="D133" s="13" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34982,10 +34992,10 @@
         <v>237</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="D134" s="13" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34993,13 +35003,13 @@
         <v>238</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C135" s="13" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="D135" s="13" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35007,13 +35017,13 @@
         <v>239</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C136" s="13" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="D136" s="13" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35021,13 +35031,13 @@
         <v>241</v>
       </c>
       <c r="B137" s="13" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="C137" s="13" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="D137" s="13" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35035,13 +35045,13 @@
         <v>242</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C138" s="13" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="D138" s="13" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35049,13 +35059,13 @@
         <v>243</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C139" s="13" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="D139" s="13" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35063,13 +35073,13 @@
         <v>244</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C140" s="13" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="D140" s="13" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35077,13 +35087,13 @@
         <v>246</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C141" s="13" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D141" s="13" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35091,13 +35101,13 @@
         <v>247</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="D142" s="13" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35105,13 +35115,13 @@
         <v>248</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C143" s="13" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="D143" s="13" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35119,13 +35129,13 @@
         <v>249</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="D144" s="13" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35133,13 +35143,13 @@
         <v>250</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D145" s="13" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35147,13 +35157,13 @@
         <v>251</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="D146" s="13" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35161,13 +35171,13 @@
         <v>252</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="D147" s="13" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35175,13 +35185,13 @@
         <v>253</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="D148" s="13" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35189,13 +35199,13 @@
         <v>254</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D149" s="13" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35203,13 +35213,13 @@
         <v>255</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D150" s="13" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35217,13 +35227,13 @@
         <v>256</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="C151" s="13" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="D151" s="13" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35231,13 +35241,13 @@
         <v>257</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="D152" s="13" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35245,13 +35255,13 @@
         <v>258</v>
       </c>
       <c r="B153" s="13" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C153" s="13" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="D153" s="13" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35259,13 +35269,13 @@
         <v>259</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="D154" s="13" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35273,13 +35283,13 @@
         <v>260</v>
       </c>
       <c r="B155" s="13" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="D155" s="13" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35287,13 +35297,13 @@
         <v>262</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="C156" s="13" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="D156" s="13" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35301,13 +35311,13 @@
         <v>263</v>
       </c>
       <c r="B157" s="13" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="C157" s="13" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="D157" s="13" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35318,10 +35328,10 @@
         <v>265</v>
       </c>
       <c r="C158" s="13" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="D158" s="13" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35332,10 +35342,10 @@
         <v>266</v>
       </c>
       <c r="C159" s="13" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="D159" s="13" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35346,10 +35356,10 @@
         <v>267</v>
       </c>
       <c r="C160" s="13" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="D160" s="13" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35360,24 +35370,24 @@
         <v>268</v>
       </c>
       <c r="C161" s="13" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="D161" s="13" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="13" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D162" s="13" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35388,10 +35398,10 @@
         <v>270</v>
       </c>
       <c r="C163" s="13" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="D163" s="13" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35402,10 +35412,10 @@
         <v>271</v>
       </c>
       <c r="C164" s="13" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="D164" s="13" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35416,10 +35426,10 @@
         <v>272</v>
       </c>
       <c r="C165" s="13" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D165" s="13" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35430,10 +35440,10 @@
         <v>273</v>
       </c>
       <c r="C166" s="13" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D166" s="13" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35444,10 +35454,10 @@
         <v>274</v>
       </c>
       <c r="C167" s="13" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D167" s="13" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35472,10 +35482,10 @@
         <v>279</v>
       </c>
       <c r="C169" s="13" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="D169" s="13" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35497,13 +35507,13 @@
         <v>281</v>
       </c>
       <c r="B171" s="13" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="C171" s="13" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="D171" s="13" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35517,7 +35527,7 @@
         <v>282</v>
       </c>
       <c r="D172" s="13" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35525,13 +35535,13 @@
         <v>283</v>
       </c>
       <c r="B173" s="13" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C173" s="13" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="D173" s="13" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35542,7 +35552,7 @@
         <v>284</v>
       </c>
       <c r="C174" s="13" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="D174" s="13" t="s">
         <v>284</v>
@@ -35556,10 +35566,10 @@
         <v>285</v>
       </c>
       <c r="C175" s="13" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="D175" s="13" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35570,7 +35580,7 @@
         <v>286</v>
       </c>
       <c r="C176" s="13" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="D176" s="13" t="s">
         <v>286</v>
@@ -35584,7 +35594,7 @@
         <v>287</v>
       </c>
       <c r="C177" s="13" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D177" s="13" t="s">
         <v>287</v>
@@ -35595,13 +35605,13 @@
         <v>289</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="C178" s="13" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D178" s="13" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35612,10 +35622,10 @@
         <v>290</v>
       </c>
       <c r="C179" s="13" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D179" s="13" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35623,13 +35633,13 @@
         <v>291</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C180" s="13" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D180" s="13" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35640,10 +35650,10 @@
         <v>292</v>
       </c>
       <c r="C181" s="13" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D181" s="13" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35654,10 +35664,10 @@
         <v>293</v>
       </c>
       <c r="C182" s="13" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D182" s="13" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35665,13 +35675,13 @@
         <v>294</v>
       </c>
       <c r="B183" s="13" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="C183" s="13" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D183" s="13" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35682,10 +35692,10 @@
         <v>295</v>
       </c>
       <c r="C184" s="13" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D184" s="13" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35693,13 +35703,13 @@
         <v>296</v>
       </c>
       <c r="B185" s="13" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="C185" s="13" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D185" s="13" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35707,13 +35717,13 @@
         <v>297</v>
       </c>
       <c r="B186" s="13" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="C186" s="13" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D186" s="13" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35721,13 +35731,13 @@
         <v>298</v>
       </c>
       <c r="B187" s="13" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="C187" s="13" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D187" s="13" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35735,13 +35745,13 @@
         <v>299</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C188" s="13" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D188" s="13" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35749,13 +35759,13 @@
         <v>300</v>
       </c>
       <c r="B189" s="13" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="C189" s="13" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D189" s="13" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35763,13 +35773,13 @@
         <v>301</v>
       </c>
       <c r="B190" s="13" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C190" s="13" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D190" s="13" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35777,13 +35787,13 @@
         <v>302</v>
       </c>
       <c r="B191" s="13" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="C191" s="13" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D191" s="13" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35791,13 +35801,13 @@
         <v>304</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="C192" s="13" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="D192" s="13" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35805,13 +35815,13 @@
         <v>305</v>
       </c>
       <c r="B193" s="13" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C193" s="13" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="D193" s="13" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35819,13 +35829,13 @@
         <v>306</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="C194" s="13" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="D194" s="13" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35833,13 +35843,13 @@
         <v>307</v>
       </c>
       <c r="B195" s="13" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C195" s="13" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="D195" s="13" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35847,13 +35857,13 @@
         <v>308</v>
       </c>
       <c r="B196" s="13" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="C196" s="13" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D196" s="13" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35861,13 +35871,13 @@
         <v>309</v>
       </c>
       <c r="B197" s="13" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="C197" s="13" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="D197" s="13" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35875,13 +35885,13 @@
         <v>310</v>
       </c>
       <c r="B198" s="13" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="C198" s="13" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="D198" s="13" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35889,13 +35899,13 @@
         <v>311</v>
       </c>
       <c r="B199" s="13" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="C199" s="13" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="D199" s="13" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35903,13 +35913,13 @@
         <v>312</v>
       </c>
       <c r="B200" s="13" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="C200" s="13" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="D200" s="13" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35917,13 +35927,13 @@
         <v>313</v>
       </c>
       <c r="B201" s="13" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="C201" s="13" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="D201" s="13" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35931,13 +35941,13 @@
         <v>314</v>
       </c>
       <c r="B202" s="13" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="C202" s="13" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D202" s="13" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35945,13 +35955,13 @@
         <v>315</v>
       </c>
       <c r="B203" s="13" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="C203" s="13" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="D203" s="13" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35959,13 +35969,13 @@
         <v>316</v>
       </c>
       <c r="B204" s="13" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C204" s="13" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D204" s="13" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35973,13 +35983,13 @@
         <v>317</v>
       </c>
       <c r="B205" s="13" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C205" s="13" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="D205" s="13" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35987,13 +35997,13 @@
         <v>318</v>
       </c>
       <c r="B206" s="13" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="C206" s="13" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="D206" s="13" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36001,13 +36011,13 @@
         <v>319</v>
       </c>
       <c r="B207" s="13" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="C207" s="13" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D207" s="13" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36015,13 +36025,13 @@
         <v>320</v>
       </c>
       <c r="B208" s="13" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="C208" s="13" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="D208" s="13" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36029,13 +36039,13 @@
         <v>321</v>
       </c>
       <c r="B209" s="13" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="C209" s="13" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="D209" s="13" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36043,13 +36053,13 @@
         <v>322</v>
       </c>
       <c r="B210" s="13" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C210" s="13" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D210" s="13" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36057,13 +36067,13 @@
         <v>323</v>
       </c>
       <c r="B211" s="13" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="C211" s="13" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="D211" s="13" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36071,13 +36081,13 @@
         <v>324</v>
       </c>
       <c r="B212" s="13" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="C212" s="13" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="D212" s="13" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36085,13 +36095,13 @@
         <v>325</v>
       </c>
       <c r="B213" s="13" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C213" s="13" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="D213" s="13" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36099,13 +36109,13 @@
         <v>326</v>
       </c>
       <c r="B214" s="13" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C214" s="13" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="D214" s="13" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36113,13 +36123,13 @@
         <v>327</v>
       </c>
       <c r="B215" s="13" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="C215" s="13" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="D215" s="13" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36127,13 +36137,13 @@
         <v>328</v>
       </c>
       <c r="B216" s="13" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="C216" s="13" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="D216" s="13" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36141,13 +36151,13 @@
         <v>329</v>
       </c>
       <c r="B217" s="13" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C217" s="13" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="D217" s="13" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36155,13 +36165,13 @@
         <v>330</v>
       </c>
       <c r="B218" s="13" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C218" s="13" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="D218" s="13" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36169,13 +36179,13 @@
         <v>331</v>
       </c>
       <c r="B219" s="13" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C219" s="13" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="D219" s="13" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36183,13 +36193,13 @@
         <v>332</v>
       </c>
       <c r="B220" s="13" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="C220" s="13" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="D220" s="13" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36197,13 +36207,13 @@
         <v>333</v>
       </c>
       <c r="B221" s="13" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="C221" s="13" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="D221" s="13" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36211,13 +36221,13 @@
         <v>334</v>
       </c>
       <c r="B222" s="13" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="C222" s="13" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="D222" s="13" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36225,13 +36235,13 @@
         <v>336</v>
       </c>
       <c r="B223" s="13" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="C223" s="13" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="D223" s="13" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36239,13 +36249,13 @@
         <v>337</v>
       </c>
       <c r="B224" s="13" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C224" s="13" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="D224" s="13" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36253,13 +36263,13 @@
         <v>338</v>
       </c>
       <c r="B225" s="13" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="C225" s="13" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="D225" s="13" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36267,13 +36277,13 @@
         <v>339</v>
       </c>
       <c r="B226" s="13" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C226" s="13" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="D226" s="13" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36281,13 +36291,13 @@
         <v>340</v>
       </c>
       <c r="B227" s="13" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="C227" s="13" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D227" s="13" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36295,13 +36305,13 @@
         <v>341</v>
       </c>
       <c r="B228" s="13" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="C228" s="13" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="D228" s="13" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36309,13 +36319,13 @@
         <v>342</v>
       </c>
       <c r="B229" s="13" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="C229" s="13" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="D229" s="13" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36323,13 +36333,13 @@
         <v>343</v>
       </c>
       <c r="B230" s="13" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="C230" s="13" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="D230" s="13" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36337,13 +36347,13 @@
         <v>344</v>
       </c>
       <c r="B231" s="13" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="C231" s="13" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="D231" s="13" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36351,13 +36361,13 @@
         <v>345</v>
       </c>
       <c r="B232" s="13" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="C232" s="13" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="D232" s="13" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36365,13 +36375,13 @@
         <v>346</v>
       </c>
       <c r="B233" s="13" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="C233" s="13" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D233" s="13" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36379,13 +36389,13 @@
         <v>347</v>
       </c>
       <c r="B234" s="13" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="C234" s="13" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="D234" s="13" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36393,13 +36403,13 @@
         <v>349</v>
       </c>
       <c r="B235" s="13" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="C235" s="13" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="D235" s="13" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36407,13 +36417,13 @@
         <v>350</v>
       </c>
       <c r="B236" s="13" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="C236" s="13" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="D236" s="13" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36421,13 +36431,13 @@
         <v>351</v>
       </c>
       <c r="B237" s="13" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="C237" s="13" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="D237" s="13" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36435,13 +36445,13 @@
         <v>352</v>
       </c>
       <c r="B238" s="13" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C238" s="13" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="D238" s="13" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36449,13 +36459,13 @@
         <v>353</v>
       </c>
       <c r="B239" s="13" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="C239" s="13" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="D239" s="13" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36463,13 +36473,13 @@
         <v>354</v>
       </c>
       <c r="B240" s="13" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C240" s="13" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="D240" s="13" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36477,13 +36487,13 @@
         <v>355</v>
       </c>
       <c r="B241" s="13" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="C241" s="13" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="D241" s="13" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36491,13 +36501,13 @@
         <v>356</v>
       </c>
       <c r="B242" s="13" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="C242" s="13" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="D242" s="13" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36505,13 +36515,13 @@
         <v>357</v>
       </c>
       <c r="B243" s="13" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C243" s="13" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="D243" s="13" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36519,13 +36529,13 @@
         <v>358</v>
       </c>
       <c r="B244" s="13" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="C244" s="13" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="D244" s="13" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36533,13 +36543,13 @@
         <v>359</v>
       </c>
       <c r="B245" s="13" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="C245" s="13" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="D245" s="13" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36547,13 +36557,13 @@
         <v>360</v>
       </c>
       <c r="B246" s="13" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="C246" s="13" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="D246" s="13" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36561,13 +36571,13 @@
         <v>361</v>
       </c>
       <c r="B247" s="13" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="C247" s="13" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="D247" s="13" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36575,13 +36585,13 @@
         <v>362</v>
       </c>
       <c r="B248" s="13" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="C248" s="13" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="D248" s="13" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36589,13 +36599,13 @@
         <v>363</v>
       </c>
       <c r="B249" s="13" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="C249" s="13" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="D249" s="13" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36603,13 +36613,13 @@
         <v>364</v>
       </c>
       <c r="B250" s="13" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="C250" s="13" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="D250" s="13" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36617,13 +36627,13 @@
         <v>365</v>
       </c>
       <c r="B251" s="13" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C251" s="13" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="D251" s="13" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36631,13 +36641,13 @@
         <v>366</v>
       </c>
       <c r="B252" s="13" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="C252" s="13" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="D252" s="13" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36645,13 +36655,13 @@
         <v>367</v>
       </c>
       <c r="B253" s="13" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C253" s="13" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="D253" s="13" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36659,13 +36669,13 @@
         <v>368</v>
       </c>
       <c r="B254" s="13" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="C254" s="13" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="D254" s="13" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36673,13 +36683,13 @@
         <v>369</v>
       </c>
       <c r="B255" s="13" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="C255" s="13" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="D255" s="13" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36687,13 +36697,13 @@
         <v>370</v>
       </c>
       <c r="B256" s="13" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="C256" s="13" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="D256" s="13" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36701,13 +36711,13 @@
         <v>371</v>
       </c>
       <c r="B257" s="13" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="C257" s="13" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="D257" s="13" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36715,13 +36725,13 @@
         <v>372</v>
       </c>
       <c r="B258" s="13" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="C258" s="13" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="D258" s="13" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36729,13 +36739,13 @@
         <v>373</v>
       </c>
       <c r="B259" s="13" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="C259" s="13" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="D259" s="13" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36743,13 +36753,13 @@
         <v>374</v>
       </c>
       <c r="B260" s="13" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="C260" s="13" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="D260" s="13" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36757,13 +36767,13 @@
         <v>375</v>
       </c>
       <c r="B261" s="13" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="C261" s="13" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="D261" s="13" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36771,13 +36781,13 @@
         <v>376</v>
       </c>
       <c r="B262" s="13" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="C262" s="13" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="D262" s="13" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36785,13 +36795,13 @@
         <v>377</v>
       </c>
       <c r="B263" s="13" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="C263" s="13" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="D263" s="13" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36799,13 +36809,13 @@
         <v>378</v>
       </c>
       <c r="B264" s="13" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="C264" s="13" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="D264" s="13" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36813,13 +36823,13 @@
         <v>379</v>
       </c>
       <c r="B265" s="13" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="C265" s="13" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="D265" s="13" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36827,13 +36837,13 @@
         <v>380</v>
       </c>
       <c r="B266" s="13" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="C266" s="13" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="D266" s="13" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36841,13 +36851,13 @@
         <v>381</v>
       </c>
       <c r="B267" s="13" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="C267" s="13" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="D267" s="13" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36855,13 +36865,13 @@
         <v>382</v>
       </c>
       <c r="B268" s="13" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="C268" s="13" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="D268" s="13" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36869,13 +36879,13 @@
         <v>383</v>
       </c>
       <c r="B269" s="13" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="C269" s="13" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="D269" s="13" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36883,13 +36893,13 @@
         <v>384</v>
       </c>
       <c r="B270" s="13" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C270" s="13" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="D270" s="13" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36897,13 +36907,13 @@
         <v>385</v>
       </c>
       <c r="B271" s="13" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="C271" s="13" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="D271" s="13" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36911,13 +36921,13 @@
         <v>386</v>
       </c>
       <c r="B272" s="13" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="C272" s="13" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="D272" s="13" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36925,13 +36935,13 @@
         <v>387</v>
       </c>
       <c r="B273" s="13" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="C273" s="13" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="D273" s="13" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36939,13 +36949,13 @@
         <v>388</v>
       </c>
       <c r="B274" s="13" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="C274" s="13" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="D274" s="13" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36953,13 +36963,13 @@
         <v>389</v>
       </c>
       <c r="B275" s="13" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="C275" s="13" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="D275" s="13" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36967,13 +36977,13 @@
         <v>390</v>
       </c>
       <c r="B276" s="13" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="C276" s="13" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="D276" s="13" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36981,13 +36991,13 @@
         <v>391</v>
       </c>
       <c r="B277" s="13" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="C277" s="13" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="D277" s="13" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36995,13 +37005,13 @@
         <v>392</v>
       </c>
       <c r="B278" s="13" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="C278" s="13" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="D278" s="13" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37009,13 +37019,13 @@
         <v>393</v>
       </c>
       <c r="B279" s="13" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C279" s="13" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="D279" s="13" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37023,13 +37033,13 @@
         <v>394</v>
       </c>
       <c r="B280" s="13" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="C280" s="13" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="D280" s="13" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37037,13 +37047,13 @@
         <v>395</v>
       </c>
       <c r="B281" s="13" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="C281" s="13" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="D281" s="13" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37051,13 +37061,13 @@
         <v>396</v>
       </c>
       <c r="B282" s="13" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="C282" s="13" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="D282" s="13" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37065,13 +37075,13 @@
         <v>397</v>
       </c>
       <c r="B283" s="13" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="C283" s="13" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="D283" s="13" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37079,13 +37089,13 @@
         <v>398</v>
       </c>
       <c r="B284" s="13" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="C284" s="13" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="D284" s="13" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37093,13 +37103,13 @@
         <v>399</v>
       </c>
       <c r="B285" s="13" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="C285" s="13" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="D285" s="13" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37107,13 +37117,13 @@
         <v>400</v>
       </c>
       <c r="B286" s="13" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="C286" s="13" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="D286" s="13" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37121,13 +37131,13 @@
         <v>401</v>
       </c>
       <c r="B287" s="13" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="C287" s="13" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="D287" s="13" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37135,13 +37145,13 @@
         <v>402</v>
       </c>
       <c r="B288" s="13" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="C288" s="13" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="D288" s="13" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37149,13 +37159,13 @@
         <v>403</v>
       </c>
       <c r="B289" s="13" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="C289" s="13" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="D289" s="13" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37163,13 +37173,13 @@
         <v>404</v>
       </c>
       <c r="B290" s="13" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="C290" s="13" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="D290" s="13" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37177,13 +37187,13 @@
         <v>405</v>
       </c>
       <c r="B291" s="13" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="C291" s="13" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="D291" s="13" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37191,13 +37201,13 @@
         <v>406</v>
       </c>
       <c r="B292" s="13" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="C292" s="13" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="D292" s="13" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37205,13 +37215,13 @@
         <v>407</v>
       </c>
       <c r="B293" s="13" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="C293" s="13" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="D293" s="13" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37219,13 +37229,13 @@
         <v>408</v>
       </c>
       <c r="B294" s="13" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="C294" s="13" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="D294" s="13" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37233,13 +37243,13 @@
         <v>409</v>
       </c>
       <c r="B295" s="13" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="C295" s="13" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="D295" s="13" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37247,13 +37257,13 @@
         <v>410</v>
       </c>
       <c r="B296" s="13" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="C296" s="13" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="D296" s="13" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37261,13 +37271,13 @@
         <v>411</v>
       </c>
       <c r="B297" s="13" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="C297" s="13" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="D297" s="13" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37275,13 +37285,13 @@
         <v>412</v>
       </c>
       <c r="B298" s="13" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="C298" s="13" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="D298" s="13" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37289,13 +37299,13 @@
         <v>413</v>
       </c>
       <c r="B299" s="13" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="C299" s="13" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D299" s="13" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37303,13 +37313,13 @@
         <v>414</v>
       </c>
       <c r="B300" s="13" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="C300" s="13" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="D300" s="13" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37317,13 +37327,13 @@
         <v>415</v>
       </c>
       <c r="B301" s="13" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="C301" s="13" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="D301" s="13" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37331,13 +37341,13 @@
         <v>416</v>
       </c>
       <c r="B302" s="13" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="C302" s="13" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="D302" s="13" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37345,13 +37355,13 @@
         <v>417</v>
       </c>
       <c r="B303" s="13" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="C303" s="13" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="D303" s="13" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37359,13 +37369,13 @@
         <v>418</v>
       </c>
       <c r="B304" s="13" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="C304" s="13" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="D304" s="13" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37373,13 +37383,13 @@
         <v>419</v>
       </c>
       <c r="B305" s="13" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="C305" s="13" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="D305" s="13" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37387,13 +37397,13 @@
         <v>420</v>
       </c>
       <c r="B306" s="13" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="C306" s="13" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="D306" s="13" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37401,13 +37411,13 @@
         <v>421</v>
       </c>
       <c r="B307" s="13" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="C307" s="13" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="D307" s="13" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37415,13 +37425,13 @@
         <v>422</v>
       </c>
       <c r="B308" s="13" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="C308" s="13" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="D308" s="13" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37429,13 +37439,13 @@
         <v>423</v>
       </c>
       <c r="B309" s="13" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="C309" s="13" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D309" s="13" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37443,13 +37453,13 @@
         <v>424</v>
       </c>
       <c r="B310" s="13" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="C310" s="13" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="D310" s="13" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37457,13 +37467,13 @@
         <v>425</v>
       </c>
       <c r="B311" s="13" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="C311" s="13" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="D311" s="13" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37471,13 +37481,13 @@
         <v>426</v>
       </c>
       <c r="B312" s="13" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="C312" s="13" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="D312" s="13" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37485,13 +37495,13 @@
         <v>427</v>
       </c>
       <c r="B313" s="13" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="C313" s="13" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D313" s="13" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37499,13 +37509,13 @@
         <v>428</v>
       </c>
       <c r="B314" s="13" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="C314" s="13" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="D314" s="13" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37513,13 +37523,13 @@
         <v>429</v>
       </c>
       <c r="B315" s="13" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="C315" s="13" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="D315" s="13" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37527,13 +37537,13 @@
         <v>430</v>
       </c>
       <c r="B316" s="13" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="C316" s="13" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="D316" s="13" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37541,13 +37551,13 @@
         <v>431</v>
       </c>
       <c r="B317" s="13" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="C317" s="13" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="D317" s="13" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37555,13 +37565,13 @@
         <v>432</v>
       </c>
       <c r="B318" s="13" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="C318" s="13" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="D318" s="13" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37569,13 +37579,13 @@
         <v>433</v>
       </c>
       <c r="B319" s="13" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="C319" s="13" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="D319" s="13" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37583,13 +37593,13 @@
         <v>434</v>
       </c>
       <c r="B320" s="13" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="C320" s="13" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="D320" s="13" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37597,13 +37607,13 @@
         <v>435</v>
       </c>
       <c r="B321" s="13" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="C321" s="13" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="D321" s="13" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37611,13 +37621,13 @@
         <v>436</v>
       </c>
       <c r="B322" s="13" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="C322" s="13" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="D322" s="13" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37625,13 +37635,13 @@
         <v>437</v>
       </c>
       <c r="B323" s="13" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="C323" s="13" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="D323" s="13" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37639,13 +37649,13 @@
         <v>438</v>
       </c>
       <c r="B324" s="13" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="C324" s="13" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="D324" s="13" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37653,13 +37663,13 @@
         <v>439</v>
       </c>
       <c r="B325" s="13" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="C325" s="13" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="D325" s="13" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37667,13 +37677,13 @@
         <v>440</v>
       </c>
       <c r="B326" s="13" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="C326" s="13" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="D326" s="13" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37681,13 +37691,13 @@
         <v>441</v>
       </c>
       <c r="B327" s="13" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="C327" s="13" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="D327" s="13" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37695,13 +37705,13 @@
         <v>442</v>
       </c>
       <c r="B328" s="13" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="C328" s="13" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="D328" s="13" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37709,13 +37719,13 @@
         <v>443</v>
       </c>
       <c r="B329" s="13" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="C329" s="13" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="D329" s="13" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37723,13 +37733,13 @@
         <v>444</v>
       </c>
       <c r="B330" s="13" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="C330" s="13" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="D330" s="13" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37737,13 +37747,13 @@
         <v>445</v>
       </c>
       <c r="B331" s="13" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="C331" s="13" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="D331" s="13" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37751,13 +37761,13 @@
         <v>446</v>
       </c>
       <c r="B332" s="13" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="C332" s="13" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="D332" s="13" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37765,13 +37775,13 @@
         <v>447</v>
       </c>
       <c r="B333" s="13" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="C333" s="13" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="D333" s="13" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37779,13 +37789,13 @@
         <v>448</v>
       </c>
       <c r="B334" s="13" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="C334" s="13" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="D334" s="13" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37793,13 +37803,13 @@
         <v>449</v>
       </c>
       <c r="B335" s="13" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="C335" s="13" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="D335" s="13" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37807,181 +37817,181 @@
         <v>450</v>
       </c>
       <c r="B336" s="13" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="C336" s="13" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="D336" s="13" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="13" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="B338" s="13" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="C338" s="13" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="D338" s="13" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="13" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="B339" s="13" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="C339" s="13" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="D339" s="13" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="13" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="B340" s="13" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="C340" s="13" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="D340" s="13" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="13" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B341" s="13" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="C341" s="13" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="D341" s="13" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="13" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="B342" s="13" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="C342" s="13" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="D342" s="13" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="13" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="B344" s="13" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="C344" s="13" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="D344" s="13" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="13" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="B345" s="13" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="C345" s="13" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="D345" s="13" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="13" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="B346" s="13" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="C346" s="13" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="D346" s="13" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="13" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="B347" s="13" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="C347" s="13" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="D347" s="13" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="13" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B348" s="13" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="C348" s="13" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="D348" s="13" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="13" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="B349" s="13" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="C349" s="13" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="D349" s="13" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="13" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="B350" s="13" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="C350" s="13" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="D350" s="13" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37989,13 +37999,13 @@
         <v>33</v>
       </c>
       <c r="B352" s="13" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="C352" s="13" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D352" s="13" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38003,13 +38013,13 @@
         <v>44</v>
       </c>
       <c r="B353" s="13" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="C353" s="13" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D353" s="13" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38017,13 +38027,13 @@
         <v>50</v>
       </c>
       <c r="B354" s="13" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="C354" s="13" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D354" s="13" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38031,27 +38041,27 @@
         <v>72</v>
       </c>
       <c r="B355" s="13" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="C355" s="13" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="D355" s="13" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="13" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="B356" s="13" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="C356" s="13" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="D356" s="13" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38059,233 +38069,233 @@
         <v>471</v>
       </c>
       <c r="B357" s="13" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="C357" s="13" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D357" s="13" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="13" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="B358" s="13" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="C358" s="13" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D358" s="13" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="13" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="B359" s="13" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="C359" s="13" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="D359" s="13" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="13" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="B360" s="13" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="C360" s="13" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D360" s="13" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="13" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="B361" s="13" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="C361" s="15" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="D361" s="15" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="13" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="B362" s="13" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="C362" s="15" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="D362" s="15" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="13" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="B363" s="13" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="C363" s="16"/>
       <c r="D363" s="16"/>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="13" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B364" s="13" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="C364" s="13" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="D364" s="13" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="13" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="B365" s="13" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="C365" s="13" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="D365" s="13" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="13" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="B366" s="13" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="C366" s="13" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="D366" s="13" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="13" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="B367" s="13" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="C367" s="13" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="D367" s="13" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="13" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="B368" s="13" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="C368" s="15" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="D368" s="15" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="13" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="B369" s="13" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="C369" s="13" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="D369" s="13" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="13" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="B370" s="13" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="C370" s="13" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="D370" s="13" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="13" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="B371" s="13" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="C371" s="15" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="D371" s="15" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="13" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="B372" s="13" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="C372" s="13" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="D372" s="13" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="13" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="B373" s="13" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="C373" s="13" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D373" s="13" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38293,139 +38303,139 @@
         <v>27</v>
       </c>
       <c r="B374" s="13" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="C374" s="13" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="D374" s="13" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="13" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B375" s="13" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="C375" s="13" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="D375" s="13" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="13" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="B376" s="13" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="C376" s="13" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="D376" s="13" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="13" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B377" s="13" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="C377" s="13" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="D377" s="13" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="13" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B378" s="13" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="C378" s="13" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="D378" s="13" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="13" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="B379" s="13" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="C379" s="13" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="D379" s="13" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="13" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="B380" s="13" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="C380" s="13" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="D380" s="13" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="13" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="B381" s="13" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="C381" s="13" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="D381" s="13" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="13" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="B382" s="13" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="C382" s="15" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="D382" s="15" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="13" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="B383" s="13" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="C383" s="15" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="D383" s="15" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38433,13 +38443,13 @@
         <v>26</v>
       </c>
       <c r="B385" s="13" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="C385" s="15" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="D385" s="15" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="32.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38447,13 +38457,13 @@
         <v>30</v>
       </c>
       <c r="B386" s="13" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="C386" s="15" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="D386" s="15" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38461,13 +38471,13 @@
         <v>34</v>
       </c>
       <c r="B387" s="13" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="C387" s="13" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="D387" s="13" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38475,13 +38485,13 @@
         <v>45</v>
       </c>
       <c r="B388" s="13" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="C388" s="13" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="D388" s="13" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38489,85 +38499,85 @@
         <v>51</v>
       </c>
       <c r="B389" s="13" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="C389" s="13" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="D389" s="13" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="13" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="B390" s="13" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="C390" s="15" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="D390" s="15" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="13" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="B391" s="13" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="C391" s="15" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="D391" s="15" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="13" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="B392" s="13" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="C392" s="15" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="D392" s="15" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="13" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="B393" s="13" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="C393" s="13" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="D393" s="13" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="13" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="B394" s="13" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="13" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="B395" s="13" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38575,13 +38585,13 @@
         <v>24</v>
       </c>
       <c r="B397" s="13" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="C397" s="13" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="D397" s="13" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38589,13 +38599,13 @@
         <v>28</v>
       </c>
       <c r="B398" s="13" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="C398" s="13" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="D398" s="13" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38603,13 +38613,13 @@
         <v>32</v>
       </c>
       <c r="B399" s="13" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="C399" s="13" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="D399" s="13" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38617,13 +38627,13 @@
         <v>60</v>
       </c>
       <c r="B400" s="13" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="C400" s="13" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="D400" s="13" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38631,13 +38641,13 @@
         <v>67</v>
       </c>
       <c r="B401" s="13" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="C401" s="13" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="D401" s="13" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38645,13 +38655,13 @@
         <v>69</v>
       </c>
       <c r="B402" s="13" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="C402" s="13" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="D402" s="13" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38659,1407 +38669,1407 @@
         <v>70</v>
       </c>
       <c r="B403" s="13" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="C403" s="13" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="D403" s="13" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="13" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="B404" s="13" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="C404" s="13" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="D404" s="13" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="13" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="B405" s="13" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="C405" s="13" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="D405" s="13" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="13" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="B406" s="13" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="C406" s="13" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="D406" s="13" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="13" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="B407" s="13" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="C407" s="13" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="D407" s="13" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="13" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="B408" s="13" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="C408" s="13" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="D408" s="13" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="13" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="B409" s="13" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="C409" s="13" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="D409" s="13" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="13" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="B410" s="13" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="C410" s="13" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="D410" s="13" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="13" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="B411" s="13" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="C411" s="13" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="D411" s="13" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="13" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="B412" s="13" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="C412" s="13" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="D412" s="13" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="13" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="B413" s="13" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="C413" s="13" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="D413" s="13" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="13" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="B414" s="13" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="C414" s="13" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="D414" s="13" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="13" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="B415" s="13" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="C415" s="13" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="D415" s="13" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="13" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="B416" s="13" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="C416" s="13" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="D416" s="13" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="13" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="B417" s="13" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="C417" s="13" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="D417" s="13" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="13" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="B418" s="13" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="C418" s="13" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="D418" s="13" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="13" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="B419" s="13" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="C419" s="13" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="D419" s="13" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="13" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="B420" s="13" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="C420" s="13" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="D420" s="13" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="13" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="B421" s="13" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="C421" s="13" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="D421" s="13" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="13" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="B422" s="13" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="C422" s="13" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="D422" s="13" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="13" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="B423" s="13" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="C423" s="13" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="D423" s="13" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="13" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="B424" s="13" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="C424" s="13" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="D424" s="13" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="13" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="B425" s="13" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="C425" s="13" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="D425" s="13" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="13" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="B426" s="13" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="C426" s="13" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="D426" s="13" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="13" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="B427" s="13" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="C427" s="13" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="D427" s="13" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="13" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="B428" s="13" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="C428" s="13" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="D428" s="13" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="13" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="B429" s="13" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="C429" s="13" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="D429" s="13" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="13" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="B430" s="13" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="C430" s="13" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="D430" s="13" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="13" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="B431" s="13" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="C431" s="13" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="D431" s="13" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="13" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="B432" s="13" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="C432" s="13" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="D432" s="13" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="13" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="B433" s="13" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="C433" s="13" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="D433" s="13" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="13" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="B434" s="13" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="C434" s="13" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D434" s="13" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="13" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B435" s="13" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="C435" s="13" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="D435" s="13" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="13" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="B436" s="13" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="C436" s="13" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="D436" s="13" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="13" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="B437" s="13" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="C437" s="13" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="D437" s="13" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="13" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="B438" s="13" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="C438" s="13" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="D438" s="13" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="13" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="B440" s="13" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="C440" s="13" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D440" s="13" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="13" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="B441" s="13" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="C441" s="13" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="D441" s="13" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="13" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="B442" s="13" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="C442" s="13" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="D442" s="13" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="13" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="B443" s="13" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="C443" s="13" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="D443" s="13" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="13" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="B444" s="13" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="C444" s="13" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="D444" s="13" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="13" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="B445" s="13" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="C445" s="13" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="D445" s="13" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="13" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="B446" s="13" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="C446" s="13" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="D446" s="13" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="13" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B447" s="13" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="C447" s="13" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="D447" s="13" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="13" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="B448" s="13" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="C448" s="13" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="D448" s="13" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="13" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B449" s="13" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="C449" s="13" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="D449" s="13" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="13" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="B450" s="13" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="C450" s="13" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="D450" s="13" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="13" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="B451" s="13" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="C451" s="13" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="D451" s="13" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="13" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="B452" s="13" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="C452" s="13" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="D452" s="13" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="13" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="B453" s="13" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="C453" s="13" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="D453" s="13" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="13" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="B454" s="13" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="C454" s="13" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="D454" s="13" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="13" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="B455" s="13" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="C455" s="13" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="D455" s="13" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="13" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="B456" s="13" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="C456" s="13" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="D456" s="13" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="13" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="B457" s="13" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="C457" s="13" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="D457" s="13" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="13" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="B458" s="13" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="C458" s="13" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="D458" s="13" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="13" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="B459" s="13" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="C459" s="13" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="D459" s="13" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="13" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="B460" s="13" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="C460" s="13" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="D460" s="13" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="13" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="B461" s="13" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="C461" s="13" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="D461" s="13" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="13" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B462" s="13" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="C462" s="13" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="D462" s="13" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="13" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="B463" s="13" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="C463" s="13" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="D463" s="13" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="13" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="B464" s="13" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="13" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="B465" s="13" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="C465" s="13" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="D465" s="13" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="13" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="B466" s="13" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="C466" s="13" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="D466" s="13" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="13" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="B467" s="13" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="C467" s="13" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="D467" s="13" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="13" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="B468" s="13" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="C468" s="13" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="D468" s="13" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="13" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="B469" s="13" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="C469" s="13" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="D469" s="13" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="13" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="B470" s="13" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="C470" s="13" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="D470" s="13" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="13" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B471" s="13" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="C471" s="13" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="D471" s="13" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="13" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="B472" s="13" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="C472" s="13" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="D472" s="13" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="13" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="B473" s="13" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="C473" s="13" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="D473" s="13" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="13" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="B474" s="13" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="C474" s="13" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="D474" s="13" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="13" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="B475" s="13" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="C475" s="13" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="D475" s="13" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="13" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="B476" s="13" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="C476" s="13" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D476" s="13" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="13" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B477" s="13" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="C477" s="13" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="D477" s="13" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="13" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="B478" s="13" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="C478" s="13" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="D478" s="13" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="13" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="B479" s="13" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="C479" s="13" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="D479" s="13" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="13" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="B480" s="13" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="C480" s="13" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="D480" s="13" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="13" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="B481" s="13" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="C481" s="13" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="D481" s="13" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="13" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="B482" s="13" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="C482" s="13" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="D482" s="13" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="13" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="B483" s="13" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="C483" s="13" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="D483" s="13" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="13" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="B484" s="13" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="C484" s="13" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="D484" s="13" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="13" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="B485" s="13" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="C485" s="13" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="D485" s="13" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="13" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="B486" s="13" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="C486" s="13" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="D486" s="13" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="13" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="B487" s="13" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="C487" s="13" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="D487" s="13" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="13" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="B489" s="13" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="C489" s="15" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="D489" s="15" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="13" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="B490" s="13" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="C490" s="15" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="D490" s="15" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="13" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="B491" s="13" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="C491" s="15" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="D491" s="15" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="13" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="B492" s="13" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="C492" s="15" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="D492" s="15" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="13" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="B493" s="13" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="C493" s="15" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="D493" s="15" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="13" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B494" s="13" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="C494" s="15" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="D494" s="15" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="13" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B495" s="13" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="C495" s="15" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="D495" s="15" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="13" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="B496" s="13" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="C496" s="15" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="D496" s="15" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="13" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="B497" s="13" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="C497" s="15" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="D497" s="15" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="16.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A498" s="13" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="B498" s="17" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="C498" s="15" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="D498" s="15" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="13" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="B499" s="13" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="C499" s="13" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="D499" s="13" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="13" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="B500" s="13" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="C500" s="13" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="D500" s="13" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="13" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="B501" s="13" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="C501" s="15" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="D501" s="15" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="13" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="B502" s="13" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="C502" s="15" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="D502" s="15" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="13" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="B503" s="13" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="C503" s="15" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="D503" s="15" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="18" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="B504" s="13" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="C504" s="13" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="D504" s="13" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="13" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="B505" s="13" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="C505" s="13" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="D505" s="13" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
     </row>
   </sheetData>

--- a/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
+++ b/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3465" uniqueCount="1792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3469" uniqueCount="1796">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -4126,6 +4126,18 @@
   </si>
   <si>
     <t xml:space="preserve">Ingiza mwaka kati ya 1920 na 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">year_hint_new_born</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter a year between 2020 and 2021. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insira um ano entre 2020 e 2021.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingiza mwaka kati ya 2020 na 2021</t>
   </si>
   <si>
     <t xml:space="preserve">date_cons</t>
@@ -5772,7 +5784,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.25390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="8.69"/>
   </cols>
@@ -6823,7 +6835,7 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.67"/>
@@ -8312,7 +8324,7 @@
       <selection pane="bottomLeft" activeCell="A256" activeCellId="0" sqref="A256"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.16"/>
@@ -13552,7 +13564,7 @@
       <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.79"/>
@@ -31977,10 +31989,10 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.25390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.2734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.04"/>
@@ -32040,7 +32052,7 @@
         <v>563</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>20210221001</v>
+        <v>20210222001</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -33121,12 +33133,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D505"/>
+  <dimension ref="A1:D506"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A358" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B396" activeCellId="0" sqref="B396"/>
+      <selection pane="bottomLeft" activeCell="D391" activeCellId="0" sqref="D391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.41015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -38508,17 +38520,17 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="390" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="13" t="s">
         <v>1367</v>
       </c>
       <c r="B390" s="13" t="s">
         <v>1368</v>
       </c>
-      <c r="C390" s="15" t="s">
+      <c r="C390" s="13" t="s">
         <v>1369</v>
       </c>
-      <c r="D390" s="15" t="s">
+      <c r="D390" s="13" t="s">
         <v>1370</v>
       </c>
     </row>
@@ -38550,17 +38562,17 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="13" t="s">
         <v>1379</v>
       </c>
       <c r="B393" s="13" t="s">
         <v>1380</v>
       </c>
-      <c r="C393" s="13" t="s">
+      <c r="C393" s="15" t="s">
         <v>1381</v>
       </c>
-      <c r="D393" s="13" t="s">
+      <c r="D393" s="15" t="s">
         <v>1382</v>
       </c>
     </row>
@@ -38571,116 +38583,116 @@
       <c r="B394" s="13" t="s">
         <v>1384</v>
       </c>
+      <c r="C394" s="13" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D394" s="13" t="s">
+        <v>1386</v>
+      </c>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="13" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="B395" s="13" t="s">
-        <v>1386</v>
-      </c>
-    </row>
-    <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B397" s="13" t="s">
-        <v>1387</v>
-      </c>
-      <c r="C397" s="13" t="s">
         <v>1388</v>
       </c>
-      <c r="D397" s="13" t="s">
+    </row>
+    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A396" s="13" t="s">
         <v>1389</v>
+      </c>
+      <c r="B396" s="13" t="s">
+        <v>1390</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B398" s="13" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="C398" s="13" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="D398" s="13" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B399" s="13" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="C399" s="13" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="D399" s="13" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="13" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="B400" s="13" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="C400" s="13" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="D400" s="13" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="13" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B401" s="13" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="C401" s="13" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="D401" s="13" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B402" s="13" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="C402" s="13" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="D402" s="13" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B403" s="13" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="C403" s="13" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="D403" s="13" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="13" t="s">
-        <v>1408</v>
+        <v>70</v>
       </c>
       <c r="B404" s="13" t="s">
         <v>1409</v>
@@ -38865,38 +38877,38 @@
         <v>1460</v>
       </c>
       <c r="B417" s="13" t="s">
-        <v>1405</v>
+        <v>1461</v>
       </c>
       <c r="C417" s="13" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="D417" s="13" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="13" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="B418" s="13" t="s">
-        <v>1464</v>
+        <v>1409</v>
       </c>
       <c r="C418" s="13" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="D418" s="13" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="13" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="B419" s="13" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="C419" s="13" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="D419" s="13" t="s">
         <v>1468</v>
@@ -38977,27 +38989,27 @@
         <v>1489</v>
       </c>
       <c r="B425" s="13" t="s">
-        <v>1405</v>
+        <v>1490</v>
       </c>
       <c r="C425" s="13" t="s">
-        <v>1461</v>
+        <v>1491</v>
       </c>
       <c r="D425" s="13" t="s">
-        <v>1462</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="13" t="s">
-        <v>1490</v>
+        <v>1493</v>
       </c>
       <c r="B426" s="13" t="s">
-        <v>1491</v>
+        <v>1409</v>
       </c>
       <c r="C426" s="13" t="s">
-        <v>1492</v>
+        <v>1465</v>
       </c>
       <c r="D426" s="13" t="s">
-        <v>1493</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39168,17 +39180,17 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A440" s="13" t="s">
+    <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A439" s="13" t="s">
         <v>1542</v>
       </c>
-      <c r="B440" s="13" t="s">
+      <c r="B439" s="13" t="s">
         <v>1543</v>
       </c>
-      <c r="C440" s="13" t="s">
+      <c r="C439" s="13" t="s">
         <v>1544</v>
       </c>
-      <c r="D440" s="13" t="s">
+      <c r="D439" s="13" t="s">
         <v>1545</v>
       </c>
     </row>
@@ -39511,18 +39523,18 @@
       <c r="B464" s="13" t="s">
         <v>1639</v>
       </c>
+      <c r="C464" s="13" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D464" s="13" t="s">
+        <v>1641</v>
+      </c>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="13" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="B465" s="13" t="s">
-        <v>1641</v>
-      </c>
-      <c r="C465" s="13" t="s">
-        <v>1642</v>
-      </c>
-      <c r="D465" s="13" t="s">
         <v>1643</v>
       </c>
     </row>
@@ -39834,17 +39846,17 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="489" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A489" s="13" t="s">
+    <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A488" s="13" t="s">
         <v>1732</v>
       </c>
-      <c r="B489" s="13" t="s">
+      <c r="B488" s="13" t="s">
         <v>1733</v>
       </c>
-      <c r="C489" s="15" t="s">
+      <c r="C488" s="13" t="s">
         <v>1734</v>
       </c>
-      <c r="D489" s="15" t="s">
+      <c r="D488" s="13" t="s">
         <v>1735</v>
       </c>
     </row>
@@ -39876,7 +39888,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="492" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="492" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="13" t="s">
         <v>1744</v>
       </c>
@@ -39918,7 +39930,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="495" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="495" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="13" t="s">
         <v>1756</v>
       </c>
@@ -39946,7 +39958,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="497" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="497" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="13" t="s">
         <v>1764</v>
       </c>
@@ -39960,11 +39972,11 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="498" customFormat="false" ht="16.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="498" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="13" t="s">
         <v>1768</v>
       </c>
-      <c r="B498" s="17" t="s">
+      <c r="B498" s="13" t="s">
         <v>1769</v>
       </c>
       <c r="C498" s="15" t="s">
@@ -39974,17 +39986,17 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="499" customFormat="false" ht="16.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A499" s="13" t="s">
         <v>1772</v>
       </c>
-      <c r="B499" s="13" t="s">
+      <c r="B499" s="17" t="s">
         <v>1773</v>
       </c>
-      <c r="C499" s="13" t="s">
+      <c r="C499" s="15" t="s">
         <v>1774</v>
       </c>
-      <c r="D499" s="13" t="s">
+      <c r="D499" s="15" t="s">
         <v>1775</v>
       </c>
     </row>
@@ -40002,26 +40014,26 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="501" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="13" t="s">
         <v>1780</v>
       </c>
       <c r="B501" s="13" t="s">
         <v>1781</v>
       </c>
-      <c r="C501" s="15" t="s">
-        <v>1369</v>
-      </c>
-      <c r="D501" s="15" t="s">
-        <v>1370</v>
+      <c r="C501" s="13" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D501" s="13" t="s">
+        <v>1783</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="13" t="s">
-        <v>1782</v>
+        <v>1784</v>
       </c>
       <c r="B502" s="13" t="s">
-        <v>1783</v>
+        <v>1785</v>
       </c>
       <c r="C502" s="15" t="s">
         <v>1373</v>
@@ -40032,10 +40044,10 @@
     </row>
     <row r="503" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="13" t="s">
-        <v>1784</v>
+        <v>1786</v>
       </c>
       <c r="B503" s="13" t="s">
-        <v>1785</v>
+        <v>1787</v>
       </c>
       <c r="C503" s="15" t="s">
         <v>1377</v>
@@ -40044,36 +40056,50 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A504" s="18" t="s">
-        <v>1786</v>
+    <row r="504" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A504" s="13" t="s">
+        <v>1788</v>
       </c>
       <c r="B504" s="13" t="s">
-        <v>1787</v>
-      </c>
-      <c r="C504" s="13" t="s">
-        <v>1787</v>
-      </c>
-      <c r="D504" s="13" t="s">
-        <v>1787</v>
-      </c>
-    </row>
-    <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A505" s="13" t="s">
-        <v>1788</v>
+        <v>1789</v>
+      </c>
+      <c r="C504" s="15" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D504" s="15" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A505" s="18" t="s">
+        <v>1790</v>
       </c>
       <c r="B505" s="13" t="s">
-        <v>1789</v>
+        <v>1791</v>
       </c>
       <c r="C505" s="13" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="D505" s="13" t="s">
         <v>1791</v>
       </c>
     </row>
+    <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A506" s="13" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B506" s="13" t="s">
+        <v>1793</v>
+      </c>
+      <c r="C506" s="13" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D506" s="13" t="s">
+        <v>1795</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:D1 B397:D405 B409:D409 B412:D438 B505:B1048576 C69:D357 C370:D370 C394:D488 D505:D1048576 C499:D500 C372:D375 C505:C1048576 C364:D367 C384:D384 C1:D64 C391:C392 B499:B503 C502:C503 B504:D504 B1:B497">
+  <conditionalFormatting sqref="B1:D1 B398:D406 B410:D410 B413:D439 B506:B1048576 C69:D357 C370:D370 C395:D489 D506:D1048576 C500:D501 C372:D375 C506:C1048576 C364:D367 C384:D384 C1:D64 C392:C393 B500:B504 C503:C504 B505:D505 B1:B498">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>

--- a/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
+++ b/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3475" uniqueCount="1801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3475" uniqueCount="1802">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -5413,6 +5413,9 @@
   </si>
   <si>
     <t xml:space="preserve">hh_head_first_hint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The household head should be the first member added and must be a resident member. His/her ExtID should end in -001 unless he/she has an existing ID assigned from the minicensus. The substitue household head, if there is one, must also be a resident member.</t>
   </si>
   <si>
     <t xml:space="preserve">The household head should be the first member added and must be a resident member. His/her ExtID should end in -001 unless he/she has an existing ID assigned from the minicensus. </t>
@@ -5799,7 +5802,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.30859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.32421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="8.69"/>
   </cols>
@@ -6850,7 +6853,7 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.30859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.32421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.67"/>
@@ -8339,7 +8342,7 @@
       <selection pane="bottomLeft" activeCell="A256" activeCellId="0" sqref="A256"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.30859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.32421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.16"/>
@@ -13575,11 +13578,11 @@
   </sheetPr>
   <dimension ref="A1:Y763"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.30859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.32421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.79"/>
@@ -31362,7 +31365,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.30859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.32421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.04"/>
@@ -32505,10 +32508,10 @@
   </sheetPr>
   <dimension ref="A1:D506"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A327" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A474" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A368" activeCellId="0" sqref="A368"/>
+      <selection pane="bottomLeft" activeCell="B505" activeCellId="0" sqref="B505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.41015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -39448,24 +39451,24 @@
         <v>1796</v>
       </c>
       <c r="C505" s="13" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="D505" s="13" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="13" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="B506" s="13" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="C506" s="13" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="D506" s="13" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
     </row>
   </sheetData>

--- a/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
+++ b/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3473" uniqueCount="1800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3476" uniqueCount="1800">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -489,6 +489,9 @@
     <t xml:space="preserve">dmy_ago_dk</t>
   </si>
   <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
     <t xml:space="preserve">days_ago</t>
   </si>
   <si>
@@ -819,9 +822,6 @@
     <t xml:space="preserve">tomorrow</t>
   </si>
   <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
     <t xml:space="preserve">time_awake</t>
   </si>
   <si>
@@ -3798,13 +3798,13 @@
     <t xml:space="preserve">or_enter_num</t>
   </si>
   <si>
-    <t xml:space="preserve">or enter number </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ou digite um número</t>
-  </si>
-  <si>
-    <t xml:space="preserve">au ingiza namba</t>
+    <t xml:space="preserve">enter number </t>
+  </si>
+  <si>
+    <t xml:space="preserve">digite um número</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ingiza namba</t>
   </si>
   <si>
     <t xml:space="preserve">days_weeks_months_years</t>
@@ -8328,12 +8328,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y1013"/>
+  <dimension ref="A1:Y1014"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C209" activeCellId="0" sqref="C209"/>
+      <selection pane="bottomLeft" activeCell="A91" activeCellId="0" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.33984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9571,26 +9571,26 @@
         <v>153</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>158</v>
+        <v>42</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>158</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>159</v>
@@ -9601,7 +9601,7 @@
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>160</v>
@@ -9612,7 +9612,7 @@
     </row>
     <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>161</v>
@@ -9623,18 +9623,18 @@
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B99" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="B99" s="0" t="s">
-        <v>163</v>
-      </c>
       <c r="C99" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>164</v>
@@ -9645,7 +9645,7 @@
     </row>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B101" s="0" t="s">
         <v>165</v>
@@ -9656,7 +9656,7 @@
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B102" s="0" t="s">
         <v>166</v>
@@ -9667,7 +9667,7 @@
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B103" s="0" t="s">
         <v>167</v>
@@ -9678,7 +9678,7 @@
     </row>
     <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>168</v>
@@ -9689,7 +9689,7 @@
     </row>
     <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B105" s="0" t="s">
         <v>169</v>
@@ -9700,7 +9700,7 @@
     </row>
     <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B106" s="0" t="s">
         <v>170</v>
@@ -9711,7 +9711,7 @@
     </row>
     <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B107" s="0" t="s">
         <v>171</v>
@@ -9722,7 +9722,7 @@
     </row>
     <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="B108" s="0" t="s">
         <v>172</v>
@@ -9744,18 +9744,18 @@
     </row>
     <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B110" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="B110" s="0" t="s">
-        <v>175</v>
-      </c>
       <c r="C110" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B111" s="0" t="s">
         <v>176</v>
@@ -9766,29 +9766,29 @@
     </row>
     <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>42</v>
+        <v>177</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>42</v>
+        <v>177</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>178</v>
+        <v>42</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>178</v>
+        <v>42</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B114" s="0" t="s">
         <v>179</v>
@@ -9799,7 +9799,7 @@
     </row>
     <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B115" s="0" t="s">
         <v>180</v>
@@ -9810,7 +9810,7 @@
     </row>
     <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B116" s="0" t="s">
         <v>181</v>
@@ -9821,7 +9821,7 @@
     </row>
     <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B117" s="0" t="s">
         <v>182</v>
@@ -9832,7 +9832,7 @@
     </row>
     <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B118" s="0" t="s">
         <v>183</v>
@@ -9843,7 +9843,7 @@
     </row>
     <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B119" s="0" t="s">
         <v>184</v>
@@ -9854,7 +9854,7 @@
     </row>
     <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B120" s="0" t="s">
         <v>185</v>
@@ -9865,7 +9865,7 @@
     </row>
     <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B121" s="0" t="s">
         <v>186</v>
@@ -9876,7 +9876,7 @@
     </row>
     <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B122" s="0" t="s">
         <v>187</v>
@@ -9887,51 +9887,51 @@
     </row>
     <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>42</v>
+        <v>188</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B127" s="0" t="s">
         <v>190</v>
@@ -9942,7 +9942,7 @@
     </row>
     <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B128" s="0" t="s">
         <v>191</v>
@@ -9953,7 +9953,7 @@
     </row>
     <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B129" s="0" t="s">
         <v>192</v>
@@ -9964,40 +9964,40 @@
     </row>
     <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>130</v>
+        <v>193</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>82</v>
+        <v>193</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>194</v>
+        <v>42</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>194</v>
+        <v>42</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B133" s="0" t="s">
         <v>195</v>
@@ -10008,40 +10008,40 @@
     </row>
     <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>82</v>
+        <v>196</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>82</v>
+        <v>196</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>197</v>
+        <v>85</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>197</v>
+        <v>85</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B137" s="0" t="s">
         <v>198</v>
@@ -10052,51 +10052,51 @@
     </row>
     <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>42</v>
+        <v>199</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>42</v>
+        <v>199</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>199</v>
+        <v>42</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>199</v>
+        <v>42</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>85</v>
+        <v>200</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>201</v>
+        <v>85</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>201</v>
+        <v>85</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B142" s="0" t="s">
         <v>202</v>
@@ -10107,7 +10107,7 @@
     </row>
     <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B143" s="0" t="s">
         <v>203</v>
@@ -10118,7 +10118,7 @@
     </row>
     <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B144" s="0" t="s">
         <v>204</v>
@@ -10129,29 +10129,29 @@
     </row>
     <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>42</v>
+        <v>205</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>42</v>
+        <v>205</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>206</v>
+        <v>42</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>206</v>
+        <v>42</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B147" s="0" t="s">
         <v>207</v>
@@ -10162,7 +10162,7 @@
     </row>
     <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B148" s="0" t="s">
         <v>208</v>
@@ -10173,29 +10173,29 @@
     </row>
     <row r="149" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>42</v>
+        <v>209</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>42</v>
+        <v>209</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>210</v>
+        <v>42</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>210</v>
+        <v>42</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B151" s="0" t="s">
         <v>211</v>
@@ -10206,7 +10206,7 @@
     </row>
     <row r="152" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c r="B152" s="0" t="s">
         <v>212</v>
@@ -10341,26 +10341,26 @@
         <v>44</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>42</v>
+        <v>224</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>42</v>
+        <v>224</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>224</v>
+        <v>44</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>225</v>
+        <v>42</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>225</v>
+        <v>42</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B166" s="0" t="s">
         <v>226</v>
@@ -10371,139 +10371,139 @@
     </row>
     <row r="167" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="B167" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="B167" s="0" t="s">
-        <v>228</v>
-      </c>
       <c r="C167" s="0" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>132</v>
+        <v>229</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>132</v>
+        <v>229</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>229</v>
+        <v>132</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>229</v>
+        <v>132</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>133</v>
+        <v>230</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>133</v>
+        <v>230</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>230</v>
+        <v>133</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>230</v>
+        <v>133</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>134</v>
+        <v>231</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>134</v>
+        <v>231</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>231</v>
+        <v>134</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>231</v>
+        <v>134</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>135</v>
+        <v>232</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>135</v>
+        <v>232</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>230</v>
+        <v>98</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>230</v>
+        <v>98</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B179" s="0" t="s">
         <v>234</v>
@@ -10514,7 +10514,7 @@
     </row>
     <row r="180" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B180" s="0" t="s">
         <v>235</v>
@@ -10525,7 +10525,7 @@
     </row>
     <row r="181" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B181" s="0" t="s">
         <v>236</v>
@@ -10536,7 +10536,7 @@
     </row>
     <row r="182" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B182" s="0" t="s">
         <v>237</v>
@@ -10547,29 +10547,29 @@
     </row>
     <row r="183" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>133</v>
+        <v>238</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>133</v>
+        <v>238</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>238</v>
+        <v>133</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>238</v>
+        <v>133</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B185" s="0" t="s">
         <v>239</v>
@@ -10580,29 +10580,29 @@
     </row>
     <row r="186" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>98</v>
+        <v>240</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>98</v>
+        <v>240</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>241</v>
+        <v>98</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>241</v>
+        <v>98</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B188" s="0" t="s">
         <v>242</v>
@@ -10613,7 +10613,7 @@
     </row>
     <row r="189" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B189" s="0" t="s">
         <v>243</v>
@@ -10624,7 +10624,7 @@
     </row>
     <row r="190" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B190" s="0" t="s">
         <v>244</v>
@@ -10635,18 +10635,18 @@
     </row>
     <row r="191" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="B191" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="B191" s="0" t="s">
-        <v>246</v>
-      </c>
       <c r="C191" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B192" s="0" t="s">
         <v>247</v>
@@ -10657,7 +10657,7 @@
     </row>
     <row r="193" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B193" s="0" t="s">
         <v>248</v>
@@ -10668,7 +10668,7 @@
     </row>
     <row r="194" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B194" s="0" t="s">
         <v>249</v>
@@ -10679,7 +10679,7 @@
     </row>
     <row r="195" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B195" s="0" t="s">
         <v>250</v>
@@ -10690,7 +10690,7 @@
     </row>
     <row r="196" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B196" s="0" t="s">
         <v>251</v>
@@ -10701,7 +10701,7 @@
     </row>
     <row r="197" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B197" s="0" t="s">
         <v>252</v>
@@ -10712,7 +10712,7 @@
     </row>
     <row r="198" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B198" s="0" t="s">
         <v>253</v>
@@ -10723,7 +10723,7 @@
     </row>
     <row r="199" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B199" s="0" t="s">
         <v>254</v>
@@ -10734,7 +10734,7 @@
     </row>
     <row r="200" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B200" s="0" t="s">
         <v>255</v>
@@ -10745,7 +10745,7 @@
     </row>
     <row r="201" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B201" s="0" t="s">
         <v>256</v>
@@ -10756,7 +10756,7 @@
     </row>
     <row r="202" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B202" s="0" t="s">
         <v>257</v>
@@ -10767,7 +10767,7 @@
     </row>
     <row r="203" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B203" s="0" t="s">
         <v>258</v>
@@ -10778,24 +10778,24 @@
     </row>
     <row r="204" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>98</v>
+        <v>259</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>98</v>
+        <v>259</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>68</v>
+        <v>246</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>259</v>
+        <v>98</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>259</v>
+        <v>98</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10811,18 +10811,18 @@
     </row>
     <row r="207" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B207" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="B207" s="0" t="s">
-        <v>262</v>
-      </c>
       <c r="C207" s="0" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B208" s="0" t="s">
         <v>263</v>
@@ -10833,7 +10833,7 @@
     </row>
     <row r="209" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B209" s="0" t="s">
         <v>264</v>
@@ -10844,24 +10844,24 @@
     </row>
     <row r="210" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>42</v>
+        <v>154</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>42</v>
+        <v>154</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>266</v>
+        <v>42</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>266</v>
+        <v>42</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10869,10 +10869,10 @@
         <v>265</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10880,10 +10880,10 @@
         <v>265</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10891,21 +10891,21 @@
         <v>265</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10913,10 +10913,10 @@
         <v>270</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10924,10 +10924,10 @@
         <v>270</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10935,10 +10935,10 @@
         <v>270</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10946,21 +10946,21 @@
         <v>270</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10968,10 +10968,10 @@
         <v>276</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10979,10 +10979,10 @@
         <v>276</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10990,10 +10990,10 @@
         <v>276</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11001,21 +11001,21 @@
         <v>276</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11023,10 +11023,10 @@
         <v>277</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11034,10 +11034,10 @@
         <v>277</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11045,21 +11045,21 @@
         <v>277</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11067,10 +11067,10 @@
         <v>278</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11078,10 +11078,10 @@
         <v>278</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11089,10 +11089,10 @@
         <v>278</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11100,10 +11100,10 @@
         <v>278</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11111,10 +11111,10 @@
         <v>278</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11122,10 +11122,10 @@
         <v>278</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11133,10 +11133,10 @@
         <v>278</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11144,10 +11144,10 @@
         <v>278</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11155,10 +11155,10 @@
         <v>278</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11166,21 +11166,21 @@
         <v>278</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>152</v>
+        <v>288</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>152</v>
+        <v>288</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>290</v>
+        <v>152</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>290</v>
+        <v>152</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11188,10 +11188,10 @@
         <v>289</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11199,10 +11199,10 @@
         <v>289</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11210,10 +11210,10 @@
         <v>289</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11221,10 +11221,10 @@
         <v>289</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11232,10 +11232,10 @@
         <v>289</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11243,10 +11243,10 @@
         <v>289</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11254,10 +11254,10 @@
         <v>289</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11265,10 +11265,10 @@
         <v>289</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11276,10 +11276,10 @@
         <v>289</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11287,10 +11287,10 @@
         <v>289</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11298,10 +11298,10 @@
         <v>289</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11309,10 +11309,10 @@
         <v>289</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11320,10 +11320,10 @@
         <v>289</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11331,10 +11331,10 @@
         <v>289</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>42</v>
+        <v>303</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>42</v>
+        <v>303</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11342,10 +11342,10 @@
         <v>289</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11353,10 +11353,10 @@
         <v>289</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11364,21 +11364,21 @@
         <v>289</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C257" s="0" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="B258" s="0" t="n">
-        <v>1</v>
+        <v>289</v>
+      </c>
+      <c r="B258" s="0" t="s">
+        <v>82</v>
       </c>
       <c r="C258" s="0" t="s">
-        <v>305</v>
+        <v>82</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11386,10 +11386,10 @@
         <v>304</v>
       </c>
       <c r="B259" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C259" s="0" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11397,10 +11397,10 @@
         <v>304</v>
       </c>
       <c r="B260" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C260" s="0" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11408,10 +11408,10 @@
         <v>304</v>
       </c>
       <c r="B261" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C261" s="0" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11419,10 +11419,10 @@
         <v>304</v>
       </c>
       <c r="B262" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C262" s="0" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11430,10 +11430,10 @@
         <v>304</v>
       </c>
       <c r="B263" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C263" s="0" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11441,10 +11441,10 @@
         <v>304</v>
       </c>
       <c r="B264" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C264" s="0" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11452,10 +11452,10 @@
         <v>304</v>
       </c>
       <c r="B265" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C265" s="0" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11463,10 +11463,10 @@
         <v>304</v>
       </c>
       <c r="B266" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C266" s="0" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11474,10 +11474,10 @@
         <v>304</v>
       </c>
       <c r="B267" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C267" s="0" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11485,10 +11485,10 @@
         <v>304</v>
       </c>
       <c r="B268" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C268" s="0" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11496,10 +11496,10 @@
         <v>304</v>
       </c>
       <c r="B269" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C269" s="0" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11507,10 +11507,10 @@
         <v>304</v>
       </c>
       <c r="B270" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C270" s="0" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11518,10 +11518,10 @@
         <v>304</v>
       </c>
       <c r="B271" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C271" s="0" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11529,10 +11529,10 @@
         <v>304</v>
       </c>
       <c r="B272" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C272" s="0" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11540,10 +11540,10 @@
         <v>304</v>
       </c>
       <c r="B273" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C273" s="0" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11551,10 +11551,10 @@
         <v>304</v>
       </c>
       <c r="B274" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C274" s="0" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11562,10 +11562,10 @@
         <v>304</v>
       </c>
       <c r="B275" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C275" s="0" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11573,10 +11573,10 @@
         <v>304</v>
       </c>
       <c r="B276" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C276" s="0" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11584,10 +11584,10 @@
         <v>304</v>
       </c>
       <c r="B277" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C277" s="0" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11595,10 +11595,10 @@
         <v>304</v>
       </c>
       <c r="B278" s="0" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C278" s="0" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11606,10 +11606,10 @@
         <v>304</v>
       </c>
       <c r="B279" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C279" s="0" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11617,10 +11617,10 @@
         <v>304</v>
       </c>
       <c r="B280" s="0" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C280" s="0" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11628,10 +11628,10 @@
         <v>304</v>
       </c>
       <c r="B281" s="0" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C281" s="0" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11639,10 +11639,10 @@
         <v>304</v>
       </c>
       <c r="B282" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C282" s="0" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11650,10 +11650,10 @@
         <v>304</v>
       </c>
       <c r="B283" s="0" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C283" s="0" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11661,10 +11661,10 @@
         <v>304</v>
       </c>
       <c r="B284" s="0" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C284" s="0" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11672,10 +11672,10 @@
         <v>304</v>
       </c>
       <c r="B285" s="0" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C285" s="0" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11683,10 +11683,10 @@
         <v>304</v>
       </c>
       <c r="B286" s="0" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C286" s="0" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11694,10 +11694,10 @@
         <v>304</v>
       </c>
       <c r="B287" s="0" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C287" s="0" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11705,21 +11705,21 @@
         <v>304</v>
       </c>
       <c r="B288" s="0" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C288" s="0" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>336</v>
+        <v>304</v>
       </c>
       <c r="B289" s="0" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C289" s="0" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11727,10 +11727,10 @@
         <v>336</v>
       </c>
       <c r="B290" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C290" s="0" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11738,10 +11738,10 @@
         <v>336</v>
       </c>
       <c r="B291" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C291" s="0" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11749,10 +11749,10 @@
         <v>336</v>
       </c>
       <c r="B292" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C292" s="0" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11760,10 +11760,10 @@
         <v>336</v>
       </c>
       <c r="B293" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C293" s="0" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11771,10 +11771,10 @@
         <v>336</v>
       </c>
       <c r="B294" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C294" s="0" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11782,10 +11782,10 @@
         <v>336</v>
       </c>
       <c r="B295" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C295" s="0" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11793,10 +11793,10 @@
         <v>336</v>
       </c>
       <c r="B296" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C296" s="0" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11804,10 +11804,10 @@
         <v>336</v>
       </c>
       <c r="B297" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C297" s="0" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11815,10 +11815,10 @@
         <v>336</v>
       </c>
       <c r="B298" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C298" s="0" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11826,10 +11826,10 @@
         <v>336</v>
       </c>
       <c r="B299" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C299" s="0" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11837,21 +11837,21 @@
         <v>336</v>
       </c>
       <c r="B300" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C300" s="0" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="B301" s="0" t="n">
-        <v>2021</v>
+        <v>12</v>
       </c>
       <c r="C301" s="0" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11859,10 +11859,10 @@
         <v>349</v>
       </c>
       <c r="B302" s="0" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C302" s="0" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11870,10 +11870,10 @@
         <v>349</v>
       </c>
       <c r="B303" s="0" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C303" s="0" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11881,10 +11881,10 @@
         <v>349</v>
       </c>
       <c r="B304" s="0" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C304" s="0" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11892,10 +11892,10 @@
         <v>349</v>
       </c>
       <c r="B305" s="0" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C305" s="0" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11903,10 +11903,10 @@
         <v>349</v>
       </c>
       <c r="B306" s="0" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C306" s="0" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11914,10 +11914,10 @@
         <v>349</v>
       </c>
       <c r="B307" s="0" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C307" s="0" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11925,10 +11925,10 @@
         <v>349</v>
       </c>
       <c r="B308" s="0" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C308" s="0" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11936,10 +11936,10 @@
         <v>349</v>
       </c>
       <c r="B309" s="0" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C309" s="0" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11947,10 +11947,10 @@
         <v>349</v>
       </c>
       <c r="B310" s="0" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C310" s="0" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11958,10 +11958,10 @@
         <v>349</v>
       </c>
       <c r="B311" s="0" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C311" s="0" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11969,10 +11969,10 @@
         <v>349</v>
       </c>
       <c r="B312" s="0" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C312" s="0" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11980,10 +11980,10 @@
         <v>349</v>
       </c>
       <c r="B313" s="0" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C313" s="0" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11991,10 +11991,10 @@
         <v>349</v>
       </c>
       <c r="B314" s="0" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C314" s="0" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12002,10 +12002,10 @@
         <v>349</v>
       </c>
       <c r="B315" s="0" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C315" s="0" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12013,10 +12013,10 @@
         <v>349</v>
       </c>
       <c r="B316" s="0" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C316" s="0" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12024,10 +12024,10 @@
         <v>349</v>
       </c>
       <c r="B317" s="0" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="C317" s="0" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12035,10 +12035,10 @@
         <v>349</v>
       </c>
       <c r="B318" s="0" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="C318" s="0" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12046,10 +12046,10 @@
         <v>349</v>
       </c>
       <c r="B319" s="0" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="C319" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12057,10 +12057,10 @@
         <v>349</v>
       </c>
       <c r="B320" s="0" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="C320" s="0" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12068,10 +12068,10 @@
         <v>349</v>
       </c>
       <c r="B321" s="0" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C321" s="0" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12079,10 +12079,10 @@
         <v>349</v>
       </c>
       <c r="B322" s="0" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C322" s="0" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12090,10 +12090,10 @@
         <v>349</v>
       </c>
       <c r="B323" s="0" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="C323" s="0" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12101,10 +12101,10 @@
         <v>349</v>
       </c>
       <c r="B324" s="0" t="n">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="C324" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12112,10 +12112,10 @@
         <v>349</v>
       </c>
       <c r="B325" s="0" t="n">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="C325" s="0" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12123,10 +12123,10 @@
         <v>349</v>
       </c>
       <c r="B326" s="0" t="n">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="C326" s="0" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12134,10 +12134,10 @@
         <v>349</v>
       </c>
       <c r="B327" s="0" t="n">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="C327" s="0" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12145,10 +12145,10 @@
         <v>349</v>
       </c>
       <c r="B328" s="0" t="n">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="C328" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12156,10 +12156,10 @@
         <v>349</v>
       </c>
       <c r="B329" s="0" t="n">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="C329" s="0" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12167,10 +12167,10 @@
         <v>349</v>
       </c>
       <c r="B330" s="0" t="n">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="C330" s="0" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12178,10 +12178,10 @@
         <v>349</v>
       </c>
       <c r="B331" s="0" t="n">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="C331" s="0" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12189,10 +12189,10 @@
         <v>349</v>
       </c>
       <c r="B332" s="0" t="n">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="C332" s="0" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12200,10 +12200,10 @@
         <v>349</v>
       </c>
       <c r="B333" s="0" t="n">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="C333" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12211,10 +12211,10 @@
         <v>349</v>
       </c>
       <c r="B334" s="0" t="n">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="C334" s="0" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12222,10 +12222,10 @@
         <v>349</v>
       </c>
       <c r="B335" s="0" t="n">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="C335" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12233,10 +12233,10 @@
         <v>349</v>
       </c>
       <c r="B336" s="0" t="n">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="C336" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12244,10 +12244,10 @@
         <v>349</v>
       </c>
       <c r="B337" s="0" t="n">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="C337" s="0" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12255,10 +12255,10 @@
         <v>349</v>
       </c>
       <c r="B338" s="0" t="n">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="C338" s="0" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12266,10 +12266,10 @@
         <v>349</v>
       </c>
       <c r="B339" s="0" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="C339" s="0" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12277,10 +12277,10 @@
         <v>349</v>
       </c>
       <c r="B340" s="0" t="n">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="C340" s="0" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12288,10 +12288,10 @@
         <v>349</v>
       </c>
       <c r="B341" s="0" t="n">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="C341" s="0" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12299,10 +12299,10 @@
         <v>349</v>
       </c>
       <c r="B342" s="0" t="n">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="C342" s="0" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12310,10 +12310,10 @@
         <v>349</v>
       </c>
       <c r="B343" s="0" t="n">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="C343" s="0" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12321,10 +12321,10 @@
         <v>349</v>
       </c>
       <c r="B344" s="0" t="n">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="C344" s="0" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12332,10 +12332,10 @@
         <v>349</v>
       </c>
       <c r="B345" s="0" t="n">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="C345" s="0" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12343,10 +12343,10 @@
         <v>349</v>
       </c>
       <c r="B346" s="0" t="n">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="C346" s="0" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12354,10 +12354,10 @@
         <v>349</v>
       </c>
       <c r="B347" s="0" t="n">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="C347" s="0" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12365,10 +12365,10 @@
         <v>349</v>
       </c>
       <c r="B348" s="0" t="n">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="C348" s="0" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12376,10 +12376,10 @@
         <v>349</v>
       </c>
       <c r="B349" s="0" t="n">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="C349" s="0" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12387,10 +12387,10 @@
         <v>349</v>
       </c>
       <c r="B350" s="0" t="n">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="C350" s="0" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12398,10 +12398,10 @@
         <v>349</v>
       </c>
       <c r="B351" s="0" t="n">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="C351" s="0" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12409,10 +12409,10 @@
         <v>349</v>
       </c>
       <c r="B352" s="0" t="n">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="C352" s="0" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12420,10 +12420,10 @@
         <v>349</v>
       </c>
       <c r="B353" s="0" t="n">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="C353" s="0" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12431,10 +12431,10 @@
         <v>349</v>
       </c>
       <c r="B354" s="0" t="n">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="C354" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12442,10 +12442,10 @@
         <v>349</v>
       </c>
       <c r="B355" s="0" t="n">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="C355" s="0" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12453,10 +12453,10 @@
         <v>349</v>
       </c>
       <c r="B356" s="0" t="n">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="C356" s="0" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12464,10 +12464,10 @@
         <v>349</v>
       </c>
       <c r="B357" s="0" t="n">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="C357" s="0" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12475,10 +12475,10 @@
         <v>349</v>
       </c>
       <c r="B358" s="0" t="n">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="C358" s="0" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12486,10 +12486,10 @@
         <v>349</v>
       </c>
       <c r="B359" s="0" t="n">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="C359" s="0" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12497,10 +12497,10 @@
         <v>349</v>
       </c>
       <c r="B360" s="0" t="n">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="C360" s="0" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12508,10 +12508,10 @@
         <v>349</v>
       </c>
       <c r="B361" s="0" t="n">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="C361" s="0" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12519,10 +12519,10 @@
         <v>349</v>
       </c>
       <c r="B362" s="0" t="n">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="C362" s="0" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12530,10 +12530,10 @@
         <v>349</v>
       </c>
       <c r="B363" s="0" t="n">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="C363" s="0" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12541,10 +12541,10 @@
         <v>349</v>
       </c>
       <c r="B364" s="0" t="n">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="C364" s="0" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12552,10 +12552,10 @@
         <v>349</v>
       </c>
       <c r="B365" s="0" t="n">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="C365" s="0" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12563,10 +12563,10 @@
         <v>349</v>
       </c>
       <c r="B366" s="0" t="n">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="C366" s="0" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12574,10 +12574,10 @@
         <v>349</v>
       </c>
       <c r="B367" s="0" t="n">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="C367" s="0" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12585,10 +12585,10 @@
         <v>349</v>
       </c>
       <c r="B368" s="0" t="n">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="C368" s="0" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12596,10 +12596,10 @@
         <v>349</v>
       </c>
       <c r="B369" s="0" t="n">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="C369" s="0" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12607,10 +12607,10 @@
         <v>349</v>
       </c>
       <c r="B370" s="0" t="n">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="C370" s="0" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12618,10 +12618,10 @@
         <v>349</v>
       </c>
       <c r="B371" s="0" t="n">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="C371" s="0" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12629,10 +12629,10 @@
         <v>349</v>
       </c>
       <c r="B372" s="0" t="n">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="C372" s="0" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12640,10 +12640,10 @@
         <v>349</v>
       </c>
       <c r="B373" s="0" t="n">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="C373" s="0" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12651,10 +12651,10 @@
         <v>349</v>
       </c>
       <c r="B374" s="0" t="n">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="C374" s="0" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12662,10 +12662,10 @@
         <v>349</v>
       </c>
       <c r="B375" s="0" t="n">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="C375" s="0" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12673,10 +12673,10 @@
         <v>349</v>
       </c>
       <c r="B376" s="0" t="n">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="C376" s="0" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12684,10 +12684,10 @@
         <v>349</v>
       </c>
       <c r="B377" s="0" t="n">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="C377" s="0" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12695,10 +12695,10 @@
         <v>349</v>
       </c>
       <c r="B378" s="0" t="n">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="C378" s="0" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12706,10 +12706,10 @@
         <v>349</v>
       </c>
       <c r="B379" s="0" t="n">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="C379" s="0" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12717,10 +12717,10 @@
         <v>349</v>
       </c>
       <c r="B380" s="0" t="n">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="C380" s="0" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12728,10 +12728,10 @@
         <v>349</v>
       </c>
       <c r="B381" s="0" t="n">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="C381" s="0" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12739,10 +12739,10 @@
         <v>349</v>
       </c>
       <c r="B382" s="0" t="n">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="C382" s="0" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12750,10 +12750,10 @@
         <v>349</v>
       </c>
       <c r="B383" s="0" t="n">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="C383" s="0" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12761,10 +12761,10 @@
         <v>349</v>
       </c>
       <c r="B384" s="0" t="n">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="C384" s="0" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12772,10 +12772,10 @@
         <v>349</v>
       </c>
       <c r="B385" s="0" t="n">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="C385" s="0" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12783,10 +12783,10 @@
         <v>349</v>
       </c>
       <c r="B386" s="0" t="n">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="C386" s="0" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12794,10 +12794,10 @@
         <v>349</v>
       </c>
       <c r="B387" s="0" t="n">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="C387" s="0" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12805,10 +12805,10 @@
         <v>349</v>
       </c>
       <c r="B388" s="0" t="n">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="C388" s="0" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12816,10 +12816,10 @@
         <v>349</v>
       </c>
       <c r="B389" s="0" t="n">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="C389" s="0" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12827,10 +12827,10 @@
         <v>349</v>
       </c>
       <c r="B390" s="0" t="n">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="C390" s="0" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12838,10 +12838,10 @@
         <v>349</v>
       </c>
       <c r="B391" s="0" t="n">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="C391" s="0" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12849,10 +12849,10 @@
         <v>349</v>
       </c>
       <c r="B392" s="0" t="n">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="C392" s="0" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12860,10 +12860,10 @@
         <v>349</v>
       </c>
       <c r="B393" s="0" t="n">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="C393" s="0" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12871,10 +12871,10 @@
         <v>349</v>
       </c>
       <c r="B394" s="0" t="n">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="C394" s="0" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12882,10 +12882,10 @@
         <v>349</v>
       </c>
       <c r="B395" s="0" t="n">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="C395" s="0" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12893,10 +12893,10 @@
         <v>349</v>
       </c>
       <c r="B396" s="0" t="n">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="C396" s="0" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12904,10 +12904,10 @@
         <v>349</v>
       </c>
       <c r="B397" s="0" t="n">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="C397" s="0" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12915,10 +12915,10 @@
         <v>349</v>
       </c>
       <c r="B398" s="0" t="n">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="C398" s="0" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12926,10 +12926,10 @@
         <v>349</v>
       </c>
       <c r="B399" s="0" t="n">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="C399" s="0" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12937,10 +12937,10 @@
         <v>349</v>
       </c>
       <c r="B400" s="0" t="n">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="C400" s="0" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12948,10 +12948,10 @@
         <v>349</v>
       </c>
       <c r="B401" s="0" t="n">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="C401" s="0" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12959,13 +12959,23 @@
         <v>349</v>
       </c>
       <c r="B402" s="0" t="n">
+        <v>1921</v>
+      </c>
+      <c r="C402" s="0" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A403" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="B403" s="0" t="n">
         <v>1920</v>
       </c>
-      <c r="C402" s="0" t="s">
+      <c r="C403" s="0" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="403" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="404" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="405" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="406" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -13576,6 +13586,7 @@
     <row r="1011" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1012" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1013" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1014" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -13594,7 +13605,7 @@
   </sheetPr>
   <dimension ref="A1:Y760"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -14394,7 +14405,7 @@
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
@@ -14483,14 +14494,14 @@
         <v>478</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>65</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
@@ -14673,7 +14684,7 @@
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
@@ -14708,7 +14719,7 @@
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -14830,7 +14841,7 @@
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
@@ -15461,7 +15472,7 @@
       </c>
       <c r="D60" s="12"/>
       <c r="E60" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
@@ -15493,7 +15504,7 @@
       </c>
       <c r="D61" s="12"/>
       <c r="E61" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
@@ -15518,14 +15529,14 @@
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B62" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>65</v>
       </c>
       <c r="D62" s="12"/>
       <c r="E62" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
@@ -15714,7 +15725,7 @@
       </c>
       <c r="D68" s="12"/>
       <c r="E68" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
@@ -15775,7 +15786,7 @@
       </c>
       <c r="D70" s="12"/>
       <c r="E70" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
@@ -15868,7 +15879,7 @@
       </c>
       <c r="D73" s="12"/>
       <c r="E73" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
@@ -15961,7 +15972,7 @@
       </c>
       <c r="D76" s="12"/>
       <c r="E76" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
@@ -16025,7 +16036,7 @@
       </c>
       <c r="D78" s="12"/>
       <c r="E78" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
@@ -16089,7 +16100,7 @@
       </c>
       <c r="D80" s="12"/>
       <c r="E80" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
@@ -16217,7 +16228,7 @@
       </c>
       <c r="D84" s="12"/>
       <c r="E84" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
@@ -16313,7 +16324,7 @@
       </c>
       <c r="D87" s="12"/>
       <c r="E87" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
@@ -31284,7 +31295,7 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -31348,7 +31359,7 @@
         <v>566</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>20210223001</v>
+        <v>20210224001</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32432,9 +32443,9 @@
   <dimension ref="A1:D506"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A474" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A316" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B505" activeCellId="0" sqref="B505"/>
+      <selection pane="bottomLeft" activeCell="D359" activeCellId="0" sqref="D359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.41015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33314,7 +33325,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>744</v>
@@ -33328,7 +33339,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B65" s="13" t="s">
         <v>747</v>
@@ -33342,7 +33353,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>750</v>
@@ -33356,7 +33367,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>753</v>
@@ -33370,7 +33381,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>754</v>
@@ -33384,7 +33395,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>757</v>
@@ -33398,7 +33409,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B70" s="13" t="s">
         <v>758</v>
@@ -33412,7 +33423,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>761</v>
@@ -33426,21 +33437,21 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C72" s="13" t="s">
         <v>764</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B73" s="13" t="s">
         <v>765</v>
@@ -33454,7 +33465,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B74" s="13" t="s">
         <v>768</v>
@@ -33468,10 +33479,10 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C75" s="13" t="s">
         <v>771</v>
@@ -33482,7 +33493,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>773</v>
@@ -33496,7 +33507,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B77" s="13" t="s">
         <v>776</v>
@@ -33510,7 +33521,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B78" s="13" t="s">
         <v>779</v>
@@ -33524,7 +33535,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B79" s="13" t="s">
         <v>782</v>
@@ -33538,7 +33549,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B80" s="13" t="s">
         <v>785</v>
@@ -33552,7 +33563,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B81" s="13" t="s">
         <v>788</v>
@@ -33566,7 +33577,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B82" s="13" t="s">
         <v>791</v>
@@ -33580,7 +33591,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B83" s="13" t="s">
         <v>794</v>
@@ -33594,10 +33605,10 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C84" s="13" t="s">
         <v>797</v>
@@ -33608,10 +33619,10 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C85" s="13" t="s">
         <v>799</v>
@@ -33622,10 +33633,10 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C86" s="13" t="s">
         <v>801</v>
@@ -33636,10 +33647,10 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C87" s="13" t="s">
         <v>803</v>
@@ -33650,10 +33661,10 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C88" s="13" t="s">
         <v>805</v>
@@ -33664,13 +33675,13 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D89" s="13" t="s">
         <v>807</v>
@@ -33678,10 +33689,10 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C90" s="13" t="s">
         <v>808</v>
@@ -33692,10 +33703,10 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C91" s="13" t="s">
         <v>810</v>
@@ -33706,10 +33717,10 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C92" s="13" t="s">
         <v>812</v>
@@ -33720,10 +33731,10 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C93" s="13" t="s">
         <v>814</v>
@@ -33734,10 +33745,10 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C94" s="13" t="s">
         <v>816</v>
@@ -33748,10 +33759,10 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C95" s="13" t="s">
         <v>818</v>
@@ -33762,10 +33773,10 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C96" s="13" t="s">
         <v>820</v>
@@ -33776,10 +33787,10 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C97" s="13" t="s">
         <v>822</v>
@@ -33790,7 +33801,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B98" s="13" t="s">
         <v>824</v>
@@ -33804,7 +33815,7 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B99" s="13" t="s">
         <v>827</v>
@@ -33818,7 +33829,7 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B100" s="13" t="s">
         <v>830</v>
@@ -33832,7 +33843,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B101" s="13" t="s">
         <v>833</v>
@@ -33846,7 +33857,7 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B102" s="13" t="s">
         <v>836</v>
@@ -33860,10 +33871,10 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C103" s="13" t="s">
         <v>839</v>
@@ -33874,10 +33885,10 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C104" s="13" t="s">
         <v>841</v>
@@ -33888,10 +33899,10 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C105" s="13" t="s">
         <v>843</v>
@@ -33902,10 +33913,10 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C106" s="13" t="s">
         <v>845</v>
@@ -33916,10 +33927,10 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C107" s="13" t="s">
         <v>847</v>
@@ -33930,10 +33941,10 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C108" s="13" t="s">
         <v>849</v>
@@ -33944,10 +33955,10 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C109" s="13" t="s">
         <v>851</v>
@@ -33958,7 +33969,7 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B110" s="13" t="s">
         <v>853</v>
@@ -33972,7 +33983,7 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B111" s="13" t="s">
         <v>856</v>
@@ -33986,7 +33997,7 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B112" s="13" t="s">
         <v>859</v>
@@ -34000,7 +34011,7 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B113" s="13" t="s">
         <v>862</v>
@@ -34014,7 +34025,7 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B114" s="13" t="s">
         <v>865</v>
@@ -34028,7 +34039,7 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B115" s="13" t="s">
         <v>868</v>
@@ -34042,7 +34053,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B116" s="13" t="s">
         <v>871</v>
@@ -34056,7 +34067,7 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="13" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B117" s="13" t="s">
         <v>874</v>
@@ -34070,7 +34081,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B118" s="13" t="s">
         <v>877</v>
@@ -34084,7 +34095,7 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B119" s="13" t="s">
         <v>880</v>
@@ -34098,7 +34109,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B120" s="13" t="s">
         <v>883</v>
@@ -34112,7 +34123,7 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B121" s="13" t="s">
         <v>886</v>
@@ -34126,7 +34137,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B122" s="13" t="s">
         <v>889</v>
@@ -34140,7 +34151,7 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="13" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B123" s="13" t="s">
         <v>892</v>
@@ -34154,7 +34165,7 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B124" s="13" t="s">
         <v>895</v>
@@ -34168,7 +34179,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B125" s="13" t="s">
         <v>898</v>
@@ -34182,24 +34193,24 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C126" s="13" t="s">
         <v>901</v>
       </c>
       <c r="D126" s="13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B127" s="13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C127" s="13" t="s">
         <v>902</v>
@@ -34210,10 +34221,10 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="13" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C128" s="13" t="s">
         <v>904</v>
@@ -34224,7 +34235,7 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="13" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B129" s="13" t="s">
         <v>906</v>
@@ -34238,10 +34249,10 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C130" s="13" t="s">
         <v>909</v>
@@ -34252,10 +34263,10 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="13" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B131" s="13" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C131" s="13" t="s">
         <v>911</v>
@@ -34266,7 +34277,7 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B132" s="13" t="s">
         <v>913</v>
@@ -34280,10 +34291,10 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="13" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B133" s="13" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C133" s="13" t="s">
         <v>916</v>
@@ -34294,10 +34305,10 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C134" s="13" t="s">
         <v>918</v>
@@ -34308,7 +34319,7 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="13" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B135" s="13" t="s">
         <v>920</v>
@@ -34322,7 +34333,7 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="13" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B136" s="13" t="s">
         <v>923</v>
@@ -34336,7 +34347,7 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B137" s="13" t="s">
         <v>926</v>
@@ -34350,7 +34361,7 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B138" s="13" t="s">
         <v>929</v>
@@ -34364,7 +34375,7 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="13" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B139" s="13" t="s">
         <v>932</v>
@@ -34378,7 +34389,7 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="13" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B140" s="13" t="s">
         <v>935</v>
@@ -34392,7 +34403,7 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B141" s="13" t="s">
         <v>938</v>
@@ -34406,7 +34417,7 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B142" s="13" t="s">
         <v>941</v>
@@ -34420,7 +34431,7 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B143" s="13" t="s">
         <v>944</v>
@@ -34434,7 +34445,7 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B144" s="13" t="s">
         <v>947</v>
@@ -34448,7 +34459,7 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="13" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B145" s="13" t="s">
         <v>950</v>
@@ -34462,7 +34473,7 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="13" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B146" s="13" t="s">
         <v>953</v>
@@ -34476,7 +34487,7 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B147" s="13" t="s">
         <v>956</v>
@@ -34490,7 +34501,7 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B148" s="13" t="s">
         <v>959</v>
@@ -34504,7 +34515,7 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="13" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B149" s="13" t="s">
         <v>962</v>
@@ -34518,7 +34529,7 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="13" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B150" s="13" t="s">
         <v>965</v>
@@ -34532,7 +34543,7 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="13" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B151" s="13" t="s">
         <v>968</v>
@@ -34546,7 +34557,7 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="13" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B152" s="13" t="s">
         <v>971</v>
@@ -34560,7 +34571,7 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="13" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B153" s="13" t="s">
         <v>974</v>
@@ -34574,7 +34585,7 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B154" s="13" t="s">
         <v>977</v>
@@ -34588,7 +34599,7 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B155" s="13" t="s">
         <v>980</v>
@@ -34602,7 +34613,7 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B156" s="13" t="s">
         <v>983</v>
@@ -34616,7 +34627,7 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="13" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B157" s="13" t="s">
         <v>986</v>
@@ -37374,7 +37385,7 @@
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="13" t="s">
-        <v>264</v>
+        <v>154</v>
       </c>
       <c r="B357" s="13" t="s">
         <v>1253</v>

--- a/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
+++ b/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -4725,7 +4725,7 @@
     <t xml:space="preserve">ind_q4</t>
   </si>
   <si>
-    <t xml:space="preserve">4. Has this participant sign the informed consent?</t>
+    <t xml:space="preserve">4. Has this participant signed the informed consent?</t>
   </si>
   <si>
     <t xml:space="preserve">4. Este participante assinou o consentimento informado?</t>
@@ -4737,7 +4737,7 @@
     <t xml:space="preserve">ind_q5</t>
   </si>
   <si>
-    <t xml:space="preserve">5. Has this participant sign the assent form?</t>
+    <t xml:space="preserve">5. Has this participant signed the assent form?</t>
   </si>
   <si>
     <t xml:space="preserve">5.  O participante assinou o assentimento informado?</t>
@@ -5796,7 +5796,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.33984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="8.69"/>
   </cols>
@@ -6847,7 +6847,7 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.33984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.67"/>
@@ -8336,7 +8336,7 @@
       <selection pane="bottomLeft" activeCell="A91" activeCellId="0" sqref="A91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.33984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.16"/>
@@ -13609,7 +13609,7 @@
       <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.33984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.79"/>
@@ -31295,11 +31295,11 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.33984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.04"/>
@@ -32442,10 +32442,10 @@
   </sheetPr>
   <dimension ref="A1:D506"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A316" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A400" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D359" activeCellId="0" sqref="D359"/>
+      <selection pane="bottomLeft" activeCell="B447" activeCellId="0" sqref="B447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.41015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
+++ b/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -5796,7 +5796,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.3515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="8.69"/>
   </cols>
@@ -6847,7 +6847,7 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.3515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.67"/>
@@ -8336,7 +8336,7 @@
       <selection pane="bottomLeft" activeCell="A91" activeCellId="0" sqref="A91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.3515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.16"/>
@@ -13605,11 +13605,11 @@
   </sheetPr>
   <dimension ref="A1:Y760"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.3515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.79"/>
@@ -31299,7 +31299,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.3515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.04"/>
@@ -31359,7 +31359,7 @@
         <v>566</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>20210224001</v>
+        <v>20210225001</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32442,7 +32442,7 @@
   </sheetPr>
   <dimension ref="A1:D506"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A400" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="B447" activeCellId="0" sqref="B447"/>

--- a/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
+++ b/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3472" uniqueCount="1798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3448" uniqueCount="1798">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -13599,7 +13599,7 @@
   </sheetPr>
   <dimension ref="A1:Y758"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E34" activeCellId="0" sqref="E34"/>
     </sheetView>
   </sheetViews>
@@ -32378,10 +32378,10 @@
   </sheetPr>
   <dimension ref="A1:D506"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A325" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A366" activeCellId="0" sqref="A366"/>
+      <selection pane="bottomLeft" activeCell="C223" activeCellId="0" sqref="C223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.41015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35490,13 +35490,7 @@
         <v>337</v>
       </c>
       <c r="B223" s="13" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C223" s="13" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D223" s="13" t="s">
-        <v>1060</v>
+        <v>857</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35504,13 +35498,7 @@
         <v>338</v>
       </c>
       <c r="B224" s="13" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C224" s="13" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D224" s="13" t="s">
-        <v>1061</v>
+        <v>860</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35518,13 +35506,7 @@
         <v>339</v>
       </c>
       <c r="B225" s="13" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C225" s="13" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D225" s="13" t="s">
-        <v>1062</v>
+        <v>863</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35532,13 +35514,7 @@
         <v>340</v>
       </c>
       <c r="B226" s="13" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C226" s="13" t="s">
-        <v>1063</v>
-      </c>
-      <c r="D226" s="13" t="s">
-        <v>1063</v>
+        <v>866</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35546,13 +35522,7 @@
         <v>341</v>
       </c>
       <c r="B227" s="13" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C227" s="13" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D227" s="13" t="s">
-        <v>1064</v>
+        <v>869</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35560,13 +35530,7 @@
         <v>342</v>
       </c>
       <c r="B228" s="13" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C228" s="13" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D228" s="13" t="s">
-        <v>1065</v>
+        <v>872</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35574,13 +35538,7 @@
         <v>343</v>
       </c>
       <c r="B229" s="13" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C229" s="13" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D229" s="13" t="s">
-        <v>1066</v>
+        <v>875</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35588,13 +35546,7 @@
         <v>344</v>
       </c>
       <c r="B230" s="13" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C230" s="13" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D230" s="13" t="s">
-        <v>1067</v>
+        <v>878</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35602,13 +35554,7 @@
         <v>345</v>
       </c>
       <c r="B231" s="13" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C231" s="13" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D231" s="13" t="s">
-        <v>1068</v>
+        <v>881</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35616,13 +35562,7 @@
         <v>346</v>
       </c>
       <c r="B232" s="13" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C232" s="13" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D232" s="13" t="s">
-        <v>1069</v>
+        <v>884</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35630,13 +35570,7 @@
         <v>347</v>
       </c>
       <c r="B233" s="13" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C233" s="13" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D233" s="13" t="s">
-        <v>1070</v>
+        <v>887</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35644,13 +35578,7 @@
         <v>348</v>
       </c>
       <c r="B234" s="13" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C234" s="13" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D234" s="13" t="s">
-        <v>1071</v>
+        <v>890</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
+++ b/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3446" uniqueCount="1796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3442" uniqueCount="1792">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -3843,12 +3843,6 @@
     <t xml:space="preserve">Data da emigracão não pode ser no futuro &lt;br&gt; Data da emigracao não pode ser antes de Outubro de 2020</t>
   </si>
   <si>
-    <t xml:space="preserve">err_emigrate_date_multiple</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You only need to identify one time (date OR enter an integer OR select 'Don't Know')</t>
-  </si>
-  <si>
     <t xml:space="preserve">death_va_note</t>
   </si>
   <si>
@@ -4948,12 +4942,6 @@
   </si>
   <si>
     <t xml:space="preserve">17b (i). [Ikiwa ndiyo] Matokeo ya kipimo cha malaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_q17bi.hint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">indicate result</t>
   </si>
   <si>
     <t xml:space="preserve">ind_q17c</t>
@@ -5589,7 +5577,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5651,10 +5639,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5784,7 +5768,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.41796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="8.69"/>
   </cols>
@@ -6831,11 +6815,11 @@
   </sheetPr>
   <dimension ref="A1:P1016"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F32" activeCellId="0" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.41796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.4296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.67"/>
@@ -8318,7 +8302,7 @@
       <selection pane="bottomLeft" activeCell="A91" activeCellId="0" sqref="A91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.41796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.4296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.16"/>
@@ -13591,7 +13575,7 @@
       <selection pane="topLeft" activeCell="C38" activeCellId="0" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.41796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.4296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.79"/>
@@ -31223,7 +31207,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.41796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.04"/>
@@ -32364,12 +32348,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D506"/>
+  <dimension ref="A1:D504"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A416" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C223" activeCellId="0" sqref="C223"/>
+      <selection pane="bottomLeft" activeCell="A464" activeCellId="0" sqref="A464"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.41015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -37326,426 +37310,424 @@
       <c r="B363" s="13" t="s">
         <v>1273</v>
       </c>
-      <c r="C363" s="16"/>
-      <c r="D363" s="16"/>
+      <c r="C363" s="13" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D363" s="13" t="s">
+        <v>1275</v>
+      </c>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="13" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="B364" s="13" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="C364" s="13" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="D364" s="13" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="13" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="B365" s="13" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="C365" s="13" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="D365" s="13" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="13" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="B366" s="13" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="C366" s="13" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="D366" s="13" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="13" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="B367" s="13" t="s">
-        <v>1287</v>
-      </c>
-      <c r="C367" s="13" t="s">
-        <v>1288</v>
-      </c>
-      <c r="D367" s="13" t="s">
         <v>1289</v>
+      </c>
+      <c r="C367" s="15" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D367" s="15" t="s">
+        <v>1291</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="13" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="B368" s="13" t="s">
-        <v>1291</v>
-      </c>
-      <c r="C368" s="15" t="s">
-        <v>1292</v>
-      </c>
-      <c r="D368" s="15" t="s">
         <v>1293</v>
+      </c>
+      <c r="C368" s="13" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D368" s="13" t="s">
+        <v>1295</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="13" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="B369" s="13" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="C369" s="13" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="D369" s="13" t="s">
         <v>1297</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="13" t="s">
         <v>1298</v>
       </c>
       <c r="B370" s="13" t="s">
         <v>1299</v>
       </c>
-      <c r="C370" s="13" t="s">
-        <v>1299</v>
-      </c>
-      <c r="D370" s="13" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="371" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C370" s="15" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D370" s="15" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="13" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="B371" s="13" t="s">
-        <v>1301</v>
-      </c>
-      <c r="C371" s="15" t="s">
-        <v>1302</v>
-      </c>
-      <c r="D371" s="15" t="s">
         <v>1303</v>
+      </c>
+      <c r="C371" s="13" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D371" s="13" t="s">
+        <v>1305</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="13" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="B372" s="13" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="C372" s="13" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="D372" s="13" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="13" t="s">
-        <v>1308</v>
+        <v>26</v>
       </c>
       <c r="B373" s="13" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="C373" s="13" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D373" s="13" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="13" t="s">
-        <v>26</v>
+        <v>1313</v>
       </c>
       <c r="B374" s="13" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="C374" s="13" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="D374" s="13" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="13" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="B375" s="13" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="C375" s="13" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="D375" s="13" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="13" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="B376" s="13" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="C376" s="13" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="D376" s="13" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="13" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="B377" s="13" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="C377" s="13" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="D377" s="13" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="13" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="B378" s="13" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="C378" s="13" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="D378" s="13" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="13" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="B379" s="13" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="C379" s="13" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="D379" s="13" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="13" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="B380" s="13" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="C380" s="13" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="D380" s="13" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="13" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="B381" s="13" t="s">
-        <v>1340</v>
-      </c>
-      <c r="C381" s="13" t="s">
-        <v>1341</v>
-      </c>
-      <c r="D381" s="13" t="s">
         <v>1342</v>
       </c>
-    </row>
-    <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C381" s="15" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D381" s="15" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="13" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="B382" s="13" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="C382" s="15" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="D382" s="15" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="383" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="13" t="s">
-        <v>1347</v>
-      </c>
-      <c r="B383" s="13" t="s">
         <v>1348</v>
       </c>
-      <c r="C383" s="15" t="s">
+    </row>
+    <row r="384" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B384" s="13" t="s">
         <v>1349</v>
       </c>
-      <c r="D383" s="15" t="s">
+      <c r="C384" s="15" t="s">
         <v>1350</v>
       </c>
-    </row>
-    <row r="385" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D384" s="15" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="32.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A385" s="13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B385" s="13" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="C385" s="15" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="D385" s="15" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="386" customFormat="false" ht="32.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B386" s="13" t="s">
-        <v>1354</v>
-      </c>
-      <c r="C386" s="15" t="s">
         <v>1355</v>
       </c>
-      <c r="D386" s="15" t="s">
+      <c r="C386" s="13" t="s">
         <v>1356</v>
+      </c>
+      <c r="D386" s="13" t="s">
+        <v>1357</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="13" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B387" s="13" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="C387" s="13" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="D387" s="13" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="13" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B388" s="13" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="C388" s="13" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="D388" s="13" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="13" t="s">
-        <v>50</v>
+        <v>1364</v>
       </c>
       <c r="B389" s="13" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="C389" s="13" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="D389" s="13" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="13" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="B390" s="13" t="s">
-        <v>1367</v>
-      </c>
-      <c r="C390" s="13" t="s">
-        <v>1368</v>
-      </c>
-      <c r="D390" s="13" t="s">
         <v>1369</v>
+      </c>
+      <c r="C390" s="15" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D390" s="15" t="s">
+        <v>1371</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="13" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="B391" s="13" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="C391" s="15" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="D391" s="15" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="13" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="B392" s="13" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="C392" s="15" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="D392" s="15" t="s">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="393" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="13" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="B393" s="13" t="s">
-        <v>1379</v>
-      </c>
-      <c r="C393" s="15" t="s">
-        <v>1380</v>
-      </c>
-      <c r="D393" s="15" t="s">
         <v>1381</v>
+      </c>
+      <c r="C393" s="13" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D393" s="13" t="s">
+        <v>1383</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="13" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="B394" s="13" t="s">
-        <v>1383</v>
-      </c>
-      <c r="C394" s="13" t="s">
-        <v>1384</v>
-      </c>
-      <c r="D394" s="13" t="s">
         <v>1385</v>
       </c>
     </row>
@@ -37757,303 +37739,309 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="13" t="s">
+    <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A397" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B397" s="13" t="s">
         <v>1388</v>
       </c>
-      <c r="B396" s="13" t="s">
+      <c r="C397" s="13" t="s">
         <v>1389</v>
+      </c>
+      <c r="D397" s="13" t="s">
+        <v>1390</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B398" s="13" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="C398" s="13" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="D398" s="13" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="13" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B399" s="13" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="C399" s="13" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="D399" s="13" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="13" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="B400" s="13" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="C400" s="13" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="D400" s="13" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="13" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B401" s="13" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="C401" s="13" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="D401" s="13" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B402" s="13" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="C402" s="13" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="D402" s="13" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B403" s="13" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="C403" s="13" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="D403" s="13" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="13" t="s">
-        <v>69</v>
+        <v>1409</v>
       </c>
       <c r="B404" s="13" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="C404" s="13" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="D404" s="13" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="13" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="B405" s="13" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="C405" s="13" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="D405" s="13" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="13" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="B406" s="13" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="C406" s="13" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="D406" s="13" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="13" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="B407" s="13" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="C407" s="13" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="D407" s="13" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="13" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="B408" s="13" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="C408" s="13" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="D408" s="13" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="13" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="B409" s="13" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="C409" s="13" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="D409" s="13" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="13" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="B410" s="13" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="C410" s="13" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="D410" s="13" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="13" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="B411" s="13" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="C411" s="13" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="D411" s="13" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="13" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="B412" s="13" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="C412" s="13" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="D412" s="13" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="13" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="B413" s="13" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="C413" s="13" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="D413" s="13" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="13" t="s">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="B414" s="13" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="C414" s="13" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="D414" s="13" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="13" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="B415" s="13" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="C415" s="13" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="D415" s="13" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="13" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="B416" s="13" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
       <c r="C416" s="13" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="D416" s="13" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="13" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="B417" s="13" t="s">
-        <v>1460</v>
+        <v>1406</v>
       </c>
       <c r="C417" s="13" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="D417" s="13" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="13" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="B418" s="13" t="s">
-        <v>1408</v>
+        <v>1465</v>
       </c>
       <c r="C418" s="13" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="D418" s="13" t="s">
         <v>1465</v>
@@ -38067,1124 +38055,1130 @@
         <v>1467</v>
       </c>
       <c r="C419" s="13" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="D419" s="13" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="13" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="B420" s="13" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="C420" s="13" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="D420" s="13" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="13" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="B421" s="13" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="C421" s="13" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="D421" s="13" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="13" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="B422" s="13" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="C422" s="13" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="D422" s="13" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="13" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="B423" s="13" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
       <c r="C423" s="13" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="D423" s="13" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="13" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="B424" s="13" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="C424" s="13" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="D424" s="13" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="13" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="B425" s="13" t="s">
-        <v>1489</v>
+        <v>1406</v>
       </c>
       <c r="C425" s="13" t="s">
-        <v>1490</v>
+        <v>1462</v>
       </c>
       <c r="D425" s="13" t="s">
-        <v>1491</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="13" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B426" s="13" t="s">
         <v>1492</v>
       </c>
-      <c r="B426" s="13" t="s">
-        <v>1408</v>
-      </c>
       <c r="C426" s="13" t="s">
-        <v>1464</v>
+        <v>1493</v>
       </c>
       <c r="D426" s="13" t="s">
-        <v>1465</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="13" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="B427" s="13" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="C427" s="13" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="D427" s="13" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="13" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="B428" s="13" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="C428" s="13" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="D428" s="13" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="13" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="B429" s="13" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="C429" s="13" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="D429" s="13" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="13" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="B430" s="13" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="C430" s="13" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="D430" s="13" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="13" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="B431" s="13" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="C431" s="13" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="D431" s="13" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="13" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="B432" s="13" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="C432" s="13" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="D432" s="13" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="13" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="B433" s="13" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="C433" s="13" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="D433" s="13" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="13" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="B434" s="13" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="C434" s="13" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="D434" s="13" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="13" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="B435" s="13" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="C435" s="13" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="D435" s="13" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="13" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="B436" s="13" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="C436" s="13" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="D436" s="13" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="13" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="B437" s="13" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="C437" s="13" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="D437" s="13" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="13" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="B438" s="13" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="C438" s="13" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="D438" s="13" t="s">
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A439" s="13" t="s">
-        <v>1541</v>
-      </c>
-      <c r="B439" s="13" t="s">
         <v>1542</v>
       </c>
-      <c r="C439" s="13" t="s">
+    </row>
+    <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A440" s="13" t="s">
         <v>1543</v>
       </c>
-      <c r="D439" s="13" t="s">
+      <c r="B440" s="13" t="s">
         <v>1544</v>
+      </c>
+      <c r="C440" s="13" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D440" s="13" t="s">
+        <v>1546</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="13" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="B441" s="13" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="C441" s="13" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="D441" s="13" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="13" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="B442" s="13" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="C442" s="13" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="D442" s="13" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="13" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="B443" s="13" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="C443" s="13" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="D443" s="13" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="13" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="B444" s="13" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="C444" s="13" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="D444" s="13" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="13" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="B445" s="13" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="C445" s="13" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="D445" s="13" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="13" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="B446" s="13" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
       <c r="C446" s="13" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="D446" s="13" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="13" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="B447" s="13" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="C447" s="13" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="D447" s="13" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="13" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="B448" s="13" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="C448" s="13" t="s">
-        <v>1575</v>
+        <v>1577</v>
       </c>
       <c r="D448" s="13" t="s">
-        <v>1576</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="13" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="B449" s="13" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="C449" s="13" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c r="D449" s="13" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="13" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="B450" s="13" t="s">
-        <v>1582</v>
+        <v>1584</v>
       </c>
       <c r="C450" s="13" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
       <c r="D450" s="13" t="s">
-        <v>1584</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="13" t="s">
-        <v>1585</v>
+        <v>1587</v>
       </c>
       <c r="B451" s="13" t="s">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="C451" s="13" t="s">
-        <v>1587</v>
+        <v>1589</v>
       </c>
       <c r="D451" s="13" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="13" t="s">
-        <v>1589</v>
+        <v>1591</v>
       </c>
       <c r="B452" s="13" t="s">
-        <v>1590</v>
+        <v>1592</v>
       </c>
       <c r="C452" s="13" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="D452" s="13" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="13" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c r="B453" s="13" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
       <c r="C453" s="13" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c r="D453" s="13" t="s">
-        <v>1596</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="13" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="B454" s="13" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="C454" s="13" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="D454" s="13" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="13" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="B455" s="13" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="C455" s="13" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="D455" s="13" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="13" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="B456" s="13" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="C456" s="13" t="s">
-        <v>1607</v>
+        <v>1609</v>
       </c>
       <c r="D456" s="13" t="s">
-        <v>1608</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="13" t="s">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="B457" s="13" t="s">
-        <v>1610</v>
+        <v>1612</v>
       </c>
       <c r="C457" s="13" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="D457" s="13" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="13" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="B458" s="13" t="s">
-        <v>1614</v>
+        <v>1616</v>
       </c>
       <c r="C458" s="13" t="s">
-        <v>1615</v>
+        <v>1617</v>
       </c>
       <c r="D458" s="13" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="13" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c r="B459" s="13" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="C459" s="13" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="D459" s="13" t="s">
-        <v>1620</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="13" t="s">
-        <v>1621</v>
+        <v>1623</v>
       </c>
       <c r="B460" s="13" t="s">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="C460" s="13" t="s">
-        <v>1623</v>
+        <v>1625</v>
       </c>
       <c r="D460" s="13" t="s">
-        <v>1624</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="13" t="s">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="B461" s="13" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="C461" s="13" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="D461" s="13" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="13" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="B462" s="13" t="s">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="C462" s="13" t="s">
-        <v>1631</v>
+        <v>1633</v>
       </c>
       <c r="D462" s="13" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="13" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="B463" s="13" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="C463" s="13" t="s">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c r="D463" s="13" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="13" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="B464" s="13" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="C464" s="13" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="D464" s="13" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="13" t="s">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="B465" s="13" t="s">
-        <v>1642</v>
+        <v>1644</v>
+      </c>
+      <c r="C465" s="13" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D465" s="13" t="s">
+        <v>1646</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="13" t="s">
-        <v>1643</v>
+        <v>1647</v>
       </c>
       <c r="B466" s="13" t="s">
-        <v>1644</v>
+        <v>1648</v>
       </c>
       <c r="C466" s="13" t="s">
-        <v>1645</v>
+        <v>1649</v>
       </c>
       <c r="D466" s="13" t="s">
-        <v>1646</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="13" t="s">
-        <v>1647</v>
+        <v>1651</v>
       </c>
       <c r="B467" s="13" t="s">
-        <v>1648</v>
+        <v>1652</v>
       </c>
       <c r="C467" s="13" t="s">
-        <v>1649</v>
+        <v>1653</v>
       </c>
       <c r="D467" s="13" t="s">
-        <v>1650</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="13" t="s">
-        <v>1651</v>
+        <v>1655</v>
       </c>
       <c r="B468" s="13" t="s">
-        <v>1652</v>
+        <v>1656</v>
       </c>
       <c r="C468" s="13" t="s">
-        <v>1653</v>
+        <v>1657</v>
       </c>
       <c r="D468" s="13" t="s">
-        <v>1654</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="13" t="s">
-        <v>1655</v>
+        <v>1659</v>
       </c>
       <c r="B469" s="13" t="s">
-        <v>1656</v>
+        <v>1660</v>
       </c>
       <c r="C469" s="13" t="s">
-        <v>1657</v>
+        <v>1661</v>
       </c>
       <c r="D469" s="13" t="s">
-        <v>1658</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="13" t="s">
-        <v>1659</v>
+        <v>1663</v>
       </c>
       <c r="B470" s="13" t="s">
-        <v>1660</v>
+        <v>1664</v>
       </c>
       <c r="C470" s="13" t="s">
-        <v>1661</v>
+        <v>1665</v>
       </c>
       <c r="D470" s="13" t="s">
-        <v>1662</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="13" t="s">
-        <v>1663</v>
+        <v>1667</v>
       </c>
       <c r="B471" s="13" t="s">
-        <v>1664</v>
+        <v>1668</v>
       </c>
       <c r="C471" s="13" t="s">
-        <v>1665</v>
+        <v>1669</v>
       </c>
       <c r="D471" s="13" t="s">
-        <v>1666</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="13" t="s">
-        <v>1667</v>
+        <v>1671</v>
       </c>
       <c r="B472" s="13" t="s">
-        <v>1668</v>
+        <v>1672</v>
       </c>
       <c r="C472" s="13" t="s">
-        <v>1669</v>
+        <v>1673</v>
       </c>
       <c r="D472" s="13" t="s">
-        <v>1670</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="13" t="s">
-        <v>1671</v>
+        <v>1675</v>
       </c>
       <c r="B473" s="13" t="s">
-        <v>1672</v>
+        <v>1676</v>
       </c>
       <c r="C473" s="13" t="s">
-        <v>1673</v>
+        <v>1677</v>
       </c>
       <c r="D473" s="13" t="s">
-        <v>1674</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="13" t="s">
-        <v>1675</v>
+        <v>1679</v>
       </c>
       <c r="B474" s="13" t="s">
-        <v>1676</v>
+        <v>1680</v>
       </c>
       <c r="C474" s="13" t="s">
-        <v>1677</v>
+        <v>1681</v>
       </c>
       <c r="D474" s="13" t="s">
-        <v>1678</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="13" t="s">
-        <v>1679</v>
+        <v>1683</v>
       </c>
       <c r="B475" s="13" t="s">
-        <v>1680</v>
+        <v>1684</v>
       </c>
       <c r="C475" s="13" t="s">
-        <v>1681</v>
+        <v>1685</v>
       </c>
       <c r="D475" s="13" t="s">
-        <v>1682</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="13" t="s">
-        <v>1683</v>
+        <v>1687</v>
       </c>
       <c r="B476" s="13" t="s">
-        <v>1684</v>
+        <v>1688</v>
       </c>
       <c r="C476" s="13" t="s">
-        <v>1685</v>
+        <v>1689</v>
       </c>
       <c r="D476" s="13" t="s">
-        <v>1686</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="13" t="s">
-        <v>1687</v>
+        <v>1691</v>
       </c>
       <c r="B477" s="13" t="s">
-        <v>1688</v>
+        <v>1692</v>
       </c>
       <c r="C477" s="13" t="s">
-        <v>1689</v>
+        <v>1693</v>
       </c>
       <c r="D477" s="13" t="s">
-        <v>1690</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="13" t="s">
-        <v>1691</v>
+        <v>1695</v>
       </c>
       <c r="B478" s="13" t="s">
-        <v>1692</v>
+        <v>1696</v>
       </c>
       <c r="C478" s="13" t="s">
-        <v>1693</v>
+        <v>1697</v>
       </c>
       <c r="D478" s="13" t="s">
-        <v>1694</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="13" t="s">
-        <v>1695</v>
+        <v>1699</v>
       </c>
       <c r="B479" s="13" t="s">
-        <v>1696</v>
+        <v>1700</v>
       </c>
       <c r="C479" s="13" t="s">
-        <v>1697</v>
+        <v>1701</v>
       </c>
       <c r="D479" s="13" t="s">
-        <v>1698</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="13" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="B480" s="13" t="s">
-        <v>1700</v>
+        <v>1704</v>
       </c>
       <c r="C480" s="13" t="s">
-        <v>1701</v>
+        <v>1705</v>
       </c>
       <c r="D480" s="13" t="s">
-        <v>1702</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="13" t="s">
-        <v>1703</v>
+        <v>1707</v>
       </c>
       <c r="B481" s="13" t="s">
-        <v>1704</v>
+        <v>1708</v>
       </c>
       <c r="C481" s="13" t="s">
-        <v>1705</v>
+        <v>1709</v>
       </c>
       <c r="D481" s="13" t="s">
-        <v>1706</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="13" t="s">
-        <v>1707</v>
+        <v>1711</v>
       </c>
       <c r="B482" s="13" t="s">
-        <v>1708</v>
+        <v>1712</v>
       </c>
       <c r="C482" s="13" t="s">
-        <v>1709</v>
+        <v>1713</v>
       </c>
       <c r="D482" s="13" t="s">
-        <v>1710</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="13" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="B483" s="13" t="s">
-        <v>1712</v>
+        <v>1716</v>
       </c>
       <c r="C483" s="13" t="s">
-        <v>1713</v>
+        <v>1717</v>
       </c>
       <c r="D483" s="13" t="s">
-        <v>1714</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="13" t="s">
-        <v>1715</v>
+        <v>1719</v>
       </c>
       <c r="B484" s="13" t="s">
-        <v>1716</v>
+        <v>1720</v>
       </c>
       <c r="C484" s="13" t="s">
-        <v>1717</v>
+        <v>1721</v>
       </c>
       <c r="D484" s="13" t="s">
-        <v>1718</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="13" t="s">
-        <v>1719</v>
+        <v>1723</v>
       </c>
       <c r="B485" s="13" t="s">
-        <v>1720</v>
+        <v>1724</v>
       </c>
       <c r="C485" s="13" t="s">
-        <v>1721</v>
+        <v>1725</v>
       </c>
       <c r="D485" s="13" t="s">
-        <v>1722</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="13" t="s">
-        <v>1723</v>
+        <v>1727</v>
       </c>
       <c r="B486" s="13" t="s">
-        <v>1724</v>
+        <v>1728</v>
       </c>
       <c r="C486" s="13" t="s">
-        <v>1725</v>
+        <v>1729</v>
       </c>
       <c r="D486" s="13" t="s">
-        <v>1726</v>
-      </c>
-    </row>
-    <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A487" s="13" t="s">
-        <v>1727</v>
-      </c>
-      <c r="B487" s="13" t="s">
-        <v>1728</v>
-      </c>
-      <c r="C487" s="13" t="s">
-        <v>1729</v>
-      </c>
-      <c r="D487" s="13" t="s">
         <v>1730</v>
       </c>
     </row>
-    <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="488" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="13" t="s">
         <v>1731</v>
       </c>
       <c r="B488" s="13" t="s">
         <v>1732</v>
       </c>
-      <c r="C488" s="13" t="s">
+      <c r="C488" s="15" t="s">
         <v>1733</v>
       </c>
-      <c r="D488" s="13" t="s">
+      <c r="D488" s="15" t="s">
         <v>1734</v>
+      </c>
+    </row>
+    <row r="489" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A489" s="13" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B489" s="13" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C489" s="15" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D489" s="15" t="s">
+        <v>1738</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="13" t="s">
-        <v>1735</v>
+        <v>1739</v>
       </c>
       <c r="B490" s="13" t="s">
-        <v>1736</v>
+        <v>1740</v>
       </c>
       <c r="C490" s="15" t="s">
-        <v>1737</v>
+        <v>1741</v>
       </c>
       <c r="D490" s="15" t="s">
-        <v>1738</v>
-      </c>
-    </row>
-    <row r="491" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="491" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="13" t="s">
-        <v>1739</v>
+        <v>1743</v>
       </c>
       <c r="B491" s="13" t="s">
-        <v>1740</v>
+        <v>1744</v>
       </c>
       <c r="C491" s="15" t="s">
-        <v>1741</v>
+        <v>1745</v>
       </c>
       <c r="D491" s="15" t="s">
-        <v>1742</v>
-      </c>
-    </row>
-    <row r="492" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="492" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="13" t="s">
-        <v>1743</v>
+        <v>1747</v>
       </c>
       <c r="B492" s="13" t="s">
-        <v>1744</v>
+        <v>1748</v>
       </c>
       <c r="C492" s="15" t="s">
-        <v>1745</v>
+        <v>1749</v>
       </c>
       <c r="D492" s="15" t="s">
-        <v>1746</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="13" t="s">
-        <v>1747</v>
+        <v>1751</v>
       </c>
       <c r="B493" s="13" t="s">
-        <v>1748</v>
+        <v>1752</v>
       </c>
       <c r="C493" s="15" t="s">
-        <v>1749</v>
+        <v>1753</v>
       </c>
       <c r="D493" s="15" t="s">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="494" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="494" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="13" t="s">
-        <v>1751</v>
+        <v>1755</v>
       </c>
       <c r="B494" s="13" t="s">
-        <v>1752</v>
+        <v>1756</v>
       </c>
       <c r="C494" s="15" t="s">
-        <v>1753</v>
+        <v>1757</v>
       </c>
       <c r="D494" s="15" t="s">
-        <v>1754</v>
-      </c>
-    </row>
-    <row r="495" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="495" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="13" t="s">
-        <v>1755</v>
+        <v>1759</v>
       </c>
       <c r="B495" s="13" t="s">
-        <v>1756</v>
+        <v>1760</v>
       </c>
       <c r="C495" s="15" t="s">
-        <v>1757</v>
+        <v>1761</v>
       </c>
       <c r="D495" s="15" t="s">
-        <v>1758</v>
-      </c>
-    </row>
-    <row r="496" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="496" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="13" t="s">
-        <v>1759</v>
+        <v>1763</v>
       </c>
       <c r="B496" s="13" t="s">
-        <v>1760</v>
+        <v>1764</v>
       </c>
       <c r="C496" s="15" t="s">
-        <v>1761</v>
+        <v>1765</v>
       </c>
       <c r="D496" s="15" t="s">
-        <v>1762</v>
-      </c>
-    </row>
-    <row r="497" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="497" customFormat="false" ht="16.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A497" s="13" t="s">
-        <v>1763</v>
-      </c>
-      <c r="B497" s="13" t="s">
-        <v>1764</v>
+        <v>1767</v>
+      </c>
+      <c r="B497" s="16" t="s">
+        <v>1768</v>
       </c>
       <c r="C497" s="15" t="s">
-        <v>1765</v>
+        <v>1769</v>
       </c>
       <c r="D497" s="15" t="s">
-        <v>1766</v>
-      </c>
-    </row>
-    <row r="498" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="13" t="s">
-        <v>1767</v>
+        <v>1771</v>
       </c>
       <c r="B498" s="13" t="s">
-        <v>1768</v>
-      </c>
-      <c r="C498" s="15" t="s">
-        <v>1769</v>
-      </c>
-      <c r="D498" s="15" t="s">
-        <v>1770</v>
-      </c>
-    </row>
-    <row r="499" customFormat="false" ht="16.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1772</v>
+      </c>
+      <c r="C498" s="13" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D498" s="13" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="13" t="s">
-        <v>1771</v>
-      </c>
-      <c r="B499" s="17" t="s">
-        <v>1772</v>
-      </c>
-      <c r="C499" s="15" t="s">
-        <v>1773</v>
-      </c>
-      <c r="D499" s="15" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1775</v>
+      </c>
+      <c r="B499" s="13" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C499" s="13" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D499" s="13" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="500" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="13" t="s">
-        <v>1775</v>
+        <v>1779</v>
       </c>
       <c r="B500" s="13" t="s">
-        <v>1776</v>
-      </c>
-      <c r="C500" s="13" t="s">
-        <v>1777</v>
-      </c>
-      <c r="D500" s="13" t="s">
-        <v>1778</v>
-      </c>
-    </row>
-    <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1780</v>
+      </c>
+      <c r="C500" s="15" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D500" s="15" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="501" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="13" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
       <c r="B501" s="13" t="s">
-        <v>1780</v>
-      </c>
-      <c r="C501" s="13" t="s">
-        <v>1781</v>
-      </c>
-      <c r="D501" s="13" t="s">
         <v>1782</v>
+      </c>
+      <c r="C501" s="15" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D501" s="15" t="s">
+        <v>1375</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39195,70 +39189,42 @@
         <v>1784</v>
       </c>
       <c r="C502" s="15" t="s">
-        <v>1372</v>
+        <v>1378</v>
       </c>
       <c r="D502" s="15" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="503" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A503" s="13" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A503" s="17" t="s">
         <v>1785</v>
       </c>
       <c r="B503" s="13" t="s">
         <v>1786</v>
       </c>
-      <c r="C503" s="15" t="s">
-        <v>1376</v>
-      </c>
-      <c r="D503" s="15" t="s">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="504" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C503" s="13" t="s">
+        <v>1787</v>
+      </c>
+      <c r="D503" s="13" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="13" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="B504" s="13" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C504" s="15" t="s">
-        <v>1380</v>
-      </c>
-      <c r="D504" s="15" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A505" s="18" t="s">
         <v>1789</v>
       </c>
-      <c r="B505" s="13" t="s">
+      <c r="C504" s="13" t="s">
         <v>1790</v>
       </c>
-      <c r="C505" s="13" t="s">
+      <c r="D504" s="13" t="s">
         <v>1791</v>
       </c>
-      <c r="D505" s="13" t="s">
-        <v>1791</v>
-      </c>
-    </row>
-    <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A506" s="13" t="s">
-        <v>1792</v>
-      </c>
-      <c r="B506" s="13" t="s">
-        <v>1793</v>
-      </c>
-      <c r="C506" s="13" t="s">
-        <v>1794</v>
-      </c>
-      <c r="D506" s="13" t="s">
-        <v>1795</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:D1 B398:D406 B410:D410 B413:D439 B506:B1048576 C69:D357 C370:D370 C395:D489 D506:D1048576 C500:D501 C372:D375 C506:C1048576 C364:D367 C384:D384 C1:D64 C392:C393 B500:B504 C503:C504 B505:D505 B1:B498">
+  <conditionalFormatting sqref="B1:D1 B397:D405 B409:D409 B412:D438 B504:B1048576 C69:D357 C369:D369 C464:D487 D504:D1048576 C498:D499 C371:D374 C504:C1048576 C363:D366 C383:D383 C1:D64 C391:C392 B498:B502 C501:C502 B503:D503 B1:B496 C394:D463">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>

--- a/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
+++ b/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3436" uniqueCount="1784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3438" uniqueCount="1786">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -4168,6 +4168,12 @@
   </si>
   <si>
     <t xml:space="preserve">The answer to Q28 cannot be earlier than that of Q27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unexpected_trips</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unexpected number of trips recorded</t>
   </si>
   <si>
     <t xml:space="preserve">1. Given name:</t>
@@ -5752,10 +5758,10 @@
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A395:B395 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.46484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="8.69"/>
   </cols>
@@ -6802,11 +6808,11 @@
   </sheetPr>
   <dimension ref="A1:Q1016"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G27" activeCellId="1" sqref="A395:B395 G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.46484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.48046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.67"/>
@@ -8298,10 +8304,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A91" activeCellId="0" sqref="A91"/>
+      <selection pane="bottomLeft" activeCell="A91" activeCellId="1" sqref="A395:B395 A91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.46484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.48046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.16"/>
@@ -13571,10 +13577,10 @@
   <dimension ref="A1:Y758"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C38" activeCellId="0" sqref="C38"/>
+      <selection pane="topLeft" activeCell="C38" activeCellId="1" sqref="A395:B395 C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.46484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.48046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.79"/>
@@ -31203,10 +31209,10 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="A395:B395 B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.46484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.04"/>
@@ -32347,12 +32353,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D503"/>
+  <dimension ref="A1:D504"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A350" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B496" activeCellId="0" sqref="B496"/>
+      <selection pane="bottomLeft" activeCell="A395" activeCellId="0" sqref="A395:B395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.41015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -37712,309 +37718,303 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B396" s="14" t="s">
+    <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A395" s="14" t="s">
         <v>1381</v>
       </c>
-      <c r="C396" s="14" t="s">
+      <c r="B395" s="14" t="s">
         <v>1382</v>
-      </c>
-      <c r="D396" s="14" t="s">
-        <v>1383</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B397" s="14" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C397" s="14" t="s">
         <v>1384</v>
       </c>
-      <c r="C397" s="14" t="s">
+      <c r="D397" s="14" t="s">
         <v>1385</v>
-      </c>
-      <c r="D397" s="14" t="s">
-        <v>1386</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B398" s="14" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C398" s="14" t="s">
         <v>1387</v>
       </c>
-      <c r="C398" s="14" t="s">
+      <c r="D398" s="14" t="s">
         <v>1388</v>
-      </c>
-      <c r="D398" s="14" t="s">
-        <v>1389</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="14" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B399" s="14" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C399" s="14" t="s">
         <v>1390</v>
       </c>
-      <c r="C399" s="14" t="s">
+      <c r="D399" s="14" t="s">
         <v>1391</v>
-      </c>
-      <c r="D399" s="14" t="s">
-        <v>1392</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="14" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B400" s="14" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C400" s="14" t="s">
         <v>1393</v>
       </c>
-      <c r="C400" s="14" t="s">
+      <c r="D400" s="14" t="s">
         <v>1394</v>
-      </c>
-      <c r="D400" s="14" t="s">
-        <v>1395</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B401" s="14" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C401" s="14" t="s">
         <v>1396</v>
       </c>
-      <c r="C401" s="14" t="s">
+      <c r="D401" s="14" t="s">
         <v>1397</v>
-      </c>
-      <c r="D401" s="14" t="s">
-        <v>1398</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B402" s="14" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C402" s="14" t="s">
         <v>1399</v>
       </c>
-      <c r="C402" s="14" t="s">
+      <c r="D402" s="14" t="s">
         <v>1400</v>
-      </c>
-      <c r="D402" s="14" t="s">
-        <v>1401</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B403" s="14" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C403" s="14" t="s">
         <v>1402</v>
       </c>
-      <c r="B403" s="14" t="s">
+      <c r="D403" s="14" t="s">
         <v>1403</v>
-      </c>
-      <c r="C403" s="14" t="s">
-        <v>1404</v>
-      </c>
-      <c r="D403" s="14" t="s">
-        <v>1405</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="14" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B404" s="14" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C404" s="14" t="s">
         <v>1406</v>
       </c>
-      <c r="B404" s="14" t="s">
+      <c r="D404" s="14" t="s">
         <v>1407</v>
-      </c>
-      <c r="C404" s="14" t="s">
-        <v>1408</v>
-      </c>
-      <c r="D404" s="14" t="s">
-        <v>1409</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="14" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B405" s="14" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C405" s="14" t="s">
         <v>1410</v>
       </c>
-      <c r="B405" s="14" t="s">
+      <c r="D405" s="14" t="s">
         <v>1411</v>
-      </c>
-      <c r="C405" s="14" t="s">
-        <v>1412</v>
-      </c>
-      <c r="D405" s="14" t="s">
-        <v>1413</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="14" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B406" s="14" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C406" s="14" t="s">
         <v>1414</v>
       </c>
-      <c r="B406" s="14" t="s">
+      <c r="D406" s="14" t="s">
         <v>1415</v>
-      </c>
-      <c r="C406" s="14" t="s">
-        <v>1416</v>
-      </c>
-      <c r="D406" s="14" t="s">
-        <v>1417</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="14" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B407" s="14" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C407" s="14" t="s">
         <v>1418</v>
       </c>
-      <c r="B407" s="14" t="s">
+      <c r="D407" s="14" t="s">
         <v>1419</v>
-      </c>
-      <c r="C407" s="14" t="s">
-        <v>1420</v>
-      </c>
-      <c r="D407" s="14" t="s">
-        <v>1421</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="14" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B408" s="14" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C408" s="14" t="s">
         <v>1422</v>
       </c>
-      <c r="B408" s="14" t="s">
+      <c r="D408" s="14" t="s">
         <v>1423</v>
-      </c>
-      <c r="C408" s="14" t="s">
-        <v>1424</v>
-      </c>
-      <c r="D408" s="14" t="s">
-        <v>1425</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="14" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B409" s="14" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C409" s="14" t="s">
         <v>1426</v>
       </c>
-      <c r="B409" s="14" t="s">
+      <c r="D409" s="14" t="s">
         <v>1427</v>
-      </c>
-      <c r="C409" s="14" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D409" s="14" t="s">
-        <v>1429</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="14" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B410" s="14" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C410" s="14" t="s">
         <v>1430</v>
       </c>
-      <c r="B410" s="14" t="s">
+      <c r="D410" s="14" t="s">
         <v>1431</v>
-      </c>
-      <c r="C410" s="14" t="s">
-        <v>1432</v>
-      </c>
-      <c r="D410" s="14" t="s">
-        <v>1433</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="14" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B411" s="14" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C411" s="14" t="s">
         <v>1434</v>
       </c>
-      <c r="B411" s="14" t="s">
+      <c r="D411" s="14" t="s">
         <v>1435</v>
-      </c>
-      <c r="C411" s="14" t="s">
-        <v>1436</v>
-      </c>
-      <c r="D411" s="14" t="s">
-        <v>1437</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B412" s="14" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C412" s="14" t="s">
         <v>1438</v>
       </c>
-      <c r="B412" s="14" t="s">
+      <c r="D412" s="14" t="s">
         <v>1439</v>
-      </c>
-      <c r="C412" s="14" t="s">
-        <v>1440</v>
-      </c>
-      <c r="D412" s="14" t="s">
-        <v>1441</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="14" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B413" s="14" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C413" s="14" t="s">
         <v>1442</v>
       </c>
-      <c r="B413" s="14" t="s">
+      <c r="D413" s="14" t="s">
         <v>1443</v>
-      </c>
-      <c r="C413" s="14" t="s">
-        <v>1444</v>
-      </c>
-      <c r="D413" s="14" t="s">
-        <v>1445</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="14" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B414" s="14" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C414" s="14" t="s">
         <v>1446</v>
       </c>
-      <c r="B414" s="14" t="s">
+      <c r="D414" s="14" t="s">
         <v>1447</v>
-      </c>
-      <c r="C414" s="14" t="s">
-        <v>1448</v>
-      </c>
-      <c r="D414" s="14" t="s">
-        <v>1449</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="14" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B415" s="14" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C415" s="14" t="s">
         <v>1450</v>
       </c>
-      <c r="B415" s="14" t="s">
+      <c r="D415" s="14" t="s">
         <v>1451</v>
-      </c>
-      <c r="C415" s="14" t="s">
-        <v>1452</v>
-      </c>
-      <c r="D415" s="14" t="s">
-        <v>1453</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="14" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B416" s="14" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C416" s="14" t="s">
         <v>1454</v>
       </c>
-      <c r="B416" s="14" t="s">
-        <v>1399</v>
-      </c>
-      <c r="C416" s="14" t="s">
+      <c r="D416" s="14" t="s">
         <v>1455</v>
-      </c>
-      <c r="D416" s="14" t="s">
-        <v>1456</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="14" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B417" s="14" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C417" s="14" t="s">
         <v>1457</v>
-      </c>
-      <c r="B417" s="14" t="s">
-        <v>1458</v>
-      </c>
-      <c r="C417" s="14" t="s">
-        <v>1458</v>
       </c>
       <c r="D417" s="14" t="s">
         <v>1458</v>
@@ -38028,1116 +38028,1116 @@
         <v>1460</v>
       </c>
       <c r="C418" s="14" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="D418" s="14" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="14" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B419" s="14" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C419" s="14" t="s">
         <v>1463</v>
       </c>
-      <c r="B419" s="14" t="s">
+      <c r="D419" s="14" t="s">
         <v>1464</v>
-      </c>
-      <c r="C419" s="14" t="s">
-        <v>1465</v>
-      </c>
-      <c r="D419" s="14" t="s">
-        <v>1466</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="14" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B420" s="14" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C420" s="14" t="s">
         <v>1467</v>
       </c>
-      <c r="B420" s="14" t="s">
+      <c r="D420" s="14" t="s">
         <v>1468</v>
-      </c>
-      <c r="C420" s="14" t="s">
-        <v>1469</v>
-      </c>
-      <c r="D420" s="14" t="s">
-        <v>1470</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="14" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B421" s="14" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C421" s="14" t="s">
         <v>1471</v>
       </c>
-      <c r="B421" s="14" t="s">
+      <c r="D421" s="14" t="s">
         <v>1472</v>
-      </c>
-      <c r="C421" s="14" t="s">
-        <v>1473</v>
-      </c>
-      <c r="D421" s="14" t="s">
-        <v>1474</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="14" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B422" s="14" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C422" s="14" t="s">
         <v>1475</v>
       </c>
-      <c r="B422" s="14" t="s">
+      <c r="D422" s="14" t="s">
         <v>1476</v>
-      </c>
-      <c r="C422" s="14" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D422" s="14" t="s">
-        <v>1478</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="14" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B423" s="14" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C423" s="14" t="s">
         <v>1479</v>
       </c>
-      <c r="B423" s="14" t="s">
+      <c r="D423" s="14" t="s">
         <v>1480</v>
-      </c>
-      <c r="C423" s="14" t="s">
-        <v>1481</v>
-      </c>
-      <c r="D423" s="14" t="s">
-        <v>1482</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="14" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B424" s="14" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C424" s="14" t="s">
         <v>1483</v>
       </c>
-      <c r="B424" s="14" t="s">
-        <v>1399</v>
-      </c>
-      <c r="C424" s="14" t="s">
-        <v>1455</v>
-      </c>
       <c r="D424" s="14" t="s">
-        <v>1456</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="14" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="B425" s="14" t="s">
-        <v>1485</v>
+        <v>1401</v>
       </c>
       <c r="C425" s="14" t="s">
-        <v>1486</v>
+        <v>1457</v>
       </c>
       <c r="D425" s="14" t="s">
-        <v>1487</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="14" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B426" s="14" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C426" s="14" t="s">
         <v>1488</v>
       </c>
-      <c r="B426" s="14" t="s">
+      <c r="D426" s="14" t="s">
         <v>1489</v>
-      </c>
-      <c r="C426" s="14" t="s">
-        <v>1490</v>
-      </c>
-      <c r="D426" s="14" t="s">
-        <v>1491</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="14" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B427" s="14" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C427" s="14" t="s">
         <v>1492</v>
       </c>
-      <c r="B427" s="14" t="s">
+      <c r="D427" s="14" t="s">
         <v>1493</v>
-      </c>
-      <c r="C427" s="14" t="s">
-        <v>1494</v>
-      </c>
-      <c r="D427" s="14" t="s">
-        <v>1495</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="14" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B428" s="14" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C428" s="14" t="s">
         <v>1496</v>
       </c>
-      <c r="B428" s="14" t="s">
+      <c r="D428" s="14" t="s">
         <v>1497</v>
-      </c>
-      <c r="C428" s="14" t="s">
-        <v>1498</v>
-      </c>
-      <c r="D428" s="14" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="14" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B429" s="14" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C429" s="14" t="s">
         <v>1500</v>
       </c>
-      <c r="B429" s="14" t="s">
+      <c r="D429" s="14" t="s">
         <v>1501</v>
-      </c>
-      <c r="C429" s="14" t="s">
-        <v>1502</v>
-      </c>
-      <c r="D429" s="14" t="s">
-        <v>1503</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="14" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B430" s="14" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C430" s="14" t="s">
         <v>1504</v>
       </c>
-      <c r="B430" s="14" t="s">
+      <c r="D430" s="14" t="s">
         <v>1505</v>
-      </c>
-      <c r="C430" s="14" t="s">
-        <v>1506</v>
-      </c>
-      <c r="D430" s="14" t="s">
-        <v>1507</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="14" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B431" s="14" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C431" s="14" t="s">
         <v>1508</v>
       </c>
-      <c r="B431" s="14" t="s">
+      <c r="D431" s="14" t="s">
         <v>1509</v>
-      </c>
-      <c r="C431" s="14" t="s">
-        <v>1510</v>
-      </c>
-      <c r="D431" s="14" t="s">
-        <v>1511</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="14" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B432" s="14" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C432" s="14" t="s">
         <v>1512</v>
       </c>
-      <c r="B432" s="14" t="s">
+      <c r="D432" s="14" t="s">
         <v>1513</v>
-      </c>
-      <c r="C432" s="14" t="s">
-        <v>1514</v>
-      </c>
-      <c r="D432" s="14" t="s">
-        <v>1515</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="14" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B433" s="14" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C433" s="14" t="s">
         <v>1516</v>
       </c>
-      <c r="B433" s="14" t="s">
+      <c r="D433" s="14" t="s">
         <v>1517</v>
-      </c>
-      <c r="C433" s="14" t="s">
-        <v>1518</v>
-      </c>
-      <c r="D433" s="14" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="14" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B434" s="14" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C434" s="14" t="s">
         <v>1520</v>
       </c>
-      <c r="B434" s="14" t="s">
+      <c r="D434" s="14" t="s">
         <v>1521</v>
-      </c>
-      <c r="C434" s="14" t="s">
-        <v>1522</v>
-      </c>
-      <c r="D434" s="14" t="s">
-        <v>1523</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="14" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B435" s="14" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C435" s="14" t="s">
         <v>1524</v>
       </c>
-      <c r="B435" s="14" t="s">
+      <c r="D435" s="14" t="s">
         <v>1525</v>
-      </c>
-      <c r="C435" s="14" t="s">
-        <v>1526</v>
-      </c>
-      <c r="D435" s="14" t="s">
-        <v>1527</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="14" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B436" s="14" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C436" s="14" t="s">
         <v>1528</v>
       </c>
-      <c r="B436" s="14" t="s">
+      <c r="D436" s="14" t="s">
         <v>1529</v>
-      </c>
-      <c r="C436" s="14" t="s">
-        <v>1530</v>
-      </c>
-      <c r="D436" s="14" t="s">
-        <v>1531</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="14" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B437" s="14" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C437" s="14" t="s">
         <v>1532</v>
       </c>
-      <c r="B437" s="14" t="s">
+      <c r="D437" s="14" t="s">
         <v>1533</v>
       </c>
-      <c r="C437" s="14" t="s">
+    </row>
+    <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="14" t="s">
         <v>1534</v>
       </c>
-      <c r="D437" s="14" t="s">
+      <c r="B438" s="14" t="s">
         <v>1535</v>
       </c>
-    </row>
-    <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A439" s="14" t="s">
+      <c r="C438" s="14" t="s">
         <v>1536</v>
       </c>
-      <c r="B439" s="14" t="s">
+      <c r="D438" s="14" t="s">
         <v>1537</v>
-      </c>
-      <c r="C439" s="14" t="s">
-        <v>1538</v>
-      </c>
-      <c r="D439" s="14" t="s">
-        <v>1539</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="14" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B440" s="14" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C440" s="14" t="s">
         <v>1540</v>
       </c>
-      <c r="B440" s="14" t="s">
+      <c r="D440" s="14" t="s">
         <v>1541</v>
-      </c>
-      <c r="C440" s="14" t="s">
-        <v>1542</v>
-      </c>
-      <c r="D440" s="14" t="s">
-        <v>1543</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="14" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B441" s="14" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C441" s="14" t="s">
         <v>1544</v>
       </c>
-      <c r="B441" s="14" t="s">
+      <c r="D441" s="14" t="s">
         <v>1545</v>
-      </c>
-      <c r="C441" s="14" t="s">
-        <v>1546</v>
-      </c>
-      <c r="D441" s="14" t="s">
-        <v>1547</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="14" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B442" s="14" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C442" s="14" t="s">
         <v>1548</v>
       </c>
-      <c r="B442" s="14" t="s">
+      <c r="D442" s="14" t="s">
         <v>1549</v>
-      </c>
-      <c r="C442" s="14" t="s">
-        <v>1550</v>
-      </c>
-      <c r="D442" s="14" t="s">
-        <v>1551</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="14" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B443" s="14" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C443" s="14" t="s">
         <v>1552</v>
       </c>
-      <c r="B443" s="14" t="s">
+      <c r="D443" s="14" t="s">
         <v>1553</v>
-      </c>
-      <c r="C443" s="14" t="s">
-        <v>1554</v>
-      </c>
-      <c r="D443" s="14" t="s">
-        <v>1555</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="14" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B444" s="14" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C444" s="14" t="s">
         <v>1556</v>
       </c>
-      <c r="B444" s="14" t="s">
+      <c r="D444" s="14" t="s">
         <v>1557</v>
-      </c>
-      <c r="C444" s="14" t="s">
-        <v>1558</v>
-      </c>
-      <c r="D444" s="14" t="s">
-        <v>1559</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="14" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B445" s="14" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C445" s="14" t="s">
         <v>1560</v>
       </c>
-      <c r="B445" s="14" t="s">
+      <c r="D445" s="14" t="s">
         <v>1561</v>
-      </c>
-      <c r="C445" s="14" t="s">
-        <v>1562</v>
-      </c>
-      <c r="D445" s="14" t="s">
-        <v>1563</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="14" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B446" s="14" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C446" s="14" t="s">
         <v>1564</v>
       </c>
-      <c r="B446" s="14" t="s">
+      <c r="D446" s="14" t="s">
         <v>1565</v>
-      </c>
-      <c r="C446" s="14" t="s">
-        <v>1566</v>
-      </c>
-      <c r="D446" s="14" t="s">
-        <v>1567</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="14" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B447" s="14" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C447" s="14" t="s">
         <v>1568</v>
       </c>
-      <c r="B447" s="14" t="s">
+      <c r="D447" s="14" t="s">
         <v>1569</v>
-      </c>
-      <c r="C447" s="14" t="s">
-        <v>1570</v>
-      </c>
-      <c r="D447" s="14" t="s">
-        <v>1571</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="14" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B448" s="14" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C448" s="14" t="s">
         <v>1572</v>
       </c>
-      <c r="B448" s="14" t="s">
+      <c r="D448" s="14" t="s">
         <v>1573</v>
-      </c>
-      <c r="C448" s="14" t="s">
-        <v>1574</v>
-      </c>
-      <c r="D448" s="14" t="s">
-        <v>1575</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="14" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B449" s="14" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C449" s="14" t="s">
         <v>1576</v>
       </c>
-      <c r="B449" s="14" t="s">
+      <c r="D449" s="14" t="s">
         <v>1577</v>
-      </c>
-      <c r="C449" s="14" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D449" s="14" t="s">
-        <v>1579</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="14" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B450" s="14" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C450" s="14" t="s">
         <v>1580</v>
       </c>
-      <c r="B450" s="14" t="s">
+      <c r="D450" s="14" t="s">
         <v>1581</v>
-      </c>
-      <c r="C450" s="14" t="s">
-        <v>1582</v>
-      </c>
-      <c r="D450" s="14" t="s">
-        <v>1583</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="14" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B451" s="14" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C451" s="14" t="s">
         <v>1584</v>
       </c>
-      <c r="B451" s="14" t="s">
+      <c r="D451" s="14" t="s">
         <v>1585</v>
-      </c>
-      <c r="C451" s="14" t="s">
-        <v>1586</v>
-      </c>
-      <c r="D451" s="14" t="s">
-        <v>1587</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="14" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B452" s="14" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C452" s="14" t="s">
         <v>1588</v>
       </c>
-      <c r="B452" s="14" t="s">
+      <c r="D452" s="14" t="s">
         <v>1589</v>
-      </c>
-      <c r="C452" s="14" t="s">
-        <v>1590</v>
-      </c>
-      <c r="D452" s="14" t="s">
-        <v>1591</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="14" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B453" s="14" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C453" s="14" t="s">
         <v>1592</v>
       </c>
-      <c r="B453" s="14" t="s">
+      <c r="D453" s="14" t="s">
         <v>1593</v>
-      </c>
-      <c r="C453" s="14" t="s">
-        <v>1594</v>
-      </c>
-      <c r="D453" s="14" t="s">
-        <v>1595</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="14" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B454" s="14" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C454" s="14" t="s">
         <v>1596</v>
       </c>
-      <c r="B454" s="14" t="s">
+      <c r="D454" s="14" t="s">
         <v>1597</v>
-      </c>
-      <c r="C454" s="14" t="s">
-        <v>1598</v>
-      </c>
-      <c r="D454" s="14" t="s">
-        <v>1599</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="14" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B455" s="14" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C455" s="14" t="s">
         <v>1600</v>
       </c>
-      <c r="B455" s="14" t="s">
+      <c r="D455" s="14" t="s">
         <v>1601</v>
-      </c>
-      <c r="C455" s="14" t="s">
-        <v>1602</v>
-      </c>
-      <c r="D455" s="14" t="s">
-        <v>1603</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="14" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B456" s="14" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C456" s="14" t="s">
         <v>1604</v>
       </c>
-      <c r="B456" s="14" t="s">
+      <c r="D456" s="14" t="s">
         <v>1605</v>
-      </c>
-      <c r="C456" s="14" t="s">
-        <v>1606</v>
-      </c>
-      <c r="D456" s="14" t="s">
-        <v>1607</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="14" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B457" s="14" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C457" s="14" t="s">
         <v>1608</v>
       </c>
-      <c r="B457" s="14" t="s">
+      <c r="D457" s="14" t="s">
         <v>1609</v>
-      </c>
-      <c r="C457" s="14" t="s">
-        <v>1610</v>
-      </c>
-      <c r="D457" s="14" t="s">
-        <v>1611</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="14" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B458" s="14" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C458" s="14" t="s">
         <v>1612</v>
       </c>
-      <c r="B458" s="14" t="s">
+      <c r="D458" s="14" t="s">
         <v>1613</v>
-      </c>
-      <c r="C458" s="14" t="s">
-        <v>1614</v>
-      </c>
-      <c r="D458" s="14" t="s">
-        <v>1615</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="14" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B459" s="14" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C459" s="14" t="s">
         <v>1616</v>
       </c>
-      <c r="B459" s="14" t="s">
+      <c r="D459" s="14" t="s">
         <v>1617</v>
-      </c>
-      <c r="C459" s="14" t="s">
-        <v>1618</v>
-      </c>
-      <c r="D459" s="14" t="s">
-        <v>1619</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="14" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B460" s="14" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C460" s="14" t="s">
         <v>1620</v>
       </c>
-      <c r="B460" s="14" t="s">
+      <c r="D460" s="14" t="s">
         <v>1621</v>
-      </c>
-      <c r="C460" s="14" t="s">
-        <v>1622</v>
-      </c>
-      <c r="D460" s="14" t="s">
-        <v>1623</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="14" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B461" s="14" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C461" s="14" t="s">
         <v>1624</v>
       </c>
-      <c r="B461" s="14" t="s">
+      <c r="D461" s="14" t="s">
         <v>1625</v>
-      </c>
-      <c r="C461" s="14" t="s">
-        <v>1626</v>
-      </c>
-      <c r="D461" s="14" t="s">
-        <v>1627</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="14" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B462" s="14" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C462" s="14" t="s">
         <v>1628</v>
       </c>
-      <c r="B462" s="14" t="s">
+      <c r="D462" s="14" t="s">
         <v>1629</v>
-      </c>
-      <c r="C462" s="14" t="s">
-        <v>1630</v>
-      </c>
-      <c r="D462" s="14" t="s">
-        <v>1631</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="14" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B463" s="14" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C463" s="14" t="s">
         <v>1632</v>
       </c>
-      <c r="B463" s="14" t="s">
+      <c r="D463" s="14" t="s">
         <v>1633</v>
-      </c>
-      <c r="C463" s="14" t="s">
-        <v>1634</v>
-      </c>
-      <c r="D463" s="14" t="s">
-        <v>1635</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="14" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B464" s="14" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C464" s="14" t="s">
         <v>1636</v>
       </c>
-      <c r="B464" s="14" t="s">
+      <c r="D464" s="14" t="s">
         <v>1637</v>
-      </c>
-      <c r="C464" s="14" t="s">
-        <v>1638</v>
-      </c>
-      <c r="D464" s="14" t="s">
-        <v>1639</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="14" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B465" s="14" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C465" s="14" t="s">
         <v>1640</v>
       </c>
-      <c r="B465" s="14" t="s">
+      <c r="D465" s="14" t="s">
         <v>1641</v>
-      </c>
-      <c r="C465" s="14" t="s">
-        <v>1642</v>
-      </c>
-      <c r="D465" s="14" t="s">
-        <v>1643</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="14" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B466" s="14" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C466" s="14" t="s">
         <v>1644</v>
       </c>
-      <c r="B466" s="14" t="s">
+      <c r="D466" s="14" t="s">
         <v>1645</v>
-      </c>
-      <c r="C466" s="14" t="s">
-        <v>1646</v>
-      </c>
-      <c r="D466" s="14" t="s">
-        <v>1647</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="14" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B467" s="14" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C467" s="14" t="s">
         <v>1648</v>
       </c>
-      <c r="B467" s="14" t="s">
+      <c r="D467" s="14" t="s">
         <v>1649</v>
-      </c>
-      <c r="C467" s="14" t="s">
-        <v>1650</v>
-      </c>
-      <c r="D467" s="14" t="s">
-        <v>1651</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="14" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B468" s="14" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C468" s="14" t="s">
         <v>1652</v>
       </c>
-      <c r="B468" s="14" t="s">
+      <c r="D468" s="14" t="s">
         <v>1653</v>
-      </c>
-      <c r="C468" s="14" t="s">
-        <v>1654</v>
-      </c>
-      <c r="D468" s="14" t="s">
-        <v>1655</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="14" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B469" s="14" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C469" s="14" t="s">
         <v>1656</v>
       </c>
-      <c r="B469" s="14" t="s">
+      <c r="D469" s="14" t="s">
         <v>1657</v>
-      </c>
-      <c r="C469" s="14" t="s">
-        <v>1658</v>
-      </c>
-      <c r="D469" s="14" t="s">
-        <v>1659</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="14" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B470" s="14" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C470" s="14" t="s">
         <v>1660</v>
       </c>
-      <c r="B470" s="14" t="s">
+      <c r="D470" s="14" t="s">
         <v>1661</v>
-      </c>
-      <c r="C470" s="14" t="s">
-        <v>1662</v>
-      </c>
-      <c r="D470" s="14" t="s">
-        <v>1663</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="14" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B471" s="14" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C471" s="14" t="s">
         <v>1664</v>
       </c>
-      <c r="B471" s="14" t="s">
+      <c r="D471" s="14" t="s">
         <v>1665</v>
-      </c>
-      <c r="C471" s="14" t="s">
-        <v>1666</v>
-      </c>
-      <c r="D471" s="14" t="s">
-        <v>1667</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="14" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B472" s="14" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C472" s="14" t="s">
         <v>1668</v>
       </c>
-      <c r="B472" s="14" t="s">
+      <c r="D472" s="14" t="s">
         <v>1669</v>
-      </c>
-      <c r="C472" s="14" t="s">
-        <v>1670</v>
-      </c>
-      <c r="D472" s="14" t="s">
-        <v>1671</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="14" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B473" s="14" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C473" s="14" t="s">
         <v>1672</v>
       </c>
-      <c r="B473" s="14" t="s">
+      <c r="D473" s="14" t="s">
         <v>1673</v>
-      </c>
-      <c r="C473" s="14" t="s">
-        <v>1674</v>
-      </c>
-      <c r="D473" s="14" t="s">
-        <v>1675</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="14" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B474" s="14" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C474" s="14" t="s">
         <v>1676</v>
       </c>
-      <c r="B474" s="14" t="s">
+      <c r="D474" s="14" t="s">
         <v>1677</v>
-      </c>
-      <c r="C474" s="14" t="s">
-        <v>1678</v>
-      </c>
-      <c r="D474" s="14" t="s">
-        <v>1679</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="14" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B475" s="14" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C475" s="14" t="s">
         <v>1680</v>
       </c>
-      <c r="B475" s="14" t="s">
+      <c r="D475" s="14" t="s">
         <v>1681</v>
-      </c>
-      <c r="C475" s="14" t="s">
-        <v>1682</v>
-      </c>
-      <c r="D475" s="14" t="s">
-        <v>1683</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="14" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B476" s="14" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C476" s="14" t="s">
         <v>1684</v>
       </c>
-      <c r="B476" s="14" t="s">
+      <c r="D476" s="14" t="s">
         <v>1685</v>
-      </c>
-      <c r="C476" s="14" t="s">
-        <v>1686</v>
-      </c>
-      <c r="D476" s="14" t="s">
-        <v>1687</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B477" s="14" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C477" s="14" t="s">
         <v>1688</v>
       </c>
-      <c r="B477" s="14" t="s">
+      <c r="D477" s="14" t="s">
         <v>1689</v>
-      </c>
-      <c r="C477" s="14" t="s">
-        <v>1690</v>
-      </c>
-      <c r="D477" s="14" t="s">
-        <v>1691</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="14" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B478" s="14" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C478" s="14" t="s">
         <v>1692</v>
       </c>
-      <c r="B478" s="14" t="s">
+      <c r="D478" s="14" t="s">
         <v>1693</v>
-      </c>
-      <c r="C478" s="14" t="s">
-        <v>1694</v>
-      </c>
-      <c r="D478" s="14" t="s">
-        <v>1695</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B479" s="14" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C479" s="14" t="s">
         <v>1696</v>
       </c>
-      <c r="B479" s="14" t="s">
+      <c r="D479" s="14" t="s">
         <v>1697</v>
-      </c>
-      <c r="C479" s="14" t="s">
-        <v>1698</v>
-      </c>
-      <c r="D479" s="14" t="s">
-        <v>1699</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="14" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B480" s="14" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C480" s="14" t="s">
         <v>1700</v>
       </c>
-      <c r="B480" s="14" t="s">
+      <c r="D480" s="14" t="s">
         <v>1701</v>
-      </c>
-      <c r="C480" s="14" t="s">
-        <v>1702</v>
-      </c>
-      <c r="D480" s="14" t="s">
-        <v>1703</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="14" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B481" s="14" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C481" s="14" t="s">
         <v>1704</v>
       </c>
-      <c r="B481" s="14" t="s">
+      <c r="D481" s="14" t="s">
         <v>1705</v>
-      </c>
-      <c r="C481" s="14" t="s">
-        <v>1706</v>
-      </c>
-      <c r="D481" s="14" t="s">
-        <v>1707</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="14" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B482" s="14" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C482" s="14" t="s">
         <v>1708</v>
       </c>
-      <c r="B482" s="14" t="s">
+      <c r="D482" s="14" t="s">
         <v>1709</v>
-      </c>
-      <c r="C482" s="14" t="s">
-        <v>1710</v>
-      </c>
-      <c r="D482" s="14" t="s">
-        <v>1711</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="14" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B483" s="14" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C483" s="14" t="s">
         <v>1712</v>
       </c>
-      <c r="B483" s="14" t="s">
+      <c r="D483" s="14" t="s">
         <v>1713</v>
-      </c>
-      <c r="C483" s="14" t="s">
-        <v>1714</v>
-      </c>
-      <c r="D483" s="14" t="s">
-        <v>1715</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="14" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B484" s="14" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C484" s="14" t="s">
         <v>1716</v>
       </c>
-      <c r="B484" s="14" t="s">
+      <c r="D484" s="14" t="s">
         <v>1717</v>
-      </c>
-      <c r="C484" s="14" t="s">
-        <v>1718</v>
-      </c>
-      <c r="D484" s="14" t="s">
-        <v>1719</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="14" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B485" s="14" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C485" s="14" t="s">
         <v>1720</v>
       </c>
-      <c r="B485" s="14" t="s">
+      <c r="D485" s="14" t="s">
         <v>1721</v>
       </c>
-      <c r="C485" s="14" t="s">
+    </row>
+    <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A486" s="14" t="s">
         <v>1722</v>
       </c>
-      <c r="D485" s="14" t="s">
+      <c r="B486" s="14" t="s">
         <v>1723</v>
       </c>
-    </row>
-    <row r="487" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A487" s="14" t="s">
+      <c r="C486" s="14" t="s">
         <v>1724</v>
       </c>
-      <c r="B487" s="14" t="s">
+      <c r="D486" s="14" t="s">
         <v>1725</v>
-      </c>
-      <c r="C487" s="16" t="s">
-        <v>1726</v>
-      </c>
-      <c r="D487" s="16" t="s">
-        <v>1727</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="14" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B488" s="14" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C488" s="16" t="s">
         <v>1728</v>
       </c>
-      <c r="B488" s="14" t="s">
+      <c r="D488" s="16" t="s">
         <v>1729</v>
-      </c>
-      <c r="C488" s="16" t="s">
-        <v>1730</v>
-      </c>
-      <c r="D488" s="16" t="s">
-        <v>1731</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="14" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B489" s="14" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C489" s="16" t="s">
         <v>1732</v>
       </c>
-      <c r="B489" s="14" t="s">
+      <c r="D489" s="16" t="s">
         <v>1733</v>
       </c>
-      <c r="C489" s="16" t="s">
+    </row>
+    <row r="490" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A490" s="14" t="s">
         <v>1734</v>
       </c>
-      <c r="D489" s="16" t="s">
+      <c r="B490" s="14" t="s">
         <v>1735</v>
       </c>
-    </row>
-    <row r="490" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A490" s="14" t="s">
+      <c r="C490" s="16" t="s">
         <v>1736</v>
       </c>
-      <c r="B490" s="14" t="s">
+      <c r="D490" s="16" t="s">
         <v>1737</v>
-      </c>
-      <c r="C490" s="16" t="s">
-        <v>1738</v>
-      </c>
-      <c r="D490" s="16" t="s">
-        <v>1739</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="14" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B491" s="14" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C491" s="16" t="s">
         <v>1740</v>
       </c>
-      <c r="B491" s="14" t="s">
+      <c r="D491" s="16" t="s">
         <v>1741</v>
-      </c>
-      <c r="C491" s="16" t="s">
-        <v>1742</v>
-      </c>
-      <c r="D491" s="16" t="s">
-        <v>1743</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="14" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B492" s="14" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C492" s="16" t="s">
         <v>1744</v>
       </c>
-      <c r="B492" s="14" t="s">
+      <c r="D492" s="16" t="s">
         <v>1745</v>
       </c>
-      <c r="C492" s="16" t="s">
+    </row>
+    <row r="493" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A493" s="14" t="s">
         <v>1746</v>
       </c>
-      <c r="D492" s="16" t="s">
+      <c r="B493" s="14" t="s">
         <v>1747</v>
       </c>
-    </row>
-    <row r="493" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A493" s="14" t="s">
+      <c r="C493" s="16" t="s">
         <v>1748</v>
       </c>
-      <c r="B493" s="14" t="s">
+      <c r="D493" s="16" t="s">
         <v>1749</v>
-      </c>
-      <c r="C493" s="16" t="s">
-        <v>1750</v>
-      </c>
-      <c r="D493" s="16" t="s">
-        <v>1751</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="14" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B494" s="14" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C494" s="16" t="s">
         <v>1752</v>
       </c>
-      <c r="B494" s="14" t="s">
+      <c r="D494" s="16" t="s">
         <v>1753</v>
       </c>
-      <c r="C494" s="16" t="s">
+    </row>
+    <row r="495" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A495" s="14" t="s">
         <v>1754</v>
       </c>
-      <c r="D494" s="16" t="s">
+      <c r="B495" s="14" t="s">
         <v>1755</v>
       </c>
-    </row>
-    <row r="495" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A495" s="14" t="s">
+      <c r="C495" s="16" t="s">
         <v>1756</v>
       </c>
-      <c r="B495" s="14" t="s">
+      <c r="D495" s="16" t="s">
         <v>1757</v>
       </c>
-      <c r="C495" s="16" t="s">
+    </row>
+    <row r="496" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A496" s="14" t="s">
         <v>1758</v>
       </c>
-      <c r="D495" s="16" t="s">
+      <c r="B496" s="14" t="s">
         <v>1759</v>
       </c>
-    </row>
-    <row r="496" customFormat="false" ht="16.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A496" s="14" t="s">
+      <c r="C496" s="16" t="s">
         <v>1760</v>
       </c>
-      <c r="B496" s="17" t="s">
+      <c r="D496" s="16" t="s">
         <v>1761</v>
       </c>
-      <c r="C496" s="16" t="s">
+    </row>
+    <row r="497" customFormat="false" ht="16.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A497" s="14" t="s">
         <v>1762</v>
       </c>
-      <c r="D496" s="16" t="s">
+      <c r="B497" s="17" t="s">
         <v>1763</v>
       </c>
-    </row>
-    <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A497" s="14" t="s">
+      <c r="C497" s="16" t="s">
         <v>1764</v>
       </c>
-      <c r="B497" s="14" t="s">
+      <c r="D497" s="16" t="s">
         <v>1765</v>
-      </c>
-      <c r="C497" s="14" t="s">
-        <v>1766</v>
-      </c>
-      <c r="D497" s="14" t="s">
-        <v>1767</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="14" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B498" s="14" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C498" s="14" t="s">
         <v>1768</v>
       </c>
-      <c r="B498" s="14" t="s">
+      <c r="D498" s="14" t="s">
         <v>1769</v>
       </c>
-      <c r="C498" s="14" t="s">
+    </row>
+    <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A499" s="14" t="s">
         <v>1770</v>
       </c>
-      <c r="D498" s="14" t="s">
+      <c r="B499" s="14" t="s">
         <v>1771</v>
       </c>
-    </row>
-    <row r="499" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A499" s="14" t="s">
+      <c r="C499" s="14" t="s">
         <v>1772</v>
       </c>
-      <c r="B499" s="14" t="s">
+      <c r="D499" s="14" t="s">
         <v>1773</v>
-      </c>
-      <c r="C499" s="16" t="s">
-        <v>1359</v>
-      </c>
-      <c r="D499" s="16" t="s">
-        <v>1360</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39148,10 +39148,10 @@
         <v>1775</v>
       </c>
       <c r="C500" s="16" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="D500" s="16" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39162,36 +39162,50 @@
         <v>1777</v>
       </c>
       <c r="C501" s="16" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="D501" s="16" t="s">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A502" s="18" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="502" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A502" s="14" t="s">
         <v>1778</v>
       </c>
       <c r="B502" s="14" t="s">
         <v>1779</v>
       </c>
-    </row>
-    <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A503" s="14" t="s">
+      <c r="C502" s="16" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D502" s="16" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A503" s="18" t="s">
         <v>1780</v>
       </c>
       <c r="B503" s="14" t="s">
         <v>1781</v>
       </c>
-      <c r="C503" s="14" t="s">
+    </row>
+    <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A504" s="14" t="s">
         <v>1782</v>
       </c>
-      <c r="D503" s="14" t="s">
+      <c r="B504" s="14" t="s">
         <v>1783</v>
       </c>
+      <c r="C504" s="14" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D504" s="14" t="s">
+        <v>1785</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:D1 B396:D404 B408:D408 B411:D437 B503:B1048576 C69:D357 C366:D366 C463:D486 D503:D1048576 C497:D498 C368:D371 C503:C1048576 C380:D380 C1:D64 C388:C389 B497:B501 C500:C501 B502:D502 B1:B495 C391:D462 C363:D363">
+  <conditionalFormatting sqref="B1:D1 B397:D405 B409:D409 B412:D438 B504:B1048576 C69:D357 C366:D366 C464:D487 D504:D1048576 C498:D499 C368:D371 C504:C1048576 C380:D380 C1:D64 C388:C389 B498:B502 C501:C502 B503:D503 B1:B496 C391:D463 C363:D363">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>

--- a/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
+++ b/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -3606,145 +3606,145 @@
     <t xml:space="preserve">socio_id_h2</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h2&gt;Identification and socio-demographic information&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;Identificação e informação sociodemográfica&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;Maelezo ya utambuzi na demografia ya jamii&lt;/h2&gt;</t>
+    <t xml:space="preserve">Identification and socio-demographic information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identificação e informação sociodemográfica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maelezo ya utambuzi na demografia ya jamii</t>
   </si>
   <si>
     <t xml:space="preserve">health_morbidity_h2</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h2&gt;Health / Morbidity information&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;Informações sobre saúde/morbilidade&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;Taarifa za afya/magonjwa&lt;/h2&gt;</t>
+    <t xml:space="preserve">Health / Morbidity information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informações sobre saúde/morbilidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taarifa za afya/magonjwa</t>
   </si>
   <si>
     <t xml:space="preserve">malaria_h2</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h2&gt;Malaria risk and prevention information&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;Risco de malária e informação sobre prevenção&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;Taarifa za vihatarishi vya kuenea kwa malaria na kinga zake&lt;/h2&gt;</t>
+    <t xml:space="preserve">Malaria risk and prevention information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risco de malária e informação sobre prevenção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taarifa za vihatarishi vya kuenea kwa malaria na kinga zake</t>
   </si>
   <si>
     <t xml:space="preserve">residual_h2</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h2&gt;Residual transmission information&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;Informações sobre transmissão residual&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;Taarifa za mabaki ya uenezi&lt;/h2&gt;</t>
+    <t xml:space="preserve">Residual transmission information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informações sobre transmissão residual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taarifa za mabaki ya uenezi</t>
   </si>
   <si>
     <t xml:space="preserve">travel_h2</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h2&gt;Travel information&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;Informações sobre viagens&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;Taarifa za safari&lt;/h2&gt;</t>
+    <t xml:space="preserve">Travel information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informações sobre viagens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taarifa za safari</t>
   </si>
   <si>
     <t xml:space="preserve">treatment_h3</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h3&gt;Treatment&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h3&gt;Tratamento&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h3&gt;Matibabu&lt;/h3&gt;</t>
+    <t xml:space="preserve">Treatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tratamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matibabu</t>
   </si>
   <si>
     <t xml:space="preserve">chronic_h3</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h3&gt;Chronic diseases&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h3&gt;Doenças crónicas&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h3&gt;Magonjwa sugu&lt;/h3&gt;</t>
+    <t xml:space="preserve">Chronic diseases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doenças crónicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magonjwa sugu</t>
   </si>
   <si>
     <t xml:space="preserve">curr_disease_h3</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h3&gt;Recent &amp; current diseases&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h3&gt;Doenças recentes e atuais&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h3&gt;Magonjwa ya hivi karibuni na ya sasa&lt;/h3&gt;</t>
+    <t xml:space="preserve">Recent &amp; current diseases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doenças recentes e atuais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magonjwa ya hivi karibuni na ya sasa</t>
   </si>
   <si>
     <t xml:space="preserve">ntd_h3</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h3&gt;Syndromic survey of other diseases that may be targeted by ivermectin or albendazole&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h3&gt;Inquérito sindrómico de doenças tropicais negligenciadas&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h3&gt;Utafiti wa dalili za magonjwa ya NTD&lt;/h3&gt;</t>
+    <t xml:space="preserve">Syndromic survey of other diseases that may be targeted by ivermectin or albendazole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inquérito sindrómico de doenças tropicais negligenciadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utafiti wa dalili za magonjwa ya NTD</t>
   </si>
   <si>
     <t xml:space="preserve">wra_h3</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h3&gt;Woman of Reproductive Age&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h3&gt;Mulher em idade reprodutiva&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h3&gt;Mwanamke wa Umri wa Kuzaa&lt;/h3&gt;</t>
+    <t xml:space="preserve">Woman of Reproductive Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mulher em idade reprodutiva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mwanamke wa Umri wa Kuzaa</t>
   </si>
   <si>
     <t xml:space="preserve">travel_loa_h3</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h3&gt;Travel to Loa loa countries&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h3&gt;Viajar para países com Loa Loa&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h3&gt;Kusafiri kwenda nchi za Loa loa&lt;/h3&gt;</t>
+    <t xml:space="preserve">Travel to Loa loa countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viajar para países com Loa Loa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kusafiri kwenda nchi za Loa loa</t>
   </si>
   <si>
     <t xml:space="preserve">travel_regular_h3</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h3&gt;Regular travel&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h3&gt;Viagens regulares durante a primeira parte do ano&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h3&gt;Usafiri wa mara kwa mara wakati wa sehemu ya kwanza ya mwaka&lt;/h3&gt;</t>
+    <t xml:space="preserve">Regular travel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viagens regulares durante a primeira parte do ano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usafiri wa mara kwa mara wakati wa sehemu ya kwanza ya mwaka</t>
   </si>
   <si>
     <t xml:space="preserve">Day</t>
@@ -5757,11 +5757,11 @@
   </sheetPr>
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A395:B395 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="8.69"/>
   </cols>
@@ -6808,11 +6808,11 @@
   </sheetPr>
   <dimension ref="A1:Q1016"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G27" activeCellId="1" sqref="A395:B395 G27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q17" activeCellId="0" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.48046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.67"/>
@@ -6947,6 +6947,9 @@
       <c r="H6" s="0" t="s">
         <v>34</v>
       </c>
+      <c r="Q6" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -7015,6 +7018,9 @@
       <c r="H11" s="0" t="s">
         <v>46</v>
       </c>
+      <c r="Q11" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -7081,6 +7087,9 @@
       </c>
       <c r="H16" s="0" t="s">
         <v>52</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8301,13 +8310,13 @@
   </sheetPr>
   <dimension ref="A1:Y1014"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A91" activeCellId="1" sqref="A395:B395 A91"/>
+      <selection pane="bottomLeft" activeCell="A91" activeCellId="0" sqref="A91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.48046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.16"/>
@@ -13576,11 +13585,11 @@
   </sheetPr>
   <dimension ref="A1:Y758"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C38" activeCellId="1" sqref="A395:B395 C38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C38" activeCellId="0" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.48046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.79"/>
@@ -31208,11 +31217,11 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="A395:B395 B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.04"/>
@@ -31272,7 +31281,7 @@
         <v>563</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>20210225001</v>
+        <v>20210304001</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32355,10 +32364,10 @@
   </sheetPr>
   <dimension ref="A1:D504"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A350" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A369" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A395" activeCellId="0" sqref="A395:B395"/>
+      <selection pane="bottomLeft" activeCell="C377" activeCellId="0" sqref="C377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.41015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
+++ b/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3431" uniqueCount="1781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3467" uniqueCount="1795">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -3282,6 +3282,12 @@
     <t xml:space="preserve"> 31</t>
   </si>
   <si>
+    <t xml:space="preserve">Agusti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disemba</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 2021</t>
   </si>
   <si>
@@ -4137,30 +4143,60 @@
     <t xml:space="preserve">Invalid date month combination</t>
   </si>
   <si>
+    <t xml:space="preserve">Combinação de data / mês inválida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarehe na Mwezi si sahihi</t>
+  </si>
+  <si>
     <t xml:space="preserve">invalid_dmy</t>
   </si>
   <si>
     <t xml:space="preserve">Invalid date month year combination</t>
   </si>
   <si>
+    <t xml:space="preserve">Combinação inválida de data, mês e ano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarehe,Mwezi na Mwaka si sahihi</t>
+  </si>
+  <si>
     <t xml:space="preserve">invalid_time_q31</t>
   </si>
   <si>
     <t xml:space="preserve">The answer to Q31 cannot be earlier than that of Q30</t>
   </si>
   <si>
+    <t xml:space="preserve">A resposta a Q31 não pode ser anterior a Q30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jibu la swali la Q31 haliwezi kuwa kabla ya jibu la Q30</t>
+  </si>
+  <si>
     <t xml:space="preserve">invalid_time_q28</t>
   </si>
   <si>
     <t xml:space="preserve">The answer to Q28 cannot be earlier than that of Q27</t>
   </si>
   <si>
+    <t xml:space="preserve">A resposta à Q28 não pode ser anterior à Q27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jibu la swali la Q28 haliwezi kuwa kabla ya jibu la Q27</t>
+  </si>
+  <si>
     <t xml:space="preserve">unexpected_trips</t>
   </si>
   <si>
     <t xml:space="preserve">Unexpected number of trips recorded</t>
   </si>
   <si>
+    <t xml:space="preserve">Número inesperado de viagens registradas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idadi isiyotarajiwa ya safari zilizorekodiwa</t>
+  </si>
+  <si>
     <t xml:space="preserve">1. Given name:</t>
   </si>
   <si>
@@ -5356,6 +5392,12 @@
   </si>
   <si>
     <t xml:space="preserve">The household head should be the first member added and must be a resident member. His/her ExtID should end in -001 unless he/she has an existing ID assigned from the minicensus. The substitue household head, if there is one, must also be a resident member.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O chefe do agregado deve ser o primeiro membro adicionado e deve ser um membro residente. Seu ExtID deve terminar em - 001, a menos que ele / ela tenha um ID existente atribuído a partir do minicenso. O chefe substituto do agregado , se houver, também deve ser residente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mkuu wa kaya lazima awe wa kwanza kauandikishwa na lazima awe mkazi. Namba yake ya utambulisho inatakiwa kuishia na 001vinginevyo awe na namba ya utambulisho kutoka aliyopewa kwenye sensafupi (minicensus). Mbadala wa mkuu wa kaya, endapo yupo, ni lazima awe mkazi.</t>
   </si>
   <si>
     <t xml:space="preserve">check_all_that_apply_hint</t>
@@ -5746,7 +5788,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.53125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="8.69"/>
   </cols>
@@ -6797,11 +6839,10 @@
       <selection pane="topLeft" activeCell="N30" activeCellId="0" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.53125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.28"/>
@@ -8307,7 +8348,7 @@
       <selection pane="bottomLeft" activeCell="A91" activeCellId="0" sqref="A91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.53125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.16"/>
@@ -13580,7 +13621,7 @@
       <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.53125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.79"/>
@@ -31212,7 +31253,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.53125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.04"/>
@@ -32356,9 +32397,9 @@
   <dimension ref="A1:D502"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A487" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A154" activeCellId="0" sqref="A154"/>
+      <selection pane="bottomLeft" activeCell="C501" activeCellId="0" sqref="C501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.41015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35441,6 +35482,12 @@
       <c r="B221" s="14" t="s">
         <v>857</v>
       </c>
+      <c r="C221" s="14" t="s">
+        <v>858</v>
+      </c>
+      <c r="D221" s="14" t="s">
+        <v>859</v>
+      </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="14" t="s">
@@ -35449,6 +35496,12 @@
       <c r="B222" s="14" t="s">
         <v>860</v>
       </c>
+      <c r="C222" s="14" t="s">
+        <v>861</v>
+      </c>
+      <c r="D222" s="14" t="s">
+        <v>862</v>
+      </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="14" t="s">
@@ -35457,6 +35510,12 @@
       <c r="B223" s="14" t="s">
         <v>863</v>
       </c>
+      <c r="C223" s="14" t="s">
+        <v>864</v>
+      </c>
+      <c r="D223" s="14" t="s">
+        <v>865</v>
+      </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="14" t="s">
@@ -35465,6 +35524,12 @@
       <c r="B224" s="14" t="s">
         <v>866</v>
       </c>
+      <c r="C224" s="14" t="s">
+        <v>867</v>
+      </c>
+      <c r="D224" s="14" t="s">
+        <v>868</v>
+      </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="14" t="s">
@@ -35473,6 +35538,12 @@
       <c r="B225" s="14" t="s">
         <v>869</v>
       </c>
+      <c r="C225" s="14" t="s">
+        <v>870</v>
+      </c>
+      <c r="D225" s="14" t="s">
+        <v>871</v>
+      </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="14" t="s">
@@ -35481,6 +35552,12 @@
       <c r="B226" s="14" t="s">
         <v>872</v>
       </c>
+      <c r="C226" s="14" t="s">
+        <v>873</v>
+      </c>
+      <c r="D226" s="14" t="s">
+        <v>874</v>
+      </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="14" t="s">
@@ -35489,6 +35566,12 @@
       <c r="B227" s="14" t="s">
         <v>875</v>
       </c>
+      <c r="C227" s="14" t="s">
+        <v>876</v>
+      </c>
+      <c r="D227" s="14" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="14" t="s">
@@ -35497,6 +35580,12 @@
       <c r="B228" s="14" t="s">
         <v>878</v>
       </c>
+      <c r="C228" s="14" t="s">
+        <v>879</v>
+      </c>
+      <c r="D228" s="14" t="s">
+        <v>1085</v>
+      </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="14" t="s">
@@ -35505,6 +35594,12 @@
       <c r="B229" s="14" t="s">
         <v>881</v>
       </c>
+      <c r="C229" s="14" t="s">
+        <v>882</v>
+      </c>
+      <c r="D229" s="14" t="s">
+        <v>883</v>
+      </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="14" t="s">
@@ -35513,6 +35608,12 @@
       <c r="B230" s="14" t="s">
         <v>884</v>
       </c>
+      <c r="C230" s="14" t="s">
+        <v>885</v>
+      </c>
+      <c r="D230" s="14" t="s">
+        <v>886</v>
+      </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="14" t="s">
@@ -35521,6 +35622,12 @@
       <c r="B231" s="14" t="s">
         <v>887</v>
       </c>
+      <c r="C231" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="D231" s="14" t="s">
+        <v>889</v>
+      </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="14" t="s">
@@ -35529,19 +35636,25 @@
       <c r="B232" s="14" t="s">
         <v>890</v>
       </c>
+      <c r="C232" s="14" t="s">
+        <v>891</v>
+      </c>
+      <c r="D232" s="14" t="s">
+        <v>1086</v>
+      </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="14" t="s">
         <v>351</v>
       </c>
       <c r="B233" s="14" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="C233" s="14" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="D233" s="14" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35549,13 +35662,13 @@
         <v>352</v>
       </c>
       <c r="B234" s="14" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="C234" s="14" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="D234" s="14" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35563,13 +35676,13 @@
         <v>353</v>
       </c>
       <c r="B235" s="14" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="C235" s="14" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="D235" s="14" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35577,13 +35690,13 @@
         <v>354</v>
       </c>
       <c r="B236" s="14" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="C236" s="14" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="D236" s="14" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35591,13 +35704,13 @@
         <v>355</v>
       </c>
       <c r="B237" s="14" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="C237" s="14" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="D237" s="14" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35605,13 +35718,13 @@
         <v>356</v>
       </c>
       <c r="B238" s="14" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="C238" s="14" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="D238" s="14" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35619,13 +35732,13 @@
         <v>357</v>
       </c>
       <c r="B239" s="14" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="C239" s="14" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="D239" s="14" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35633,13 +35746,13 @@
         <v>358</v>
       </c>
       <c r="B240" s="14" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="C240" s="14" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="D240" s="14" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35647,13 +35760,13 @@
         <v>359</v>
       </c>
       <c r="B241" s="14" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="C241" s="14" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="D241" s="14" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35661,13 +35774,13 @@
         <v>360</v>
       </c>
       <c r="B242" s="14" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="C242" s="14" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="D242" s="14" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35675,13 +35788,13 @@
         <v>361</v>
       </c>
       <c r="B243" s="14" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="C243" s="14" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="D243" s="14" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35689,13 +35802,13 @@
         <v>362</v>
       </c>
       <c r="B244" s="14" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="C244" s="14" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="D244" s="14" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35703,13 +35816,13 @@
         <v>363</v>
       </c>
       <c r="B245" s="14" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="C245" s="14" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="D245" s="14" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35717,13 +35830,13 @@
         <v>364</v>
       </c>
       <c r="B246" s="14" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="C246" s="14" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="D246" s="14" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35731,13 +35844,13 @@
         <v>365</v>
       </c>
       <c r="B247" s="14" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="C247" s="14" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="D247" s="14" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35745,13 +35858,13 @@
         <v>366</v>
       </c>
       <c r="B248" s="14" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="C248" s="14" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D248" s="14" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35759,13 +35872,13 @@
         <v>367</v>
       </c>
       <c r="B249" s="14" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="C249" s="14" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="D249" s="14" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35773,13 +35886,13 @@
         <v>368</v>
       </c>
       <c r="B250" s="14" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="C250" s="14" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="D250" s="14" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35787,13 +35900,13 @@
         <v>369</v>
       </c>
       <c r="B251" s="14" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="C251" s="14" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="D251" s="14" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35801,13 +35914,13 @@
         <v>370</v>
       </c>
       <c r="B252" s="14" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="C252" s="14" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="D252" s="14" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35815,13 +35928,13 @@
         <v>371</v>
       </c>
       <c r="B253" s="14" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="C253" s="14" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="D253" s="14" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35829,13 +35942,13 @@
         <v>372</v>
       </c>
       <c r="B254" s="14" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="C254" s="14" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="D254" s="14" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35843,13 +35956,13 @@
         <v>373</v>
       </c>
       <c r="B255" s="14" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="C255" s="14" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="D255" s="14" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35857,13 +35970,13 @@
         <v>374</v>
       </c>
       <c r="B256" s="14" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="C256" s="14" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="D256" s="14" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35871,13 +35984,13 @@
         <v>375</v>
       </c>
       <c r="B257" s="14" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="C257" s="14" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="D257" s="14" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35885,13 +35998,13 @@
         <v>376</v>
       </c>
       <c r="B258" s="14" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="C258" s="14" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="D258" s="14" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35899,13 +36012,13 @@
         <v>377</v>
       </c>
       <c r="B259" s="14" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="C259" s="14" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="D259" s="14" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35913,13 +36026,13 @@
         <v>378</v>
       </c>
       <c r="B260" s="14" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="C260" s="14" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="D260" s="14" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35927,13 +36040,13 @@
         <v>379</v>
       </c>
       <c r="B261" s="14" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C261" s="14" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="D261" s="14" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35941,13 +36054,13 @@
         <v>380</v>
       </c>
       <c r="B262" s="14" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="C262" s="14" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="D262" s="14" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35955,13 +36068,13 @@
         <v>381</v>
       </c>
       <c r="B263" s="14" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="C263" s="14" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D263" s="14" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35969,13 +36082,13 @@
         <v>382</v>
       </c>
       <c r="B264" s="14" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="C264" s="14" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="D264" s="14" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35983,13 +36096,13 @@
         <v>383</v>
       </c>
       <c r="B265" s="14" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="C265" s="14" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="D265" s="14" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35997,13 +36110,13 @@
         <v>384</v>
       </c>
       <c r="B266" s="14" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="C266" s="14" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="D266" s="14" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36011,13 +36124,13 @@
         <v>385</v>
       </c>
       <c r="B267" s="14" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="C267" s="14" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="D267" s="14" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36025,13 +36138,13 @@
         <v>386</v>
       </c>
       <c r="B268" s="14" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="C268" s="14" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="D268" s="14" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36039,13 +36152,13 @@
         <v>387</v>
       </c>
       <c r="B269" s="14" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="C269" s="14" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="D269" s="14" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36053,13 +36166,13 @@
         <v>388</v>
       </c>
       <c r="B270" s="14" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="C270" s="14" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="D270" s="14" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36067,13 +36180,13 @@
         <v>389</v>
       </c>
       <c r="B271" s="14" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="C271" s="14" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="D271" s="14" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36081,13 +36194,13 @@
         <v>390</v>
       </c>
       <c r="B272" s="14" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="C272" s="14" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="D272" s="14" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36095,13 +36208,13 @@
         <v>391</v>
       </c>
       <c r="B273" s="14" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="C273" s="14" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="D273" s="14" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36109,13 +36222,13 @@
         <v>392</v>
       </c>
       <c r="B274" s="14" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="C274" s="14" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="D274" s="14" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36123,13 +36236,13 @@
         <v>393</v>
       </c>
       <c r="B275" s="14" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="C275" s="14" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="D275" s="14" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36137,13 +36250,13 @@
         <v>394</v>
       </c>
       <c r="B276" s="14" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="C276" s="14" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="D276" s="14" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36151,13 +36264,13 @@
         <v>395</v>
       </c>
       <c r="B277" s="14" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="C277" s="14" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="D277" s="14" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36165,13 +36278,13 @@
         <v>396</v>
       </c>
       <c r="B278" s="14" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="C278" s="14" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="D278" s="14" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36179,13 +36292,13 @@
         <v>397</v>
       </c>
       <c r="B279" s="14" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="C279" s="14" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="D279" s="14" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36193,13 +36306,13 @@
         <v>398</v>
       </c>
       <c r="B280" s="14" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="C280" s="14" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="D280" s="14" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36207,13 +36320,13 @@
         <v>399</v>
       </c>
       <c r="B281" s="14" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="C281" s="14" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="D281" s="14" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36221,13 +36334,13 @@
         <v>400</v>
       </c>
       <c r="B282" s="14" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="C282" s="14" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="D282" s="14" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36235,13 +36348,13 @@
         <v>401</v>
       </c>
       <c r="B283" s="14" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="C283" s="14" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="D283" s="14" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36249,13 +36362,13 @@
         <v>402</v>
       </c>
       <c r="B284" s="14" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="C284" s="14" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="D284" s="14" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36263,13 +36376,13 @@
         <v>403</v>
       </c>
       <c r="B285" s="14" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="C285" s="14" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="D285" s="14" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36277,13 +36390,13 @@
         <v>404</v>
       </c>
       <c r="B286" s="14" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="C286" s="14" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="D286" s="14" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36291,13 +36404,13 @@
         <v>405</v>
       </c>
       <c r="B287" s="14" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="C287" s="14" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="D287" s="14" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36305,13 +36418,13 @@
         <v>406</v>
       </c>
       <c r="B288" s="14" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="C288" s="14" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="D288" s="14" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36319,13 +36432,13 @@
         <v>407</v>
       </c>
       <c r="B289" s="14" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="C289" s="14" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="D289" s="14" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36333,13 +36446,13 @@
         <v>408</v>
       </c>
       <c r="B290" s="14" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="C290" s="14" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="D290" s="14" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36347,13 +36460,13 @@
         <v>409</v>
       </c>
       <c r="B291" s="14" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="C291" s="14" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="D291" s="14" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36361,13 +36474,13 @@
         <v>410</v>
       </c>
       <c r="B292" s="14" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="C292" s="14" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="D292" s="14" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36375,13 +36488,13 @@
         <v>411</v>
       </c>
       <c r="B293" s="14" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="C293" s="14" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="D293" s="14" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36389,13 +36502,13 @@
         <v>412</v>
       </c>
       <c r="B294" s="14" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="C294" s="14" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="D294" s="14" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36403,13 +36516,13 @@
         <v>413</v>
       </c>
       <c r="B295" s="14" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="C295" s="14" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="D295" s="14" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36417,13 +36530,13 @@
         <v>414</v>
       </c>
       <c r="B296" s="14" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="C296" s="14" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="D296" s="14" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36431,13 +36544,13 @@
         <v>415</v>
       </c>
       <c r="B297" s="14" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="C297" s="14" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="D297" s="14" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36445,13 +36558,13 @@
         <v>416</v>
       </c>
       <c r="B298" s="14" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="C298" s="14" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="D298" s="14" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36459,13 +36572,13 @@
         <v>417</v>
       </c>
       <c r="B299" s="14" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="C299" s="14" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="D299" s="14" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36473,13 +36586,13 @@
         <v>418</v>
       </c>
       <c r="B300" s="14" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="C300" s="14" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="D300" s="14" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36487,13 +36600,13 @@
         <v>419</v>
       </c>
       <c r="B301" s="14" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="C301" s="14" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="D301" s="14" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36501,13 +36614,13 @@
         <v>420</v>
       </c>
       <c r="B302" s="14" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="C302" s="14" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="D302" s="14" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36515,13 +36628,13 @@
         <v>421</v>
       </c>
       <c r="B303" s="14" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="C303" s="14" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="D303" s="14" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36529,13 +36642,13 @@
         <v>422</v>
       </c>
       <c r="B304" s="14" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="C304" s="14" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="D304" s="14" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36543,13 +36656,13 @@
         <v>423</v>
       </c>
       <c r="B305" s="14" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="C305" s="14" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="D305" s="14" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36557,13 +36670,13 @@
         <v>424</v>
       </c>
       <c r="B306" s="14" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="C306" s="14" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="D306" s="14" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36571,13 +36684,13 @@
         <v>425</v>
       </c>
       <c r="B307" s="14" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="C307" s="14" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="D307" s="14" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36585,13 +36698,13 @@
         <v>426</v>
       </c>
       <c r="B308" s="14" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="C308" s="14" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="D308" s="14" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36599,13 +36712,13 @@
         <v>427</v>
       </c>
       <c r="B309" s="14" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="C309" s="14" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="D309" s="14" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36613,13 +36726,13 @@
         <v>428</v>
       </c>
       <c r="B310" s="14" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="C310" s="14" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="D310" s="14" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36627,13 +36740,13 @@
         <v>429</v>
       </c>
       <c r="B311" s="14" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="C311" s="14" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="D311" s="14" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36641,13 +36754,13 @@
         <v>430</v>
       </c>
       <c r="B312" s="14" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="C312" s="14" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="D312" s="14" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36655,13 +36768,13 @@
         <v>431</v>
       </c>
       <c r="B313" s="14" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="C313" s="14" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="D313" s="14" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36669,13 +36782,13 @@
         <v>432</v>
       </c>
       <c r="B314" s="14" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="C314" s="14" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="D314" s="14" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36683,13 +36796,13 @@
         <v>433</v>
       </c>
       <c r="B315" s="14" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C315" s="14" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="D315" s="14" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36697,13 +36810,13 @@
         <v>434</v>
       </c>
       <c r="B316" s="14" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="C316" s="14" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D316" s="14" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36711,13 +36824,13 @@
         <v>435</v>
       </c>
       <c r="B317" s="14" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="C317" s="14" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="D317" s="14" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36725,13 +36838,13 @@
         <v>436</v>
       </c>
       <c r="B318" s="14" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="C318" s="14" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="D318" s="14" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36739,13 +36852,13 @@
         <v>437</v>
       </c>
       <c r="B319" s="14" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="C319" s="14" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="D319" s="14" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36753,13 +36866,13 @@
         <v>438</v>
       </c>
       <c r="B320" s="14" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="C320" s="14" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="D320" s="14" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36767,13 +36880,13 @@
         <v>439</v>
       </c>
       <c r="B321" s="14" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="C321" s="14" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="D321" s="14" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36781,13 +36894,13 @@
         <v>440</v>
       </c>
       <c r="B322" s="14" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="C322" s="14" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="D322" s="14" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36795,13 +36908,13 @@
         <v>441</v>
       </c>
       <c r="B323" s="14" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="C323" s="14" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="D323" s="14" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36809,13 +36922,13 @@
         <v>442</v>
       </c>
       <c r="B324" s="14" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="C324" s="14" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="D324" s="14" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36823,13 +36936,13 @@
         <v>443</v>
       </c>
       <c r="B325" s="14" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="C325" s="14" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="D325" s="14" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36837,13 +36950,13 @@
         <v>444</v>
       </c>
       <c r="B326" s="14" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="C326" s="14" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="D326" s="14" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36851,13 +36964,13 @@
         <v>445</v>
       </c>
       <c r="B327" s="14" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="C327" s="14" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="D327" s="14" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36865,13 +36978,13 @@
         <v>446</v>
       </c>
       <c r="B328" s="14" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="C328" s="14" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="D328" s="14" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36879,13 +36992,13 @@
         <v>447</v>
       </c>
       <c r="B329" s="14" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="C329" s="14" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="D329" s="14" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36893,13 +37006,13 @@
         <v>448</v>
       </c>
       <c r="B330" s="14" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="C330" s="14" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="D330" s="14" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36907,13 +37020,13 @@
         <v>449</v>
       </c>
       <c r="B331" s="14" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="C331" s="14" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="D331" s="14" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36921,13 +37034,13 @@
         <v>450</v>
       </c>
       <c r="B332" s="14" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="C332" s="14" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="D332" s="14" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36935,13 +37048,13 @@
         <v>451</v>
       </c>
       <c r="B333" s="14" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="C333" s="14" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="D333" s="14" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36949,181 +37062,181 @@
         <v>452</v>
       </c>
       <c r="B334" s="14" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="C334" s="14" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="D334" s="14" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="14" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="B336" s="14" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="C336" s="14" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="D336" s="14" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="14" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="B337" s="14" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="C337" s="14" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="D337" s="14" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="14" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="B338" s="14" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="C338" s="14" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="D338" s="14" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="14" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="B339" s="14" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="C339" s="14" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="D339" s="14" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="14" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="B340" s="14" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="C340" s="14" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="D340" s="14" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="14" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="B342" s="14" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="C342" s="14" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="D342" s="14" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="14" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="B343" s="14" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="C343" s="14" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="D343" s="14" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="14" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="B344" s="14" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="C344" s="14" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="D344" s="14" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="14" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="B345" s="14" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="C345" s="14" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="D345" s="14" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="14" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="B346" s="14" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="C346" s="14" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="D346" s="14" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="14" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="B347" s="14" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="C347" s="14" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="D347" s="14" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="14" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="B348" s="14" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C348" s="14" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="D348" s="14" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37131,7 +37244,7 @@
         <v>34</v>
       </c>
       <c r="B350" s="14" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="C350" s="14" t="s">
         <v>743</v>
@@ -37145,7 +37258,7 @@
         <v>46</v>
       </c>
       <c r="B351" s="14" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="C351" s="14" t="s">
         <v>749</v>
@@ -37159,7 +37272,7 @@
         <v>52</v>
       </c>
       <c r="B352" s="14" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="C352" s="14" t="s">
         <v>757</v>
@@ -37173,27 +37286,27 @@
         <v>74</v>
       </c>
       <c r="B353" s="14" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="C353" s="14" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="D353" s="14" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="14" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="B354" s="14" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="C354" s="14" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="D354" s="14" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37201,181 +37314,181 @@
         <v>155</v>
       </c>
       <c r="B355" s="14" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="C355" s="14" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="D355" s="14" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="14" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="B356" s="14" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="C356" s="14" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="D356" s="14" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="14" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="B357" s="14" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="C357" s="14" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="D357" s="14" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="14" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="B358" s="14" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="C358" s="14" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="D358" s="14" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="14" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="B359" s="14" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="C359" s="16" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="D359" s="16" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="14" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="B360" s="14" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="C360" s="16" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="D360" s="16" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="14" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="B361" s="14" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="C361" s="14" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="D361" s="14" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="14" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="B362" s="14" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="C362" s="16" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="D362" s="16" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="14" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="B363" s="14" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="C363" s="14" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="D363" s="14" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="14" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="B364" s="14" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="C364" s="14" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="D364" s="14" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="14" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="B365" s="14" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="C365" s="16" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="D365" s="16" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="14" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="B366" s="14" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="C366" s="14" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="D366" s="14" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="14" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="B367" s="14" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="C367" s="14" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="D367" s="14" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37383,139 +37496,139 @@
         <v>28</v>
       </c>
       <c r="B368" s="14" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="C368" s="14" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="D368" s="14" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="14" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="B369" s="14" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="C369" s="14" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="D369" s="14" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="14" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="B370" s="14" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="C370" s="14" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="D370" s="14" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="14" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="B371" s="14" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="C371" s="14" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="D371" s="14" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="14" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="B372" s="14" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="C372" s="14" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="D372" s="14" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="14" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="B373" s="14" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="C373" s="14" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="D373" s="14" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="14" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="B374" s="14" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="C374" s="14" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="D374" s="14" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="14" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="B375" s="14" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="C375" s="14" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="D375" s="14" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="14" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="B376" s="14" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="C376" s="16" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="D376" s="16" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="14" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="B377" s="14" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="C377" s="16" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="D377" s="16" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37523,13 +37636,13 @@
         <v>27</v>
       </c>
       <c r="B379" s="14" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="C379" s="16" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="D379" s="16" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="32.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37537,13 +37650,13 @@
         <v>31</v>
       </c>
       <c r="B380" s="14" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="C380" s="16" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="D380" s="16" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37551,13 +37664,13 @@
         <v>35</v>
       </c>
       <c r="B381" s="14" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="C381" s="14" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="D381" s="14" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37565,13 +37678,13 @@
         <v>47</v>
       </c>
       <c r="B382" s="14" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="C382" s="14" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="D382" s="14" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37579,123 +37692,153 @@
         <v>53</v>
       </c>
       <c r="B383" s="14" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="C383" s="14" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="D383" s="14" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="14" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="B384" s="14" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="C384" s="14" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="D384" s="14" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="14" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="B385" s="14" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="C385" s="16" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="D385" s="16" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="14" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="B386" s="14" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="C386" s="16" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="D386" s="16" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="14" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="B387" s="14" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="C387" s="16" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="D387" s="16" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="14" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="B388" s="14" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="C388" s="14" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="D388" s="14" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="14" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="B389" s="14" t="s">
-        <v>1369</v>
+        <v>1371</v>
+      </c>
+      <c r="C389" s="14" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D389" s="14" t="s">
+        <v>1373</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="14" t="s">
-        <v>1370</v>
+        <v>1374</v>
       </c>
       <c r="B390" s="14" t="s">
-        <v>1371</v>
+        <v>1375</v>
+      </c>
+      <c r="C390" s="14" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D390" s="14" t="s">
+        <v>1377</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="14" t="s">
-        <v>1372</v>
+        <v>1378</v>
       </c>
       <c r="B391" s="14" t="s">
-        <v>1373</v>
+        <v>1379</v>
+      </c>
+      <c r="C391" s="14" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D391" s="14" t="s">
+        <v>1381</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="14" t="s">
-        <v>1374</v>
+        <v>1382</v>
       </c>
       <c r="B392" s="14" t="s">
-        <v>1375</v>
+        <v>1383</v>
+      </c>
+      <c r="C392" s="14" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D392" s="14" t="s">
+        <v>1385</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="14" t="s">
-        <v>1376</v>
+        <v>1386</v>
       </c>
       <c r="B393" s="14" t="s">
-        <v>1377</v>
+        <v>1387</v>
+      </c>
+      <c r="C393" s="14" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D393" s="14" t="s">
+        <v>1389</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37703,13 +37846,13 @@
         <v>25</v>
       </c>
       <c r="B395" s="14" t="s">
-        <v>1378</v>
+        <v>1390</v>
       </c>
       <c r="C395" s="14" t="s">
-        <v>1379</v>
+        <v>1391</v>
       </c>
       <c r="D395" s="14" t="s">
-        <v>1380</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37717,13 +37860,13 @@
         <v>29</v>
       </c>
       <c r="B396" s="14" t="s">
-        <v>1381</v>
+        <v>1393</v>
       </c>
       <c r="C396" s="14" t="s">
-        <v>1382</v>
+        <v>1394</v>
       </c>
       <c r="D396" s="14" t="s">
-        <v>1383</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37731,13 +37874,13 @@
         <v>33</v>
       </c>
       <c r="B397" s="14" t="s">
-        <v>1384</v>
+        <v>1396</v>
       </c>
       <c r="C397" s="14" t="s">
-        <v>1385</v>
+        <v>1397</v>
       </c>
       <c r="D397" s="14" t="s">
-        <v>1386</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37745,13 +37888,13 @@
         <v>62</v>
       </c>
       <c r="B398" s="14" t="s">
-        <v>1387</v>
+        <v>1399</v>
       </c>
       <c r="C398" s="14" t="s">
-        <v>1388</v>
+        <v>1400</v>
       </c>
       <c r="D398" s="14" t="s">
-        <v>1389</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37759,13 +37902,13 @@
         <v>69</v>
       </c>
       <c r="B399" s="14" t="s">
-        <v>1390</v>
+        <v>1402</v>
       </c>
       <c r="C399" s="14" t="s">
-        <v>1391</v>
+        <v>1403</v>
       </c>
       <c r="D399" s="14" t="s">
-        <v>1392</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37773,13 +37916,13 @@
         <v>71</v>
       </c>
       <c r="B400" s="14" t="s">
-        <v>1393</v>
+        <v>1405</v>
       </c>
       <c r="C400" s="14" t="s">
-        <v>1394</v>
+        <v>1406</v>
       </c>
       <c r="D400" s="14" t="s">
-        <v>1395</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37787,1393 +37930,1399 @@
         <v>72</v>
       </c>
       <c r="B401" s="14" t="s">
-        <v>1396</v>
+        <v>1408</v>
       </c>
       <c r="C401" s="14" t="s">
-        <v>1397</v>
+        <v>1409</v>
       </c>
       <c r="D401" s="14" t="s">
-        <v>1398</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="14" t="s">
-        <v>1399</v>
+        <v>1411</v>
       </c>
       <c r="B402" s="14" t="s">
-        <v>1400</v>
+        <v>1412</v>
       </c>
       <c r="C402" s="14" t="s">
-        <v>1401</v>
+        <v>1413</v>
       </c>
       <c r="D402" s="14" t="s">
-        <v>1402</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="14" t="s">
-        <v>1403</v>
+        <v>1415</v>
       </c>
       <c r="B403" s="14" t="s">
-        <v>1404</v>
+        <v>1416</v>
       </c>
       <c r="C403" s="14" t="s">
-        <v>1405</v>
+        <v>1417</v>
       </c>
       <c r="D403" s="14" t="s">
-        <v>1406</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="14" t="s">
-        <v>1407</v>
+        <v>1419</v>
       </c>
       <c r="B404" s="14" t="s">
-        <v>1408</v>
+        <v>1420</v>
       </c>
       <c r="C404" s="14" t="s">
-        <v>1409</v>
+        <v>1421</v>
       </c>
       <c r="D404" s="14" t="s">
-        <v>1410</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="14" t="s">
-        <v>1411</v>
+        <v>1423</v>
       </c>
       <c r="B405" s="14" t="s">
-        <v>1412</v>
+        <v>1424</v>
       </c>
       <c r="C405" s="14" t="s">
-        <v>1413</v>
+        <v>1425</v>
       </c>
       <c r="D405" s="14" t="s">
-        <v>1414</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="14" t="s">
-        <v>1415</v>
+        <v>1427</v>
       </c>
       <c r="B406" s="14" t="s">
-        <v>1416</v>
+        <v>1428</v>
       </c>
       <c r="C406" s="14" t="s">
-        <v>1417</v>
+        <v>1429</v>
       </c>
       <c r="D406" s="14" t="s">
-        <v>1418</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="14" t="s">
-        <v>1419</v>
+        <v>1431</v>
       </c>
       <c r="B407" s="14" t="s">
-        <v>1420</v>
+        <v>1432</v>
       </c>
       <c r="C407" s="14" t="s">
-        <v>1421</v>
+        <v>1433</v>
       </c>
       <c r="D407" s="14" t="s">
-        <v>1422</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="14" t="s">
-        <v>1423</v>
+        <v>1435</v>
       </c>
       <c r="B408" s="14" t="s">
-        <v>1424</v>
+        <v>1436</v>
       </c>
       <c r="C408" s="14" t="s">
-        <v>1425</v>
+        <v>1437</v>
       </c>
       <c r="D408" s="14" t="s">
-        <v>1426</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="14" t="s">
-        <v>1427</v>
+        <v>1439</v>
       </c>
       <c r="B409" s="14" t="s">
-        <v>1428</v>
+        <v>1440</v>
       </c>
       <c r="C409" s="14" t="s">
-        <v>1429</v>
+        <v>1441</v>
       </c>
       <c r="D409" s="14" t="s">
-        <v>1430</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="14" t="s">
-        <v>1431</v>
+        <v>1443</v>
       </c>
       <c r="B410" s="14" t="s">
-        <v>1432</v>
+        <v>1444</v>
       </c>
       <c r="C410" s="14" t="s">
-        <v>1433</v>
+        <v>1445</v>
       </c>
       <c r="D410" s="14" t="s">
-        <v>1434</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="14" t="s">
-        <v>1435</v>
+        <v>1447</v>
       </c>
       <c r="B411" s="14" t="s">
-        <v>1436</v>
+        <v>1448</v>
       </c>
       <c r="C411" s="14" t="s">
-        <v>1437</v>
+        <v>1449</v>
       </c>
       <c r="D411" s="14" t="s">
-        <v>1438</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="14" t="s">
-        <v>1439</v>
+        <v>1451</v>
       </c>
       <c r="B412" s="14" t="s">
-        <v>1440</v>
+        <v>1452</v>
       </c>
       <c r="C412" s="14" t="s">
-        <v>1441</v>
+        <v>1453</v>
       </c>
       <c r="D412" s="14" t="s">
-        <v>1442</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="14" t="s">
-        <v>1443</v>
+        <v>1455</v>
       </c>
       <c r="B413" s="14" t="s">
-        <v>1444</v>
+        <v>1456</v>
       </c>
       <c r="C413" s="14" t="s">
-        <v>1445</v>
+        <v>1457</v>
       </c>
       <c r="D413" s="14" t="s">
-        <v>1446</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="14" t="s">
-        <v>1447</v>
+        <v>1459</v>
       </c>
       <c r="B414" s="14" t="s">
-        <v>1448</v>
+        <v>1460</v>
       </c>
       <c r="C414" s="14" t="s">
-        <v>1449</v>
+        <v>1461</v>
       </c>
       <c r="D414" s="14" t="s">
-        <v>1450</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="14" t="s">
-        <v>1451</v>
+        <v>1463</v>
       </c>
       <c r="B415" s="14" t="s">
-        <v>1396</v>
+        <v>1408</v>
       </c>
       <c r="C415" s="14" t="s">
-        <v>1452</v>
+        <v>1464</v>
       </c>
       <c r="D415" s="14" t="s">
-        <v>1453</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="14" t="s">
-        <v>1454</v>
+        <v>1466</v>
       </c>
       <c r="B416" s="14" t="s">
-        <v>1455</v>
+        <v>1467</v>
       </c>
       <c r="C416" s="14" t="s">
-        <v>1455</v>
+        <v>1467</v>
       </c>
       <c r="D416" s="14" t="s">
-        <v>1455</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="14" t="s">
-        <v>1456</v>
+        <v>1468</v>
       </c>
       <c r="B417" s="14" t="s">
-        <v>1457</v>
+        <v>1469</v>
       </c>
       <c r="C417" s="14" t="s">
-        <v>1458</v>
+        <v>1470</v>
       </c>
       <c r="D417" s="14" t="s">
-        <v>1459</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="14" t="s">
-        <v>1460</v>
+        <v>1472</v>
       </c>
       <c r="B418" s="14" t="s">
-        <v>1461</v>
+        <v>1473</v>
       </c>
       <c r="C418" s="14" t="s">
-        <v>1462</v>
+        <v>1474</v>
       </c>
       <c r="D418" s="14" t="s">
-        <v>1463</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="14" t="s">
-        <v>1464</v>
+        <v>1476</v>
       </c>
       <c r="B419" s="14" t="s">
-        <v>1465</v>
+        <v>1477</v>
       </c>
       <c r="C419" s="14" t="s">
-        <v>1466</v>
+        <v>1478</v>
       </c>
       <c r="D419" s="14" t="s">
-        <v>1467</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="14" t="s">
-        <v>1468</v>
+        <v>1480</v>
       </c>
       <c r="B420" s="14" t="s">
-        <v>1469</v>
+        <v>1481</v>
       </c>
       <c r="C420" s="14" t="s">
-        <v>1470</v>
+        <v>1482</v>
       </c>
       <c r="D420" s="14" t="s">
-        <v>1471</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="14" t="s">
-        <v>1472</v>
+        <v>1484</v>
       </c>
       <c r="B421" s="14" t="s">
-        <v>1473</v>
+        <v>1485</v>
       </c>
       <c r="C421" s="14" t="s">
-        <v>1474</v>
+        <v>1486</v>
       </c>
       <c r="D421" s="14" t="s">
-        <v>1475</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="14" t="s">
-        <v>1476</v>
+        <v>1488</v>
       </c>
       <c r="B422" s="14" t="s">
-        <v>1477</v>
+        <v>1489</v>
       </c>
       <c r="C422" s="14" t="s">
-        <v>1478</v>
+        <v>1490</v>
       </c>
       <c r="D422" s="14" t="s">
-        <v>1479</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="14" t="s">
-        <v>1480</v>
+        <v>1492</v>
       </c>
       <c r="B423" s="14" t="s">
-        <v>1396</v>
+        <v>1408</v>
       </c>
       <c r="C423" s="14" t="s">
-        <v>1452</v>
+        <v>1464</v>
       </c>
       <c r="D423" s="14" t="s">
-        <v>1453</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="14" t="s">
-        <v>1481</v>
+        <v>1493</v>
       </c>
       <c r="B424" s="14" t="s">
-        <v>1482</v>
+        <v>1494</v>
       </c>
       <c r="C424" s="14" t="s">
-        <v>1483</v>
+        <v>1495</v>
       </c>
       <c r="D424" s="14" t="s">
-        <v>1484</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="14" t="s">
-        <v>1485</v>
+        <v>1497</v>
       </c>
       <c r="B425" s="14" t="s">
-        <v>1486</v>
+        <v>1498</v>
       </c>
       <c r="C425" s="14" t="s">
-        <v>1487</v>
+        <v>1499</v>
       </c>
       <c r="D425" s="14" t="s">
-        <v>1488</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="14" t="s">
-        <v>1489</v>
+        <v>1501</v>
       </c>
       <c r="B426" s="14" t="s">
-        <v>1490</v>
+        <v>1502</v>
       </c>
       <c r="C426" s="14" t="s">
-        <v>1491</v>
+        <v>1503</v>
       </c>
       <c r="D426" s="14" t="s">
-        <v>1492</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="14" t="s">
-        <v>1493</v>
+        <v>1505</v>
       </c>
       <c r="B427" s="14" t="s">
-        <v>1494</v>
+        <v>1506</v>
       </c>
       <c r="C427" s="14" t="s">
-        <v>1495</v>
+        <v>1507</v>
       </c>
       <c r="D427" s="14" t="s">
-        <v>1496</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="14" t="s">
-        <v>1497</v>
+        <v>1509</v>
       </c>
       <c r="B428" s="14" t="s">
-        <v>1498</v>
+        <v>1510</v>
       </c>
       <c r="C428" s="14" t="s">
-        <v>1499</v>
+        <v>1511</v>
       </c>
       <c r="D428" s="14" t="s">
-        <v>1500</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="14" t="s">
-        <v>1501</v>
+        <v>1513</v>
       </c>
       <c r="B429" s="14" t="s">
-        <v>1502</v>
+        <v>1514</v>
       </c>
       <c r="C429" s="14" t="s">
-        <v>1503</v>
+        <v>1515</v>
       </c>
       <c r="D429" s="14" t="s">
-        <v>1504</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="14" t="s">
-        <v>1505</v>
+        <v>1517</v>
       </c>
       <c r="B430" s="14" t="s">
-        <v>1506</v>
+        <v>1518</v>
       </c>
       <c r="C430" s="14" t="s">
-        <v>1507</v>
+        <v>1519</v>
       </c>
       <c r="D430" s="14" t="s">
-        <v>1508</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="14" t="s">
-        <v>1509</v>
+        <v>1521</v>
       </c>
       <c r="B431" s="14" t="s">
-        <v>1510</v>
+        <v>1522</v>
       </c>
       <c r="C431" s="14" t="s">
-        <v>1511</v>
+        <v>1523</v>
       </c>
       <c r="D431" s="14" t="s">
-        <v>1512</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="14" t="s">
-        <v>1513</v>
+        <v>1525</v>
       </c>
       <c r="B432" s="14" t="s">
-        <v>1514</v>
+        <v>1526</v>
       </c>
       <c r="C432" s="14" t="s">
-        <v>1515</v>
+        <v>1527</v>
       </c>
       <c r="D432" s="14" t="s">
-        <v>1516</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="14" t="s">
-        <v>1517</v>
+        <v>1529</v>
       </c>
       <c r="B433" s="14" t="s">
-        <v>1518</v>
+        <v>1530</v>
       </c>
       <c r="C433" s="14" t="s">
-        <v>1519</v>
+        <v>1531</v>
       </c>
       <c r="D433" s="14" t="s">
-        <v>1520</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="14" t="s">
-        <v>1521</v>
+        <v>1533</v>
       </c>
       <c r="B434" s="14" t="s">
-        <v>1522</v>
+        <v>1534</v>
       </c>
       <c r="C434" s="14" t="s">
-        <v>1523</v>
+        <v>1535</v>
       </c>
       <c r="D434" s="14" t="s">
-        <v>1524</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="14" t="s">
-        <v>1525</v>
+        <v>1537</v>
       </c>
       <c r="B435" s="14" t="s">
-        <v>1526</v>
+        <v>1538</v>
       </c>
       <c r="C435" s="14" t="s">
-        <v>1527</v>
+        <v>1539</v>
       </c>
       <c r="D435" s="14" t="s">
-        <v>1528</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="14" t="s">
-        <v>1529</v>
+        <v>1541</v>
       </c>
       <c r="B436" s="14" t="s">
-        <v>1530</v>
+        <v>1542</v>
       </c>
       <c r="C436" s="14" t="s">
-        <v>1531</v>
+        <v>1543</v>
       </c>
       <c r="D436" s="14" t="s">
-        <v>1532</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="14" t="s">
-        <v>1533</v>
+        <v>1545</v>
       </c>
       <c r="B438" s="14" t="s">
-        <v>1534</v>
+        <v>1546</v>
       </c>
       <c r="C438" s="14" t="s">
-        <v>1535</v>
+        <v>1547</v>
       </c>
       <c r="D438" s="14" t="s">
-        <v>1536</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="14" t="s">
-        <v>1537</v>
+        <v>1549</v>
       </c>
       <c r="B439" s="14" t="s">
-        <v>1538</v>
+        <v>1550</v>
       </c>
       <c r="C439" s="14" t="s">
-        <v>1539</v>
+        <v>1551</v>
       </c>
       <c r="D439" s="14" t="s">
-        <v>1540</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="14" t="s">
-        <v>1541</v>
+        <v>1553</v>
       </c>
       <c r="B440" s="14" t="s">
-        <v>1542</v>
+        <v>1554</v>
       </c>
       <c r="C440" s="14" t="s">
-        <v>1543</v>
+        <v>1555</v>
       </c>
       <c r="D440" s="14" t="s">
-        <v>1544</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="14" t="s">
-        <v>1545</v>
+        <v>1557</v>
       </c>
       <c r="B441" s="14" t="s">
-        <v>1546</v>
+        <v>1558</v>
       </c>
       <c r="C441" s="14" t="s">
-        <v>1547</v>
+        <v>1559</v>
       </c>
       <c r="D441" s="14" t="s">
-        <v>1548</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="14" t="s">
-        <v>1549</v>
+        <v>1561</v>
       </c>
       <c r="B442" s="14" t="s">
-        <v>1550</v>
+        <v>1562</v>
       </c>
       <c r="C442" s="14" t="s">
-        <v>1551</v>
+        <v>1563</v>
       </c>
       <c r="D442" s="14" t="s">
-        <v>1552</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="14" t="s">
-        <v>1553</v>
+        <v>1565</v>
       </c>
       <c r="B443" s="14" t="s">
-        <v>1554</v>
+        <v>1566</v>
       </c>
       <c r="C443" s="14" t="s">
-        <v>1555</v>
+        <v>1567</v>
       </c>
       <c r="D443" s="14" t="s">
-        <v>1556</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="14" t="s">
-        <v>1557</v>
+        <v>1569</v>
       </c>
       <c r="B444" s="14" t="s">
-        <v>1558</v>
+        <v>1570</v>
       </c>
       <c r="C444" s="14" t="s">
-        <v>1559</v>
+        <v>1571</v>
       </c>
       <c r="D444" s="14" t="s">
-        <v>1560</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="14" t="s">
-        <v>1561</v>
+        <v>1573</v>
       </c>
       <c r="B445" s="14" t="s">
-        <v>1562</v>
+        <v>1574</v>
       </c>
       <c r="C445" s="14" t="s">
-        <v>1563</v>
+        <v>1575</v>
       </c>
       <c r="D445" s="14" t="s">
-        <v>1564</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="14" t="s">
-        <v>1565</v>
+        <v>1577</v>
       </c>
       <c r="B446" s="14" t="s">
-        <v>1566</v>
+        <v>1578</v>
       </c>
       <c r="C446" s="14" t="s">
-        <v>1567</v>
+        <v>1579</v>
       </c>
       <c r="D446" s="14" t="s">
-        <v>1568</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="14" t="s">
-        <v>1569</v>
+        <v>1581</v>
       </c>
       <c r="B447" s="14" t="s">
-        <v>1570</v>
+        <v>1582</v>
       </c>
       <c r="C447" s="14" t="s">
-        <v>1571</v>
+        <v>1583</v>
       </c>
       <c r="D447" s="14" t="s">
-        <v>1572</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="14" t="s">
-        <v>1573</v>
+        <v>1585</v>
       </c>
       <c r="B448" s="14" t="s">
-        <v>1574</v>
+        <v>1586</v>
       </c>
       <c r="C448" s="14" t="s">
-        <v>1575</v>
+        <v>1587</v>
       </c>
       <c r="D448" s="14" t="s">
-        <v>1576</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="14" t="s">
-        <v>1577</v>
+        <v>1589</v>
       </c>
       <c r="B449" s="14" t="s">
-        <v>1578</v>
+        <v>1590</v>
       </c>
       <c r="C449" s="14" t="s">
-        <v>1579</v>
+        <v>1591</v>
       </c>
       <c r="D449" s="14" t="s">
-        <v>1580</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="14" t="s">
-        <v>1581</v>
+        <v>1593</v>
       </c>
       <c r="B450" s="14" t="s">
-        <v>1582</v>
+        <v>1594</v>
       </c>
       <c r="C450" s="14" t="s">
-        <v>1583</v>
+        <v>1595</v>
       </c>
       <c r="D450" s="14" t="s">
-        <v>1584</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="14" t="s">
-        <v>1585</v>
+        <v>1597</v>
       </c>
       <c r="B451" s="14" t="s">
-        <v>1586</v>
+        <v>1598</v>
       </c>
       <c r="C451" s="14" t="s">
-        <v>1587</v>
+        <v>1599</v>
       </c>
       <c r="D451" s="14" t="s">
-        <v>1588</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="14" t="s">
-        <v>1589</v>
+        <v>1601</v>
       </c>
       <c r="B452" s="14" t="s">
-        <v>1590</v>
+        <v>1602</v>
       </c>
       <c r="C452" s="14" t="s">
-        <v>1591</v>
+        <v>1603</v>
       </c>
       <c r="D452" s="14" t="s">
-        <v>1592</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="14" t="s">
-        <v>1593</v>
+        <v>1605</v>
       </c>
       <c r="B453" s="14" t="s">
-        <v>1594</v>
+        <v>1606</v>
       </c>
       <c r="C453" s="14" t="s">
-        <v>1595</v>
+        <v>1607</v>
       </c>
       <c r="D453" s="14" t="s">
-        <v>1596</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="14" t="s">
-        <v>1597</v>
+        <v>1609</v>
       </c>
       <c r="B454" s="14" t="s">
-        <v>1598</v>
+        <v>1610</v>
       </c>
       <c r="C454" s="14" t="s">
-        <v>1599</v>
+        <v>1611</v>
       </c>
       <c r="D454" s="14" t="s">
-        <v>1600</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="14" t="s">
-        <v>1601</v>
+        <v>1613</v>
       </c>
       <c r="B455" s="14" t="s">
-        <v>1602</v>
+        <v>1614</v>
       </c>
       <c r="C455" s="14" t="s">
-        <v>1603</v>
+        <v>1615</v>
       </c>
       <c r="D455" s="14" t="s">
-        <v>1604</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="14" t="s">
-        <v>1605</v>
+        <v>1617</v>
       </c>
       <c r="B456" s="14" t="s">
-        <v>1606</v>
+        <v>1618</v>
       </c>
       <c r="C456" s="14" t="s">
-        <v>1607</v>
+        <v>1619</v>
       </c>
       <c r="D456" s="14" t="s">
-        <v>1608</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="14" t="s">
-        <v>1609</v>
+        <v>1621</v>
       </c>
       <c r="B457" s="14" t="s">
-        <v>1610</v>
+        <v>1622</v>
       </c>
       <c r="C457" s="14" t="s">
-        <v>1611</v>
+        <v>1623</v>
       </c>
       <c r="D457" s="14" t="s">
-        <v>1612</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="14" t="s">
-        <v>1613</v>
+        <v>1625</v>
       </c>
       <c r="B458" s="14" t="s">
-        <v>1614</v>
+        <v>1626</v>
       </c>
       <c r="C458" s="14" t="s">
-        <v>1615</v>
+        <v>1627</v>
       </c>
       <c r="D458" s="14" t="s">
-        <v>1616</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="14" t="s">
-        <v>1617</v>
+        <v>1629</v>
       </c>
       <c r="B459" s="14" t="s">
-        <v>1618</v>
+        <v>1630</v>
       </c>
       <c r="C459" s="14" t="s">
-        <v>1619</v>
+        <v>1631</v>
       </c>
       <c r="D459" s="14" t="s">
-        <v>1620</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="14" t="s">
-        <v>1621</v>
+        <v>1633</v>
       </c>
       <c r="B460" s="14" t="s">
-        <v>1622</v>
+        <v>1634</v>
       </c>
       <c r="C460" s="14" t="s">
-        <v>1623</v>
+        <v>1635</v>
       </c>
       <c r="D460" s="14" t="s">
-        <v>1624</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="14" t="s">
-        <v>1625</v>
+        <v>1637</v>
       </c>
       <c r="B461" s="14" t="s">
-        <v>1626</v>
+        <v>1638</v>
       </c>
       <c r="C461" s="14" t="s">
-        <v>1627</v>
+        <v>1639</v>
       </c>
       <c r="D461" s="14" t="s">
-        <v>1628</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="14" t="s">
-        <v>1629</v>
+        <v>1641</v>
       </c>
       <c r="B462" s="14" t="s">
-        <v>1630</v>
+        <v>1642</v>
       </c>
       <c r="C462" s="14" t="s">
-        <v>1631</v>
+        <v>1643</v>
       </c>
       <c r="D462" s="14" t="s">
-        <v>1632</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="14" t="s">
-        <v>1633</v>
+        <v>1645</v>
       </c>
       <c r="B463" s="14" t="s">
-        <v>1634</v>
+        <v>1646</v>
       </c>
       <c r="C463" s="14" t="s">
-        <v>1635</v>
+        <v>1647</v>
       </c>
       <c r="D463" s="14" t="s">
-        <v>1636</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="14" t="s">
-        <v>1637</v>
+        <v>1649</v>
       </c>
       <c r="B464" s="14" t="s">
-        <v>1638</v>
+        <v>1650</v>
       </c>
       <c r="C464" s="14" t="s">
-        <v>1639</v>
+        <v>1651</v>
       </c>
       <c r="D464" s="14" t="s">
-        <v>1640</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="14" t="s">
-        <v>1641</v>
+        <v>1653</v>
       </c>
       <c r="B465" s="14" t="s">
-        <v>1642</v>
+        <v>1654</v>
       </c>
       <c r="C465" s="14" t="s">
-        <v>1643</v>
+        <v>1655</v>
       </c>
       <c r="D465" s="14" t="s">
-        <v>1644</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="14" t="s">
-        <v>1645</v>
+        <v>1657</v>
       </c>
       <c r="B466" s="14" t="s">
-        <v>1646</v>
+        <v>1658</v>
       </c>
       <c r="C466" s="14" t="s">
-        <v>1647</v>
+        <v>1659</v>
       </c>
       <c r="D466" s="14" t="s">
-        <v>1648</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="14" t="s">
-        <v>1649</v>
+        <v>1661</v>
       </c>
       <c r="B467" s="14" t="s">
-        <v>1650</v>
+        <v>1662</v>
       </c>
       <c r="C467" s="14" t="s">
-        <v>1651</v>
+        <v>1663</v>
       </c>
       <c r="D467" s="14" t="s">
-        <v>1652</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="14" t="s">
-        <v>1653</v>
+        <v>1665</v>
       </c>
       <c r="B468" s="14" t="s">
-        <v>1654</v>
+        <v>1666</v>
       </c>
       <c r="C468" s="14" t="s">
-        <v>1655</v>
+        <v>1667</v>
       </c>
       <c r="D468" s="14" t="s">
-        <v>1656</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="14" t="s">
-        <v>1657</v>
+        <v>1669</v>
       </c>
       <c r="B469" s="14" t="s">
-        <v>1658</v>
+        <v>1670</v>
       </c>
       <c r="C469" s="14" t="s">
-        <v>1659</v>
+        <v>1671</v>
       </c>
       <c r="D469" s="14" t="s">
-        <v>1660</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="14" t="s">
-        <v>1661</v>
+        <v>1673</v>
       </c>
       <c r="B470" s="14" t="s">
-        <v>1662</v>
+        <v>1674</v>
       </c>
       <c r="C470" s="14" t="s">
-        <v>1663</v>
+        <v>1675</v>
       </c>
       <c r="D470" s="14" t="s">
-        <v>1664</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="14" t="s">
-        <v>1665</v>
+        <v>1677</v>
       </c>
       <c r="B471" s="14" t="s">
-        <v>1666</v>
+        <v>1678</v>
       </c>
       <c r="C471" s="14" t="s">
-        <v>1667</v>
+        <v>1679</v>
       </c>
       <c r="D471" s="14" t="s">
-        <v>1668</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="14" t="s">
-        <v>1669</v>
+        <v>1681</v>
       </c>
       <c r="B472" s="14" t="s">
-        <v>1670</v>
+        <v>1682</v>
       </c>
       <c r="C472" s="14" t="s">
-        <v>1671</v>
+        <v>1683</v>
       </c>
       <c r="D472" s="14" t="s">
-        <v>1672</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="14" t="s">
-        <v>1673</v>
+        <v>1685</v>
       </c>
       <c r="B473" s="14" t="s">
-        <v>1674</v>
+        <v>1686</v>
       </c>
       <c r="C473" s="14" t="s">
-        <v>1675</v>
+        <v>1687</v>
       </c>
       <c r="D473" s="14" t="s">
-        <v>1676</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="14" t="s">
-        <v>1677</v>
+        <v>1689</v>
       </c>
       <c r="B474" s="14" t="s">
-        <v>1678</v>
+        <v>1690</v>
       </c>
       <c r="C474" s="14" t="s">
-        <v>1679</v>
+        <v>1691</v>
       </c>
       <c r="D474" s="14" t="s">
-        <v>1680</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="14" t="s">
-        <v>1681</v>
+        <v>1693</v>
       </c>
       <c r="B475" s="14" t="s">
-        <v>1682</v>
+        <v>1694</v>
       </c>
       <c r="C475" s="14" t="s">
-        <v>1683</v>
+        <v>1695</v>
       </c>
       <c r="D475" s="14" t="s">
-        <v>1684</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="14" t="s">
-        <v>1685</v>
+        <v>1697</v>
       </c>
       <c r="B476" s="14" t="s">
-        <v>1686</v>
+        <v>1698</v>
       </c>
       <c r="C476" s="14" t="s">
-        <v>1687</v>
+        <v>1699</v>
       </c>
       <c r="D476" s="14" t="s">
-        <v>1688</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="14" t="s">
-        <v>1689</v>
+        <v>1701</v>
       </c>
       <c r="B477" s="14" t="s">
-        <v>1690</v>
+        <v>1702</v>
       </c>
       <c r="C477" s="14" t="s">
-        <v>1691</v>
+        <v>1703</v>
       </c>
       <c r="D477" s="14" t="s">
-        <v>1692</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="14" t="s">
-        <v>1693</v>
+        <v>1705</v>
       </c>
       <c r="B478" s="14" t="s">
-        <v>1694</v>
+        <v>1706</v>
       </c>
       <c r="C478" s="14" t="s">
-        <v>1695</v>
+        <v>1707</v>
       </c>
       <c r="D478" s="14" t="s">
-        <v>1696</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="14" t="s">
-        <v>1697</v>
+        <v>1709</v>
       </c>
       <c r="B479" s="14" t="s">
-        <v>1698</v>
+        <v>1710</v>
       </c>
       <c r="C479" s="14" t="s">
-        <v>1699</v>
+        <v>1711</v>
       </c>
       <c r="D479" s="14" t="s">
-        <v>1700</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="14" t="s">
-        <v>1701</v>
+        <v>1713</v>
       </c>
       <c r="B480" s="14" t="s">
-        <v>1702</v>
+        <v>1714</v>
       </c>
       <c r="C480" s="14" t="s">
-        <v>1703</v>
+        <v>1715</v>
       </c>
       <c r="D480" s="14" t="s">
-        <v>1704</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="14" t="s">
-        <v>1705</v>
+        <v>1717</v>
       </c>
       <c r="B481" s="14" t="s">
-        <v>1706</v>
+        <v>1718</v>
       </c>
       <c r="C481" s="14" t="s">
-        <v>1707</v>
+        <v>1719</v>
       </c>
       <c r="D481" s="14" t="s">
-        <v>1708</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="14" t="s">
-        <v>1709</v>
+        <v>1721</v>
       </c>
       <c r="B482" s="14" t="s">
-        <v>1710</v>
+        <v>1722</v>
       </c>
       <c r="C482" s="14" t="s">
-        <v>1711</v>
+        <v>1723</v>
       </c>
       <c r="D482" s="14" t="s">
-        <v>1712</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="14" t="s">
-        <v>1713</v>
+        <v>1725</v>
       </c>
       <c r="B483" s="14" t="s">
-        <v>1714</v>
+        <v>1726</v>
       </c>
       <c r="C483" s="14" t="s">
-        <v>1715</v>
+        <v>1727</v>
       </c>
       <c r="D483" s="14" t="s">
-        <v>1716</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="14" t="s">
-        <v>1717</v>
+        <v>1729</v>
       </c>
       <c r="B484" s="14" t="s">
-        <v>1718</v>
+        <v>1730</v>
       </c>
       <c r="C484" s="14" t="s">
-        <v>1719</v>
+        <v>1731</v>
       </c>
       <c r="D484" s="14" t="s">
-        <v>1720</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="14" t="s">
-        <v>1721</v>
+        <v>1733</v>
       </c>
       <c r="B486" s="14" t="s">
-        <v>1722</v>
+        <v>1734</v>
       </c>
       <c r="C486" s="16" t="s">
-        <v>1723</v>
+        <v>1735</v>
       </c>
       <c r="D486" s="16" t="s">
-        <v>1724</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="14" t="s">
-        <v>1725</v>
+        <v>1737</v>
       </c>
       <c r="B487" s="14" t="s">
-        <v>1726</v>
+        <v>1738</v>
       </c>
       <c r="C487" s="16" t="s">
-        <v>1727</v>
+        <v>1739</v>
       </c>
       <c r="D487" s="16" t="s">
-        <v>1728</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="14" t="s">
-        <v>1729</v>
+        <v>1741</v>
       </c>
       <c r="B488" s="14" t="s">
-        <v>1730</v>
+        <v>1742</v>
       </c>
       <c r="C488" s="16" t="s">
-        <v>1731</v>
+        <v>1743</v>
       </c>
       <c r="D488" s="16" t="s">
-        <v>1732</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="14" t="s">
-        <v>1733</v>
+        <v>1745</v>
       </c>
       <c r="B489" s="14" t="s">
-        <v>1734</v>
+        <v>1746</v>
       </c>
       <c r="C489" s="16" t="s">
-        <v>1735</v>
+        <v>1747</v>
       </c>
       <c r="D489" s="16" t="s">
-        <v>1736</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="14" t="s">
-        <v>1737</v>
+        <v>1749</v>
       </c>
       <c r="B490" s="14" t="s">
-        <v>1738</v>
+        <v>1750</v>
       </c>
       <c r="C490" s="16" t="s">
-        <v>1739</v>
+        <v>1751</v>
       </c>
       <c r="D490" s="16" t="s">
-        <v>1740</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="14" t="s">
-        <v>1741</v>
+        <v>1753</v>
       </c>
       <c r="B491" s="14" t="s">
-        <v>1742</v>
+        <v>1754</v>
       </c>
       <c r="C491" s="16" t="s">
-        <v>1743</v>
+        <v>1755</v>
       </c>
       <c r="D491" s="16" t="s">
-        <v>1744</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="14" t="s">
-        <v>1745</v>
+        <v>1757</v>
       </c>
       <c r="B492" s="14" t="s">
-        <v>1746</v>
+        <v>1758</v>
       </c>
       <c r="C492" s="16" t="s">
-        <v>1747</v>
+        <v>1759</v>
       </c>
       <c r="D492" s="16" t="s">
-        <v>1748</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="14" t="s">
-        <v>1749</v>
+        <v>1761</v>
       </c>
       <c r="B493" s="14" t="s">
-        <v>1750</v>
+        <v>1762</v>
       </c>
       <c r="C493" s="16" t="s">
-        <v>1751</v>
+        <v>1763</v>
       </c>
       <c r="D493" s="16" t="s">
-        <v>1752</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="14" t="s">
-        <v>1753</v>
+        <v>1765</v>
       </c>
       <c r="B494" s="14" t="s">
-        <v>1754</v>
+        <v>1766</v>
       </c>
       <c r="C494" s="16" t="s">
-        <v>1755</v>
+        <v>1767</v>
       </c>
       <c r="D494" s="16" t="s">
-        <v>1756</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="16.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A495" s="14" t="s">
-        <v>1757</v>
+        <v>1769</v>
       </c>
       <c r="B495" s="17" t="s">
-        <v>1758</v>
+        <v>1770</v>
       </c>
       <c r="C495" s="16" t="s">
-        <v>1759</v>
+        <v>1771</v>
       </c>
       <c r="D495" s="16" t="s">
-        <v>1760</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="14" t="s">
-        <v>1761</v>
+        <v>1773</v>
       </c>
       <c r="B496" s="14" t="s">
-        <v>1762</v>
+        <v>1774</v>
       </c>
       <c r="C496" s="14" t="s">
-        <v>1763</v>
+        <v>1775</v>
       </c>
       <c r="D496" s="14" t="s">
-        <v>1764</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="14" t="s">
-        <v>1765</v>
+        <v>1777</v>
       </c>
       <c r="B497" s="14" t="s">
-        <v>1766</v>
+        <v>1778</v>
       </c>
       <c r="C497" s="14" t="s">
-        <v>1767</v>
+        <v>1779</v>
       </c>
       <c r="D497" s="14" t="s">
-        <v>1768</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="14" t="s">
-        <v>1769</v>
+        <v>1781</v>
       </c>
       <c r="B498" s="14" t="s">
-        <v>1770</v>
+        <v>1782</v>
       </c>
       <c r="C498" s="16" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="D498" s="16" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="14" t="s">
-        <v>1771</v>
+        <v>1783</v>
       </c>
       <c r="B499" s="14" t="s">
-        <v>1772</v>
+        <v>1784</v>
       </c>
       <c r="C499" s="16" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="D499" s="16" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="14" t="s">
-        <v>1773</v>
+        <v>1785</v>
       </c>
       <c r="B500" s="14" t="s">
-        <v>1774</v>
+        <v>1786</v>
       </c>
       <c r="C500" s="16" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="D500" s="16" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="18" t="s">
-        <v>1775</v>
+        <v>1787</v>
       </c>
       <c r="B501" s="14" t="s">
-        <v>1776</v>
+        <v>1788</v>
+      </c>
+      <c r="C501" s="14" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D501" s="14" t="s">
+        <v>1790</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="14" t="s">
-        <v>1777</v>
+        <v>1791</v>
       </c>
       <c r="B502" s="14" t="s">
-        <v>1778</v>
+        <v>1792</v>
       </c>
       <c r="C502" s="14" t="s">
-        <v>1779</v>
+        <v>1793</v>
       </c>
       <c r="D502" s="14" t="s">
-        <v>1780</v>
+        <v>1794</v>
       </c>
     </row>
   </sheetData>

--- a/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
+++ b/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3467" uniqueCount="1795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3419" uniqueCount="1793">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -3280,12 +3280,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agusti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disemba</t>
   </si>
   <si>
     <t xml:space="preserve"> 2021</t>
@@ -5788,7 +5782,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.53125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="8.69"/>
   </cols>
@@ -6839,7 +6833,7 @@
       <selection pane="topLeft" activeCell="N30" activeCellId="0" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.53125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.67"/>
@@ -8348,7 +8342,7 @@
       <selection pane="bottomLeft" activeCell="A91" activeCellId="0" sqref="A91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.53125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.16"/>
@@ -13621,7 +13615,7 @@
       <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.53125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.79"/>
@@ -31253,7 +31247,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.53125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.04"/>
@@ -31313,7 +31307,7 @@
         <v>564</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>20210304001</v>
+        <v>20210311001</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32394,12 +32388,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D502"/>
+  <dimension ref="A1:D490"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A487" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A295" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C501" activeCellId="0" sqref="C501"/>
+      <selection pane="bottomLeft" activeCell="E322" activeCellId="0" sqref="E322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.41015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35477,3856 +35471,3688 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="14" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="B221" s="14" t="s">
-        <v>857</v>
+        <v>1085</v>
       </c>
       <c r="C221" s="14" t="s">
-        <v>858</v>
+        <v>1085</v>
       </c>
       <c r="D221" s="14" t="s">
-        <v>859</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="14" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="B222" s="14" t="s">
-        <v>860</v>
+        <v>1086</v>
       </c>
       <c r="C222" s="14" t="s">
-        <v>861</v>
+        <v>1086</v>
       </c>
       <c r="D222" s="14" t="s">
-        <v>862</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="14" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="B223" s="14" t="s">
-        <v>863</v>
+        <v>1087</v>
       </c>
       <c r="C223" s="14" t="s">
-        <v>864</v>
+        <v>1087</v>
       </c>
       <c r="D223" s="14" t="s">
-        <v>865</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="14" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="B224" s="14" t="s">
-        <v>866</v>
+        <v>1088</v>
       </c>
       <c r="C224" s="14" t="s">
-        <v>867</v>
+        <v>1088</v>
       </c>
       <c r="D224" s="14" t="s">
-        <v>868</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="14" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="B225" s="14" t="s">
-        <v>869</v>
+        <v>1089</v>
       </c>
       <c r="C225" s="14" t="s">
-        <v>870</v>
+        <v>1089</v>
       </c>
       <c r="D225" s="14" t="s">
-        <v>871</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="14" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="B226" s="14" t="s">
-        <v>872</v>
+        <v>1090</v>
       </c>
       <c r="C226" s="14" t="s">
-        <v>873</v>
+        <v>1090</v>
       </c>
       <c r="D226" s="14" t="s">
-        <v>874</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="14" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="B227" s="14" t="s">
-        <v>875</v>
+        <v>1091</v>
       </c>
       <c r="C227" s="14" t="s">
-        <v>876</v>
+        <v>1091</v>
       </c>
       <c r="D227" s="14" t="s">
-        <v>877</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="14" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="B228" s="14" t="s">
-        <v>878</v>
+        <v>1092</v>
       </c>
       <c r="C228" s="14" t="s">
-        <v>879</v>
+        <v>1092</v>
       </c>
       <c r="D228" s="14" t="s">
-        <v>1085</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="14" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="B229" s="14" t="s">
-        <v>881</v>
+        <v>1093</v>
       </c>
       <c r="C229" s="14" t="s">
-        <v>882</v>
+        <v>1093</v>
       </c>
       <c r="D229" s="14" t="s">
-        <v>883</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="14" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="B230" s="14" t="s">
-        <v>884</v>
+        <v>1094</v>
       </c>
       <c r="C230" s="14" t="s">
-        <v>885</v>
+        <v>1094</v>
       </c>
       <c r="D230" s="14" t="s">
-        <v>886</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="14" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="B231" s="14" t="s">
-        <v>887</v>
+        <v>1095</v>
       </c>
       <c r="C231" s="14" t="s">
-        <v>888</v>
+        <v>1095</v>
       </c>
       <c r="D231" s="14" t="s">
-        <v>889</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="14" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="B232" s="14" t="s">
-        <v>890</v>
+        <v>1096</v>
       </c>
       <c r="C232" s="14" t="s">
-        <v>891</v>
+        <v>1096</v>
       </c>
       <c r="D232" s="14" t="s">
-        <v>1086</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="14" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="B233" s="14" t="s">
-        <v>1087</v>
+        <v>1097</v>
       </c>
       <c r="C233" s="14" t="s">
-        <v>1087</v>
+        <v>1097</v>
       </c>
       <c r="D233" s="14" t="s">
-        <v>1087</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="14" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="B234" s="14" t="s">
-        <v>1088</v>
+        <v>1098</v>
       </c>
       <c r="C234" s="14" t="s">
-        <v>1088</v>
+        <v>1098</v>
       </c>
       <c r="D234" s="14" t="s">
-        <v>1088</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="14" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="B235" s="14" t="s">
-        <v>1089</v>
+        <v>1099</v>
       </c>
       <c r="C235" s="14" t="s">
-        <v>1089</v>
+        <v>1099</v>
       </c>
       <c r="D235" s="14" t="s">
-        <v>1089</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="14" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="B236" s="14" t="s">
-        <v>1090</v>
+        <v>1100</v>
       </c>
       <c r="C236" s="14" t="s">
-        <v>1090</v>
+        <v>1100</v>
       </c>
       <c r="D236" s="14" t="s">
-        <v>1090</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="14" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="B237" s="14" t="s">
-        <v>1091</v>
+        <v>1101</v>
       </c>
       <c r="C237" s="14" t="s">
-        <v>1091</v>
+        <v>1101</v>
       </c>
       <c r="D237" s="14" t="s">
-        <v>1091</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="14" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="B238" s="14" t="s">
-        <v>1092</v>
+        <v>1102</v>
       </c>
       <c r="C238" s="14" t="s">
-        <v>1092</v>
+        <v>1102</v>
       </c>
       <c r="D238" s="14" t="s">
-        <v>1092</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="14" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="B239" s="14" t="s">
-        <v>1093</v>
+        <v>1103</v>
       </c>
       <c r="C239" s="14" t="s">
-        <v>1093</v>
+        <v>1103</v>
       </c>
       <c r="D239" s="14" t="s">
-        <v>1093</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="14" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="B240" s="14" t="s">
-        <v>1094</v>
+        <v>1104</v>
       </c>
       <c r="C240" s="14" t="s">
-        <v>1094</v>
+        <v>1104</v>
       </c>
       <c r="D240" s="14" t="s">
-        <v>1094</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="14" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="B241" s="14" t="s">
-        <v>1095</v>
+        <v>1105</v>
       </c>
       <c r="C241" s="14" t="s">
-        <v>1095</v>
+        <v>1105</v>
       </c>
       <c r="D241" s="14" t="s">
-        <v>1095</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="14" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="B242" s="14" t="s">
-        <v>1096</v>
+        <v>1106</v>
       </c>
       <c r="C242" s="14" t="s">
-        <v>1096</v>
+        <v>1106</v>
       </c>
       <c r="D242" s="14" t="s">
-        <v>1096</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="14" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="B243" s="14" t="s">
-        <v>1097</v>
+        <v>1107</v>
       </c>
       <c r="C243" s="14" t="s">
-        <v>1097</v>
+        <v>1107</v>
       </c>
       <c r="D243" s="14" t="s">
-        <v>1097</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="14" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="B244" s="14" t="s">
-        <v>1098</v>
+        <v>1108</v>
       </c>
       <c r="C244" s="14" t="s">
-        <v>1098</v>
+        <v>1108</v>
       </c>
       <c r="D244" s="14" t="s">
-        <v>1098</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="14" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="B245" s="14" t="s">
-        <v>1099</v>
+        <v>1109</v>
       </c>
       <c r="C245" s="14" t="s">
-        <v>1099</v>
+        <v>1109</v>
       </c>
       <c r="D245" s="14" t="s">
-        <v>1099</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="14" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="B246" s="14" t="s">
-        <v>1100</v>
+        <v>1110</v>
       </c>
       <c r="C246" s="14" t="s">
-        <v>1100</v>
+        <v>1110</v>
       </c>
       <c r="D246" s="14" t="s">
-        <v>1100</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="14" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="B247" s="14" t="s">
-        <v>1101</v>
+        <v>1111</v>
       </c>
       <c r="C247" s="14" t="s">
-        <v>1101</v>
+        <v>1111</v>
       </c>
       <c r="D247" s="14" t="s">
-        <v>1101</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="14" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B248" s="14" t="s">
-        <v>1102</v>
+        <v>1112</v>
       </c>
       <c r="C248" s="14" t="s">
-        <v>1102</v>
+        <v>1112</v>
       </c>
       <c r="D248" s="14" t="s">
-        <v>1102</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="14" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="B249" s="14" t="s">
-        <v>1103</v>
+        <v>1113</v>
       </c>
       <c r="C249" s="14" t="s">
-        <v>1103</v>
+        <v>1113</v>
       </c>
       <c r="D249" s="14" t="s">
-        <v>1103</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="14" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="B250" s="14" t="s">
-        <v>1104</v>
+        <v>1114</v>
       </c>
       <c r="C250" s="14" t="s">
-        <v>1104</v>
+        <v>1114</v>
       </c>
       <c r="D250" s="14" t="s">
-        <v>1104</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="14" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="B251" s="14" t="s">
-        <v>1105</v>
+        <v>1115</v>
       </c>
       <c r="C251" s="14" t="s">
-        <v>1105</v>
+        <v>1115</v>
       </c>
       <c r="D251" s="14" t="s">
-        <v>1105</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="14" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="B252" s="14" t="s">
-        <v>1106</v>
+        <v>1116</v>
       </c>
       <c r="C252" s="14" t="s">
-        <v>1106</v>
+        <v>1116</v>
       </c>
       <c r="D252" s="14" t="s">
-        <v>1106</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="14" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="B253" s="14" t="s">
-        <v>1107</v>
+        <v>1117</v>
       </c>
       <c r="C253" s="14" t="s">
-        <v>1107</v>
+        <v>1117</v>
       </c>
       <c r="D253" s="14" t="s">
-        <v>1107</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="14" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="B254" s="14" t="s">
-        <v>1108</v>
+        <v>1118</v>
       </c>
       <c r="C254" s="14" t="s">
-        <v>1108</v>
+        <v>1118</v>
       </c>
       <c r="D254" s="14" t="s">
-        <v>1108</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="14" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="B255" s="14" t="s">
-        <v>1109</v>
+        <v>1119</v>
       </c>
       <c r="C255" s="14" t="s">
-        <v>1109</v>
+        <v>1119</v>
       </c>
       <c r="D255" s="14" t="s">
-        <v>1109</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="14" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="B256" s="14" t="s">
-        <v>1110</v>
+        <v>1120</v>
       </c>
       <c r="C256" s="14" t="s">
-        <v>1110</v>
+        <v>1120</v>
       </c>
       <c r="D256" s="14" t="s">
-        <v>1110</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="14" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="B257" s="14" t="s">
-        <v>1111</v>
+        <v>1121</v>
       </c>
       <c r="C257" s="14" t="s">
-        <v>1111</v>
+        <v>1121</v>
       </c>
       <c r="D257" s="14" t="s">
-        <v>1111</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="14" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="B258" s="14" t="s">
-        <v>1112</v>
+        <v>1122</v>
       </c>
       <c r="C258" s="14" t="s">
-        <v>1112</v>
+        <v>1122</v>
       </c>
       <c r="D258" s="14" t="s">
-        <v>1112</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="14" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="B259" s="14" t="s">
-        <v>1113</v>
+        <v>1123</v>
       </c>
       <c r="C259" s="14" t="s">
-        <v>1113</v>
+        <v>1123</v>
       </c>
       <c r="D259" s="14" t="s">
-        <v>1113</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="14" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="B260" s="14" t="s">
-        <v>1114</v>
+        <v>1124</v>
       </c>
       <c r="C260" s="14" t="s">
-        <v>1114</v>
+        <v>1124</v>
       </c>
       <c r="D260" s="14" t="s">
-        <v>1114</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="14" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="B261" s="14" t="s">
-        <v>1115</v>
+        <v>1125</v>
       </c>
       <c r="C261" s="14" t="s">
-        <v>1115</v>
+        <v>1125</v>
       </c>
       <c r="D261" s="14" t="s">
-        <v>1115</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="14" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="B262" s="14" t="s">
-        <v>1116</v>
+        <v>1126</v>
       </c>
       <c r="C262" s="14" t="s">
-        <v>1116</v>
+        <v>1126</v>
       </c>
       <c r="D262" s="14" t="s">
-        <v>1116</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="14" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="B263" s="14" t="s">
-        <v>1117</v>
+        <v>1127</v>
       </c>
       <c r="C263" s="14" t="s">
-        <v>1117</v>
+        <v>1127</v>
       </c>
       <c r="D263" s="14" t="s">
-        <v>1117</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="14" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="B264" s="14" t="s">
-        <v>1118</v>
+        <v>1128</v>
       </c>
       <c r="C264" s="14" t="s">
-        <v>1118</v>
+        <v>1128</v>
       </c>
       <c r="D264" s="14" t="s">
-        <v>1118</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="14" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="B265" s="14" t="s">
-        <v>1119</v>
+        <v>1129</v>
       </c>
       <c r="C265" s="14" t="s">
-        <v>1119</v>
+        <v>1129</v>
       </c>
       <c r="D265" s="14" t="s">
-        <v>1119</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="14" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="B266" s="14" t="s">
-        <v>1120</v>
+        <v>1130</v>
       </c>
       <c r="C266" s="14" t="s">
-        <v>1120</v>
+        <v>1130</v>
       </c>
       <c r="D266" s="14" t="s">
-        <v>1120</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="14" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="B267" s="14" t="s">
-        <v>1121</v>
+        <v>1131</v>
       </c>
       <c r="C267" s="14" t="s">
-        <v>1121</v>
+        <v>1131</v>
       </c>
       <c r="D267" s="14" t="s">
-        <v>1121</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="14" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="B268" s="14" t="s">
-        <v>1122</v>
+        <v>1132</v>
       </c>
       <c r="C268" s="14" t="s">
-        <v>1122</v>
+        <v>1132</v>
       </c>
       <c r="D268" s="14" t="s">
-        <v>1122</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="14" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="B269" s="14" t="s">
-        <v>1123</v>
+        <v>1133</v>
       </c>
       <c r="C269" s="14" t="s">
-        <v>1123</v>
+        <v>1133</v>
       </c>
       <c r="D269" s="14" t="s">
-        <v>1123</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="14" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="B270" s="14" t="s">
-        <v>1124</v>
+        <v>1134</v>
       </c>
       <c r="C270" s="14" t="s">
-        <v>1124</v>
+        <v>1134</v>
       </c>
       <c r="D270" s="14" t="s">
-        <v>1124</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="14" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="B271" s="14" t="s">
-        <v>1125</v>
+        <v>1135</v>
       </c>
       <c r="C271" s="14" t="s">
-        <v>1125</v>
+        <v>1135</v>
       </c>
       <c r="D271" s="14" t="s">
-        <v>1125</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="14" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="B272" s="14" t="s">
-        <v>1126</v>
+        <v>1136</v>
       </c>
       <c r="C272" s="14" t="s">
-        <v>1126</v>
+        <v>1136</v>
       </c>
       <c r="D272" s="14" t="s">
-        <v>1126</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="14" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="B273" s="14" t="s">
-        <v>1127</v>
+        <v>1137</v>
       </c>
       <c r="C273" s="14" t="s">
-        <v>1127</v>
+        <v>1137</v>
       </c>
       <c r="D273" s="14" t="s">
-        <v>1127</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="14" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="B274" s="14" t="s">
-        <v>1128</v>
+        <v>1138</v>
       </c>
       <c r="C274" s="14" t="s">
-        <v>1128</v>
+        <v>1138</v>
       </c>
       <c r="D274" s="14" t="s">
-        <v>1128</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="14" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="B275" s="14" t="s">
-        <v>1129</v>
+        <v>1139</v>
       </c>
       <c r="C275" s="14" t="s">
-        <v>1129</v>
+        <v>1139</v>
       </c>
       <c r="D275" s="14" t="s">
-        <v>1129</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="14" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="B276" s="14" t="s">
-        <v>1130</v>
+        <v>1140</v>
       </c>
       <c r="C276" s="14" t="s">
-        <v>1130</v>
+        <v>1140</v>
       </c>
       <c r="D276" s="14" t="s">
-        <v>1130</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="14" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="B277" s="14" t="s">
-        <v>1131</v>
+        <v>1141</v>
       </c>
       <c r="C277" s="14" t="s">
-        <v>1131</v>
+        <v>1141</v>
       </c>
       <c r="D277" s="14" t="s">
-        <v>1131</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="14" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="B278" s="14" t="s">
-        <v>1132</v>
+        <v>1142</v>
       </c>
       <c r="C278" s="14" t="s">
-        <v>1132</v>
+        <v>1142</v>
       </c>
       <c r="D278" s="14" t="s">
-        <v>1132</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="14" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="B279" s="14" t="s">
-        <v>1133</v>
+        <v>1143</v>
       </c>
       <c r="C279" s="14" t="s">
-        <v>1133</v>
+        <v>1143</v>
       </c>
       <c r="D279" s="14" t="s">
-        <v>1133</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="14" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="B280" s="14" t="s">
-        <v>1134</v>
+        <v>1144</v>
       </c>
       <c r="C280" s="14" t="s">
-        <v>1134</v>
+        <v>1144</v>
       </c>
       <c r="D280" s="14" t="s">
-        <v>1134</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="14" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="B281" s="14" t="s">
-        <v>1135</v>
+        <v>1145</v>
       </c>
       <c r="C281" s="14" t="s">
-        <v>1135</v>
+        <v>1145</v>
       </c>
       <c r="D281" s="14" t="s">
-        <v>1135</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="14" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="B282" s="14" t="s">
-        <v>1136</v>
+        <v>1146</v>
       </c>
       <c r="C282" s="14" t="s">
-        <v>1136</v>
+        <v>1146</v>
       </c>
       <c r="D282" s="14" t="s">
-        <v>1136</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="14" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="B283" s="14" t="s">
-        <v>1137</v>
+        <v>1147</v>
       </c>
       <c r="C283" s="14" t="s">
-        <v>1137</v>
+        <v>1147</v>
       </c>
       <c r="D283" s="14" t="s">
-        <v>1137</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="14" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="B284" s="14" t="s">
-        <v>1138</v>
+        <v>1148</v>
       </c>
       <c r="C284" s="14" t="s">
-        <v>1138</v>
+        <v>1148</v>
       </c>
       <c r="D284" s="14" t="s">
-        <v>1138</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="14" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="B285" s="14" t="s">
-        <v>1139</v>
+        <v>1149</v>
       </c>
       <c r="C285" s="14" t="s">
-        <v>1139</v>
+        <v>1149</v>
       </c>
       <c r="D285" s="14" t="s">
-        <v>1139</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="14" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="B286" s="14" t="s">
-        <v>1140</v>
+        <v>1150</v>
       </c>
       <c r="C286" s="14" t="s">
-        <v>1140</v>
+        <v>1150</v>
       </c>
       <c r="D286" s="14" t="s">
-        <v>1140</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="14" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="B287" s="14" t="s">
-        <v>1141</v>
+        <v>1151</v>
       </c>
       <c r="C287" s="14" t="s">
-        <v>1141</v>
+        <v>1151</v>
       </c>
       <c r="D287" s="14" t="s">
-        <v>1141</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="14" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="B288" s="14" t="s">
-        <v>1142</v>
+        <v>1152</v>
       </c>
       <c r="C288" s="14" t="s">
-        <v>1142</v>
+        <v>1152</v>
       </c>
       <c r="D288" s="14" t="s">
-        <v>1142</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="14" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="B289" s="14" t="s">
-        <v>1143</v>
+        <v>1153</v>
       </c>
       <c r="C289" s="14" t="s">
-        <v>1143</v>
+        <v>1153</v>
       </c>
       <c r="D289" s="14" t="s">
-        <v>1143</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="14" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="B290" s="14" t="s">
-        <v>1144</v>
+        <v>1154</v>
       </c>
       <c r="C290" s="14" t="s">
-        <v>1144</v>
+        <v>1154</v>
       </c>
       <c r="D290" s="14" t="s">
-        <v>1144</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="14" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="B291" s="14" t="s">
-        <v>1145</v>
+        <v>1155</v>
       </c>
       <c r="C291" s="14" t="s">
-        <v>1145</v>
+        <v>1155</v>
       </c>
       <c r="D291" s="14" t="s">
-        <v>1145</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="14" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="B292" s="14" t="s">
-        <v>1146</v>
+        <v>1156</v>
       </c>
       <c r="C292" s="14" t="s">
-        <v>1146</v>
+        <v>1156</v>
       </c>
       <c r="D292" s="14" t="s">
-        <v>1146</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="14" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="B293" s="14" t="s">
-        <v>1147</v>
+        <v>1157</v>
       </c>
       <c r="C293" s="14" t="s">
-        <v>1147</v>
+        <v>1157</v>
       </c>
       <c r="D293" s="14" t="s">
-        <v>1147</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="14" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="B294" s="14" t="s">
-        <v>1148</v>
+        <v>1158</v>
       </c>
       <c r="C294" s="14" t="s">
-        <v>1148</v>
+        <v>1158</v>
       </c>
       <c r="D294" s="14" t="s">
-        <v>1148</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="14" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="B295" s="14" t="s">
-        <v>1149</v>
+        <v>1159</v>
       </c>
       <c r="C295" s="14" t="s">
-        <v>1149</v>
+        <v>1159</v>
       </c>
       <c r="D295" s="14" t="s">
-        <v>1149</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="14" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="B296" s="14" t="s">
-        <v>1150</v>
+        <v>1160</v>
       </c>
       <c r="C296" s="14" t="s">
-        <v>1150</v>
+        <v>1160</v>
       </c>
       <c r="D296" s="14" t="s">
-        <v>1150</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="14" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="B297" s="14" t="s">
-        <v>1151</v>
+        <v>1161</v>
       </c>
       <c r="C297" s="14" t="s">
-        <v>1151</v>
+        <v>1161</v>
       </c>
       <c r="D297" s="14" t="s">
-        <v>1151</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="14" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="B298" s="14" t="s">
-        <v>1152</v>
+        <v>1162</v>
       </c>
       <c r="C298" s="14" t="s">
-        <v>1152</v>
+        <v>1162</v>
       </c>
       <c r="D298" s="14" t="s">
-        <v>1152</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="14" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="B299" s="14" t="s">
-        <v>1153</v>
+        <v>1163</v>
       </c>
       <c r="C299" s="14" t="s">
-        <v>1153</v>
+        <v>1163</v>
       </c>
       <c r="D299" s="14" t="s">
-        <v>1153</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="14" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="B300" s="14" t="s">
-        <v>1154</v>
+        <v>1164</v>
       </c>
       <c r="C300" s="14" t="s">
-        <v>1154</v>
+        <v>1164</v>
       </c>
       <c r="D300" s="14" t="s">
-        <v>1154</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="14" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="B301" s="14" t="s">
-        <v>1155</v>
+        <v>1165</v>
       </c>
       <c r="C301" s="14" t="s">
-        <v>1155</v>
+        <v>1165</v>
       </c>
       <c r="D301" s="14" t="s">
-        <v>1155</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="14" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="B302" s="14" t="s">
-        <v>1156</v>
+        <v>1166</v>
       </c>
       <c r="C302" s="14" t="s">
-        <v>1156</v>
+        <v>1166</v>
       </c>
       <c r="D302" s="14" t="s">
-        <v>1156</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="14" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="B303" s="14" t="s">
-        <v>1157</v>
+        <v>1167</v>
       </c>
       <c r="C303" s="14" t="s">
-        <v>1157</v>
+        <v>1167</v>
       </c>
       <c r="D303" s="14" t="s">
-        <v>1157</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="14" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="B304" s="14" t="s">
-        <v>1158</v>
+        <v>1168</v>
       </c>
       <c r="C304" s="14" t="s">
-        <v>1158</v>
+        <v>1168</v>
       </c>
       <c r="D304" s="14" t="s">
-        <v>1158</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="14" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="B305" s="14" t="s">
-        <v>1159</v>
+        <v>1169</v>
       </c>
       <c r="C305" s="14" t="s">
-        <v>1159</v>
+        <v>1169</v>
       </c>
       <c r="D305" s="14" t="s">
-        <v>1159</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="14" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="B306" s="14" t="s">
-        <v>1160</v>
+        <v>1170</v>
       </c>
       <c r="C306" s="14" t="s">
-        <v>1160</v>
+        <v>1170</v>
       </c>
       <c r="D306" s="14" t="s">
-        <v>1160</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="14" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="B307" s="14" t="s">
-        <v>1161</v>
+        <v>1171</v>
       </c>
       <c r="C307" s="14" t="s">
-        <v>1161</v>
+        <v>1171</v>
       </c>
       <c r="D307" s="14" t="s">
-        <v>1161</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="14" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="B308" s="14" t="s">
-        <v>1162</v>
+        <v>1172</v>
       </c>
       <c r="C308" s="14" t="s">
-        <v>1162</v>
+        <v>1172</v>
       </c>
       <c r="D308" s="14" t="s">
-        <v>1162</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="14" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="B309" s="14" t="s">
-        <v>1163</v>
+        <v>1173</v>
       </c>
       <c r="C309" s="14" t="s">
-        <v>1163</v>
+        <v>1173</v>
       </c>
       <c r="D309" s="14" t="s">
-        <v>1163</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="14" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B310" s="14" t="s">
-        <v>1164</v>
+        <v>1174</v>
       </c>
       <c r="C310" s="14" t="s">
-        <v>1164</v>
+        <v>1174</v>
       </c>
       <c r="D310" s="14" t="s">
-        <v>1164</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="14" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="B311" s="14" t="s">
-        <v>1165</v>
+        <v>1175</v>
       </c>
       <c r="C311" s="14" t="s">
-        <v>1165</v>
+        <v>1175</v>
       </c>
       <c r="D311" s="14" t="s">
-        <v>1165</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="14" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="B312" s="14" t="s">
-        <v>1166</v>
+        <v>1176</v>
       </c>
       <c r="C312" s="14" t="s">
-        <v>1166</v>
+        <v>1176</v>
       </c>
       <c r="D312" s="14" t="s">
-        <v>1166</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="14" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="B313" s="14" t="s">
-        <v>1167</v>
+        <v>1177</v>
       </c>
       <c r="C313" s="14" t="s">
-        <v>1167</v>
+        <v>1177</v>
       </c>
       <c r="D313" s="14" t="s">
-        <v>1167</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="14" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="B314" s="14" t="s">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="C314" s="14" t="s">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="D314" s="14" t="s">
-        <v>1168</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="14" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="B315" s="14" t="s">
-        <v>1169</v>
+        <v>1179</v>
       </c>
       <c r="C315" s="14" t="s">
-        <v>1169</v>
+        <v>1179</v>
       </c>
       <c r="D315" s="14" t="s">
-        <v>1169</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="14" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="B316" s="14" t="s">
-        <v>1170</v>
+        <v>1180</v>
       </c>
       <c r="C316" s="14" t="s">
-        <v>1170</v>
+        <v>1180</v>
       </c>
       <c r="D316" s="14" t="s">
-        <v>1170</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="14" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="B317" s="14" t="s">
-        <v>1171</v>
+        <v>1181</v>
       </c>
       <c r="C317" s="14" t="s">
-        <v>1171</v>
+        <v>1181</v>
       </c>
       <c r="D317" s="14" t="s">
-        <v>1171</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="14" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="B318" s="14" t="s">
-        <v>1172</v>
+        <v>1182</v>
       </c>
       <c r="C318" s="14" t="s">
-        <v>1172</v>
+        <v>1182</v>
       </c>
       <c r="D318" s="14" t="s">
-        <v>1172</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="14" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="B319" s="14" t="s">
-        <v>1173</v>
+        <v>1183</v>
       </c>
       <c r="C319" s="14" t="s">
-        <v>1173</v>
+        <v>1183</v>
       </c>
       <c r="D319" s="14" t="s">
-        <v>1173</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="14" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="B320" s="14" t="s">
-        <v>1174</v>
+        <v>1184</v>
       </c>
       <c r="C320" s="14" t="s">
-        <v>1174</v>
+        <v>1184</v>
       </c>
       <c r="D320" s="14" t="s">
-        <v>1174</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="14" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="B321" s="14" t="s">
-        <v>1175</v>
+        <v>1185</v>
       </c>
       <c r="C321" s="14" t="s">
-        <v>1175</v>
+        <v>1185</v>
       </c>
       <c r="D321" s="14" t="s">
-        <v>1175</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="14" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="B322" s="14" t="s">
-        <v>1176</v>
+        <v>1186</v>
       </c>
       <c r="C322" s="14" t="s">
-        <v>1176</v>
+        <v>1186</v>
       </c>
       <c r="D322" s="14" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="B323" s="14" t="s">
-        <v>1177</v>
-      </c>
-      <c r="C323" s="14" t="s">
-        <v>1177</v>
-      </c>
-      <c r="D323" s="14" t="s">
-        <v>1177</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="14" t="s">
-        <v>442</v>
+        <v>1187</v>
       </c>
       <c r="B324" s="14" t="s">
-        <v>1178</v>
+        <v>1188</v>
       </c>
       <c r="C324" s="14" t="s">
-        <v>1178</v>
+        <v>1189</v>
       </c>
       <c r="D324" s="14" t="s">
-        <v>1178</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="14" t="s">
-        <v>443</v>
+        <v>1191</v>
       </c>
       <c r="B325" s="14" t="s">
-        <v>1179</v>
+        <v>1192</v>
       </c>
       <c r="C325" s="14" t="s">
-        <v>1179</v>
+        <v>1193</v>
       </c>
       <c r="D325" s="14" t="s">
-        <v>1179</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="14" t="s">
-        <v>444</v>
+        <v>1195</v>
       </c>
       <c r="B326" s="14" t="s">
-        <v>1180</v>
+        <v>1196</v>
       </c>
       <c r="C326" s="14" t="s">
-        <v>1180</v>
+        <v>1197</v>
       </c>
       <c r="D326" s="14" t="s">
-        <v>1180</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="14" t="s">
-        <v>445</v>
+        <v>1199</v>
       </c>
       <c r="B327" s="14" t="s">
-        <v>1181</v>
+        <v>1200</v>
       </c>
       <c r="C327" s="14" t="s">
-        <v>1181</v>
+        <v>1201</v>
       </c>
       <c r="D327" s="14" t="s">
-        <v>1181</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="14" t="s">
-        <v>446</v>
+        <v>1203</v>
       </c>
       <c r="B328" s="14" t="s">
-        <v>1182</v>
+        <v>1204</v>
       </c>
       <c r="C328" s="14" t="s">
-        <v>1182</v>
+        <v>1205</v>
       </c>
       <c r="D328" s="14" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="B329" s="14" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C329" s="14" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D329" s="14" t="s">
-        <v>1183</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="14" t="s">
-        <v>448</v>
+        <v>1207</v>
       </c>
       <c r="B330" s="14" t="s">
-        <v>1184</v>
+        <v>1208</v>
       </c>
       <c r="C330" s="14" t="s">
-        <v>1184</v>
+        <v>1209</v>
       </c>
       <c r="D330" s="14" t="s">
-        <v>1184</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="14" t="s">
-        <v>449</v>
+        <v>1211</v>
       </c>
       <c r="B331" s="14" t="s">
-        <v>1185</v>
+        <v>1212</v>
       </c>
       <c r="C331" s="14" t="s">
-        <v>1185</v>
+        <v>1213</v>
       </c>
       <c r="D331" s="14" t="s">
-        <v>1185</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="14" t="s">
-        <v>450</v>
+        <v>1215</v>
       </c>
       <c r="B332" s="14" t="s">
-        <v>1186</v>
+        <v>1216</v>
       </c>
       <c r="C332" s="14" t="s">
-        <v>1186</v>
+        <v>1217</v>
       </c>
       <c r="D332" s="14" t="s">
-        <v>1186</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="14" t="s">
-        <v>451</v>
+        <v>1219</v>
       </c>
       <c r="B333" s="14" t="s">
-        <v>1187</v>
+        <v>1220</v>
       </c>
       <c r="C333" s="14" t="s">
-        <v>1187</v>
+        <v>1221</v>
       </c>
       <c r="D333" s="14" t="s">
-        <v>1187</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="14" t="s">
-        <v>452</v>
+        <v>1223</v>
       </c>
       <c r="B334" s="14" t="s">
-        <v>1188</v>
+        <v>1224</v>
       </c>
       <c r="C334" s="14" t="s">
-        <v>1188</v>
+        <v>1225</v>
       </c>
       <c r="D334" s="14" t="s">
-        <v>1188</v>
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="14" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B335" s="14" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C335" s="14" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D335" s="14" t="s">
+        <v>1230</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="14" t="s">
-        <v>1189</v>
+        <v>1231</v>
       </c>
       <c r="B336" s="14" t="s">
-        <v>1190</v>
+        <v>1232</v>
       </c>
       <c r="C336" s="14" t="s">
-        <v>1191</v>
+        <v>1233</v>
       </c>
       <c r="D336" s="14" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="14" t="s">
-        <v>1193</v>
-      </c>
-      <c r="B337" s="14" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C337" s="14" t="s">
-        <v>1195</v>
-      </c>
-      <c r="D337" s="14" t="s">
-        <v>1196</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="14" t="s">
-        <v>1197</v>
+        <v>34</v>
       </c>
       <c r="B338" s="14" t="s">
-        <v>1198</v>
+        <v>1235</v>
       </c>
       <c r="C338" s="14" t="s">
-        <v>1199</v>
+        <v>743</v>
       </c>
       <c r="D338" s="14" t="s">
-        <v>1200</v>
+        <v>744</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="14" t="s">
-        <v>1201</v>
+        <v>46</v>
       </c>
       <c r="B339" s="14" t="s">
-        <v>1202</v>
+        <v>1236</v>
       </c>
       <c r="C339" s="14" t="s">
-        <v>1203</v>
+        <v>749</v>
       </c>
       <c r="D339" s="14" t="s">
-        <v>1204</v>
+        <v>750</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="14" t="s">
-        <v>1205</v>
+        <v>52</v>
       </c>
       <c r="B340" s="14" t="s">
-        <v>1206</v>
+        <v>1237</v>
       </c>
       <c r="C340" s="14" t="s">
-        <v>1207</v>
+        <v>757</v>
       </c>
       <c r="D340" s="14" t="s">
-        <v>1208</v>
+        <v>758</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B341" s="14" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C341" s="14" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D341" s="14" t="s">
+        <v>1240</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="14" t="s">
-        <v>1209</v>
+        <v>1241</v>
       </c>
       <c r="B342" s="14" t="s">
-        <v>1210</v>
+        <v>1242</v>
       </c>
       <c r="C342" s="14" t="s">
-        <v>1211</v>
+        <v>1243</v>
       </c>
       <c r="D342" s="14" t="s">
-        <v>1212</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="14" t="s">
-        <v>1213</v>
+        <v>155</v>
       </c>
       <c r="B343" s="14" t="s">
-        <v>1214</v>
+        <v>1245</v>
       </c>
       <c r="C343" s="14" t="s">
-        <v>1215</v>
+        <v>1246</v>
       </c>
       <c r="D343" s="14" t="s">
-        <v>1216</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="14" t="s">
-        <v>1217</v>
+        <v>1248</v>
       </c>
       <c r="B344" s="14" t="s">
-        <v>1218</v>
+        <v>1249</v>
       </c>
       <c r="C344" s="14" t="s">
-        <v>1219</v>
+        <v>1250</v>
       </c>
       <c r="D344" s="14" t="s">
-        <v>1220</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="14" t="s">
-        <v>1221</v>
+        <v>1252</v>
       </c>
       <c r="B345" s="14" t="s">
-        <v>1222</v>
+        <v>1253</v>
       </c>
       <c r="C345" s="14" t="s">
-        <v>1223</v>
+        <v>1254</v>
       </c>
       <c r="D345" s="14" t="s">
-        <v>1224</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="14" t="s">
-        <v>1225</v>
+        <v>1256</v>
       </c>
       <c r="B346" s="14" t="s">
-        <v>1226</v>
+        <v>1257</v>
       </c>
       <c r="C346" s="14" t="s">
-        <v>1227</v>
+        <v>1258</v>
       </c>
       <c r="D346" s="14" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="14" t="s">
-        <v>1229</v>
+        <v>1260</v>
       </c>
       <c r="B347" s="14" t="s">
-        <v>1230</v>
-      </c>
-      <c r="C347" s="14" t="s">
-        <v>1231</v>
-      </c>
-      <c r="D347" s="14" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1261</v>
+      </c>
+      <c r="C347" s="16" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D347" s="16" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="14" t="s">
-        <v>1233</v>
+        <v>1264</v>
       </c>
       <c r="B348" s="14" t="s">
-        <v>1234</v>
-      </c>
-      <c r="C348" s="14" t="s">
-        <v>1235</v>
-      </c>
-      <c r="D348" s="14" t="s">
-        <v>1236</v>
+        <v>1265</v>
+      </c>
+      <c r="C348" s="16" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D348" s="16" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="14" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B349" s="14" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C349" s="14" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D349" s="14" t="s">
+        <v>1271</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="14" t="s">
-        <v>34</v>
+        <v>1272</v>
       </c>
       <c r="B350" s="14" t="s">
-        <v>1237</v>
-      </c>
-      <c r="C350" s="14" t="s">
-        <v>743</v>
-      </c>
-      <c r="D350" s="14" t="s">
-        <v>744</v>
+        <v>1273</v>
+      </c>
+      <c r="C350" s="16" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D350" s="16" t="s">
+        <v>1275</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="14" t="s">
-        <v>46</v>
+        <v>1276</v>
       </c>
       <c r="B351" s="14" t="s">
-        <v>1238</v>
+        <v>1277</v>
       </c>
       <c r="C351" s="14" t="s">
-        <v>749</v>
+        <v>1278</v>
       </c>
       <c r="D351" s="14" t="s">
-        <v>750</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="14" t="s">
-        <v>52</v>
+        <v>1280</v>
       </c>
       <c r="B352" s="14" t="s">
-        <v>1239</v>
+        <v>1281</v>
       </c>
       <c r="C352" s="14" t="s">
-        <v>757</v>
+        <v>1281</v>
       </c>
       <c r="D352" s="14" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="14" t="s">
-        <v>74</v>
+        <v>1282</v>
       </c>
       <c r="B353" s="14" t="s">
-        <v>1240</v>
-      </c>
-      <c r="C353" s="14" t="s">
-        <v>1241</v>
-      </c>
-      <c r="D353" s="14" t="s">
-        <v>1242</v>
+        <v>1283</v>
+      </c>
+      <c r="C353" s="16" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D353" s="16" t="s">
+        <v>1285</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="14" t="s">
-        <v>1243</v>
+        <v>1286</v>
       </c>
       <c r="B354" s="14" t="s">
-        <v>1244</v>
+        <v>1287</v>
       </c>
       <c r="C354" s="14" t="s">
-        <v>1245</v>
+        <v>1288</v>
       </c>
       <c r="D354" s="14" t="s">
-        <v>1246</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="14" t="s">
-        <v>155</v>
+        <v>1290</v>
       </c>
       <c r="B355" s="14" t="s">
-        <v>1247</v>
+        <v>1291</v>
       </c>
       <c r="C355" s="14" t="s">
-        <v>1248</v>
+        <v>1292</v>
       </c>
       <c r="D355" s="14" t="s">
-        <v>1249</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="14" t="s">
-        <v>1250</v>
+        <v>28</v>
       </c>
       <c r="B356" s="14" t="s">
-        <v>1251</v>
+        <v>1294</v>
       </c>
       <c r="C356" s="14" t="s">
-        <v>1252</v>
+        <v>1295</v>
       </c>
       <c r="D356" s="14" t="s">
-        <v>1253</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="14" t="s">
-        <v>1254</v>
+        <v>1297</v>
       </c>
       <c r="B357" s="14" t="s">
-        <v>1255</v>
+        <v>1298</v>
       </c>
       <c r="C357" s="14" t="s">
-        <v>1256</v>
+        <v>1299</v>
       </c>
       <c r="D357" s="14" t="s">
-        <v>1257</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="14" t="s">
-        <v>1258</v>
+        <v>1301</v>
       </c>
       <c r="B358" s="14" t="s">
-        <v>1259</v>
+        <v>1302</v>
       </c>
       <c r="C358" s="14" t="s">
-        <v>1260</v>
+        <v>1303</v>
       </c>
       <c r="D358" s="14" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="359" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="14" t="s">
-        <v>1262</v>
+        <v>1305</v>
       </c>
       <c r="B359" s="14" t="s">
-        <v>1263</v>
-      </c>
-      <c r="C359" s="16" t="s">
-        <v>1264</v>
-      </c>
-      <c r="D359" s="16" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="360" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1306</v>
+      </c>
+      <c r="C359" s="14" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D359" s="14" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="14" t="s">
-        <v>1266</v>
+        <v>1309</v>
       </c>
       <c r="B360" s="14" t="s">
-        <v>1267</v>
-      </c>
-      <c r="C360" s="16" t="s">
-        <v>1268</v>
-      </c>
-      <c r="D360" s="16" t="s">
-        <v>1269</v>
+        <v>1310</v>
+      </c>
+      <c r="C360" s="14" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D360" s="14" t="s">
+        <v>1312</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="14" t="s">
-        <v>1270</v>
+        <v>1313</v>
       </c>
       <c r="B361" s="14" t="s">
-        <v>1271</v>
+        <v>1314</v>
       </c>
       <c r="C361" s="14" t="s">
-        <v>1272</v>
+        <v>1315</v>
       </c>
       <c r="D361" s="14" t="s">
-        <v>1273</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="14" t="s">
-        <v>1274</v>
+        <v>1317</v>
       </c>
       <c r="B362" s="14" t="s">
-        <v>1275</v>
-      </c>
-      <c r="C362" s="16" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D362" s="16" t="s">
-        <v>1277</v>
+        <v>1318</v>
+      </c>
+      <c r="C362" s="14" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D362" s="14" t="s">
+        <v>1320</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="14" t="s">
-        <v>1278</v>
+        <v>1321</v>
       </c>
       <c r="B363" s="14" t="s">
-        <v>1279</v>
+        <v>1322</v>
       </c>
       <c r="C363" s="14" t="s">
-        <v>1280</v>
+        <v>1323</v>
       </c>
       <c r="D363" s="14" t="s">
-        <v>1281</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="14" t="s">
-        <v>1282</v>
+        <v>1325</v>
       </c>
       <c r="B364" s="14" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C364" s="14" t="s">
-        <v>1283</v>
-      </c>
-      <c r="D364" s="14" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="365" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1326</v>
+      </c>
+      <c r="C364" s="16" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D364" s="16" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="14" t="s">
-        <v>1284</v>
+        <v>1329</v>
       </c>
       <c r="B365" s="14" t="s">
-        <v>1285</v>
+        <v>1330</v>
       </c>
       <c r="C365" s="16" t="s">
-        <v>1286</v>
+        <v>1331</v>
       </c>
       <c r="D365" s="16" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="14" t="s">
-        <v>1288</v>
-      </c>
-      <c r="B366" s="14" t="s">
-        <v>1289</v>
-      </c>
-      <c r="C366" s="14" t="s">
-        <v>1290</v>
-      </c>
-      <c r="D366" s="14" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="14" t="s">
-        <v>1292</v>
+        <v>27</v>
       </c>
       <c r="B367" s="14" t="s">
-        <v>1293</v>
-      </c>
-      <c r="C367" s="14" t="s">
-        <v>1294</v>
-      </c>
-      <c r="D367" s="14" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1333</v>
+      </c>
+      <c r="C367" s="16" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D367" s="16" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="32.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A368" s="14" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B368" s="14" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C368" s="14" t="s">
-        <v>1297</v>
-      </c>
-      <c r="D368" s="14" t="s">
-        <v>1298</v>
+        <v>1336</v>
+      </c>
+      <c r="C368" s="16" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D368" s="16" t="s">
+        <v>1338</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="14" t="s">
-        <v>1299</v>
+        <v>35</v>
       </c>
       <c r="B369" s="14" t="s">
-        <v>1300</v>
+        <v>1339</v>
       </c>
       <c r="C369" s="14" t="s">
-        <v>1301</v>
+        <v>1340</v>
       </c>
       <c r="D369" s="14" t="s">
-        <v>1302</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="14" t="s">
-        <v>1303</v>
+        <v>47</v>
       </c>
       <c r="B370" s="14" t="s">
-        <v>1304</v>
+        <v>1342</v>
       </c>
       <c r="C370" s="14" t="s">
-        <v>1305</v>
+        <v>1343</v>
       </c>
       <c r="D370" s="14" t="s">
-        <v>1306</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="14" t="s">
-        <v>1307</v>
+        <v>53</v>
       </c>
       <c r="B371" s="14" t="s">
-        <v>1308</v>
+        <v>1345</v>
       </c>
       <c r="C371" s="14" t="s">
-        <v>1309</v>
+        <v>1346</v>
       </c>
       <c r="D371" s="14" t="s">
-        <v>1310</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="14" t="s">
-        <v>1311</v>
+        <v>1348</v>
       </c>
       <c r="B372" s="14" t="s">
-        <v>1312</v>
+        <v>1349</v>
       </c>
       <c r="C372" s="14" t="s">
-        <v>1313</v>
+        <v>1350</v>
       </c>
       <c r="D372" s="14" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="14" t="s">
-        <v>1315</v>
+        <v>1352</v>
       </c>
       <c r="B373" s="14" t="s">
-        <v>1316</v>
-      </c>
-      <c r="C373" s="14" t="s">
-        <v>1317</v>
-      </c>
-      <c r="D373" s="14" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1353</v>
+      </c>
+      <c r="C373" s="16" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D373" s="16" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="14" t="s">
-        <v>1319</v>
+        <v>1356</v>
       </c>
       <c r="B374" s="14" t="s">
-        <v>1320</v>
-      </c>
-      <c r="C374" s="14" t="s">
-        <v>1321</v>
-      </c>
-      <c r="D374" s="14" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1357</v>
+      </c>
+      <c r="C374" s="16" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D374" s="16" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="14" t="s">
-        <v>1323</v>
+        <v>1360</v>
       </c>
       <c r="B375" s="14" t="s">
-        <v>1324</v>
-      </c>
-      <c r="C375" s="14" t="s">
-        <v>1325</v>
-      </c>
-      <c r="D375" s="14" t="s">
-        <v>1326</v>
+        <v>1361</v>
+      </c>
+      <c r="C375" s="16" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D375" s="16" t="s">
+        <v>1363</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="14" t="s">
-        <v>1327</v>
+        <v>1364</v>
       </c>
       <c r="B376" s="14" t="s">
-        <v>1328</v>
-      </c>
-      <c r="C376" s="16" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D376" s="16" t="s">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="377" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1365</v>
+      </c>
+      <c r="C376" s="14" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D376" s="14" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="14" t="s">
-        <v>1331</v>
+        <v>1368</v>
       </c>
       <c r="B377" s="14" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C377" s="16" t="s">
-        <v>1333</v>
-      </c>
-      <c r="D377" s="16" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="379" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1369</v>
+      </c>
+      <c r="C377" s="14" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D377" s="14" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="14" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B378" s="14" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C378" s="14" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D378" s="14" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="14" t="s">
-        <v>27</v>
+        <v>1376</v>
       </c>
       <c r="B379" s="14" t="s">
-        <v>1335</v>
-      </c>
-      <c r="C379" s="16" t="s">
-        <v>1336</v>
-      </c>
-      <c r="D379" s="16" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="380" customFormat="false" ht="32.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1377</v>
+      </c>
+      <c r="C379" s="14" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D379" s="14" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="14" t="s">
-        <v>31</v>
+        <v>1380</v>
       </c>
       <c r="B380" s="14" t="s">
-        <v>1338</v>
-      </c>
-      <c r="C380" s="16" t="s">
-        <v>1339</v>
-      </c>
-      <c r="D380" s="16" t="s">
-        <v>1340</v>
+        <v>1381</v>
+      </c>
+      <c r="C380" s="14" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D380" s="14" t="s">
+        <v>1383</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="14" t="s">
-        <v>35</v>
+        <v>1384</v>
       </c>
       <c r="B381" s="14" t="s">
-        <v>1341</v>
+        <v>1385</v>
       </c>
       <c r="C381" s="14" t="s">
-        <v>1342</v>
+        <v>1386</v>
       </c>
       <c r="D381" s="14" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B382" s="14" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C382" s="14" t="s">
-        <v>1345</v>
-      </c>
-      <c r="D382" s="14" t="s">
-        <v>1346</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="14" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="B383" s="14" t="s">
-        <v>1347</v>
+        <v>1388</v>
       </c>
       <c r="C383" s="14" t="s">
-        <v>1348</v>
+        <v>1389</v>
       </c>
       <c r="D383" s="14" t="s">
-        <v>1349</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="14" t="s">
-        <v>1350</v>
+        <v>29</v>
       </c>
       <c r="B384" s="14" t="s">
-        <v>1351</v>
+        <v>1391</v>
       </c>
       <c r="C384" s="14" t="s">
-        <v>1352</v>
+        <v>1392</v>
       </c>
       <c r="D384" s="14" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="385" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="14" t="s">
-        <v>1354</v>
+        <v>33</v>
       </c>
       <c r="B385" s="14" t="s">
-        <v>1355</v>
-      </c>
-      <c r="C385" s="16" t="s">
-        <v>1356</v>
-      </c>
-      <c r="D385" s="16" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="386" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1394</v>
+      </c>
+      <c r="C385" s="14" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D385" s="14" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="14" t="s">
-        <v>1358</v>
+        <v>62</v>
       </c>
       <c r="B386" s="14" t="s">
-        <v>1359</v>
-      </c>
-      <c r="C386" s="16" t="s">
-        <v>1360</v>
-      </c>
-      <c r="D386" s="16" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="387" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1397</v>
+      </c>
+      <c r="C386" s="14" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D386" s="14" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="14" t="s">
-        <v>1362</v>
+        <v>69</v>
       </c>
       <c r="B387" s="14" t="s">
-        <v>1363</v>
-      </c>
-      <c r="C387" s="16" t="s">
-        <v>1364</v>
-      </c>
-      <c r="D387" s="16" t="s">
-        <v>1365</v>
+        <v>1400</v>
+      </c>
+      <c r="C387" s="14" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D387" s="14" t="s">
+        <v>1402</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="14" t="s">
-        <v>1366</v>
+        <v>71</v>
       </c>
       <c r="B388" s="14" t="s">
-        <v>1367</v>
+        <v>1403</v>
       </c>
       <c r="C388" s="14" t="s">
-        <v>1368</v>
+        <v>1404</v>
       </c>
       <c r="D388" s="14" t="s">
-        <v>1369</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="14" t="s">
-        <v>1370</v>
+        <v>72</v>
       </c>
       <c r="B389" s="14" t="s">
-        <v>1371</v>
+        <v>1406</v>
       </c>
       <c r="C389" s="14" t="s">
-        <v>1372</v>
+        <v>1407</v>
       </c>
       <c r="D389" s="14" t="s">
-        <v>1373</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="14" t="s">
-        <v>1374</v>
+        <v>1409</v>
       </c>
       <c r="B390" s="14" t="s">
-        <v>1375</v>
+        <v>1410</v>
       </c>
       <c r="C390" s="14" t="s">
-        <v>1376</v>
+        <v>1411</v>
       </c>
       <c r="D390" s="14" t="s">
-        <v>1377</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="14" t="s">
-        <v>1378</v>
+        <v>1413</v>
       </c>
       <c r="B391" s="14" t="s">
-        <v>1379</v>
+        <v>1414</v>
       </c>
       <c r="C391" s="14" t="s">
-        <v>1380</v>
+        <v>1415</v>
       </c>
       <c r="D391" s="14" t="s">
-        <v>1381</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="14" t="s">
-        <v>1382</v>
+        <v>1417</v>
       </c>
       <c r="B392" s="14" t="s">
-        <v>1383</v>
+        <v>1418</v>
       </c>
       <c r="C392" s="14" t="s">
-        <v>1384</v>
+        <v>1419</v>
       </c>
       <c r="D392" s="14" t="s">
-        <v>1385</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="14" t="s">
-        <v>1386</v>
+        <v>1421</v>
       </c>
       <c r="B393" s="14" t="s">
-        <v>1387</v>
+        <v>1422</v>
       </c>
       <c r="C393" s="14" t="s">
-        <v>1388</v>
+        <v>1423</v>
       </c>
       <c r="D393" s="14" t="s">
-        <v>1389</v>
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A394" s="14" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B394" s="14" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C394" s="14" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D394" s="14" t="s">
+        <v>1428</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="14" t="s">
-        <v>25</v>
+        <v>1429</v>
       </c>
       <c r="B395" s="14" t="s">
-        <v>1390</v>
+        <v>1430</v>
       </c>
       <c r="C395" s="14" t="s">
-        <v>1391</v>
+        <v>1431</v>
       </c>
       <c r="D395" s="14" t="s">
-        <v>1392</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="14" t="s">
-        <v>29</v>
+        <v>1433</v>
       </c>
       <c r="B396" s="14" t="s">
-        <v>1393</v>
+        <v>1434</v>
       </c>
       <c r="C396" s="14" t="s">
-        <v>1394</v>
+        <v>1435</v>
       </c>
       <c r="D396" s="14" t="s">
-        <v>1395</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="14" t="s">
-        <v>33</v>
+        <v>1437</v>
       </c>
       <c r="B397" s="14" t="s">
-        <v>1396</v>
+        <v>1438</v>
       </c>
       <c r="C397" s="14" t="s">
-        <v>1397</v>
+        <v>1439</v>
       </c>
       <c r="D397" s="14" t="s">
-        <v>1398</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="14" t="s">
-        <v>62</v>
+        <v>1441</v>
       </c>
       <c r="B398" s="14" t="s">
-        <v>1399</v>
+        <v>1442</v>
       </c>
       <c r="C398" s="14" t="s">
-        <v>1400</v>
+        <v>1443</v>
       </c>
       <c r="D398" s="14" t="s">
-        <v>1401</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="14" t="s">
-        <v>69</v>
+        <v>1445</v>
       </c>
       <c r="B399" s="14" t="s">
-        <v>1402</v>
+        <v>1446</v>
       </c>
       <c r="C399" s="14" t="s">
-        <v>1403</v>
+        <v>1447</v>
       </c>
       <c r="D399" s="14" t="s">
-        <v>1404</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="14" t="s">
-        <v>71</v>
+        <v>1449</v>
       </c>
       <c r="B400" s="14" t="s">
-        <v>1405</v>
+        <v>1450</v>
       </c>
       <c r="C400" s="14" t="s">
-        <v>1406</v>
+        <v>1451</v>
       </c>
       <c r="D400" s="14" t="s">
-        <v>1407</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="14" t="s">
-        <v>72</v>
+        <v>1453</v>
       </c>
       <c r="B401" s="14" t="s">
-        <v>1408</v>
+        <v>1454</v>
       </c>
       <c r="C401" s="14" t="s">
-        <v>1409</v>
+        <v>1455</v>
       </c>
       <c r="D401" s="14" t="s">
-        <v>1410</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="14" t="s">
-        <v>1411</v>
+        <v>1457</v>
       </c>
       <c r="B402" s="14" t="s">
-        <v>1412</v>
+        <v>1458</v>
       </c>
       <c r="C402" s="14" t="s">
-        <v>1413</v>
+        <v>1459</v>
       </c>
       <c r="D402" s="14" t="s">
-        <v>1414</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="14" t="s">
-        <v>1415</v>
+        <v>1461</v>
       </c>
       <c r="B403" s="14" t="s">
-        <v>1416</v>
+        <v>1406</v>
       </c>
       <c r="C403" s="14" t="s">
-        <v>1417</v>
+        <v>1462</v>
       </c>
       <c r="D403" s="14" t="s">
-        <v>1418</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="14" t="s">
-        <v>1419</v>
+        <v>1464</v>
       </c>
       <c r="B404" s="14" t="s">
-        <v>1420</v>
+        <v>1465</v>
       </c>
       <c r="C404" s="14" t="s">
-        <v>1421</v>
+        <v>1465</v>
       </c>
       <c r="D404" s="14" t="s">
-        <v>1422</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="14" t="s">
-        <v>1423</v>
+        <v>1466</v>
       </c>
       <c r="B405" s="14" t="s">
-        <v>1424</v>
+        <v>1467</v>
       </c>
       <c r="C405" s="14" t="s">
-        <v>1425</v>
+        <v>1468</v>
       </c>
       <c r="D405" s="14" t="s">
-        <v>1426</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="14" t="s">
-        <v>1427</v>
+        <v>1470</v>
       </c>
       <c r="B406" s="14" t="s">
-        <v>1428</v>
+        <v>1471</v>
       </c>
       <c r="C406" s="14" t="s">
-        <v>1429</v>
+        <v>1472</v>
       </c>
       <c r="D406" s="14" t="s">
-        <v>1430</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="14" t="s">
-        <v>1431</v>
+        <v>1474</v>
       </c>
       <c r="B407" s="14" t="s">
-        <v>1432</v>
+        <v>1475</v>
       </c>
       <c r="C407" s="14" t="s">
-        <v>1433</v>
+        <v>1476</v>
       </c>
       <c r="D407" s="14" t="s">
-        <v>1434</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="14" t="s">
-        <v>1435</v>
+        <v>1478</v>
       </c>
       <c r="B408" s="14" t="s">
-        <v>1436</v>
+        <v>1479</v>
       </c>
       <c r="C408" s="14" t="s">
-        <v>1437</v>
+        <v>1480</v>
       </c>
       <c r="D408" s="14" t="s">
-        <v>1438</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="14" t="s">
-        <v>1439</v>
+        <v>1482</v>
       </c>
       <c r="B409" s="14" t="s">
-        <v>1440</v>
+        <v>1483</v>
       </c>
       <c r="C409" s="14" t="s">
-        <v>1441</v>
+        <v>1484</v>
       </c>
       <c r="D409" s="14" t="s">
-        <v>1442</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="14" t="s">
-        <v>1443</v>
+        <v>1486</v>
       </c>
       <c r="B410" s="14" t="s">
-        <v>1444</v>
+        <v>1487</v>
       </c>
       <c r="C410" s="14" t="s">
-        <v>1445</v>
+        <v>1488</v>
       </c>
       <c r="D410" s="14" t="s">
-        <v>1446</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="14" t="s">
-        <v>1447</v>
+        <v>1490</v>
       </c>
       <c r="B411" s="14" t="s">
-        <v>1448</v>
+        <v>1406</v>
       </c>
       <c r="C411" s="14" t="s">
-        <v>1449</v>
+        <v>1462</v>
       </c>
       <c r="D411" s="14" t="s">
-        <v>1450</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="14" t="s">
-        <v>1451</v>
+        <v>1491</v>
       </c>
       <c r="B412" s="14" t="s">
-        <v>1452</v>
+        <v>1492</v>
       </c>
       <c r="C412" s="14" t="s">
-        <v>1453</v>
+        <v>1493</v>
       </c>
       <c r="D412" s="14" t="s">
-        <v>1454</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="14" t="s">
-        <v>1455</v>
+        <v>1495</v>
       </c>
       <c r="B413" s="14" t="s">
-        <v>1456</v>
+        <v>1496</v>
       </c>
       <c r="C413" s="14" t="s">
-        <v>1457</v>
+        <v>1497</v>
       </c>
       <c r="D413" s="14" t="s">
-        <v>1458</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="14" t="s">
-        <v>1459</v>
+        <v>1499</v>
       </c>
       <c r="B414" s="14" t="s">
-        <v>1460</v>
+        <v>1500</v>
       </c>
       <c r="C414" s="14" t="s">
-        <v>1461</v>
+        <v>1501</v>
       </c>
       <c r="D414" s="14" t="s">
-        <v>1462</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="14" t="s">
-        <v>1463</v>
+        <v>1503</v>
       </c>
       <c r="B415" s="14" t="s">
-        <v>1408</v>
+        <v>1504</v>
       </c>
       <c r="C415" s="14" t="s">
-        <v>1464</v>
+        <v>1505</v>
       </c>
       <c r="D415" s="14" t="s">
-        <v>1465</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="14" t="s">
-        <v>1466</v>
+        <v>1507</v>
       </c>
       <c r="B416" s="14" t="s">
-        <v>1467</v>
+        <v>1508</v>
       </c>
       <c r="C416" s="14" t="s">
-        <v>1467</v>
+        <v>1509</v>
       </c>
       <c r="D416" s="14" t="s">
-        <v>1467</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="14" t="s">
-        <v>1468</v>
+        <v>1511</v>
       </c>
       <c r="B417" s="14" t="s">
-        <v>1469</v>
+        <v>1512</v>
       </c>
       <c r="C417" s="14" t="s">
-        <v>1470</v>
+        <v>1513</v>
       </c>
       <c r="D417" s="14" t="s">
-        <v>1471</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="14" t="s">
-        <v>1472</v>
+        <v>1515</v>
       </c>
       <c r="B418" s="14" t="s">
-        <v>1473</v>
+        <v>1516</v>
       </c>
       <c r="C418" s="14" t="s">
-        <v>1474</v>
+        <v>1517</v>
       </c>
       <c r="D418" s="14" t="s">
-        <v>1475</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="14" t="s">
-        <v>1476</v>
+        <v>1519</v>
       </c>
       <c r="B419" s="14" t="s">
-        <v>1477</v>
+        <v>1520</v>
       </c>
       <c r="C419" s="14" t="s">
-        <v>1478</v>
+        <v>1521</v>
       </c>
       <c r="D419" s="14" t="s">
-        <v>1479</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="14" t="s">
-        <v>1480</v>
+        <v>1523</v>
       </c>
       <c r="B420" s="14" t="s">
-        <v>1481</v>
+        <v>1524</v>
       </c>
       <c r="C420" s="14" t="s">
-        <v>1482</v>
+        <v>1525</v>
       </c>
       <c r="D420" s="14" t="s">
-        <v>1483</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="14" t="s">
-        <v>1484</v>
+        <v>1527</v>
       </c>
       <c r="B421" s="14" t="s">
-        <v>1485</v>
+        <v>1528</v>
       </c>
       <c r="C421" s="14" t="s">
-        <v>1486</v>
+        <v>1529</v>
       </c>
       <c r="D421" s="14" t="s">
-        <v>1487</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="14" t="s">
-        <v>1488</v>
+        <v>1531</v>
       </c>
       <c r="B422" s="14" t="s">
-        <v>1489</v>
+        <v>1532</v>
       </c>
       <c r="C422" s="14" t="s">
-        <v>1490</v>
+        <v>1533</v>
       </c>
       <c r="D422" s="14" t="s">
-        <v>1491</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="14" t="s">
-        <v>1492</v>
+        <v>1535</v>
       </c>
       <c r="B423" s="14" t="s">
-        <v>1408</v>
+        <v>1536</v>
       </c>
       <c r="C423" s="14" t="s">
-        <v>1464</v>
+        <v>1537</v>
       </c>
       <c r="D423" s="14" t="s">
-        <v>1465</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="14" t="s">
-        <v>1493</v>
+        <v>1539</v>
       </c>
       <c r="B424" s="14" t="s">
-        <v>1494</v>
+        <v>1540</v>
       </c>
       <c r="C424" s="14" t="s">
-        <v>1495</v>
+        <v>1541</v>
       </c>
       <c r="D424" s="14" t="s">
-        <v>1496</v>
-      </c>
-    </row>
-    <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="14" t="s">
-        <v>1497</v>
-      </c>
-      <c r="B425" s="14" t="s">
-        <v>1498</v>
-      </c>
-      <c r="C425" s="14" t="s">
-        <v>1499</v>
-      </c>
-      <c r="D425" s="14" t="s">
-        <v>1500</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="14" t="s">
-        <v>1501</v>
+        <v>1543</v>
       </c>
       <c r="B426" s="14" t="s">
-        <v>1502</v>
+        <v>1544</v>
       </c>
       <c r="C426" s="14" t="s">
-        <v>1503</v>
+        <v>1545</v>
       </c>
       <c r="D426" s="14" t="s">
-        <v>1504</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="14" t="s">
-        <v>1505</v>
+        <v>1547</v>
       </c>
       <c r="B427" s="14" t="s">
-        <v>1506</v>
+        <v>1548</v>
       </c>
       <c r="C427" s="14" t="s">
-        <v>1507</v>
+        <v>1549</v>
       </c>
       <c r="D427" s="14" t="s">
-        <v>1508</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="14" t="s">
-        <v>1509</v>
+        <v>1551</v>
       </c>
       <c r="B428" s="14" t="s">
-        <v>1510</v>
+        <v>1552</v>
       </c>
       <c r="C428" s="14" t="s">
-        <v>1511</v>
+        <v>1553</v>
       </c>
       <c r="D428" s="14" t="s">
-        <v>1512</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="14" t="s">
-        <v>1513</v>
+        <v>1555</v>
       </c>
       <c r="B429" s="14" t="s">
-        <v>1514</v>
+        <v>1556</v>
       </c>
       <c r="C429" s="14" t="s">
-        <v>1515</v>
+        <v>1557</v>
       </c>
       <c r="D429" s="14" t="s">
-        <v>1516</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="14" t="s">
-        <v>1517</v>
+        <v>1559</v>
       </c>
       <c r="B430" s="14" t="s">
-        <v>1518</v>
+        <v>1560</v>
       </c>
       <c r="C430" s="14" t="s">
-        <v>1519</v>
+        <v>1561</v>
       </c>
       <c r="D430" s="14" t="s">
-        <v>1520</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="14" t="s">
-        <v>1521</v>
+        <v>1563</v>
       </c>
       <c r="B431" s="14" t="s">
-        <v>1522</v>
+        <v>1564</v>
       </c>
       <c r="C431" s="14" t="s">
-        <v>1523</v>
+        <v>1565</v>
       </c>
       <c r="D431" s="14" t="s">
-        <v>1524</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="14" t="s">
-        <v>1525</v>
+        <v>1567</v>
       </c>
       <c r="B432" s="14" t="s">
-        <v>1526</v>
+        <v>1568</v>
       </c>
       <c r="C432" s="14" t="s">
-        <v>1527</v>
+        <v>1569</v>
       </c>
       <c r="D432" s="14" t="s">
-        <v>1528</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="14" t="s">
-        <v>1529</v>
+        <v>1571</v>
       </c>
       <c r="B433" s="14" t="s">
-        <v>1530</v>
+        <v>1572</v>
       </c>
       <c r="C433" s="14" t="s">
-        <v>1531</v>
+        <v>1573</v>
       </c>
       <c r="D433" s="14" t="s">
-        <v>1532</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="14" t="s">
-        <v>1533</v>
+        <v>1575</v>
       </c>
       <c r="B434" s="14" t="s">
-        <v>1534</v>
+        <v>1576</v>
       </c>
       <c r="C434" s="14" t="s">
-        <v>1535</v>
+        <v>1577</v>
       </c>
       <c r="D434" s="14" t="s">
-        <v>1536</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="14" t="s">
-        <v>1537</v>
+        <v>1579</v>
       </c>
       <c r="B435" s="14" t="s">
-        <v>1538</v>
+        <v>1580</v>
       </c>
       <c r="C435" s="14" t="s">
-        <v>1539</v>
+        <v>1581</v>
       </c>
       <c r="D435" s="14" t="s">
-        <v>1540</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="14" t="s">
-        <v>1541</v>
+        <v>1583</v>
       </c>
       <c r="B436" s="14" t="s">
-        <v>1542</v>
+        <v>1584</v>
       </c>
       <c r="C436" s="14" t="s">
-        <v>1543</v>
+        <v>1585</v>
       </c>
       <c r="D436" s="14" t="s">
-        <v>1544</v>
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="14" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B437" s="14" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C437" s="14" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D437" s="14" t="s">
+        <v>1590</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="14" t="s">
-        <v>1545</v>
+        <v>1591</v>
       </c>
       <c r="B438" s="14" t="s">
-        <v>1546</v>
+        <v>1592</v>
       </c>
       <c r="C438" s="14" t="s">
-        <v>1547</v>
+        <v>1593</v>
       </c>
       <c r="D438" s="14" t="s">
-        <v>1548</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="14" t="s">
-        <v>1549</v>
+        <v>1595</v>
       </c>
       <c r="B439" s="14" t="s">
-        <v>1550</v>
+        <v>1596</v>
       </c>
       <c r="C439" s="14" t="s">
-        <v>1551</v>
+        <v>1597</v>
       </c>
       <c r="D439" s="14" t="s">
-        <v>1552</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="14" t="s">
-        <v>1553</v>
+        <v>1599</v>
       </c>
       <c r="B440" s="14" t="s">
-        <v>1554</v>
+        <v>1600</v>
       </c>
       <c r="C440" s="14" t="s">
-        <v>1555</v>
+        <v>1601</v>
       </c>
       <c r="D440" s="14" t="s">
-        <v>1556</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="14" t="s">
-        <v>1557</v>
+        <v>1603</v>
       </c>
       <c r="B441" s="14" t="s">
-        <v>1558</v>
+        <v>1604</v>
       </c>
       <c r="C441" s="14" t="s">
-        <v>1559</v>
+        <v>1605</v>
       </c>
       <c r="D441" s="14" t="s">
-        <v>1560</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="14" t="s">
-        <v>1561</v>
+        <v>1607</v>
       </c>
       <c r="B442" s="14" t="s">
-        <v>1562</v>
+        <v>1608</v>
       </c>
       <c r="C442" s="14" t="s">
-        <v>1563</v>
+        <v>1609</v>
       </c>
       <c r="D442" s="14" t="s">
-        <v>1564</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="14" t="s">
-        <v>1565</v>
+        <v>1611</v>
       </c>
       <c r="B443" s="14" t="s">
-        <v>1566</v>
+        <v>1612</v>
       </c>
       <c r="C443" s="14" t="s">
-        <v>1567</v>
+        <v>1613</v>
       </c>
       <c r="D443" s="14" t="s">
-        <v>1568</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="14" t="s">
-        <v>1569</v>
+        <v>1615</v>
       </c>
       <c r="B444" s="14" t="s">
-        <v>1570</v>
+        <v>1616</v>
       </c>
       <c r="C444" s="14" t="s">
-        <v>1571</v>
+        <v>1617</v>
       </c>
       <c r="D444" s="14" t="s">
-        <v>1572</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="14" t="s">
-        <v>1573</v>
+        <v>1619</v>
       </c>
       <c r="B445" s="14" t="s">
-        <v>1574</v>
+        <v>1620</v>
       </c>
       <c r="C445" s="14" t="s">
-        <v>1575</v>
+        <v>1621</v>
       </c>
       <c r="D445" s="14" t="s">
-        <v>1576</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="14" t="s">
-        <v>1577</v>
+        <v>1623</v>
       </c>
       <c r="B446" s="14" t="s">
-        <v>1578</v>
+        <v>1624</v>
       </c>
       <c r="C446" s="14" t="s">
-        <v>1579</v>
+        <v>1625</v>
       </c>
       <c r="D446" s="14" t="s">
-        <v>1580</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="14" t="s">
-        <v>1581</v>
+        <v>1627</v>
       </c>
       <c r="B447" s="14" t="s">
-        <v>1582</v>
+        <v>1628</v>
       </c>
       <c r="C447" s="14" t="s">
-        <v>1583</v>
+        <v>1629</v>
       </c>
       <c r="D447" s="14" t="s">
-        <v>1584</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="14" t="s">
-        <v>1585</v>
+        <v>1631</v>
       </c>
       <c r="B448" s="14" t="s">
-        <v>1586</v>
+        <v>1632</v>
       </c>
       <c r="C448" s="14" t="s">
-        <v>1587</v>
+        <v>1633</v>
       </c>
       <c r="D448" s="14" t="s">
-        <v>1588</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="14" t="s">
-        <v>1589</v>
+        <v>1635</v>
       </c>
       <c r="B449" s="14" t="s">
-        <v>1590</v>
+        <v>1636</v>
       </c>
       <c r="C449" s="14" t="s">
-        <v>1591</v>
+        <v>1637</v>
       </c>
       <c r="D449" s="14" t="s">
-        <v>1592</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="14" t="s">
-        <v>1593</v>
+        <v>1639</v>
       </c>
       <c r="B450" s="14" t="s">
-        <v>1594</v>
+        <v>1640</v>
       </c>
       <c r="C450" s="14" t="s">
-        <v>1595</v>
+        <v>1641</v>
       </c>
       <c r="D450" s="14" t="s">
-        <v>1596</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="14" t="s">
-        <v>1597</v>
+        <v>1643</v>
       </c>
       <c r="B451" s="14" t="s">
-        <v>1598</v>
+        <v>1644</v>
       </c>
       <c r="C451" s="14" t="s">
-        <v>1599</v>
+        <v>1645</v>
       </c>
       <c r="D451" s="14" t="s">
-        <v>1600</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="14" t="s">
-        <v>1601</v>
+        <v>1647</v>
       </c>
       <c r="B452" s="14" t="s">
-        <v>1602</v>
+        <v>1648</v>
       </c>
       <c r="C452" s="14" t="s">
-        <v>1603</v>
+        <v>1649</v>
       </c>
       <c r="D452" s="14" t="s">
-        <v>1604</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="14" t="s">
-        <v>1605</v>
+        <v>1651</v>
       </c>
       <c r="B453" s="14" t="s">
-        <v>1606</v>
+        <v>1652</v>
       </c>
       <c r="C453" s="14" t="s">
-        <v>1607</v>
+        <v>1653</v>
       </c>
       <c r="D453" s="14" t="s">
-        <v>1608</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="14" t="s">
-        <v>1609</v>
+        <v>1655</v>
       </c>
       <c r="B454" s="14" t="s">
-        <v>1610</v>
+        <v>1656</v>
       </c>
       <c r="C454" s="14" t="s">
-        <v>1611</v>
+        <v>1657</v>
       </c>
       <c r="D454" s="14" t="s">
-        <v>1612</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="14" t="s">
-        <v>1613</v>
+        <v>1659</v>
       </c>
       <c r="B455" s="14" t="s">
-        <v>1614</v>
+        <v>1660</v>
       </c>
       <c r="C455" s="14" t="s">
-        <v>1615</v>
+        <v>1661</v>
       </c>
       <c r="D455" s="14" t="s">
-        <v>1616</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="14" t="s">
-        <v>1617</v>
+        <v>1663</v>
       </c>
       <c r="B456" s="14" t="s">
-        <v>1618</v>
+        <v>1664</v>
       </c>
       <c r="C456" s="14" t="s">
-        <v>1619</v>
+        <v>1665</v>
       </c>
       <c r="D456" s="14" t="s">
-        <v>1620</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="14" t="s">
-        <v>1621</v>
+        <v>1667</v>
       </c>
       <c r="B457" s="14" t="s">
-        <v>1622</v>
+        <v>1668</v>
       </c>
       <c r="C457" s="14" t="s">
-        <v>1623</v>
+        <v>1669</v>
       </c>
       <c r="D457" s="14" t="s">
-        <v>1624</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="14" t="s">
-        <v>1625</v>
+        <v>1671</v>
       </c>
       <c r="B458" s="14" t="s">
-        <v>1626</v>
+        <v>1672</v>
       </c>
       <c r="C458" s="14" t="s">
-        <v>1627</v>
+        <v>1673</v>
       </c>
       <c r="D458" s="14" t="s">
-        <v>1628</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="14" t="s">
-        <v>1629</v>
+        <v>1675</v>
       </c>
       <c r="B459" s="14" t="s">
-        <v>1630</v>
+        <v>1676</v>
       </c>
       <c r="C459" s="14" t="s">
-        <v>1631</v>
+        <v>1677</v>
       </c>
       <c r="D459" s="14" t="s">
-        <v>1632</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="14" t="s">
-        <v>1633</v>
+        <v>1679</v>
       </c>
       <c r="B460" s="14" t="s">
-        <v>1634</v>
+        <v>1680</v>
       </c>
       <c r="C460" s="14" t="s">
-        <v>1635</v>
+        <v>1681</v>
       </c>
       <c r="D460" s="14" t="s">
-        <v>1636</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="14" t="s">
-        <v>1637</v>
+        <v>1683</v>
       </c>
       <c r="B461" s="14" t="s">
-        <v>1638</v>
+        <v>1684</v>
       </c>
       <c r="C461" s="14" t="s">
-        <v>1639</v>
+        <v>1685</v>
       </c>
       <c r="D461" s="14" t="s">
-        <v>1640</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="14" t="s">
-        <v>1641</v>
+        <v>1687</v>
       </c>
       <c r="B462" s="14" t="s">
-        <v>1642</v>
+        <v>1688</v>
       </c>
       <c r="C462" s="14" t="s">
-        <v>1643</v>
+        <v>1689</v>
       </c>
       <c r="D462" s="14" t="s">
-        <v>1644</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="14" t="s">
-        <v>1645</v>
+        <v>1691</v>
       </c>
       <c r="B463" s="14" t="s">
-        <v>1646</v>
+        <v>1692</v>
       </c>
       <c r="C463" s="14" t="s">
-        <v>1647</v>
+        <v>1693</v>
       </c>
       <c r="D463" s="14" t="s">
-        <v>1648</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="14" t="s">
-        <v>1649</v>
+        <v>1695</v>
       </c>
       <c r="B464" s="14" t="s">
-        <v>1650</v>
+        <v>1696</v>
       </c>
       <c r="C464" s="14" t="s">
-        <v>1651</v>
+        <v>1697</v>
       </c>
       <c r="D464" s="14" t="s">
-        <v>1652</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="14" t="s">
-        <v>1653</v>
+        <v>1699</v>
       </c>
       <c r="B465" s="14" t="s">
-        <v>1654</v>
+        <v>1700</v>
       </c>
       <c r="C465" s="14" t="s">
-        <v>1655</v>
+        <v>1701</v>
       </c>
       <c r="D465" s="14" t="s">
-        <v>1656</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="14" t="s">
-        <v>1657</v>
+        <v>1703</v>
       </c>
       <c r="B466" s="14" t="s">
-        <v>1658</v>
+        <v>1704</v>
       </c>
       <c r="C466" s="14" t="s">
-        <v>1659</v>
+        <v>1705</v>
       </c>
       <c r="D466" s="14" t="s">
-        <v>1660</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="14" t="s">
-        <v>1661</v>
+        <v>1707</v>
       </c>
       <c r="B467" s="14" t="s">
-        <v>1662</v>
+        <v>1708</v>
       </c>
       <c r="C467" s="14" t="s">
-        <v>1663</v>
+        <v>1709</v>
       </c>
       <c r="D467" s="14" t="s">
-        <v>1664</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="14" t="s">
-        <v>1665</v>
+        <v>1711</v>
       </c>
       <c r="B468" s="14" t="s">
-        <v>1666</v>
+        <v>1712</v>
       </c>
       <c r="C468" s="14" t="s">
-        <v>1667</v>
+        <v>1713</v>
       </c>
       <c r="D468" s="14" t="s">
-        <v>1668</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="14" t="s">
-        <v>1669</v>
+        <v>1715</v>
       </c>
       <c r="B469" s="14" t="s">
-        <v>1670</v>
+        <v>1716</v>
       </c>
       <c r="C469" s="14" t="s">
-        <v>1671</v>
+        <v>1717</v>
       </c>
       <c r="D469" s="14" t="s">
-        <v>1672</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="14" t="s">
-        <v>1673</v>
+        <v>1719</v>
       </c>
       <c r="B470" s="14" t="s">
-        <v>1674</v>
+        <v>1720</v>
       </c>
       <c r="C470" s="14" t="s">
-        <v>1675</v>
+        <v>1721</v>
       </c>
       <c r="D470" s="14" t="s">
-        <v>1676</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="14" t="s">
-        <v>1677</v>
+        <v>1723</v>
       </c>
       <c r="B471" s="14" t="s">
-        <v>1678</v>
+        <v>1724</v>
       </c>
       <c r="C471" s="14" t="s">
-        <v>1679</v>
+        <v>1725</v>
       </c>
       <c r="D471" s="14" t="s">
-        <v>1680</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="14" t="s">
-        <v>1681</v>
+        <v>1727</v>
       </c>
       <c r="B472" s="14" t="s">
-        <v>1682</v>
+        <v>1728</v>
       </c>
       <c r="C472" s="14" t="s">
-        <v>1683</v>
+        <v>1729</v>
       </c>
       <c r="D472" s="14" t="s">
-        <v>1684</v>
-      </c>
-    </row>
-    <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A473" s="14" t="s">
-        <v>1685</v>
-      </c>
-      <c r="B473" s="14" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C473" s="14" t="s">
-        <v>1687</v>
-      </c>
-      <c r="D473" s="14" t="s">
-        <v>1688</v>
-      </c>
-    </row>
-    <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="474" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="14" t="s">
-        <v>1689</v>
+        <v>1731</v>
       </c>
       <c r="B474" s="14" t="s">
-        <v>1690</v>
-      </c>
-      <c r="C474" s="14" t="s">
-        <v>1691</v>
-      </c>
-      <c r="D474" s="14" t="s">
-        <v>1692</v>
-      </c>
-    </row>
-    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1732</v>
+      </c>
+      <c r="C474" s="16" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D474" s="16" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="14" t="s">
-        <v>1693</v>
+        <v>1735</v>
       </c>
       <c r="B475" s="14" t="s">
-        <v>1694</v>
-      </c>
-      <c r="C475" s="14" t="s">
-        <v>1695</v>
-      </c>
-      <c r="D475" s="14" t="s">
-        <v>1696</v>
-      </c>
-    </row>
-    <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1736</v>
+      </c>
+      <c r="C475" s="16" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D475" s="16" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="14" t="s">
-        <v>1697</v>
+        <v>1739</v>
       </c>
       <c r="B476" s="14" t="s">
-        <v>1698</v>
-      </c>
-      <c r="C476" s="14" t="s">
-        <v>1699</v>
-      </c>
-      <c r="D476" s="14" t="s">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1740</v>
+      </c>
+      <c r="C476" s="16" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D476" s="16" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="14" t="s">
-        <v>1701</v>
+        <v>1743</v>
       </c>
       <c r="B477" s="14" t="s">
-        <v>1702</v>
-      </c>
-      <c r="C477" s="14" t="s">
-        <v>1703</v>
-      </c>
-      <c r="D477" s="14" t="s">
-        <v>1704</v>
-      </c>
-    </row>
-    <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1744</v>
+      </c>
+      <c r="C477" s="16" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D477" s="16" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="14" t="s">
-        <v>1705</v>
+        <v>1747</v>
       </c>
       <c r="B478" s="14" t="s">
-        <v>1706</v>
-      </c>
-      <c r="C478" s="14" t="s">
-        <v>1707</v>
-      </c>
-      <c r="D478" s="14" t="s">
-        <v>1708</v>
-      </c>
-    </row>
-    <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1748</v>
+      </c>
+      <c r="C478" s="16" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D478" s="16" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="14" t="s">
-        <v>1709</v>
+        <v>1751</v>
       </c>
       <c r="B479" s="14" t="s">
-        <v>1710</v>
-      </c>
-      <c r="C479" s="14" t="s">
-        <v>1711</v>
-      </c>
-      <c r="D479" s="14" t="s">
-        <v>1712</v>
-      </c>
-    </row>
-    <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1752</v>
+      </c>
+      <c r="C479" s="16" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D479" s="16" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="14" t="s">
-        <v>1713</v>
+        <v>1755</v>
       </c>
       <c r="B480" s="14" t="s">
-        <v>1714</v>
-      </c>
-      <c r="C480" s="14" t="s">
-        <v>1715</v>
-      </c>
-      <c r="D480" s="14" t="s">
-        <v>1716</v>
-      </c>
-    </row>
-    <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1756</v>
+      </c>
+      <c r="C480" s="16" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D480" s="16" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="481" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="14" t="s">
-        <v>1717</v>
+        <v>1759</v>
       </c>
       <c r="B481" s="14" t="s">
-        <v>1718</v>
-      </c>
-      <c r="C481" s="14" t="s">
-        <v>1719</v>
-      </c>
-      <c r="D481" s="14" t="s">
-        <v>1720</v>
-      </c>
-    </row>
-    <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1760</v>
+      </c>
+      <c r="C481" s="16" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D481" s="16" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="482" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="14" t="s">
-        <v>1721</v>
+        <v>1763</v>
       </c>
       <c r="B482" s="14" t="s">
-        <v>1722</v>
-      </c>
-      <c r="C482" s="14" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D482" s="14" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1764</v>
+      </c>
+      <c r="C482" s="16" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D482" s="16" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="483" customFormat="false" ht="16.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A483" s="14" t="s">
-        <v>1725</v>
-      </c>
-      <c r="B483" s="14" t="s">
-        <v>1726</v>
-      </c>
-      <c r="C483" s="14" t="s">
-        <v>1727</v>
-      </c>
-      <c r="D483" s="14" t="s">
-        <v>1728</v>
+        <v>1767</v>
+      </c>
+      <c r="B483" s="17" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C483" s="16" t="s">
+        <v>1769</v>
+      </c>
+      <c r="D483" s="16" t="s">
+        <v>1770</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="14" t="s">
-        <v>1729</v>
+        <v>1771</v>
       </c>
       <c r="B484" s="14" t="s">
-        <v>1730</v>
+        <v>1772</v>
       </c>
       <c r="C484" s="14" t="s">
-        <v>1731</v>
+        <v>1773</v>
       </c>
       <c r="D484" s="14" t="s">
-        <v>1732</v>
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A485" s="14" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B485" s="14" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C485" s="14" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D485" s="14" t="s">
+        <v>1778</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="14" t="s">
-        <v>1733</v>
+        <v>1779</v>
       </c>
       <c r="B486" s="14" t="s">
-        <v>1734</v>
+        <v>1780</v>
       </c>
       <c r="C486" s="16" t="s">
-        <v>1735</v>
+        <v>1354</v>
       </c>
       <c r="D486" s="16" t="s">
-        <v>1736</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="14" t="s">
-        <v>1737</v>
+        <v>1781</v>
       </c>
       <c r="B487" s="14" t="s">
-        <v>1738</v>
+        <v>1782</v>
       </c>
       <c r="C487" s="16" t="s">
-        <v>1739</v>
+        <v>1358</v>
       </c>
       <c r="D487" s="16" t="s">
-        <v>1740</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="14" t="s">
-        <v>1741</v>
+        <v>1783</v>
       </c>
       <c r="B488" s="14" t="s">
-        <v>1742</v>
+        <v>1784</v>
       </c>
       <c r="C488" s="16" t="s">
-        <v>1743</v>
+        <v>1362</v>
       </c>
       <c r="D488" s="16" t="s">
-        <v>1744</v>
-      </c>
-    </row>
-    <row r="489" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A489" s="14" t="s">
-        <v>1745</v>
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A489" s="18" t="s">
+        <v>1785</v>
       </c>
       <c r="B489" s="14" t="s">
-        <v>1746</v>
-      </c>
-      <c r="C489" s="16" t="s">
-        <v>1747</v>
-      </c>
-      <c r="D489" s="16" t="s">
-        <v>1748</v>
-      </c>
-    </row>
-    <row r="490" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1786</v>
+      </c>
+      <c r="C489" s="14" t="s">
+        <v>1787</v>
+      </c>
+      <c r="D489" s="14" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="14" t="s">
-        <v>1749</v>
+        <v>1789</v>
       </c>
       <c r="B490" s="14" t="s">
-        <v>1750</v>
-      </c>
-      <c r="C490" s="16" t="s">
-        <v>1751</v>
-      </c>
-      <c r="D490" s="16" t="s">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="491" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A491" s="14" t="s">
-        <v>1753</v>
-      </c>
-      <c r="B491" s="14" t="s">
-        <v>1754</v>
-      </c>
-      <c r="C491" s="16" t="s">
-        <v>1755</v>
-      </c>
-      <c r="D491" s="16" t="s">
-        <v>1756</v>
-      </c>
-    </row>
-    <row r="492" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A492" s="14" t="s">
-        <v>1757</v>
-      </c>
-      <c r="B492" s="14" t="s">
-        <v>1758</v>
-      </c>
-      <c r="C492" s="16" t="s">
-        <v>1759</v>
-      </c>
-      <c r="D492" s="16" t="s">
-        <v>1760</v>
-      </c>
-    </row>
-    <row r="493" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A493" s="14" t="s">
-        <v>1761</v>
-      </c>
-      <c r="B493" s="14" t="s">
-        <v>1762</v>
-      </c>
-      <c r="C493" s="16" t="s">
-        <v>1763</v>
-      </c>
-      <c r="D493" s="16" t="s">
-        <v>1764</v>
-      </c>
-    </row>
-    <row r="494" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A494" s="14" t="s">
-        <v>1765</v>
-      </c>
-      <c r="B494" s="14" t="s">
-        <v>1766</v>
-      </c>
-      <c r="C494" s="16" t="s">
-        <v>1767</v>
-      </c>
-      <c r="D494" s="16" t="s">
-        <v>1768</v>
-      </c>
-    </row>
-    <row r="495" customFormat="false" ht="16.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A495" s="14" t="s">
-        <v>1769</v>
-      </c>
-      <c r="B495" s="17" t="s">
-        <v>1770</v>
-      </c>
-      <c r="C495" s="16" t="s">
-        <v>1771</v>
-      </c>
-      <c r="D495" s="16" t="s">
-        <v>1772</v>
-      </c>
-    </row>
-    <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A496" s="14" t="s">
-        <v>1773</v>
-      </c>
-      <c r="B496" s="14" t="s">
-        <v>1774</v>
-      </c>
-      <c r="C496" s="14" t="s">
-        <v>1775</v>
-      </c>
-      <c r="D496" s="14" t="s">
-        <v>1776</v>
-      </c>
-    </row>
-    <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A497" s="14" t="s">
-        <v>1777</v>
-      </c>
-      <c r="B497" s="14" t="s">
-        <v>1778</v>
-      </c>
-      <c r="C497" s="14" t="s">
-        <v>1779</v>
-      </c>
-      <c r="D497" s="14" t="s">
-        <v>1780</v>
-      </c>
-    </row>
-    <row r="498" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A498" s="14" t="s">
-        <v>1781</v>
-      </c>
-      <c r="B498" s="14" t="s">
-        <v>1782</v>
-      </c>
-      <c r="C498" s="16" t="s">
-        <v>1356</v>
-      </c>
-      <c r="D498" s="16" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="499" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A499" s="14" t="s">
-        <v>1783</v>
-      </c>
-      <c r="B499" s="14" t="s">
-        <v>1784</v>
-      </c>
-      <c r="C499" s="16" t="s">
-        <v>1360</v>
-      </c>
-      <c r="D499" s="16" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="500" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A500" s="14" t="s">
-        <v>1785</v>
-      </c>
-      <c r="B500" s="14" t="s">
-        <v>1786</v>
-      </c>
-      <c r="C500" s="16" t="s">
-        <v>1364</v>
-      </c>
-      <c r="D500" s="16" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A501" s="18" t="s">
-        <v>1787</v>
-      </c>
-      <c r="B501" s="14" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C501" s="14" t="s">
-        <v>1789</v>
-      </c>
-      <c r="D501" s="14" t="s">
         <v>1790</v>
       </c>
-    </row>
-    <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A502" s="14" t="s">
+      <c r="C490" s="14" t="s">
         <v>1791</v>
       </c>
-      <c r="B502" s="14" t="s">
+      <c r="D490" s="14" t="s">
         <v>1792</v>
       </c>
-      <c r="C502" s="14" t="s">
-        <v>1793</v>
-      </c>
-      <c r="D502" s="14" t="s">
-        <v>1794</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:D1 B395:D403 B407:D407 B410:D436 B502:B1048576 C154:D355 C364:D364 C462:D485 D502:D1048576 C496:D497 C366:D369 C502:C1048576 C378:D378 C1:D64 C386:C387 B496:B500 C499:C500 B501:D501 B1:B494 C389:D461 C361:D361 C69:D153">
+  <conditionalFormatting sqref="B1:D1 B383:D391 B395:D395 B398:D424 B490:B1048576 C221:D343 C352:D352 C450:D473 D490:D1048576 C484:D485 C354:D357 C490:C1048576 C366:D366 C1:D64 C374:C375 B484:B488 C487:C488 B489:D489 B1:B482 C377:D449 C349:D349 C69:D220">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>

--- a/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
+++ b/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3419" uniqueCount="1793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3422" uniqueCount="1795">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -1452,6 +1452,9 @@
     <t xml:space="preserve">Registration</t>
   </si>
   <si>
+    <t xml:space="preserve">string(1024)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Absent Member</t>
   </si>
   <si>
@@ -1585,6 +1588,9 @@
   </si>
   <si>
     <t xml:space="preserve">ind_treatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string(512)</t>
   </si>
   <si>
     <t xml:space="preserve">ind_chronic_disease</t>
@@ -5782,7 +5788,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="8.69"/>
   </cols>
@@ -6833,7 +6839,7 @@
       <selection pane="topLeft" activeCell="N30" activeCellId="0" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.67"/>
@@ -8337,12 +8343,12 @@
   <dimension ref="A1:Y1014"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A91" activeCellId="0" sqref="A91"/>
+      <selection pane="bottomLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.16"/>
@@ -13611,11 +13617,11 @@
   </sheetPr>
   <dimension ref="A1:Y758"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.79"/>
@@ -14011,7 +14017,9 @@
       <c r="C13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>475</v>
+      </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -14040,7 +14048,9 @@
       <c r="C14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>475</v>
+      </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -14401,10 +14411,10 @@
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>67</v>
@@ -14436,10 +14446,10 @@
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="9" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D27" s="9"/>
       <c r="F27" s="6"/>
@@ -14497,7 +14507,7 @@
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>211</v>
@@ -14532,10 +14542,10 @@
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="10" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D30" s="10"/>
       <c r="F30" s="6"/>
@@ -14561,7 +14571,7 @@
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="10" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>43</v>
@@ -14593,10 +14603,10 @@
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="10" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D32" s="10"/>
       <c r="F32" s="6"/>
@@ -14622,7 +14632,7 @@
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>43</v>
@@ -14654,7 +14664,7 @@
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="10" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>67</v>
@@ -14686,10 +14696,10 @@
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>67</v>
@@ -14721,10 +14731,10 @@
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="11" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D36" s="11"/>
       <c r="F36" s="6"/>
@@ -14750,7 +14760,7 @@
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="11" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>43</v>
@@ -14782,7 +14792,7 @@
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="11" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>67</v>
@@ -14814,7 +14824,7 @@
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="11" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>67</v>
@@ -14846,7 +14856,7 @@
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="11" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>43</v>
@@ -14878,10 +14888,10 @@
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>67</v>
@@ -14913,7 +14923,7 @@
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B42" s="8" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>43</v>
@@ -14945,10 +14955,10 @@
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>38</v>
@@ -14977,7 +14987,7 @@
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="12" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>43</v>
@@ -15009,7 +15019,7 @@
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="12" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>67</v>
@@ -15041,7 +15051,7 @@
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="12" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>38</v>
@@ -15070,7 +15080,7 @@
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="12" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>43</v>
@@ -15102,7 +15112,7 @@
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="12" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>43</v>
@@ -15134,7 +15144,7 @@
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="12" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>24</v>
@@ -15163,7 +15173,7 @@
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="12" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>67</v>
@@ -15195,10 +15205,10 @@
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C51" s="13" t="s">
         <v>67</v>
@@ -15230,7 +15240,7 @@
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="13" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>67</v>
@@ -15262,7 +15272,7 @@
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="13" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>67</v>
@@ -15294,10 +15304,10 @@
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B54" s="13" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D54" s="13"/>
       <c r="F54" s="6"/>
@@ -15323,7 +15333,7 @@
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B55" s="13" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>67</v>
@@ -15355,10 +15365,10 @@
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B56" s="13" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D56" s="13"/>
       <c r="F56" s="6"/>
@@ -15384,10 +15394,10 @@
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B57" s="13" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D57" s="13"/>
       <c r="F57" s="6"/>
@@ -15413,7 +15423,7 @@
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="13" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>67</v>
@@ -15445,7 +15455,7 @@
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B59" s="13" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>67</v>
@@ -15509,14 +15519,14 @@
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B61" s="13" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D61" s="13"/>
       <c r="E61" s="0" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
@@ -15541,12 +15551,14 @@
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B62" s="13" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C62" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D62" s="13"/>
+      <c r="D62" s="13" t="s">
+        <v>521</v>
+      </c>
       <c r="E62" s="0" t="s">
         <v>290</v>
       </c>
@@ -15573,7 +15585,7 @@
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B63" s="13" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>43</v>
@@ -15605,7 +15617,7 @@
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B64" s="13" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>24</v>
@@ -15634,7 +15646,7 @@
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B65" s="13" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>67</v>
@@ -15666,7 +15678,7 @@
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B66" s="13" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>43</v>
@@ -15698,7 +15710,7 @@
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B67" s="13" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C67" s="13" t="s">
         <v>24</v>
@@ -15727,7 +15739,7 @@
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B68" s="13" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>43</v>
@@ -15759,7 +15771,7 @@
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B69" s="13" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C69" s="13" t="s">
         <v>24</v>
@@ -15788,7 +15800,7 @@
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B70" s="13" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>67</v>
@@ -15820,7 +15832,7 @@
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B71" s="13" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C71" s="13" t="s">
         <v>43</v>
@@ -15852,7 +15864,7 @@
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B72" s="13" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C72" s="13" t="s">
         <v>24</v>
@@ -15881,7 +15893,7 @@
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B73" s="13" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C73" s="13" t="s">
         <v>67</v>
@@ -15913,7 +15925,7 @@
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B74" s="13" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C74" s="13" t="s">
         <v>67</v>
@@ -15945,7 +15957,7 @@
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B75" s="13" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C75" s="13" t="s">
         <v>67</v>
@@ -15977,7 +15989,7 @@
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B76" s="13" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C76" s="13" t="s">
         <v>67</v>
@@ -16009,7 +16021,7 @@
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B77" s="13" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C77" s="13" t="s">
         <v>43</v>
@@ -16041,7 +16053,7 @@
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B78" s="13" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C78" s="13" t="s">
         <v>43</v>
@@ -16073,7 +16085,7 @@
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B79" s="13" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C79" s="13" t="s">
         <v>67</v>
@@ -16105,7 +16117,7 @@
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B80" s="13" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C80" s="13" t="s">
         <v>67</v>
@@ -16137,7 +16149,7 @@
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B81" s="13" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C81" s="13" t="s">
         <v>67</v>
@@ -16169,7 +16181,7 @@
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B82" s="13" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C82" s="13" t="s">
         <v>67</v>
@@ -16201,7 +16213,7 @@
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B83" s="13" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C83" s="13" t="s">
         <v>67</v>
@@ -16233,7 +16245,7 @@
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B84" s="13" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C84" s="13" t="s">
         <v>67</v>
@@ -16265,7 +16277,7 @@
     </row>
     <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B85" s="13" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C85" s="13" t="s">
         <v>67</v>
@@ -16297,7 +16309,7 @@
     </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B86" s="13" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C86" s="13" t="s">
         <v>67</v>
@@ -16329,7 +16341,7 @@
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B87" s="13" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C87" s="13" t="s">
         <v>38</v>
@@ -16358,7 +16370,7 @@
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B88" s="13" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C88" s="13" t="s">
         <v>67</v>
@@ -16422,7 +16434,7 @@
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B90" s="13" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C90" s="13" t="s">
         <v>67</v>
@@ -16454,7 +16466,7 @@
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B91" s="13" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C91" s="13" t="s">
         <v>43</v>
@@ -16486,7 +16498,7 @@
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B92" s="13" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C92" s="13" t="s">
         <v>67</v>
@@ -16518,7 +16530,7 @@
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B93" s="13" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C93" s="13" t="s">
         <v>67</v>
@@ -16550,7 +16562,7 @@
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B94" s="13" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C94" s="13" t="s">
         <v>43</v>
@@ -16582,7 +16594,7 @@
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B95" s="13" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C95" s="13" t="s">
         <v>67</v>
@@ -16646,7 +16658,7 @@
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B97" s="13" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C97" s="13" t="s">
         <v>67</v>
@@ -16678,7 +16690,7 @@
     </row>
     <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B98" s="13" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C98" s="13" t="s">
         <v>38</v>
@@ -31247,7 +31259,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.04"/>
@@ -31262,71 +31274,71 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>20210311001</v>
+        <v>20210312001</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
@@ -31334,49 +31346,49 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>
@@ -32390,7 +32402,7 @@
   </sheetPr>
   <dimension ref="A1:D490"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A295" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="E322" activeCellId="0" sqref="E322"/>
@@ -32405,16 +32417,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="14" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32422,13 +32434,13 @@
         <v>82</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32439,10 +32451,10 @@
         <v>131</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32450,13 +32462,13 @@
         <v>44</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32464,13 +32476,13 @@
         <v>86</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32478,13 +32490,13 @@
         <v>99</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32492,13 +32504,13 @@
         <v>80</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32506,13 +32518,13 @@
         <v>63</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32520,27 +32532,27 @@
         <v>153</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="14" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32548,13 +32560,13 @@
         <v>89</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32562,13 +32574,13 @@
         <v>90</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32576,13 +32588,13 @@
         <v>91</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32590,13 +32602,13 @@
         <v>92</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32604,13 +32616,13 @@
         <v>93</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32618,13 +32630,13 @@
         <v>94</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32632,13 +32644,13 @@
         <v>95</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32646,13 +32658,13 @@
         <v>96</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32660,13 +32672,13 @@
         <v>97</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32674,13 +32686,13 @@
         <v>98</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32688,13 +32700,13 @@
         <v>101</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32705,10 +32717,10 @@
         <v>102</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32716,13 +32728,13 @@
         <v>103</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32730,13 +32742,13 @@
         <v>104</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32747,10 +32759,10 @@
         <v>105</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32761,10 +32773,10 @@
         <v>106</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32775,10 +32787,10 @@
         <v>107</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32786,13 +32798,13 @@
         <v>108</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32800,13 +32812,13 @@
         <v>109</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32814,13 +32826,13 @@
         <v>110</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32831,10 +32843,10 @@
         <v>111</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32842,13 +32854,13 @@
         <v>113</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32856,13 +32868,13 @@
         <v>114</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32870,13 +32882,13 @@
         <v>119</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32884,13 +32896,13 @@
         <v>120</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32898,13 +32910,13 @@
         <v>121</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32912,13 +32924,13 @@
         <v>122</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32926,13 +32938,13 @@
         <v>124</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32940,13 +32952,13 @@
         <v>125</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32954,13 +32966,13 @@
         <v>126</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32968,13 +32980,13 @@
         <v>127</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32982,13 +32994,13 @@
         <v>129</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32996,13 +33008,13 @@
         <v>130</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33010,13 +33022,13 @@
         <v>133</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33027,10 +33039,10 @@
         <v>134</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33038,13 +33050,13 @@
         <v>135</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33052,13 +33064,13 @@
         <v>136</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33066,13 +33078,13 @@
         <v>137</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33083,10 +33095,10 @@
         <v>138</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33100,7 +33112,7 @@
         <v>139</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33114,7 +33126,7 @@
         <v>140</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33125,10 +33137,10 @@
         <v>141</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33136,13 +33148,13 @@
         <v>142</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33150,13 +33162,13 @@
         <v>143</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33170,7 +33182,7 @@
         <v>144</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33181,10 +33193,10 @@
         <v>145</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33195,10 +33207,10 @@
         <v>147</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33209,10 +33221,10 @@
         <v>148</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33220,13 +33232,13 @@
         <v>149</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33234,13 +33246,13 @@
         <v>150</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33251,10 +33263,10 @@
         <v>151</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33265,10 +33277,10 @@
         <v>152</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33276,13 +33288,13 @@
         <v>156</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33290,13 +33302,13 @@
         <v>157</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33304,13 +33316,13 @@
         <v>158</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33318,13 +33330,13 @@
         <v>160</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33332,13 +33344,13 @@
         <v>161</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33346,13 +33358,13 @@
         <v>162</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33360,13 +33372,13 @@
         <v>163</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33374,13 +33386,13 @@
         <v>165</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33391,7 +33403,7 @@
         <v>166</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="D72" s="14" t="s">
         <v>166</v>
@@ -33402,13 +33414,13 @@
         <v>167</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33416,13 +33428,13 @@
         <v>168</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33433,10 +33445,10 @@
         <v>169</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33444,13 +33456,13 @@
         <v>170</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33458,13 +33470,13 @@
         <v>171</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33472,13 +33484,13 @@
         <v>172</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33486,13 +33498,13 @@
         <v>173</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33500,13 +33512,13 @@
         <v>174</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33514,13 +33526,13 @@
         <v>175</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33528,13 +33540,13 @@
         <v>177</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33542,13 +33554,13 @@
         <v>178</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33559,10 +33571,10 @@
         <v>180</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33573,10 +33585,10 @@
         <v>181</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33587,10 +33599,10 @@
         <v>182</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33601,10 +33613,10 @@
         <v>183</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33615,10 +33627,10 @@
         <v>184</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33632,7 +33644,7 @@
         <v>185</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33643,10 +33655,10 @@
         <v>186</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33657,10 +33669,10 @@
         <v>187</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33671,10 +33683,10 @@
         <v>188</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33685,10 +33697,10 @@
         <v>189</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33699,10 +33711,10 @@
         <v>191</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33713,10 +33725,10 @@
         <v>192</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33727,10 +33739,10 @@
         <v>193</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33741,10 +33753,10 @@
         <v>194</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33752,13 +33764,13 @@
         <v>196</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33766,13 +33778,13 @@
         <v>197</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33780,13 +33792,13 @@
         <v>199</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33794,13 +33806,13 @@
         <v>200</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33808,13 +33820,13 @@
         <v>201</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33825,10 +33837,10 @@
         <v>203</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33839,10 +33851,10 @@
         <v>204</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="D104" s="14" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33853,10 +33865,10 @@
         <v>205</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="D105" s="14" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33867,10 +33879,10 @@
         <v>206</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="D106" s="14" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33881,10 +33893,10 @@
         <v>208</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="D107" s="14" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33895,10 +33907,10 @@
         <v>209</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="D108" s="14" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33909,10 +33921,10 @@
         <v>210</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="D109" s="14" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33920,13 +33932,13 @@
         <v>212</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="D110" s="14" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33934,13 +33946,13 @@
         <v>213</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="C111" s="14" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="D111" s="14" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33948,13 +33960,13 @@
         <v>214</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="C112" s="14" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="D112" s="14" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33962,13 +33974,13 @@
         <v>215</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="D113" s="14" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33976,13 +33988,13 @@
         <v>216</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="D114" s="14" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33990,13 +34002,13 @@
         <v>217</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="D115" s="14" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34004,13 +34016,13 @@
         <v>218</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="D116" s="14" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34018,13 +34030,13 @@
         <v>219</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="D117" s="14" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34032,13 +34044,13 @@
         <v>220</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="D118" s="14" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34046,13 +34058,13 @@
         <v>221</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="D119" s="14" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34060,13 +34072,13 @@
         <v>222</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="D120" s="14" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34074,13 +34086,13 @@
         <v>223</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="D121" s="14" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34088,13 +34100,13 @@
         <v>224</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="D122" s="14" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34102,13 +34114,13 @@
         <v>225</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="D123" s="14" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34116,13 +34128,13 @@
         <v>227</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="D124" s="14" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34130,13 +34142,13 @@
         <v>228</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="D125" s="14" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34147,7 +34159,7 @@
         <v>230</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="D126" s="14" t="s">
         <v>230</v>
@@ -34161,10 +34173,10 @@
         <v>231</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="D127" s="14" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34175,10 +34187,10 @@
         <v>232</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="D128" s="14" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34186,13 +34198,13 @@
         <v>233</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="D129" s="14" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34203,10 +34215,10 @@
         <v>235</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="D130" s="14" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34217,10 +34229,10 @@
         <v>236</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="D131" s="14" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34228,13 +34240,13 @@
         <v>237</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="C132" s="14" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="D132" s="14" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34245,10 +34257,10 @@
         <v>238</v>
       </c>
       <c r="C133" s="14" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="D133" s="14" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34259,10 +34271,10 @@
         <v>239</v>
       </c>
       <c r="C134" s="14" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D134" s="14" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34270,13 +34282,13 @@
         <v>240</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="C135" s="14" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="D135" s="14" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34284,13 +34296,13 @@
         <v>241</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="D136" s="14" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34298,13 +34310,13 @@
         <v>243</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="D137" s="14" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34312,13 +34324,13 @@
         <v>244</v>
       </c>
       <c r="B138" s="14" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="C138" s="14" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="D138" s="14" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34326,13 +34338,13 @@
         <v>245</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="D139" s="14" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34340,13 +34352,13 @@
         <v>246</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="D140" s="14" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34354,13 +34366,13 @@
         <v>248</v>
       </c>
       <c r="B141" s="14" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34368,13 +34380,13 @@
         <v>249</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34382,13 +34394,13 @@
         <v>250</v>
       </c>
       <c r="B143" s="14" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34396,13 +34408,13 @@
         <v>251</v>
       </c>
       <c r="B144" s="14" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="D144" s="14" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34410,13 +34422,13 @@
         <v>252</v>
       </c>
       <c r="B145" s="14" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D145" s="14" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34424,13 +34436,13 @@
         <v>253</v>
       </c>
       <c r="B146" s="14" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="D146" s="14" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34438,13 +34450,13 @@
         <v>254</v>
       </c>
       <c r="B147" s="14" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="D147" s="14" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34452,13 +34464,13 @@
         <v>255</v>
       </c>
       <c r="B148" s="14" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="D148" s="14" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34466,13 +34478,13 @@
         <v>256</v>
       </c>
       <c r="B149" s="14" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="D149" s="14" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34480,13 +34492,13 @@
         <v>257</v>
       </c>
       <c r="B150" s="14" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="C150" s="14" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="D150" s="14" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34494,13 +34506,13 @@
         <v>258</v>
       </c>
       <c r="B151" s="14" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="C151" s="14" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="D151" s="14" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34508,13 +34520,13 @@
         <v>259</v>
       </c>
       <c r="B152" s="14" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="C152" s="14" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="D152" s="14" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34522,13 +34534,13 @@
         <v>260</v>
       </c>
       <c r="B153" s="14" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="C153" s="14" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="D153" s="14" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34536,13 +34548,13 @@
         <v>264</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="D154" s="14" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34550,13 +34562,13 @@
         <v>265</v>
       </c>
       <c r="B155" s="14" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="C155" s="14" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="D155" s="14" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34567,10 +34579,10 @@
         <v>267</v>
       </c>
       <c r="C156" s="14" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="D156" s="14" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34581,10 +34593,10 @@
         <v>268</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="D157" s="14" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34595,10 +34607,10 @@
         <v>269</v>
       </c>
       <c r="C158" s="14" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="D158" s="14" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34609,24 +34621,24 @@
         <v>270</v>
       </c>
       <c r="C159" s="14" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="D159" s="14" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="14" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="D160" s="14" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34637,10 +34649,10 @@
         <v>272</v>
       </c>
       <c r="C161" s="14" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="D161" s="14" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34651,10 +34663,10 @@
         <v>273</v>
       </c>
       <c r="C162" s="14" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="D162" s="14" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34665,10 +34677,10 @@
         <v>274</v>
       </c>
       <c r="C163" s="14" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="D163" s="14" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34679,10 +34691,10 @@
         <v>275</v>
       </c>
       <c r="C164" s="14" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="D164" s="14" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34693,10 +34705,10 @@
         <v>276</v>
       </c>
       <c r="C165" s="14" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="D165" s="14" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34721,10 +34733,10 @@
         <v>281</v>
       </c>
       <c r="C167" s="14" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="D167" s="14" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34746,13 +34758,13 @@
         <v>283</v>
       </c>
       <c r="B169" s="14" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="C169" s="14" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="D169" s="14" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34766,7 +34778,7 @@
         <v>284</v>
       </c>
       <c r="D170" s="14" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34774,13 +34786,13 @@
         <v>285</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="C171" s="14" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="D171" s="14" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34791,7 +34803,7 @@
         <v>286</v>
       </c>
       <c r="C172" s="14" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="D172" s="14" t="s">
         <v>286</v>
@@ -34805,10 +34817,10 @@
         <v>287</v>
       </c>
       <c r="C173" s="14" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="D173" s="14" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34819,7 +34831,7 @@
         <v>288</v>
       </c>
       <c r="C174" s="14" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="D174" s="14" t="s">
         <v>288</v>
@@ -34833,7 +34845,7 @@
         <v>289</v>
       </c>
       <c r="C175" s="14" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="D175" s="14" t="s">
         <v>289</v>
@@ -34844,13 +34856,13 @@
         <v>291</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="C176" s="14" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="D176" s="14" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34861,10 +34873,10 @@
         <v>292</v>
       </c>
       <c r="C177" s="14" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="D177" s="14" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34872,13 +34884,13 @@
         <v>293</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="C178" s="14" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="D178" s="14" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34889,10 +34901,10 @@
         <v>294</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="D179" s="14" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34903,10 +34915,10 @@
         <v>295</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="D180" s="14" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34914,13 +34926,13 @@
         <v>296</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="C181" s="14" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="D181" s="14" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34931,10 +34943,10 @@
         <v>297</v>
       </c>
       <c r="C182" s="14" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="D182" s="14" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34942,13 +34954,13 @@
         <v>298</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="C183" s="14" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="D183" s="14" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34956,13 +34968,13 @@
         <v>299</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="C184" s="14" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="D184" s="14" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34970,13 +34982,13 @@
         <v>300</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="C185" s="14" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="D185" s="14" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34984,13 +34996,13 @@
         <v>301</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="C186" s="14" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="D186" s="14" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34998,13 +35010,13 @@
         <v>302</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="C187" s="14" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="D187" s="14" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35012,13 +35024,13 @@
         <v>303</v>
       </c>
       <c r="B188" s="14" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="C188" s="14" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="D188" s="14" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35026,13 +35038,13 @@
         <v>304</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="C189" s="14" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="D189" s="14" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35040,13 +35052,13 @@
         <v>306</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="C190" s="14" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="D190" s="14" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35054,13 +35066,13 @@
         <v>307</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="C191" s="14" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="D191" s="14" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35068,13 +35080,13 @@
         <v>308</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="C192" s="14" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="D192" s="14" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35082,13 +35094,13 @@
         <v>309</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="C193" s="14" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="D193" s="14" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35096,13 +35108,13 @@
         <v>310</v>
       </c>
       <c r="B194" s="14" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="C194" s="14" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="D194" s="14" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35110,13 +35122,13 @@
         <v>311</v>
       </c>
       <c r="B195" s="14" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="C195" s="14" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="D195" s="14" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35124,13 +35136,13 @@
         <v>312</v>
       </c>
       <c r="B196" s="14" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="C196" s="14" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="D196" s="14" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35138,13 +35150,13 @@
         <v>313</v>
       </c>
       <c r="B197" s="14" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="C197" s="14" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="D197" s="14" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35152,13 +35164,13 @@
         <v>314</v>
       </c>
       <c r="B198" s="14" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="C198" s="14" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="D198" s="14" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35166,13 +35178,13 @@
         <v>315</v>
       </c>
       <c r="B199" s="14" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="C199" s="14" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="D199" s="14" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35180,13 +35192,13 @@
         <v>316</v>
       </c>
       <c r="B200" s="14" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="C200" s="14" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="D200" s="14" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35194,13 +35206,13 @@
         <v>317</v>
       </c>
       <c r="B201" s="14" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="C201" s="14" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="D201" s="14" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35208,13 +35220,13 @@
         <v>318</v>
       </c>
       <c r="B202" s="14" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="C202" s="14" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="D202" s="14" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35222,13 +35234,13 @@
         <v>319</v>
       </c>
       <c r="B203" s="14" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="C203" s="14" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="D203" s="14" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35236,13 +35248,13 @@
         <v>320</v>
       </c>
       <c r="B204" s="14" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="C204" s="14" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="D204" s="14" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35250,13 +35262,13 @@
         <v>321</v>
       </c>
       <c r="B205" s="14" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="C205" s="14" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="D205" s="14" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35264,13 +35276,13 @@
         <v>322</v>
       </c>
       <c r="B206" s="14" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="C206" s="14" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="D206" s="14" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35278,13 +35290,13 @@
         <v>323</v>
       </c>
       <c r="B207" s="14" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="C207" s="14" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="D207" s="14" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35292,13 +35304,13 @@
         <v>324</v>
       </c>
       <c r="B208" s="14" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="C208" s="14" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="D208" s="14" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35306,13 +35318,13 @@
         <v>325</v>
       </c>
       <c r="B209" s="14" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="C209" s="14" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="D209" s="14" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35320,13 +35332,13 @@
         <v>326</v>
       </c>
       <c r="B210" s="14" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="C210" s="14" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="D210" s="14" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35334,13 +35346,13 @@
         <v>327</v>
       </c>
       <c r="B211" s="14" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="C211" s="14" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="D211" s="14" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35348,13 +35360,13 @@
         <v>328</v>
       </c>
       <c r="B212" s="14" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="C212" s="14" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="D212" s="14" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35362,13 +35374,13 @@
         <v>329</v>
       </c>
       <c r="B213" s="14" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="C213" s="14" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="D213" s="14" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35376,13 +35388,13 @@
         <v>330</v>
       </c>
       <c r="B214" s="14" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="C214" s="14" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="D214" s="14" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35390,13 +35402,13 @@
         <v>331</v>
       </c>
       <c r="B215" s="14" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="C215" s="14" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="D215" s="14" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35404,13 +35416,13 @@
         <v>332</v>
       </c>
       <c r="B216" s="14" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="C216" s="14" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="D216" s="14" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35418,13 +35430,13 @@
         <v>333</v>
       </c>
       <c r="B217" s="14" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="C217" s="14" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="D217" s="14" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35432,13 +35444,13 @@
         <v>334</v>
       </c>
       <c r="B218" s="14" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="C218" s="14" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="D218" s="14" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35446,13 +35458,13 @@
         <v>335</v>
       </c>
       <c r="B219" s="14" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="C219" s="14" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="D219" s="14" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35460,13 +35472,13 @@
         <v>336</v>
       </c>
       <c r="B220" s="14" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="C220" s="14" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="D220" s="14" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35474,13 +35486,13 @@
         <v>351</v>
       </c>
       <c r="B221" s="14" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="C221" s="14" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="D221" s="14" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35488,13 +35500,13 @@
         <v>352</v>
       </c>
       <c r="B222" s="14" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="C222" s="14" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="D222" s="14" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35502,13 +35514,13 @@
         <v>353</v>
       </c>
       <c r="B223" s="14" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="C223" s="14" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="D223" s="14" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35516,13 +35528,13 @@
         <v>354</v>
       </c>
       <c r="B224" s="14" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="C224" s="14" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="D224" s="14" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35530,13 +35542,13 @@
         <v>355</v>
       </c>
       <c r="B225" s="14" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="C225" s="14" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="D225" s="14" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35544,13 +35556,13 @@
         <v>356</v>
       </c>
       <c r="B226" s="14" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="C226" s="14" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="D226" s="14" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35558,13 +35570,13 @@
         <v>357</v>
       </c>
       <c r="B227" s="14" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="C227" s="14" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="D227" s="14" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35572,13 +35584,13 @@
         <v>358</v>
       </c>
       <c r="B228" s="14" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="C228" s="14" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="D228" s="14" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35586,13 +35598,13 @@
         <v>359</v>
       </c>
       <c r="B229" s="14" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="C229" s="14" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="D229" s="14" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35600,13 +35612,13 @@
         <v>360</v>
       </c>
       <c r="B230" s="14" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="C230" s="14" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="D230" s="14" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35614,13 +35626,13 @@
         <v>361</v>
       </c>
       <c r="B231" s="14" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="C231" s="14" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="D231" s="14" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35628,13 +35640,13 @@
         <v>362</v>
       </c>
       <c r="B232" s="14" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="C232" s="14" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="D232" s="14" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35642,13 +35654,13 @@
         <v>363</v>
       </c>
       <c r="B233" s="14" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="C233" s="14" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="D233" s="14" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35656,13 +35668,13 @@
         <v>364</v>
       </c>
       <c r="B234" s="14" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="C234" s="14" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="D234" s="14" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35670,13 +35682,13 @@
         <v>365</v>
       </c>
       <c r="B235" s="14" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="C235" s="14" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="D235" s="14" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35684,13 +35696,13 @@
         <v>366</v>
       </c>
       <c r="B236" s="14" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="C236" s="14" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D236" s="14" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35698,13 +35710,13 @@
         <v>367</v>
       </c>
       <c r="B237" s="14" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="C237" s="14" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="D237" s="14" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35712,13 +35724,13 @@
         <v>368</v>
       </c>
       <c r="B238" s="14" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="C238" s="14" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="D238" s="14" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35726,13 +35738,13 @@
         <v>369</v>
       </c>
       <c r="B239" s="14" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="C239" s="14" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="D239" s="14" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35740,13 +35752,13 @@
         <v>370</v>
       </c>
       <c r="B240" s="14" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="C240" s="14" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="D240" s="14" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35754,13 +35766,13 @@
         <v>371</v>
       </c>
       <c r="B241" s="14" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="C241" s="14" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="D241" s="14" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35768,13 +35780,13 @@
         <v>372</v>
       </c>
       <c r="B242" s="14" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="C242" s="14" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="D242" s="14" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35782,13 +35794,13 @@
         <v>373</v>
       </c>
       <c r="B243" s="14" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="C243" s="14" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="D243" s="14" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35796,13 +35808,13 @@
         <v>374</v>
       </c>
       <c r="B244" s="14" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="C244" s="14" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="D244" s="14" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35810,13 +35822,13 @@
         <v>375</v>
       </c>
       <c r="B245" s="14" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="C245" s="14" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="D245" s="14" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35824,13 +35836,13 @@
         <v>376</v>
       </c>
       <c r="B246" s="14" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="C246" s="14" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="D246" s="14" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35838,13 +35850,13 @@
         <v>377</v>
       </c>
       <c r="B247" s="14" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="C247" s="14" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="D247" s="14" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35852,13 +35864,13 @@
         <v>378</v>
       </c>
       <c r="B248" s="14" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="C248" s="14" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="D248" s="14" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35866,13 +35878,13 @@
         <v>379</v>
       </c>
       <c r="B249" s="14" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C249" s="14" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="D249" s="14" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35880,13 +35892,13 @@
         <v>380</v>
       </c>
       <c r="B250" s="14" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="C250" s="14" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="D250" s="14" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35894,13 +35906,13 @@
         <v>381</v>
       </c>
       <c r="B251" s="14" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="C251" s="14" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D251" s="14" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35908,13 +35920,13 @@
         <v>382</v>
       </c>
       <c r="B252" s="14" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="C252" s="14" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="D252" s="14" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35922,13 +35934,13 @@
         <v>383</v>
       </c>
       <c r="B253" s="14" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="C253" s="14" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="D253" s="14" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35936,13 +35948,13 @@
         <v>384</v>
       </c>
       <c r="B254" s="14" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="C254" s="14" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="D254" s="14" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35950,13 +35962,13 @@
         <v>385</v>
       </c>
       <c r="B255" s="14" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="C255" s="14" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="D255" s="14" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35964,13 +35976,13 @@
         <v>386</v>
       </c>
       <c r="B256" s="14" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="C256" s="14" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="D256" s="14" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35978,13 +35990,13 @@
         <v>387</v>
       </c>
       <c r="B257" s="14" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="C257" s="14" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="D257" s="14" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35992,13 +36004,13 @@
         <v>388</v>
       </c>
       <c r="B258" s="14" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="C258" s="14" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="D258" s="14" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36006,13 +36018,13 @@
         <v>389</v>
       </c>
       <c r="B259" s="14" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="C259" s="14" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="D259" s="14" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36020,13 +36032,13 @@
         <v>390</v>
       </c>
       <c r="B260" s="14" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="C260" s="14" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="D260" s="14" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36034,13 +36046,13 @@
         <v>391</v>
       </c>
       <c r="B261" s="14" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="C261" s="14" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="D261" s="14" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36048,13 +36060,13 @@
         <v>392</v>
       </c>
       <c r="B262" s="14" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="C262" s="14" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="D262" s="14" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36062,13 +36074,13 @@
         <v>393</v>
       </c>
       <c r="B263" s="14" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="C263" s="14" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="D263" s="14" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36076,13 +36088,13 @@
         <v>394</v>
       </c>
       <c r="B264" s="14" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="C264" s="14" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="D264" s="14" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36090,13 +36102,13 @@
         <v>395</v>
       </c>
       <c r="B265" s="14" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="C265" s="14" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="D265" s="14" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36104,13 +36116,13 @@
         <v>396</v>
       </c>
       <c r="B266" s="14" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="C266" s="14" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="D266" s="14" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36118,13 +36130,13 @@
         <v>397</v>
       </c>
       <c r="B267" s="14" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="C267" s="14" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="D267" s="14" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36132,13 +36144,13 @@
         <v>398</v>
       </c>
       <c r="B268" s="14" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="C268" s="14" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="D268" s="14" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36146,13 +36158,13 @@
         <v>399</v>
       </c>
       <c r="B269" s="14" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="C269" s="14" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="D269" s="14" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36160,13 +36172,13 @@
         <v>400</v>
       </c>
       <c r="B270" s="14" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="C270" s="14" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="D270" s="14" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36174,13 +36186,13 @@
         <v>401</v>
       </c>
       <c r="B271" s="14" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="C271" s="14" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="D271" s="14" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36188,13 +36200,13 @@
         <v>402</v>
       </c>
       <c r="B272" s="14" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="C272" s="14" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="D272" s="14" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36202,13 +36214,13 @@
         <v>403</v>
       </c>
       <c r="B273" s="14" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="C273" s="14" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="D273" s="14" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36216,13 +36228,13 @@
         <v>404</v>
       </c>
       <c r="B274" s="14" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="C274" s="14" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="D274" s="14" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36230,13 +36242,13 @@
         <v>405</v>
       </c>
       <c r="B275" s="14" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="C275" s="14" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="D275" s="14" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36244,13 +36256,13 @@
         <v>406</v>
       </c>
       <c r="B276" s="14" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="C276" s="14" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="D276" s="14" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36258,13 +36270,13 @@
         <v>407</v>
       </c>
       <c r="B277" s="14" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="C277" s="14" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="D277" s="14" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36272,13 +36284,13 @@
         <v>408</v>
       </c>
       <c r="B278" s="14" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="C278" s="14" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="D278" s="14" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36286,13 +36298,13 @@
         <v>409</v>
       </c>
       <c r="B279" s="14" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="C279" s="14" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="D279" s="14" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36300,13 +36312,13 @@
         <v>410</v>
       </c>
       <c r="B280" s="14" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="C280" s="14" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="D280" s="14" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36314,13 +36326,13 @@
         <v>411</v>
       </c>
       <c r="B281" s="14" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="C281" s="14" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="D281" s="14" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36328,13 +36340,13 @@
         <v>412</v>
       </c>
       <c r="B282" s="14" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="C282" s="14" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="D282" s="14" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36342,13 +36354,13 @@
         <v>413</v>
       </c>
       <c r="B283" s="14" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="C283" s="14" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="D283" s="14" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36356,13 +36368,13 @@
         <v>414</v>
       </c>
       <c r="B284" s="14" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="C284" s="14" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="D284" s="14" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36370,13 +36382,13 @@
         <v>415</v>
       </c>
       <c r="B285" s="14" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="C285" s="14" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="D285" s="14" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36384,13 +36396,13 @@
         <v>416</v>
       </c>
       <c r="B286" s="14" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="C286" s="14" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="D286" s="14" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36398,13 +36410,13 @@
         <v>417</v>
       </c>
       <c r="B287" s="14" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="C287" s="14" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="D287" s="14" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36412,13 +36424,13 @@
         <v>418</v>
       </c>
       <c r="B288" s="14" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="C288" s="14" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="D288" s="14" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36426,13 +36438,13 @@
         <v>419</v>
       </c>
       <c r="B289" s="14" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="C289" s="14" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="D289" s="14" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36440,13 +36452,13 @@
         <v>420</v>
       </c>
       <c r="B290" s="14" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="C290" s="14" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="D290" s="14" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36454,13 +36466,13 @@
         <v>421</v>
       </c>
       <c r="B291" s="14" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="C291" s="14" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="D291" s="14" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36468,13 +36480,13 @@
         <v>422</v>
       </c>
       <c r="B292" s="14" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="C292" s="14" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="D292" s="14" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36482,13 +36494,13 @@
         <v>423</v>
       </c>
       <c r="B293" s="14" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="C293" s="14" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="D293" s="14" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36496,13 +36508,13 @@
         <v>424</v>
       </c>
       <c r="B294" s="14" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="C294" s="14" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="D294" s="14" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36510,13 +36522,13 @@
         <v>425</v>
       </c>
       <c r="B295" s="14" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="C295" s="14" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="D295" s="14" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36524,13 +36536,13 @@
         <v>426</v>
       </c>
       <c r="B296" s="14" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="C296" s="14" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="D296" s="14" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36538,13 +36550,13 @@
         <v>427</v>
       </c>
       <c r="B297" s="14" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="C297" s="14" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="D297" s="14" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36552,13 +36564,13 @@
         <v>428</v>
       </c>
       <c r="B298" s="14" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="C298" s="14" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="D298" s="14" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36566,13 +36578,13 @@
         <v>429</v>
       </c>
       <c r="B299" s="14" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="C299" s="14" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="D299" s="14" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36580,13 +36592,13 @@
         <v>430</v>
       </c>
       <c r="B300" s="14" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="C300" s="14" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="D300" s="14" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36594,13 +36606,13 @@
         <v>431</v>
       </c>
       <c r="B301" s="14" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="C301" s="14" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="D301" s="14" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36608,13 +36620,13 @@
         <v>432</v>
       </c>
       <c r="B302" s="14" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="C302" s="14" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="D302" s="14" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36622,13 +36634,13 @@
         <v>433</v>
       </c>
       <c r="B303" s="14" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C303" s="14" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="D303" s="14" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36636,13 +36648,13 @@
         <v>434</v>
       </c>
       <c r="B304" s="14" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="C304" s="14" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D304" s="14" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36650,13 +36662,13 @@
         <v>435</v>
       </c>
       <c r="B305" s="14" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="C305" s="14" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="D305" s="14" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36664,13 +36676,13 @@
         <v>436</v>
       </c>
       <c r="B306" s="14" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="C306" s="14" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="D306" s="14" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36678,13 +36690,13 @@
         <v>437</v>
       </c>
       <c r="B307" s="14" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="C307" s="14" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="D307" s="14" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36692,13 +36704,13 @@
         <v>438</v>
       </c>
       <c r="B308" s="14" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="C308" s="14" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="D308" s="14" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36706,13 +36718,13 @@
         <v>439</v>
       </c>
       <c r="B309" s="14" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="C309" s="14" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="D309" s="14" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36720,13 +36732,13 @@
         <v>440</v>
       </c>
       <c r="B310" s="14" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="C310" s="14" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="D310" s="14" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36734,13 +36746,13 @@
         <v>441</v>
       </c>
       <c r="B311" s="14" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="C311" s="14" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="D311" s="14" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36748,13 +36760,13 @@
         <v>442</v>
       </c>
       <c r="B312" s="14" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="C312" s="14" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="D312" s="14" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36762,13 +36774,13 @@
         <v>443</v>
       </c>
       <c r="B313" s="14" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="C313" s="14" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="D313" s="14" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36776,13 +36788,13 @@
         <v>444</v>
       </c>
       <c r="B314" s="14" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="C314" s="14" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="D314" s="14" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36790,13 +36802,13 @@
         <v>445</v>
       </c>
       <c r="B315" s="14" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="C315" s="14" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="D315" s="14" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36804,13 +36816,13 @@
         <v>446</v>
       </c>
       <c r="B316" s="14" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="C316" s="14" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="D316" s="14" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36818,13 +36830,13 @@
         <v>447</v>
       </c>
       <c r="B317" s="14" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="C317" s="14" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="D317" s="14" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36832,13 +36844,13 @@
         <v>448</v>
       </c>
       <c r="B318" s="14" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="C318" s="14" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="D318" s="14" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36846,13 +36858,13 @@
         <v>449</v>
       </c>
       <c r="B319" s="14" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="C319" s="14" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="D319" s="14" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36860,13 +36872,13 @@
         <v>450</v>
       </c>
       <c r="B320" s="14" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="C320" s="14" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="D320" s="14" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36874,13 +36886,13 @@
         <v>451</v>
       </c>
       <c r="B321" s="14" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="C321" s="14" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="D321" s="14" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36888,181 +36900,181 @@
         <v>452</v>
       </c>
       <c r="B322" s="14" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="C322" s="14" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="D322" s="14" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="14" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="B324" s="14" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="C324" s="14" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="D324" s="14" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="14" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="B325" s="14" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="C325" s="14" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="D325" s="14" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="14" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="B326" s="14" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="C326" s="14" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="D326" s="14" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="14" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="B327" s="14" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="C327" s="14" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="D327" s="14" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="14" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="B328" s="14" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="C328" s="14" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="D328" s="14" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="14" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="B330" s="14" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="C330" s="14" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="D330" s="14" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="14" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="B331" s="14" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="C331" s="14" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="D331" s="14" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="14" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="B332" s="14" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="C332" s="14" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="D332" s="14" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="14" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="B333" s="14" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="C333" s="14" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="D333" s="14" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="14" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="B334" s="14" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="C334" s="14" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="D334" s="14" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="14" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="B335" s="14" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="C335" s="14" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="D335" s="14" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="14" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="B336" s="14" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C336" s="14" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="D336" s="14" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37070,13 +37082,13 @@
         <v>34</v>
       </c>
       <c r="B338" s="14" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="C338" s="14" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="D338" s="14" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37084,13 +37096,13 @@
         <v>46</v>
       </c>
       <c r="B339" s="14" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="C339" s="14" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="D339" s="14" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37098,13 +37110,13 @@
         <v>52</v>
       </c>
       <c r="B340" s="14" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="C340" s="14" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="D340" s="14" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37112,27 +37124,27 @@
         <v>74</v>
       </c>
       <c r="B341" s="14" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="C341" s="14" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="D341" s="14" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="14" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="B342" s="14" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="C342" s="14" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="D342" s="14" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37140,181 +37152,181 @@
         <v>155</v>
       </c>
       <c r="B343" s="14" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="C343" s="14" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="D343" s="14" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="14" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="B344" s="14" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="C344" s="14" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="D344" s="14" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="14" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="B345" s="14" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="C345" s="14" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="D345" s="14" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="14" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="B346" s="14" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="C346" s="14" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="D346" s="14" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="14" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="B347" s="14" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="C347" s="16" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="D347" s="16" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="14" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="B348" s="14" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="C348" s="16" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="D348" s="16" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="14" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="B349" s="14" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="C349" s="14" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="D349" s="14" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="14" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="B350" s="14" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="C350" s="16" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="D350" s="16" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="14" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="B351" s="14" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="C351" s="14" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="D351" s="14" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="14" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="B352" s="14" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="C352" s="14" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="D352" s="14" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="14" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="B353" s="14" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="C353" s="16" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="D353" s="16" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="14" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="B354" s="14" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="C354" s="14" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="D354" s="14" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="14" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="B355" s="14" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="C355" s="14" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="D355" s="14" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37322,139 +37334,139 @@
         <v>28</v>
       </c>
       <c r="B356" s="14" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="C356" s="14" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="D356" s="14" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="14" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="B357" s="14" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="C357" s="14" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="D357" s="14" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="14" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="B358" s="14" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="C358" s="14" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="D358" s="14" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="14" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="B359" s="14" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="C359" s="14" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="D359" s="14" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="14" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="B360" s="14" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="C360" s="14" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="D360" s="14" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="14" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="B361" s="14" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="C361" s="14" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="D361" s="14" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="14" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="B362" s="14" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="C362" s="14" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="D362" s="14" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="14" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="B363" s="14" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="C363" s="14" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="D363" s="14" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="14" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="B364" s="14" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="C364" s="16" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="D364" s="16" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="14" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="B365" s="14" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="C365" s="16" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="D365" s="16" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37462,13 +37474,13 @@
         <v>27</v>
       </c>
       <c r="B367" s="14" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="C367" s="16" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="D367" s="16" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="32.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37476,13 +37488,13 @@
         <v>31</v>
       </c>
       <c r="B368" s="14" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="C368" s="16" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="D368" s="16" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37490,13 +37502,13 @@
         <v>35</v>
       </c>
       <c r="B369" s="14" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="C369" s="14" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="D369" s="14" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37504,13 +37516,13 @@
         <v>47</v>
       </c>
       <c r="B370" s="14" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="C370" s="14" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="D370" s="14" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37518,153 +37530,153 @@
         <v>53</v>
       </c>
       <c r="B371" s="14" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="C371" s="14" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="D371" s="14" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="14" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="B372" s="14" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="C372" s="14" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="D372" s="14" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="14" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="B373" s="14" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="C373" s="16" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="D373" s="16" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="14" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="B374" s="14" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="C374" s="16" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="D374" s="16" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="14" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="B375" s="14" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="C375" s="16" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="D375" s="16" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="14" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="B376" s="14" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="C376" s="14" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="D376" s="14" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="14" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="B377" s="14" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="C377" s="14" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="D377" s="14" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="14" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="B378" s="14" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="C378" s="14" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="D378" s="14" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="14" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="B379" s="14" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="C379" s="14" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="D379" s="14" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="14" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="B380" s="14" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="C380" s="14" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="D380" s="14" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="14" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="B381" s="14" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="C381" s="14" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="D381" s="14" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37672,13 +37684,13 @@
         <v>25</v>
       </c>
       <c r="B383" s="14" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="C383" s="14" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="D383" s="14" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37686,13 +37698,13 @@
         <v>29</v>
       </c>
       <c r="B384" s="14" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="C384" s="14" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="D384" s="14" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37700,13 +37712,13 @@
         <v>33</v>
       </c>
       <c r="B385" s="14" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="C385" s="14" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="D385" s="14" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37714,13 +37726,13 @@
         <v>62</v>
       </c>
       <c r="B386" s="14" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="C386" s="14" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="D386" s="14" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37728,13 +37740,13 @@
         <v>69</v>
       </c>
       <c r="B387" s="14" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="C387" s="14" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="D387" s="14" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37742,13 +37754,13 @@
         <v>71</v>
       </c>
       <c r="B388" s="14" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="C388" s="14" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="D388" s="14" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37756,1399 +37768,1399 @@
         <v>72</v>
       </c>
       <c r="B389" s="14" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="C389" s="14" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="D389" s="14" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="14" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B390" s="14" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="C390" s="14" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="D390" s="14" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="14" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="B391" s="14" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="C391" s="14" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="D391" s="14" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="14" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="B392" s="14" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="C392" s="14" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="D392" s="14" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="14" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="B393" s="14" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="C393" s="14" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="D393" s="14" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="14" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="B394" s="14" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="C394" s="14" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="D394" s="14" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="14" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="B395" s="14" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
       <c r="C395" s="14" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="D395" s="14" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="14" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="B396" s="14" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="C396" s="14" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="D396" s="14" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="14" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="B397" s="14" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="C397" s="14" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="D397" s="14" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="14" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="B398" s="14" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="C398" s="14" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="D398" s="14" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="14" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="B399" s="14" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
       <c r="C399" s="14" t="s">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="D399" s="14" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="14" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="B400" s="14" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="C400" s="14" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="D400" s="14" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="14" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="B401" s="14" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="C401" s="14" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="D401" s="14" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="14" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="B402" s="14" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
       <c r="C402" s="14" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="D402" s="14" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="14" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="B403" s="14" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="C403" s="14" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="D403" s="14" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="14" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="B404" s="14" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="C404" s="14" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="D404" s="14" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="14" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="B405" s="14" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="C405" s="14" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="D405" s="14" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="14" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="B406" s="14" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="C406" s="14" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="D406" s="14" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="14" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="B407" s="14" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="C407" s="14" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="D407" s="14" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="14" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="B408" s="14" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="C408" s="14" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="D408" s="14" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="14" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="B409" s="14" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="C409" s="14" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="D409" s="14" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="14" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="B410" s="14" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
       <c r="C410" s="14" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="D410" s="14" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="14" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="B411" s="14" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="C411" s="14" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="D411" s="14" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="14" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="B412" s="14" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="C412" s="14" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="D412" s="14" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="14" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="B413" s="14" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="C413" s="14" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="D413" s="14" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="14" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="B414" s="14" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="C414" s="14" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="D414" s="14" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="14" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="B415" s="14" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="C415" s="14" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="D415" s="14" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="14" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="B416" s="14" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="C416" s="14" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="D416" s="14" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="14" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="B417" s="14" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="C417" s="14" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="D417" s="14" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="14" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="B418" s="14" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="C418" s="14" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="D418" s="14" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="14" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="B419" s="14" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="C419" s="14" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="D419" s="14" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="14" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B420" s="14" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="C420" s="14" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="D420" s="14" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="14" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="B421" s="14" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="C421" s="14" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="D421" s="14" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="14" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="B422" s="14" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="C422" s="14" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="D422" s="14" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="14" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="B423" s="14" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="C423" s="14" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="D423" s="14" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="14" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="B424" s="14" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="C424" s="14" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="D424" s="14" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="14" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="B426" s="14" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="C426" s="14" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="D426" s="14" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="14" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="B427" s="14" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="C427" s="14" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="D427" s="14" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="14" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="B428" s="14" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="C428" s="14" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="D428" s="14" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="14" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="B429" s="14" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="C429" s="14" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="D429" s="14" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="14" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="B430" s="14" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="C430" s="14" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="D430" s="14" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="14" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="B431" s="14" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
       <c r="C431" s="14" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="D431" s="14" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="14" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="B432" s="14" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="C432" s="14" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="D432" s="14" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="14" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="B433" s="14" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
       <c r="C433" s="14" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="D433" s="14" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="14" t="s">
-        <v>1575</v>
+        <v>1577</v>
       </c>
       <c r="B434" s="14" t="s">
-        <v>1576</v>
+        <v>1578</v>
       </c>
       <c r="C434" s="14" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="D434" s="14" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="14" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c r="B435" s="14" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="C435" s="14" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="D435" s="14" t="s">
-        <v>1582</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="14" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
       <c r="B436" s="14" t="s">
-        <v>1584</v>
+        <v>1586</v>
       </c>
       <c r="C436" s="14" t="s">
-        <v>1585</v>
+        <v>1587</v>
       </c>
       <c r="D436" s="14" t="s">
-        <v>1586</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="14" t="s">
-        <v>1587</v>
+        <v>1589</v>
       </c>
       <c r="B437" s="14" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="C437" s="14" t="s">
-        <v>1589</v>
+        <v>1591</v>
       </c>
       <c r="D437" s="14" t="s">
-        <v>1590</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="14" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="B438" s="14" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
       <c r="C438" s="14" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c r="D438" s="14" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="14" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c r="B439" s="14" t="s">
-        <v>1596</v>
+        <v>1598</v>
       </c>
       <c r="C439" s="14" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="D439" s="14" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="14" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="B440" s="14" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c r="C440" s="14" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="D440" s="14" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="14" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="B441" s="14" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="C441" s="14" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="D441" s="14" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="14" t="s">
-        <v>1607</v>
+        <v>1609</v>
       </c>
       <c r="B442" s="14" t="s">
-        <v>1608</v>
+        <v>1610</v>
       </c>
       <c r="C442" s="14" t="s">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="D442" s="14" t="s">
-        <v>1610</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="14" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="B443" s="14" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="C443" s="14" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="D443" s="14" t="s">
-        <v>1614</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="14" t="s">
-        <v>1615</v>
+        <v>1617</v>
       </c>
       <c r="B444" s="14" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="C444" s="14" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c r="D444" s="14" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="14" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="B445" s="14" t="s">
-        <v>1620</v>
+        <v>1622</v>
       </c>
       <c r="C445" s="14" t="s">
-        <v>1621</v>
+        <v>1623</v>
       </c>
       <c r="D445" s="14" t="s">
-        <v>1622</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="14" t="s">
-        <v>1623</v>
+        <v>1625</v>
       </c>
       <c r="B446" s="14" t="s">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="C446" s="14" t="s">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="D446" s="14" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="14" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="B447" s="14" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="C447" s="14" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="D447" s="14" t="s">
-        <v>1630</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="14" t="s">
-        <v>1631</v>
+        <v>1633</v>
       </c>
       <c r="B448" s="14" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="C448" s="14" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="D448" s="14" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="14" t="s">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c r="B449" s="14" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="C449" s="14" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="D449" s="14" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="14" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="B450" s="14" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="C450" s="14" t="s">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="D450" s="14" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="14" t="s">
-        <v>1643</v>
+        <v>1645</v>
       </c>
       <c r="B451" s="14" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="C451" s="14" t="s">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c r="D451" s="14" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="14" t="s">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="B452" s="14" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="C452" s="14" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="D452" s="14" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="14" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="B453" s="14" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="C453" s="14" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="D453" s="14" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="14" t="s">
-        <v>1655</v>
+        <v>1657</v>
       </c>
       <c r="B454" s="14" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="C454" s="14" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="D454" s="14" t="s">
-        <v>1658</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="14" t="s">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="B455" s="14" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="C455" s="14" t="s">
-        <v>1661</v>
+        <v>1663</v>
       </c>
       <c r="D455" s="14" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="14" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="B456" s="14" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="C456" s="14" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="D456" s="14" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="14" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="B457" s="14" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="C457" s="14" t="s">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="D457" s="14" t="s">
-        <v>1670</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="14" t="s">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="B458" s="14" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="C458" s="14" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="D458" s="14" t="s">
-        <v>1674</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="14" t="s">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="B459" s="14" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="C459" s="14" t="s">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="D459" s="14" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="14" t="s">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="B460" s="14" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="C460" s="14" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="D460" s="14" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="14" t="s">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="B461" s="14" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c r="C461" s="14" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="D461" s="14" t="s">
-        <v>1686</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="14" t="s">
-        <v>1687</v>
+        <v>1689</v>
       </c>
       <c r="B462" s="14" t="s">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="C462" s="14" t="s">
-        <v>1689</v>
+        <v>1691</v>
       </c>
       <c r="D462" s="14" t="s">
-        <v>1690</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="14" t="s">
-        <v>1691</v>
+        <v>1693</v>
       </c>
       <c r="B463" s="14" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="C463" s="14" t="s">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="D463" s="14" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="14" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="B464" s="14" t="s">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="C464" s="14" t="s">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="D464" s="14" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="14" t="s">
-        <v>1699</v>
+        <v>1701</v>
       </c>
       <c r="B465" s="14" t="s">
-        <v>1700</v>
+        <v>1702</v>
       </c>
       <c r="C465" s="14" t="s">
-        <v>1701</v>
+        <v>1703</v>
       </c>
       <c r="D465" s="14" t="s">
-        <v>1702</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="14" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="B466" s="14" t="s">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="C466" s="14" t="s">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="D466" s="14" t="s">
-        <v>1706</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="14" t="s">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="B467" s="14" t="s">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="C467" s="14" t="s">
-        <v>1709</v>
+        <v>1711</v>
       </c>
       <c r="D467" s="14" t="s">
-        <v>1710</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="14" t="s">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="B468" s="14" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="C468" s="14" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="D468" s="14" t="s">
-        <v>1714</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="14" t="s">
-        <v>1715</v>
+        <v>1717</v>
       </c>
       <c r="B469" s="14" t="s">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="C469" s="14" t="s">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="D469" s="14" t="s">
-        <v>1718</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="14" t="s">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="B470" s="14" t="s">
-        <v>1720</v>
+        <v>1722</v>
       </c>
       <c r="C470" s="14" t="s">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="D470" s="14" t="s">
-        <v>1722</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="14" t="s">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="B471" s="14" t="s">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="C471" s="14" t="s">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="D471" s="14" t="s">
-        <v>1726</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="14" t="s">
-        <v>1727</v>
+        <v>1729</v>
       </c>
       <c r="B472" s="14" t="s">
-        <v>1728</v>
+        <v>1730</v>
       </c>
       <c r="C472" s="14" t="s">
-        <v>1729</v>
+        <v>1731</v>
       </c>
       <c r="D472" s="14" t="s">
-        <v>1730</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="14" t="s">
-        <v>1731</v>
+        <v>1733</v>
       </c>
       <c r="B474" s="14" t="s">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="C474" s="16" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="D474" s="16" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="14" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="B475" s="14" t="s">
-        <v>1736</v>
+        <v>1738</v>
       </c>
       <c r="C475" s="16" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="D475" s="16" t="s">
-        <v>1738</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="14" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="B476" s="14" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="C476" s="16" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="D476" s="16" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="14" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="B477" s="14" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="C477" s="16" t="s">
-        <v>1745</v>
+        <v>1747</v>
       </c>
       <c r="D477" s="16" t="s">
-        <v>1746</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="14" t="s">
-        <v>1747</v>
+        <v>1749</v>
       </c>
       <c r="B478" s="14" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="C478" s="16" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="D478" s="16" t="s">
-        <v>1750</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="14" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="B479" s="14" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="C479" s="16" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="D479" s="16" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="14" t="s">
-        <v>1755</v>
+        <v>1757</v>
       </c>
       <c r="B480" s="14" t="s">
-        <v>1756</v>
+        <v>1758</v>
       </c>
       <c r="C480" s="16" t="s">
-        <v>1757</v>
+        <v>1759</v>
       </c>
       <c r="D480" s="16" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="14" t="s">
-        <v>1759</v>
+        <v>1761</v>
       </c>
       <c r="B481" s="14" t="s">
-        <v>1760</v>
+        <v>1762</v>
       </c>
       <c r="C481" s="16" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="D481" s="16" t="s">
-        <v>1762</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="14" t="s">
-        <v>1763</v>
+        <v>1765</v>
       </c>
       <c r="B482" s="14" t="s">
-        <v>1764</v>
+        <v>1766</v>
       </c>
       <c r="C482" s="16" t="s">
-        <v>1765</v>
+        <v>1767</v>
       </c>
       <c r="D482" s="16" t="s">
-        <v>1766</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="16.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A483" s="14" t="s">
-        <v>1767</v>
+        <v>1769</v>
       </c>
       <c r="B483" s="17" t="s">
-        <v>1768</v>
+        <v>1770</v>
       </c>
       <c r="C483" s="16" t="s">
-        <v>1769</v>
+        <v>1771</v>
       </c>
       <c r="D483" s="16" t="s">
-        <v>1770</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="14" t="s">
-        <v>1771</v>
+        <v>1773</v>
       </c>
       <c r="B484" s="14" t="s">
-        <v>1772</v>
+        <v>1774</v>
       </c>
       <c r="C484" s="14" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
       <c r="D484" s="14" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="14" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
       <c r="B485" s="14" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="C485" s="14" t="s">
-        <v>1777</v>
+        <v>1779</v>
       </c>
       <c r="D485" s="14" t="s">
-        <v>1778</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="14" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
       <c r="B486" s="14" t="s">
-        <v>1780</v>
+        <v>1782</v>
       </c>
       <c r="C486" s="16" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="D486" s="16" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="14" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
       <c r="B487" s="14" t="s">
-        <v>1782</v>
+        <v>1784</v>
       </c>
       <c r="C487" s="16" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="D487" s="16" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="14" t="s">
-        <v>1783</v>
+        <v>1785</v>
       </c>
       <c r="B488" s="14" t="s">
-        <v>1784</v>
+        <v>1786</v>
       </c>
       <c r="C488" s="16" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="D488" s="16" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="18" t="s">
-        <v>1785</v>
+        <v>1787</v>
       </c>
       <c r="B489" s="14" t="s">
-        <v>1786</v>
+        <v>1788</v>
       </c>
       <c r="C489" s="14" t="s">
-        <v>1787</v>
+        <v>1789</v>
       </c>
       <c r="D489" s="14" t="s">
-        <v>1788</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="14" t="s">
-        <v>1789</v>
+        <v>1791</v>
       </c>
       <c r="B490" s="14" t="s">
-        <v>1790</v>
+        <v>1792</v>
       </c>
       <c r="C490" s="14" t="s">
-        <v>1791</v>
+        <v>1793</v>
       </c>
       <c r="D490" s="14" t="s">
-        <v>1792</v>
+        <v>1794</v>
       </c>
     </row>
   </sheetData>

--- a/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
+++ b/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3422" uniqueCount="1795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3424" uniqueCount="1796">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -1428,6 +1428,9 @@
     <t xml:space="preserve">extIdObj</t>
   </si>
   <si>
+    <t xml:space="preserve">override_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">form_status_hh_member</t>
   </si>
   <si>
@@ -1590,7 +1593,7 @@
     <t xml:space="preserve">ind_treatment</t>
   </si>
   <si>
-    <t xml:space="preserve">string(512)</t>
+    <t xml:space="preserve">array(512)</t>
   </si>
   <si>
     <t xml:space="preserve">ind_chronic_disease</t>
@@ -5788,7 +5791,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="8.69"/>
   </cols>
@@ -6839,7 +6842,7 @@
       <selection pane="topLeft" activeCell="N30" activeCellId="0" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.59375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.67"/>
@@ -8343,12 +8346,12 @@
   <dimension ref="A1:Y1014"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
+      <selection pane="bottomLeft" activeCell="A241" activeCellId="0" sqref="A241"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.59375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.16"/>
@@ -13615,13 +13618,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y758"/>
+  <dimension ref="A1:Y759"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D64" activeCellId="0" sqref="D64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.59375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.79"/>
@@ -13812,7 +13815,9 @@
         <v>38</v>
       </c>
       <c r="D6" s="7"/>
-      <c r="F6" s="6"/>
+      <c r="F6" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -14008,18 +14013,13 @@
       <c r="Y12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="B13" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>475</v>
-      </c>
+      <c r="C13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -14042,14 +14042,17 @@
       <c r="Y13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>475</v>
+      </c>
       <c r="B14" s="8" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -14074,12 +14077,14 @@
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>476</v>
+      </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -14103,15 +14108,12 @@
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D16" s="8"/>
-      <c r="E16" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -14135,12 +14137,15 @@
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D17" s="8"/>
+      <c r="E17" s="0" t="s">
+        <v>44</v>
+      </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -14164,15 +14169,12 @@
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D18" s="8"/>
-      <c r="E18" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -14196,12 +14198,15 @@
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D19" s="8"/>
+      <c r="E19" s="0" t="s">
+        <v>44</v>
+      </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -14225,15 +14230,12 @@
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D20" s="8"/>
-      <c r="E20" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -14257,12 +14259,15 @@
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D21" s="8"/>
+      <c r="E21" s="0" t="s">
+        <v>44</v>
+      </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -14286,15 +14291,12 @@
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="0" t="s">
-        <v>63</v>
-      </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -14318,14 +14320,14 @@
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="0" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -14350,14 +14352,14 @@
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>67</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -14382,12 +14384,15 @@
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D25" s="8"/>
+      <c r="E25" s="0" t="s">
+        <v>70</v>
+      </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -14410,19 +14415,13 @@
       <c r="Y25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>476</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="0" t="s">
-        <v>263</v>
-      </c>
+      <c r="B26" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="8"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -14445,13 +14444,19 @@
       <c r="Y26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>477</v>
+      </c>
       <c r="B27" s="9" t="s">
         <v>478</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>479</v>
+        <v>67</v>
       </c>
       <c r="D27" s="9"/>
+      <c r="E27" s="0" t="s">
+        <v>263</v>
+      </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -14475,15 +14480,12 @@
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="9" t="s">
-        <v>88</v>
+        <v>479</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>67</v>
+        <v>480</v>
       </c>
       <c r="D28" s="9"/>
-      <c r="E28" s="0" t="s">
-        <v>88</v>
-      </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -14506,18 +14508,15 @@
       <c r="Y28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>480</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="C29" s="10" t="s">
+      <c r="B29" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="10"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="0" t="s">
-        <v>211</v>
+        <v>88</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -14541,13 +14540,19 @@
       <c r="Y29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>481</v>
+      </c>
       <c r="B30" s="10" t="s">
-        <v>481</v>
+        <v>211</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>482</v>
+        <v>67</v>
       </c>
       <c r="D30" s="10"/>
+      <c r="E30" s="0" t="s">
+        <v>211</v>
+      </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -14571,15 +14576,12 @@
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>43</v>
-      </c>
       <c r="D31" s="10"/>
-      <c r="E31" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -14606,9 +14608,12 @@
         <v>484</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>482</v>
+        <v>43</v>
       </c>
       <c r="D32" s="10"/>
+      <c r="E32" s="0" t="s">
+        <v>44</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -14635,12 +14640,9 @@
         <v>485</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>43</v>
+        <v>483</v>
       </c>
       <c r="D33" s="10"/>
-      <c r="E33" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -14667,11 +14669,11 @@
         <v>486</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="0" t="s">
-        <v>176</v>
+        <v>44</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -14695,18 +14697,15 @@
       <c r="Y34" s="6"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="B35" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="11"/>
+      <c r="D35" s="10"/>
       <c r="E35" s="0" t="s">
-        <v>226</v>
+        <v>176</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -14730,13 +14729,19 @@
       <c r="Y35" s="6"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>488</v>
+      </c>
       <c r="B36" s="11" t="s">
         <v>489</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>482</v>
+        <v>67</v>
       </c>
       <c r="D36" s="11"/>
+      <c r="E36" s="0" t="s">
+        <v>226</v>
+      </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -14763,12 +14768,9 @@
         <v>490</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>43</v>
+        <v>483</v>
       </c>
       <c r="D37" s="11"/>
-      <c r="E37" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -14795,11 +14797,11 @@
         <v>491</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="0" t="s">
-        <v>176</v>
+        <v>44</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -14831,7 +14833,7 @@
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="0" t="s">
-        <v>84</v>
+        <v>176</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
@@ -14859,11 +14861,11 @@
         <v>493</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
@@ -14887,18 +14889,15 @@
       <c r="Y40" s="6"/>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="B41" s="11" t="s">
         <v>494</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D41" s="8"/>
+      <c r="C41" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="11"/>
       <c r="E41" s="0" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
@@ -14922,15 +14921,18 @@
       <c r="Y41" s="6"/>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>495</v>
+      </c>
       <c r="B42" s="8" t="s">
         <v>496</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -14954,16 +14956,16 @@
       <c r="Y42" s="6"/>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="B43" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="B43" s="12" t="s">
-        <v>498</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D43" s="12"/>
+      <c r="C43" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="0" t="s">
+        <v>80</v>
+      </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
@@ -14986,16 +14988,16 @@
       <c r="Y43" s="6"/>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>498</v>
+      </c>
       <c r="B44" s="12" t="s">
         <v>499</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D44" s="12"/>
-      <c r="E44" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
@@ -15022,11 +15024,11 @@
         <v>500</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="D45" s="12"/>
       <c r="E45" s="0" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -15054,9 +15056,12 @@
         <v>501</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="D46" s="12"/>
+      <c r="E46" s="0" t="s">
+        <v>84</v>
+      </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
@@ -15083,12 +15088,9 @@
         <v>502</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D47" s="12"/>
-      <c r="E47" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -15119,7 +15121,7 @@
       </c>
       <c r="D48" s="12"/>
       <c r="E48" s="0" t="s">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
@@ -15147,9 +15149,12 @@
         <v>504</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D49" s="12"/>
+      <c r="E49" s="0" t="s">
+        <v>118</v>
+      </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
@@ -15176,12 +15181,9 @@
         <v>505</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="D50" s="12"/>
-      <c r="E50" s="0" t="s">
-        <v>123</v>
-      </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
@@ -15204,18 +15206,15 @@
       <c r="Y50" s="6"/>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="B51" s="12" t="s">
         <v>506</v>
       </c>
-      <c r="B51" s="13" t="s">
-        <v>507</v>
-      </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D51" s="13"/>
+      <c r="D51" s="12"/>
       <c r="E51" s="0" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
@@ -15239,6 +15238,9 @@
       <c r="Y51" s="6"/>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>507</v>
+      </c>
       <c r="B52" s="13" t="s">
         <v>508</v>
       </c>
@@ -15307,9 +15309,12 @@
         <v>510</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>511</v>
+        <v>67</v>
       </c>
       <c r="D54" s="13"/>
+      <c r="E54" s="0" t="s">
+        <v>81</v>
+      </c>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
@@ -15333,15 +15338,12 @@
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B55" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="C55" s="13" t="s">
         <v>512</v>
       </c>
-      <c r="C55" s="13" t="s">
-        <v>67</v>
-      </c>
       <c r="D55" s="13"/>
-      <c r="E55" s="0" t="s">
-        <v>81</v>
-      </c>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
@@ -15368,9 +15370,12 @@
         <v>513</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>511</v>
+        <v>67</v>
       </c>
       <c r="D56" s="13"/>
+      <c r="E56" s="0" t="s">
+        <v>81</v>
+      </c>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
@@ -15397,7 +15402,7 @@
         <v>514</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D57" s="13"/>
       <c r="F57" s="6"/>
@@ -15426,12 +15431,9 @@
         <v>515</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>67</v>
+        <v>512</v>
       </c>
       <c r="D58" s="13"/>
-      <c r="E58" s="0" t="s">
-        <v>242</v>
-      </c>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
@@ -15462,7 +15464,7 @@
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="0" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
@@ -15487,14 +15489,14 @@
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B60" s="13" t="s">
-        <v>179</v>
+        <v>517</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>67</v>
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="0" t="s">
-        <v>179</v>
+        <v>247</v>
       </c>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
@@ -15519,14 +15521,14 @@
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B61" s="13" t="s">
-        <v>517</v>
+        <v>179</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>518</v>
+        <v>67</v>
       </c>
       <c r="D61" s="13"/>
       <c r="E61" s="0" t="s">
-        <v>519</v>
+        <v>179</v>
       </c>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
@@ -15551,16 +15553,14 @@
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B62" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="D62" s="13"/>
+      <c r="E62" s="0" t="s">
         <v>520</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>521</v>
-      </c>
-      <c r="E62" s="0" t="s">
-        <v>290</v>
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
@@ -15585,14 +15585,16 @@
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B63" s="13" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D63" s="13"/>
+      <c r="D63" s="13" t="s">
+        <v>522</v>
+      </c>
       <c r="E63" s="0" t="s">
-        <v>132</v>
+        <v>290</v>
       </c>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
@@ -15620,9 +15622,12 @@
         <v>523</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D64" s="13"/>
+      <c r="E64" s="0" t="s">
+        <v>132</v>
+      </c>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
@@ -15649,12 +15654,9 @@
         <v>524</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="D65" s="13"/>
-      <c r="E65" s="0" t="s">
-        <v>84</v>
-      </c>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
@@ -15681,11 +15683,11 @@
         <v>525</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D66" s="13"/>
       <c r="E66" s="0" t="s">
-        <v>229</v>
+        <v>84</v>
       </c>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
@@ -15713,9 +15715,12 @@
         <v>526</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D67" s="13"/>
+      <c r="E67" s="0" t="s">
+        <v>229</v>
+      </c>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
@@ -15742,12 +15747,9 @@
         <v>527</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D68" s="13"/>
-      <c r="E68" s="0" t="s">
-        <v>234</v>
-      </c>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
@@ -15774,9 +15776,12 @@
         <v>528</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D69" s="13"/>
+      <c r="E69" s="0" t="s">
+        <v>234</v>
+      </c>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
@@ -15803,12 +15808,9 @@
         <v>529</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="D70" s="13"/>
-      <c r="E70" s="0" t="s">
-        <v>81</v>
-      </c>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
@@ -15835,11 +15837,11 @@
         <v>530</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D71" s="13"/>
       <c r="E71" s="0" t="s">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
@@ -15867,9 +15869,12 @@
         <v>531</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D72" s="13"/>
+      <c r="E72" s="0" t="s">
+        <v>164</v>
+      </c>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
@@ -15896,12 +15901,9 @@
         <v>532</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="D73" s="13"/>
-      <c r="E73" s="0" t="s">
-        <v>84</v>
-      </c>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
@@ -15932,7 +15934,7 @@
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="0" t="s">
-        <v>207</v>
+        <v>84</v>
       </c>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
@@ -15964,7 +15966,7 @@
       </c>
       <c r="D75" s="13"/>
       <c r="E75" s="0" t="s">
-        <v>84</v>
+        <v>207</v>
       </c>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
@@ -15996,7 +15998,7 @@
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="0" t="s">
-        <v>202</v>
+        <v>84</v>
       </c>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
@@ -16024,11 +16026,11 @@
         <v>536</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D77" s="13"/>
       <c r="E77" s="0" t="s">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
@@ -16060,7 +16062,7 @@
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="0" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
@@ -16088,11 +16090,11 @@
         <v>538</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="D79" s="13"/>
       <c r="E79" s="0" t="s">
-        <v>85</v>
+        <v>195</v>
       </c>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
@@ -16188,7 +16190,7 @@
       </c>
       <c r="D82" s="13"/>
       <c r="E82" s="0" t="s">
-        <v>198</v>
+        <v>85</v>
       </c>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
@@ -16220,7 +16222,7 @@
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="0" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
@@ -16252,7 +16254,7 @@
       </c>
       <c r="D84" s="13"/>
       <c r="E84" s="0" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
@@ -16284,7 +16286,7 @@
       </c>
       <c r="D85" s="13"/>
       <c r="E85" s="0" t="s">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
@@ -16316,7 +16318,7 @@
       </c>
       <c r="D86" s="13"/>
       <c r="E86" s="0" t="s">
-        <v>84</v>
+        <v>190</v>
       </c>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
@@ -16344,9 +16346,12 @@
         <v>546</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="D87" s="13"/>
+      <c r="E87" s="0" t="s">
+        <v>84</v>
+      </c>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
@@ -16373,12 +16378,9 @@
         <v>547</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="D88" s="13"/>
-      <c r="E88" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
@@ -16402,14 +16404,14 @@
     </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B89" s="13" t="s">
-        <v>277</v>
+        <v>548</v>
       </c>
       <c r="C89" s="13" t="s">
         <v>67</v>
       </c>
       <c r="D89" s="13"/>
       <c r="E89" s="0" t="s">
-        <v>277</v>
+        <v>44</v>
       </c>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
@@ -16434,14 +16436,14 @@
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B90" s="13" t="s">
-        <v>548</v>
+        <v>277</v>
       </c>
       <c r="C90" s="13" t="s">
         <v>67</v>
       </c>
       <c r="D90" s="13"/>
       <c r="E90" s="0" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
@@ -16469,11 +16471,11 @@
         <v>549</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D91" s="13"/>
       <c r="E91" s="0" t="s">
-        <v>100</v>
+        <v>271</v>
       </c>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
@@ -16501,11 +16503,11 @@
         <v>550</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="D92" s="13"/>
       <c r="E92" s="0" t="s">
-        <v>266</v>
+        <v>100</v>
       </c>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
@@ -16537,7 +16539,7 @@
       </c>
       <c r="D93" s="13"/>
       <c r="E93" s="0" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
@@ -16565,11 +16567,11 @@
         <v>552</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D94" s="13"/>
       <c r="E94" s="0" t="s">
-        <v>112</v>
+        <v>278</v>
       </c>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
@@ -16597,11 +16599,11 @@
         <v>553</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="D95" s="13"/>
       <c r="E95" s="0" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
@@ -16626,14 +16628,14 @@
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B96" s="13" t="s">
-        <v>279</v>
+        <v>554</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D96" s="13"/>
       <c r="E96" s="0" t="s">
-        <v>279</v>
+        <v>81</v>
       </c>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
@@ -16658,14 +16660,14 @@
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B97" s="13" t="s">
-        <v>554</v>
+        <v>279</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="D97" s="13"/>
       <c r="E97" s="0" t="s">
-        <v>87</v>
+        <v>279</v>
       </c>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
@@ -16693,9 +16695,12 @@
         <v>555</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="D98" s="13"/>
+      <c r="E98" s="0" t="s">
+        <v>87</v>
+      </c>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
@@ -16718,6 +16723,13 @@
       <c r="Y98" s="6"/>
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B99" s="13" t="s">
+        <v>556</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D99" s="13"/>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
@@ -30995,7 +31007,7 @@
       <c r="X747" s="6"/>
       <c r="Y747" s="6"/>
     </row>
-    <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="748" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F748" s="6"/>
       <c r="G748" s="6"/>
       <c r="H748" s="6"/>
@@ -31236,6 +31248,28 @@
       <c r="W758" s="6"/>
       <c r="X758" s="6"/>
       <c r="Y758" s="6"/>
+    </row>
+    <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F759" s="6"/>
+      <c r="G759" s="6"/>
+      <c r="H759" s="6"/>
+      <c r="I759" s="6"/>
+      <c r="J759" s="6"/>
+      <c r="K759" s="6"/>
+      <c r="L759" s="6"/>
+      <c r="M759" s="6"/>
+      <c r="N759" s="6"/>
+      <c r="O759" s="6"/>
+      <c r="P759" s="6"/>
+      <c r="Q759" s="6"/>
+      <c r="R759" s="6"/>
+      <c r="S759" s="6"/>
+      <c r="T759" s="6"/>
+      <c r="U759" s="6"/>
+      <c r="V759" s="6"/>
+      <c r="W759" s="6"/>
+      <c r="X759" s="6"/>
+      <c r="Y759" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -31259,7 +31293,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.04"/>
@@ -31274,71 +31308,71 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>565</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>20210312001</v>
+        <v>20210323001</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
@@ -31346,49 +31380,49 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>
@@ -32417,16 +32451,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="14" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32434,13 +32468,13 @@
         <v>82</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32451,10 +32485,10 @@
         <v>131</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32462,13 +32496,13 @@
         <v>44</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32476,13 +32510,13 @@
         <v>86</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32490,13 +32524,13 @@
         <v>99</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32504,13 +32538,13 @@
         <v>80</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32518,13 +32552,13 @@
         <v>63</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32532,27 +32566,27 @@
         <v>153</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="14" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32560,13 +32594,13 @@
         <v>89</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32574,13 +32608,13 @@
         <v>90</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32588,13 +32622,13 @@
         <v>91</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32602,13 +32636,13 @@
         <v>92</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32616,13 +32650,13 @@
         <v>93</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32630,13 +32664,13 @@
         <v>94</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32644,13 +32678,13 @@
         <v>95</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32658,13 +32692,13 @@
         <v>96</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32672,13 +32706,13 @@
         <v>97</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32686,13 +32720,13 @@
         <v>98</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32700,13 +32734,13 @@
         <v>101</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32717,10 +32751,10 @@
         <v>102</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32728,13 +32762,13 @@
         <v>103</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32742,13 +32776,13 @@
         <v>104</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32759,10 +32793,10 @@
         <v>105</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32773,10 +32807,10 @@
         <v>106</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32787,10 +32821,10 @@
         <v>107</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32798,13 +32832,13 @@
         <v>108</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32812,13 +32846,13 @@
         <v>109</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32826,13 +32860,13 @@
         <v>110</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32843,10 +32877,10 @@
         <v>111</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32854,13 +32888,13 @@
         <v>113</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32868,13 +32902,13 @@
         <v>114</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32882,13 +32916,13 @@
         <v>119</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32896,13 +32930,13 @@
         <v>120</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32910,13 +32944,13 @@
         <v>121</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32924,13 +32958,13 @@
         <v>122</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32938,13 +32972,13 @@
         <v>124</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32952,13 +32986,13 @@
         <v>125</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32966,13 +33000,13 @@
         <v>126</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32980,13 +33014,13 @@
         <v>127</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32994,13 +33028,13 @@
         <v>129</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33008,13 +33042,13 @@
         <v>130</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33022,13 +33056,13 @@
         <v>133</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33039,10 +33073,10 @@
         <v>134</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33050,13 +33084,13 @@
         <v>135</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33064,13 +33098,13 @@
         <v>136</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33078,13 +33112,13 @@
         <v>137</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33095,10 +33129,10 @@
         <v>138</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33112,7 +33146,7 @@
         <v>139</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33126,7 +33160,7 @@
         <v>140</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33137,10 +33171,10 @@
         <v>141</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33148,13 +33182,13 @@
         <v>142</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33162,13 +33196,13 @@
         <v>143</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33182,7 +33216,7 @@
         <v>144</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33193,10 +33227,10 @@
         <v>145</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33207,10 +33241,10 @@
         <v>147</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33221,10 +33255,10 @@
         <v>148</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33232,13 +33266,13 @@
         <v>149</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33246,13 +33280,13 @@
         <v>150</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33263,10 +33297,10 @@
         <v>151</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33277,10 +33311,10 @@
         <v>152</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33288,13 +33322,13 @@
         <v>156</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33302,13 +33336,13 @@
         <v>157</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33316,13 +33350,13 @@
         <v>158</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33330,13 +33364,13 @@
         <v>160</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33344,13 +33378,13 @@
         <v>161</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33358,13 +33392,13 @@
         <v>162</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33372,13 +33406,13 @@
         <v>163</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33386,13 +33420,13 @@
         <v>165</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33403,7 +33437,7 @@
         <v>166</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D72" s="14" t="s">
         <v>166</v>
@@ -33414,13 +33448,13 @@
         <v>167</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33428,13 +33462,13 @@
         <v>168</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33445,10 +33479,10 @@
         <v>169</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33456,13 +33490,13 @@
         <v>170</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33470,13 +33504,13 @@
         <v>171</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33484,13 +33518,13 @@
         <v>172</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33498,13 +33532,13 @@
         <v>173</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33512,13 +33546,13 @@
         <v>174</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33526,13 +33560,13 @@
         <v>175</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33540,13 +33574,13 @@
         <v>177</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33554,13 +33588,13 @@
         <v>178</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33571,10 +33605,10 @@
         <v>180</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33585,10 +33619,10 @@
         <v>181</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33599,10 +33633,10 @@
         <v>182</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33613,10 +33647,10 @@
         <v>183</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33627,10 +33661,10 @@
         <v>184</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33644,7 +33678,7 @@
         <v>185</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33655,10 +33689,10 @@
         <v>186</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33669,10 +33703,10 @@
         <v>187</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33683,10 +33717,10 @@
         <v>188</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33697,10 +33731,10 @@
         <v>189</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33711,10 +33745,10 @@
         <v>191</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33725,10 +33759,10 @@
         <v>192</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33739,10 +33773,10 @@
         <v>193</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33753,10 +33787,10 @@
         <v>194</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33764,13 +33798,13 @@
         <v>196</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33778,13 +33812,13 @@
         <v>197</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33792,13 +33826,13 @@
         <v>199</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33806,13 +33840,13 @@
         <v>200</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33820,13 +33854,13 @@
         <v>201</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33837,10 +33871,10 @@
         <v>203</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33851,10 +33885,10 @@
         <v>204</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D104" s="14" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33865,10 +33899,10 @@
         <v>205</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D105" s="14" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33879,10 +33913,10 @@
         <v>206</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D106" s="14" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33893,10 +33927,10 @@
         <v>208</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D107" s="14" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33907,10 +33941,10 @@
         <v>209</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D108" s="14" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33921,10 +33955,10 @@
         <v>210</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="D109" s="14" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33932,13 +33966,13 @@
         <v>212</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D110" s="14" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33946,13 +33980,13 @@
         <v>213</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C111" s="14" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D111" s="14" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33960,13 +33994,13 @@
         <v>214</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C112" s="14" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D112" s="14" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33974,13 +34008,13 @@
         <v>215</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D113" s="14" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33988,13 +34022,13 @@
         <v>216</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="D114" s="14" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34002,13 +34036,13 @@
         <v>217</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="D115" s="14" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34016,13 +34050,13 @@
         <v>218</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="D116" s="14" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34030,13 +34064,13 @@
         <v>219</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="D117" s="14" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34044,13 +34078,13 @@
         <v>220</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="D118" s="14" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34058,13 +34092,13 @@
         <v>221</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D119" s="14" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34072,13 +34106,13 @@
         <v>222</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="D120" s="14" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34086,13 +34120,13 @@
         <v>223</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D121" s="14" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34100,13 +34134,13 @@
         <v>224</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="D122" s="14" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34114,13 +34148,13 @@
         <v>225</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="D123" s="14" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34128,13 +34162,13 @@
         <v>227</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D124" s="14" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34142,13 +34176,13 @@
         <v>228</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="D125" s="14" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34159,7 +34193,7 @@
         <v>230</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="D126" s="14" t="s">
         <v>230</v>
@@ -34173,10 +34207,10 @@
         <v>231</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="D127" s="14" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34187,10 +34221,10 @@
         <v>232</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="D128" s="14" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34198,13 +34232,13 @@
         <v>233</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="D129" s="14" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34215,10 +34249,10 @@
         <v>235</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="D130" s="14" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34229,10 +34263,10 @@
         <v>236</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="D131" s="14" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34240,13 +34274,13 @@
         <v>237</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C132" s="14" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="D132" s="14" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34257,10 +34291,10 @@
         <v>238</v>
       </c>
       <c r="C133" s="14" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="D133" s="14" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34271,10 +34305,10 @@
         <v>239</v>
       </c>
       <c r="C134" s="14" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="D134" s="14" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34282,13 +34316,13 @@
         <v>240</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C135" s="14" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D135" s="14" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34296,13 +34330,13 @@
         <v>241</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="D136" s="14" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34310,13 +34344,13 @@
         <v>243</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D137" s="14" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34324,13 +34358,13 @@
         <v>244</v>
       </c>
       <c r="B138" s="14" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C138" s="14" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="D138" s="14" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34338,13 +34372,13 @@
         <v>245</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="D139" s="14" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34352,13 +34386,13 @@
         <v>246</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="D140" s="14" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34366,13 +34400,13 @@
         <v>248</v>
       </c>
       <c r="B141" s="14" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34380,13 +34414,13 @@
         <v>249</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34394,13 +34428,13 @@
         <v>250</v>
       </c>
       <c r="B143" s="14" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34408,13 +34442,13 @@
         <v>251</v>
       </c>
       <c r="B144" s="14" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="D144" s="14" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34422,13 +34456,13 @@
         <v>252</v>
       </c>
       <c r="B145" s="14" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D145" s="14" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34436,13 +34470,13 @@
         <v>253</v>
       </c>
       <c r="B146" s="14" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="D146" s="14" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34450,13 +34484,13 @@
         <v>254</v>
       </c>
       <c r="B147" s="14" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="D147" s="14" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34464,13 +34498,13 @@
         <v>255</v>
       </c>
       <c r="B148" s="14" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D148" s="14" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34478,13 +34512,13 @@
         <v>256</v>
       </c>
       <c r="B149" s="14" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D149" s="14" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34492,13 +34526,13 @@
         <v>257</v>
       </c>
       <c r="B150" s="14" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="C150" s="14" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="D150" s="14" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34506,13 +34540,13 @@
         <v>258</v>
       </c>
       <c r="B151" s="14" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C151" s="14" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="D151" s="14" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34520,13 +34554,13 @@
         <v>259</v>
       </c>
       <c r="B152" s="14" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C152" s="14" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="D152" s="14" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34534,13 +34568,13 @@
         <v>260</v>
       </c>
       <c r="B153" s="14" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C153" s="14" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="D153" s="14" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34548,13 +34582,13 @@
         <v>264</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="D154" s="14" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34562,13 +34596,13 @@
         <v>265</v>
       </c>
       <c r="B155" s="14" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="C155" s="14" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="D155" s="14" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34579,10 +34613,10 @@
         <v>267</v>
       </c>
       <c r="C156" s="14" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="D156" s="14" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34593,10 +34627,10 @@
         <v>268</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="D157" s="14" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34607,10 +34641,10 @@
         <v>269</v>
       </c>
       <c r="C158" s="14" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="D158" s="14" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34621,24 +34655,24 @@
         <v>270</v>
       </c>
       <c r="C159" s="14" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="D159" s="14" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="14" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="D160" s="14" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34649,10 +34683,10 @@
         <v>272</v>
       </c>
       <c r="C161" s="14" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D161" s="14" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34663,10 +34697,10 @@
         <v>273</v>
       </c>
       <c r="C162" s="14" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="D162" s="14" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34677,10 +34711,10 @@
         <v>274</v>
       </c>
       <c r="C163" s="14" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="D163" s="14" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34691,10 +34725,10 @@
         <v>275</v>
       </c>
       <c r="C164" s="14" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D164" s="14" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34705,10 +34739,10 @@
         <v>276</v>
       </c>
       <c r="C165" s="14" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D165" s="14" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34733,10 +34767,10 @@
         <v>281</v>
       </c>
       <c r="C167" s="14" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D167" s="14" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34758,13 +34792,13 @@
         <v>283</v>
       </c>
       <c r="B169" s="14" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="C169" s="14" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="D169" s="14" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34778,7 +34812,7 @@
         <v>284</v>
       </c>
       <c r="D170" s="14" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34786,13 +34820,13 @@
         <v>285</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C171" s="14" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="D171" s="14" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34803,7 +34837,7 @@
         <v>286</v>
       </c>
       <c r="C172" s="14" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="D172" s="14" t="s">
         <v>286</v>
@@ -34817,10 +34851,10 @@
         <v>287</v>
       </c>
       <c r="C173" s="14" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="D173" s="14" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34831,7 +34865,7 @@
         <v>288</v>
       </c>
       <c r="C174" s="14" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="D174" s="14" t="s">
         <v>288</v>
@@ -34845,7 +34879,7 @@
         <v>289</v>
       </c>
       <c r="C175" s="14" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="D175" s="14" t="s">
         <v>289</v>
@@ -34856,13 +34890,13 @@
         <v>291</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C176" s="14" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D176" s="14" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34873,10 +34907,10 @@
         <v>292</v>
       </c>
       <c r="C177" s="14" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D177" s="14" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34884,13 +34918,13 @@
         <v>293</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C178" s="14" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D178" s="14" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34901,10 +34935,10 @@
         <v>294</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D179" s="14" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34915,10 +34949,10 @@
         <v>295</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D180" s="14" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34926,13 +34960,13 @@
         <v>296</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="C181" s="14" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D181" s="14" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34943,10 +34977,10 @@
         <v>297</v>
       </c>
       <c r="C182" s="14" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D182" s="14" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34954,13 +34988,13 @@
         <v>298</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C183" s="14" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D183" s="14" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34968,13 +35002,13 @@
         <v>299</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="C184" s="14" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="D184" s="14" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34982,13 +35016,13 @@
         <v>300</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="C185" s="14" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D185" s="14" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34996,13 +35030,13 @@
         <v>301</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="C186" s="14" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D186" s="14" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35010,13 +35044,13 @@
         <v>302</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="C187" s="14" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D187" s="14" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35024,13 +35058,13 @@
         <v>303</v>
       </c>
       <c r="B188" s="14" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="C188" s="14" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="D188" s="14" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35038,13 +35072,13 @@
         <v>304</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="C189" s="14" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="D189" s="14" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35052,13 +35086,13 @@
         <v>306</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="C190" s="14" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D190" s="14" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35066,13 +35100,13 @@
         <v>307</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="C191" s="14" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="D191" s="14" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35080,13 +35114,13 @@
         <v>308</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="C192" s="14" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="D192" s="14" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35094,13 +35128,13 @@
         <v>309</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C193" s="14" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="D193" s="14" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35108,13 +35142,13 @@
         <v>310</v>
       </c>
       <c r="B194" s="14" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="C194" s="14" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="D194" s="14" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35122,13 +35156,13 @@
         <v>311</v>
       </c>
       <c r="B195" s="14" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C195" s="14" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="D195" s="14" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35136,13 +35170,13 @@
         <v>312</v>
       </c>
       <c r="B196" s="14" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="C196" s="14" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D196" s="14" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35150,13 +35184,13 @@
         <v>313</v>
       </c>
       <c r="B197" s="14" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="C197" s="14" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="D197" s="14" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35164,13 +35198,13 @@
         <v>314</v>
       </c>
       <c r="B198" s="14" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="C198" s="14" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="D198" s="14" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35178,13 +35212,13 @@
         <v>315</v>
       </c>
       <c r="B199" s="14" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="C199" s="14" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="D199" s="14" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35192,13 +35226,13 @@
         <v>316</v>
       </c>
       <c r="B200" s="14" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="C200" s="14" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="D200" s="14" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35206,13 +35240,13 @@
         <v>317</v>
       </c>
       <c r="B201" s="14" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="C201" s="14" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="D201" s="14" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35220,13 +35254,13 @@
         <v>318</v>
       </c>
       <c r="B202" s="14" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="C202" s="14" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D202" s="14" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35234,13 +35268,13 @@
         <v>319</v>
       </c>
       <c r="B203" s="14" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="C203" s="14" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="D203" s="14" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35248,13 +35282,13 @@
         <v>320</v>
       </c>
       <c r="B204" s="14" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C204" s="14" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D204" s="14" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35262,13 +35296,13 @@
         <v>321</v>
       </c>
       <c r="B205" s="14" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C205" s="14" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="D205" s="14" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35276,13 +35310,13 @@
         <v>322</v>
       </c>
       <c r="B206" s="14" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="C206" s="14" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="D206" s="14" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35290,13 +35324,13 @@
         <v>323</v>
       </c>
       <c r="B207" s="14" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="C207" s="14" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D207" s="14" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35304,13 +35338,13 @@
         <v>324</v>
       </c>
       <c r="B208" s="14" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="C208" s="14" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="D208" s="14" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35318,13 +35352,13 @@
         <v>325</v>
       </c>
       <c r="B209" s="14" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="C209" s="14" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="D209" s="14" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35332,13 +35366,13 @@
         <v>326</v>
       </c>
       <c r="B210" s="14" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C210" s="14" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D210" s="14" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35346,13 +35380,13 @@
         <v>327</v>
       </c>
       <c r="B211" s="14" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="C211" s="14" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="D211" s="14" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35360,13 +35394,13 @@
         <v>328</v>
       </c>
       <c r="B212" s="14" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="C212" s="14" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="D212" s="14" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35374,13 +35408,13 @@
         <v>329</v>
       </c>
       <c r="B213" s="14" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C213" s="14" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="D213" s="14" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35388,13 +35422,13 @@
         <v>330</v>
       </c>
       <c r="B214" s="14" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C214" s="14" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="D214" s="14" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35402,13 +35436,13 @@
         <v>331</v>
       </c>
       <c r="B215" s="14" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="C215" s="14" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="D215" s="14" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35416,13 +35450,13 @@
         <v>332</v>
       </c>
       <c r="B216" s="14" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="C216" s="14" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="D216" s="14" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35430,13 +35464,13 @@
         <v>333</v>
       </c>
       <c r="B217" s="14" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C217" s="14" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="D217" s="14" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35444,13 +35478,13 @@
         <v>334</v>
       </c>
       <c r="B218" s="14" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C218" s="14" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="D218" s="14" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35458,13 +35492,13 @@
         <v>335</v>
       </c>
       <c r="B219" s="14" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C219" s="14" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="D219" s="14" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35472,13 +35506,13 @@
         <v>336</v>
       </c>
       <c r="B220" s="14" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="C220" s="14" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="D220" s="14" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35486,13 +35520,13 @@
         <v>351</v>
       </c>
       <c r="B221" s="14" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="C221" s="14" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="D221" s="14" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35500,13 +35534,13 @@
         <v>352</v>
       </c>
       <c r="B222" s="14" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="C222" s="14" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="D222" s="14" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35514,13 +35548,13 @@
         <v>353</v>
       </c>
       <c r="B223" s="14" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="C223" s="14" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="D223" s="14" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35528,13 +35562,13 @@
         <v>354</v>
       </c>
       <c r="B224" s="14" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="C224" s="14" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="D224" s="14" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35542,13 +35576,13 @@
         <v>355</v>
       </c>
       <c r="B225" s="14" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="C225" s="14" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="D225" s="14" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35556,13 +35590,13 @@
         <v>356</v>
       </c>
       <c r="B226" s="14" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C226" s="14" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="D226" s="14" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35570,13 +35604,13 @@
         <v>357</v>
       </c>
       <c r="B227" s="14" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="C227" s="14" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="D227" s="14" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35584,13 +35618,13 @@
         <v>358</v>
       </c>
       <c r="B228" s="14" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C228" s="14" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="D228" s="14" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35598,13 +35632,13 @@
         <v>359</v>
       </c>
       <c r="B229" s="14" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="C229" s="14" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="D229" s="14" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35612,13 +35646,13 @@
         <v>360</v>
       </c>
       <c r="B230" s="14" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="C230" s="14" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="D230" s="14" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35626,13 +35660,13 @@
         <v>361</v>
       </c>
       <c r="B231" s="14" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C231" s="14" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="D231" s="14" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35640,13 +35674,13 @@
         <v>362</v>
       </c>
       <c r="B232" s="14" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="C232" s="14" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="D232" s="14" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35654,13 +35688,13 @@
         <v>363</v>
       </c>
       <c r="B233" s="14" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="C233" s="14" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="D233" s="14" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35668,13 +35702,13 @@
         <v>364</v>
       </c>
       <c r="B234" s="14" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="C234" s="14" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="D234" s="14" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35682,13 +35716,13 @@
         <v>365</v>
       </c>
       <c r="B235" s="14" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="C235" s="14" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="D235" s="14" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35696,13 +35730,13 @@
         <v>366</v>
       </c>
       <c r="B236" s="14" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="C236" s="14" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="D236" s="14" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35710,13 +35744,13 @@
         <v>367</v>
       </c>
       <c r="B237" s="14" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="C237" s="14" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="D237" s="14" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35724,13 +35758,13 @@
         <v>368</v>
       </c>
       <c r="B238" s="14" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="C238" s="14" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="D238" s="14" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35738,13 +35772,13 @@
         <v>369</v>
       </c>
       <c r="B239" s="14" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C239" s="14" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="D239" s="14" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35752,13 +35786,13 @@
         <v>370</v>
       </c>
       <c r="B240" s="14" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="C240" s="14" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="D240" s="14" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35766,13 +35800,13 @@
         <v>371</v>
       </c>
       <c r="B241" s="14" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C241" s="14" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="D241" s="14" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35780,13 +35814,13 @@
         <v>372</v>
       </c>
       <c r="B242" s="14" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="C242" s="14" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="D242" s="14" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35794,13 +35828,13 @@
         <v>373</v>
       </c>
       <c r="B243" s="14" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="C243" s="14" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="D243" s="14" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35808,13 +35842,13 @@
         <v>374</v>
       </c>
       <c r="B244" s="14" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="C244" s="14" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="D244" s="14" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35822,13 +35856,13 @@
         <v>375</v>
       </c>
       <c r="B245" s="14" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="C245" s="14" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="D245" s="14" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35836,13 +35870,13 @@
         <v>376</v>
       </c>
       <c r="B246" s="14" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="C246" s="14" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="D246" s="14" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35850,13 +35884,13 @@
         <v>377</v>
       </c>
       <c r="B247" s="14" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="C247" s="14" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="D247" s="14" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35864,13 +35898,13 @@
         <v>378</v>
       </c>
       <c r="B248" s="14" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="C248" s="14" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="D248" s="14" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35878,13 +35912,13 @@
         <v>379</v>
       </c>
       <c r="B249" s="14" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="C249" s="14" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="D249" s="14" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35892,13 +35926,13 @@
         <v>380</v>
       </c>
       <c r="B250" s="14" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="C250" s="14" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="D250" s="14" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35906,13 +35940,13 @@
         <v>381</v>
       </c>
       <c r="B251" s="14" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="C251" s="14" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="D251" s="14" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35920,13 +35954,13 @@
         <v>382</v>
       </c>
       <c r="B252" s="14" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="C252" s="14" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="D252" s="14" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35934,13 +35968,13 @@
         <v>383</v>
       </c>
       <c r="B253" s="14" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="C253" s="14" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="D253" s="14" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35948,13 +35982,13 @@
         <v>384</v>
       </c>
       <c r="B254" s="14" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="C254" s="14" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="D254" s="14" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35962,13 +35996,13 @@
         <v>385</v>
       </c>
       <c r="B255" s="14" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="C255" s="14" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="D255" s="14" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35976,13 +36010,13 @@
         <v>386</v>
       </c>
       <c r="B256" s="14" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="C256" s="14" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="D256" s="14" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35990,13 +36024,13 @@
         <v>387</v>
       </c>
       <c r="B257" s="14" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="C257" s="14" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="D257" s="14" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36004,13 +36038,13 @@
         <v>388</v>
       </c>
       <c r="B258" s="14" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C258" s="14" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="D258" s="14" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36018,13 +36052,13 @@
         <v>389</v>
       </c>
       <c r="B259" s="14" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="C259" s="14" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="D259" s="14" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36032,13 +36066,13 @@
         <v>390</v>
       </c>
       <c r="B260" s="14" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="C260" s="14" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="D260" s="14" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36046,13 +36080,13 @@
         <v>391</v>
       </c>
       <c r="B261" s="14" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="C261" s="14" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="D261" s="14" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36060,13 +36094,13 @@
         <v>392</v>
       </c>
       <c r="B262" s="14" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="C262" s="14" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="D262" s="14" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36074,13 +36108,13 @@
         <v>393</v>
       </c>
       <c r="B263" s="14" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="C263" s="14" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="D263" s="14" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36088,13 +36122,13 @@
         <v>394</v>
       </c>
       <c r="B264" s="14" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="C264" s="14" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="D264" s="14" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36102,13 +36136,13 @@
         <v>395</v>
       </c>
       <c r="B265" s="14" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="C265" s="14" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="D265" s="14" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36116,13 +36150,13 @@
         <v>396</v>
       </c>
       <c r="B266" s="14" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="C266" s="14" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="D266" s="14" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36130,13 +36164,13 @@
         <v>397</v>
       </c>
       <c r="B267" s="14" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C267" s="14" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="D267" s="14" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36144,13 +36178,13 @@
         <v>398</v>
       </c>
       <c r="B268" s="14" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="C268" s="14" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="D268" s="14" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36158,13 +36192,13 @@
         <v>399</v>
       </c>
       <c r="B269" s="14" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="C269" s="14" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="D269" s="14" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36172,13 +36206,13 @@
         <v>400</v>
       </c>
       <c r="B270" s="14" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="C270" s="14" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="D270" s="14" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36186,13 +36220,13 @@
         <v>401</v>
       </c>
       <c r="B271" s="14" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="C271" s="14" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="D271" s="14" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36200,13 +36234,13 @@
         <v>402</v>
       </c>
       <c r="B272" s="14" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="C272" s="14" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="D272" s="14" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36214,13 +36248,13 @@
         <v>403</v>
       </c>
       <c r="B273" s="14" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="C273" s="14" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="D273" s="14" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36228,13 +36262,13 @@
         <v>404</v>
       </c>
       <c r="B274" s="14" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="C274" s="14" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="D274" s="14" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36242,13 +36276,13 @@
         <v>405</v>
       </c>
       <c r="B275" s="14" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="C275" s="14" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="D275" s="14" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36256,13 +36290,13 @@
         <v>406</v>
       </c>
       <c r="B276" s="14" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="C276" s="14" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="D276" s="14" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36270,13 +36304,13 @@
         <v>407</v>
       </c>
       <c r="B277" s="14" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="C277" s="14" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="D277" s="14" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36284,13 +36318,13 @@
         <v>408</v>
       </c>
       <c r="B278" s="14" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="C278" s="14" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="D278" s="14" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36298,13 +36332,13 @@
         <v>409</v>
       </c>
       <c r="B279" s="14" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="C279" s="14" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="D279" s="14" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36312,13 +36346,13 @@
         <v>410</v>
       </c>
       <c r="B280" s="14" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="C280" s="14" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="D280" s="14" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36326,13 +36360,13 @@
         <v>411</v>
       </c>
       <c r="B281" s="14" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="C281" s="14" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="D281" s="14" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36340,13 +36374,13 @@
         <v>412</v>
       </c>
       <c r="B282" s="14" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="C282" s="14" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="D282" s="14" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36354,13 +36388,13 @@
         <v>413</v>
       </c>
       <c r="B283" s="14" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="C283" s="14" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="D283" s="14" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36368,13 +36402,13 @@
         <v>414</v>
       </c>
       <c r="B284" s="14" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="C284" s="14" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="D284" s="14" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36382,13 +36416,13 @@
         <v>415</v>
       </c>
       <c r="B285" s="14" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="C285" s="14" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="D285" s="14" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36396,13 +36430,13 @@
         <v>416</v>
       </c>
       <c r="B286" s="14" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="C286" s="14" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="D286" s="14" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36410,13 +36444,13 @@
         <v>417</v>
       </c>
       <c r="B287" s="14" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="C287" s="14" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D287" s="14" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36424,13 +36458,13 @@
         <v>418</v>
       </c>
       <c r="B288" s="14" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="C288" s="14" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="D288" s="14" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36438,13 +36472,13 @@
         <v>419</v>
       </c>
       <c r="B289" s="14" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="C289" s="14" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="D289" s="14" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36452,13 +36486,13 @@
         <v>420</v>
       </c>
       <c r="B290" s="14" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="C290" s="14" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="D290" s="14" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36466,13 +36500,13 @@
         <v>421</v>
       </c>
       <c r="B291" s="14" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="C291" s="14" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="D291" s="14" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36480,13 +36514,13 @@
         <v>422</v>
       </c>
       <c r="B292" s="14" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="C292" s="14" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="D292" s="14" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36494,13 +36528,13 @@
         <v>423</v>
       </c>
       <c r="B293" s="14" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="C293" s="14" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="D293" s="14" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36508,13 +36542,13 @@
         <v>424</v>
       </c>
       <c r="B294" s="14" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="C294" s="14" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="D294" s="14" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36522,13 +36556,13 @@
         <v>425</v>
       </c>
       <c r="B295" s="14" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="C295" s="14" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="D295" s="14" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36536,13 +36570,13 @@
         <v>426</v>
       </c>
       <c r="B296" s="14" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="C296" s="14" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="D296" s="14" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36550,13 +36584,13 @@
         <v>427</v>
       </c>
       <c r="B297" s="14" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="C297" s="14" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D297" s="14" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36564,13 +36598,13 @@
         <v>428</v>
       </c>
       <c r="B298" s="14" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="C298" s="14" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="D298" s="14" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36578,13 +36612,13 @@
         <v>429</v>
       </c>
       <c r="B299" s="14" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="C299" s="14" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="D299" s="14" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36592,13 +36626,13 @@
         <v>430</v>
       </c>
       <c r="B300" s="14" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="C300" s="14" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="D300" s="14" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36606,13 +36640,13 @@
         <v>431</v>
       </c>
       <c r="B301" s="14" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="C301" s="14" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D301" s="14" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36620,13 +36654,13 @@
         <v>432</v>
       </c>
       <c r="B302" s="14" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="C302" s="14" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="D302" s="14" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36634,13 +36668,13 @@
         <v>433</v>
       </c>
       <c r="B303" s="14" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="C303" s="14" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="D303" s="14" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36648,13 +36682,13 @@
         <v>434</v>
       </c>
       <c r="B304" s="14" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="C304" s="14" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="D304" s="14" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36662,13 +36696,13 @@
         <v>435</v>
       </c>
       <c r="B305" s="14" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="C305" s="14" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="D305" s="14" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36676,13 +36710,13 @@
         <v>436</v>
       </c>
       <c r="B306" s="14" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="C306" s="14" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="D306" s="14" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36690,13 +36724,13 @@
         <v>437</v>
       </c>
       <c r="B307" s="14" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="C307" s="14" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="D307" s="14" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36704,13 +36738,13 @@
         <v>438</v>
       </c>
       <c r="B308" s="14" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="C308" s="14" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="D308" s="14" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36718,13 +36752,13 @@
         <v>439</v>
       </c>
       <c r="B309" s="14" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="C309" s="14" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="D309" s="14" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36732,13 +36766,13 @@
         <v>440</v>
       </c>
       <c r="B310" s="14" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="C310" s="14" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="D310" s="14" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36746,13 +36780,13 @@
         <v>441</v>
       </c>
       <c r="B311" s="14" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="C311" s="14" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="D311" s="14" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36760,13 +36794,13 @@
         <v>442</v>
       </c>
       <c r="B312" s="14" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="C312" s="14" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="D312" s="14" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36774,13 +36808,13 @@
         <v>443</v>
       </c>
       <c r="B313" s="14" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="C313" s="14" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="D313" s="14" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36788,13 +36822,13 @@
         <v>444</v>
       </c>
       <c r="B314" s="14" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="C314" s="14" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="D314" s="14" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36802,13 +36836,13 @@
         <v>445</v>
       </c>
       <c r="B315" s="14" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="C315" s="14" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="D315" s="14" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36816,13 +36850,13 @@
         <v>446</v>
       </c>
       <c r="B316" s="14" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="C316" s="14" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="D316" s="14" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36830,13 +36864,13 @@
         <v>447</v>
       </c>
       <c r="B317" s="14" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="C317" s="14" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="D317" s="14" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36844,13 +36878,13 @@
         <v>448</v>
       </c>
       <c r="B318" s="14" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="C318" s="14" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="D318" s="14" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36858,13 +36892,13 @@
         <v>449</v>
       </c>
       <c r="B319" s="14" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="C319" s="14" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="D319" s="14" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36872,13 +36906,13 @@
         <v>450</v>
       </c>
       <c r="B320" s="14" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="C320" s="14" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="D320" s="14" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36886,13 +36920,13 @@
         <v>451</v>
       </c>
       <c r="B321" s="14" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="C321" s="14" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="D321" s="14" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36900,181 +36934,181 @@
         <v>452</v>
       </c>
       <c r="B322" s="14" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="C322" s="14" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="D322" s="14" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="14" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="B324" s="14" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="C324" s="14" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="D324" s="14" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="14" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="B325" s="14" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="C325" s="14" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="D325" s="14" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="14" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="B326" s="14" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="C326" s="14" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="D326" s="14" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="14" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B327" s="14" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="C327" s="14" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="D327" s="14" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="14" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="B328" s="14" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="C328" s="14" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="D328" s="14" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="14" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="B330" s="14" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="C330" s="14" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="D330" s="14" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="14" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="B331" s="14" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="C331" s="14" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="D331" s="14" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="14" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="B332" s="14" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="C332" s="14" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="D332" s="14" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="14" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="B333" s="14" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="C333" s="14" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="D333" s="14" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="14" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="B334" s="14" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="C334" s="14" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="D334" s="14" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="14" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="B335" s="14" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="C335" s="14" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="D335" s="14" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="14" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="B336" s="14" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="C336" s="14" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="D336" s="14" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37082,13 +37116,13 @@
         <v>34</v>
       </c>
       <c r="B338" s="14" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="C338" s="14" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D338" s="14" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37096,13 +37130,13 @@
         <v>46</v>
       </c>
       <c r="B339" s="14" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="C339" s="14" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D339" s="14" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37110,13 +37144,13 @@
         <v>52</v>
       </c>
       <c r="B340" s="14" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="C340" s="14" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D340" s="14" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37124,27 +37158,27 @@
         <v>74</v>
       </c>
       <c r="B341" s="14" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="C341" s="14" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="D341" s="14" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="14" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="B342" s="14" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="C342" s="14" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="D342" s="14" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37152,181 +37186,181 @@
         <v>155</v>
       </c>
       <c r="B343" s="14" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="C343" s="14" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D343" s="14" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="14" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="B344" s="14" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="C344" s="14" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="D344" s="14" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="14" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="B345" s="14" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="C345" s="14" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="D345" s="14" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="14" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="B346" s="14" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="C346" s="14" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="D346" s="14" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="14" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="B347" s="14" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="C347" s="16" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="D347" s="16" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="14" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="B348" s="14" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="C348" s="16" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D348" s="16" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="14" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="B349" s="14" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="C349" s="14" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D349" s="14" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="14" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B350" s="14" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="C350" s="16" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="D350" s="16" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="14" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="B351" s="14" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="C351" s="14" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="D351" s="14" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="14" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="B352" s="14" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="C352" s="14" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="D352" s="14" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="14" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B353" s="14" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="C353" s="16" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="D353" s="16" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="14" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="B354" s="14" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="C354" s="14" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="D354" s="14" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="14" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="B355" s="14" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="C355" s="14" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="D355" s="14" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37334,139 +37368,139 @@
         <v>28</v>
       </c>
       <c r="B356" s="14" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="C356" s="14" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="D356" s="14" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="14" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="B357" s="14" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="C357" s="14" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="D357" s="14" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="14" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="B358" s="14" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="C358" s="14" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="D358" s="14" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="14" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="B359" s="14" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="C359" s="14" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="D359" s="14" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="14" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="B360" s="14" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="C360" s="14" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="D360" s="14" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="14" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B361" s="14" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="C361" s="14" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="D361" s="14" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="14" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="B362" s="14" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="C362" s="14" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="D362" s="14" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="14" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B363" s="14" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="C363" s="14" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="D363" s="14" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="14" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B364" s="14" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="C364" s="16" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="D364" s="16" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="14" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="B365" s="14" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="C365" s="16" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="D365" s="16" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37474,13 +37508,13 @@
         <v>27</v>
       </c>
       <c r="B367" s="14" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="C367" s="16" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="D367" s="16" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="32.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37488,13 +37522,13 @@
         <v>31</v>
       </c>
       <c r="B368" s="14" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="C368" s="16" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="D368" s="16" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37502,13 +37536,13 @@
         <v>35</v>
       </c>
       <c r="B369" s="14" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C369" s="14" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="D369" s="14" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37516,13 +37550,13 @@
         <v>47</v>
       </c>
       <c r="B370" s="14" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="C370" s="14" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="D370" s="14" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37530,153 +37564,153 @@
         <v>53</v>
       </c>
       <c r="B371" s="14" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C371" s="14" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="D371" s="14" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="14" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="B372" s="14" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="C372" s="14" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="D372" s="14" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="14" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="B373" s="14" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="C373" s="16" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="D373" s="16" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="14" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B374" s="14" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="C374" s="16" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="D374" s="16" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="14" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="B375" s="14" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="C375" s="16" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="D375" s="16" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="14" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="B376" s="14" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="C376" s="14" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="D376" s="14" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="14" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="B377" s="14" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="C377" s="14" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="D377" s="14" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="14" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="B378" s="14" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="C378" s="14" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="D378" s="14" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="14" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="B379" s="14" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="C379" s="14" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="D379" s="14" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="14" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="B380" s="14" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="C380" s="14" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="D380" s="14" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="14" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="B381" s="14" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="C381" s="14" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="D381" s="14" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37684,13 +37718,13 @@
         <v>25</v>
       </c>
       <c r="B383" s="14" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="C383" s="14" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="D383" s="14" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37698,13 +37732,13 @@
         <v>29</v>
       </c>
       <c r="B384" s="14" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="C384" s="14" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="D384" s="14" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37712,13 +37746,13 @@
         <v>33</v>
       </c>
       <c r="B385" s="14" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="C385" s="14" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="D385" s="14" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37726,13 +37760,13 @@
         <v>62</v>
       </c>
       <c r="B386" s="14" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="C386" s="14" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="D386" s="14" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37740,13 +37774,13 @@
         <v>69</v>
       </c>
       <c r="B387" s="14" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="C387" s="14" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="D387" s="14" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37754,13 +37788,13 @@
         <v>71</v>
       </c>
       <c r="B388" s="14" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="C388" s="14" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="D388" s="14" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37768,1403 +37802,1403 @@
         <v>72</v>
       </c>
       <c r="B389" s="14" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="C389" s="14" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="D389" s="14" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="14" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="B390" s="14" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="C390" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="D390" s="14" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="14" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="B391" s="14" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="C391" s="14" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="D391" s="14" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="14" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="B392" s="14" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="C392" s="14" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="D392" s="14" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="14" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="B393" s="14" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="C393" s="14" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="D393" s="14" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="14" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="B394" s="14" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="C394" s="14" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="D394" s="14" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="14" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="B395" s="14" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="C395" s="14" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="D395" s="14" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="14" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="B396" s="14" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="C396" s="14" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="D396" s="14" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="14" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="B397" s="14" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="C397" s="14" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="D397" s="14" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="14" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="B398" s="14" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="C398" s="14" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="D398" s="14" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="14" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="B399" s="14" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="C399" s="14" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="D399" s="14" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="14" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="B400" s="14" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="C400" s="14" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="D400" s="14" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="14" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="B401" s="14" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="C401" s="14" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="D401" s="14" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="14" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="B402" s="14" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="C402" s="14" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="D402" s="14" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="14" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="B403" s="14" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="C403" s="14" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="D403" s="14" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="14" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="B404" s="14" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C404" s="14" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="D404" s="14" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="14" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="B405" s="14" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="C405" s="14" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="D405" s="14" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="14" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="B406" s="14" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="C406" s="14" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="D406" s="14" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="14" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="B407" s="14" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="C407" s="14" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="D407" s="14" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="14" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="B408" s="14" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="C408" s="14" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="D408" s="14" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="14" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="B409" s="14" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="C409" s="14" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="D409" s="14" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="14" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="B410" s="14" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="C410" s="14" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="D410" s="14" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="14" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="B411" s="14" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="C411" s="14" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="D411" s="14" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="14" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="B412" s="14" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="C412" s="14" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="D412" s="14" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="14" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="B413" s="14" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="C413" s="14" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="D413" s="14" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="14" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="B414" s="14" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="C414" s="14" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="D414" s="14" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="14" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="B415" s="14" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="C415" s="14" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="D415" s="14" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="14" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="B416" s="14" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="C416" s="14" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="D416" s="14" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="14" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="B417" s="14" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="C417" s="14" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="D417" s="14" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="14" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="B418" s="14" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="C418" s="14" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="D418" s="14" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="14" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="B419" s="14" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="C419" s="14" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D419" s="14" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="14" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B420" s="14" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="C420" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="D420" s="14" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="14" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="B421" s="14" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="C421" s="14" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="D421" s="14" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="14" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="B422" s="14" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="C422" s="14" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="D422" s="14" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="14" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="B423" s="14" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="C423" s="14" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="D423" s="14" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="B424" s="14" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="C424" s="14" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D424" s="14" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="14" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="B426" s="14" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="C426" s="14" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="D426" s="14" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="14" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="B427" s="14" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="C427" s="14" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="D427" s="14" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="14" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="B428" s="14" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="C428" s="14" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="D428" s="14" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="14" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="B429" s="14" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="C429" s="14" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="D429" s="14" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="14" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="B430" s="14" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="C430" s="14" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="D430" s="14" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="14" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="B431" s="14" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="C431" s="14" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="D431" s="14" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="14" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B432" s="14" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="C432" s="14" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="D432" s="14" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="14" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="B433" s="14" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="C433" s="14" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="D433" s="14" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="14" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B434" s="14" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="C434" s="14" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="D434" s="14" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="14" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="B435" s="14" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="C435" s="14" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="D435" s="14" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="14" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="B436" s="14" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="C436" s="14" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="D436" s="14" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="14" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="B437" s="14" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="C437" s="14" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="D437" s="14" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="14" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="B438" s="14" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="C438" s="14" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="D438" s="14" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="14" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="B439" s="14" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="C439" s="14" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="D439" s="14" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="14" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="B440" s="14" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="C440" s="14" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="D440" s="14" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="14" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="B441" s="14" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="C441" s="14" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="D441" s="14" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="14" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="B442" s="14" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="C442" s="14" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="D442" s="14" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="14" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="B443" s="14" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="C443" s="14" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="D443" s="14" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="14" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="B444" s="14" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="C444" s="14" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="D444" s="14" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="14" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="B445" s="14" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="C445" s="14" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="D445" s="14" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="14" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="B446" s="14" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="C446" s="14" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="D446" s="14" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="14" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B447" s="14" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="C447" s="14" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="D447" s="14" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="14" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="B448" s="14" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="C448" s="14" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="D448" s="14" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="14" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="B449" s="14" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="C449" s="14" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="D449" s="14" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="14" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="B450" s="14" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="C450" s="14" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="D450" s="14" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="14" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="B451" s="14" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="C451" s="14" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="D451" s="14" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="14" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="B452" s="14" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="C452" s="14" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="D452" s="14" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="14" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="B453" s="14" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="C453" s="14" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="D453" s="14" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="14" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="B454" s="14" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="C454" s="14" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="D454" s="14" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="14" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="B455" s="14" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="C455" s="14" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="D455" s="14" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="14" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="B456" s="14" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="C456" s="14" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="D456" s="14" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="14" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="B457" s="14" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="C457" s="14" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="D457" s="14" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="14" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="B458" s="14" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="C458" s="14" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="D458" s="14" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="14" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="B459" s="14" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="C459" s="14" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="D459" s="14" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="14" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="B460" s="14" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="C460" s="14" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="D460" s="14" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="14" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="B461" s="14" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="C461" s="14" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="D461" s="14" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="14" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="B462" s="14" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="C462" s="14" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="D462" s="14" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="14" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="B463" s="14" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="C463" s="14" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="D463" s="14" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="14" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="B464" s="14" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="C464" s="14" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="D464" s="14" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="14" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="B465" s="14" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="C465" s="14" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="D465" s="14" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="14" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="B466" s="14" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="C466" s="14" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="D466" s="14" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="14" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="B467" s="14" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="C467" s="14" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="D467" s="14" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="14" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="B468" s="14" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="C468" s="14" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="D468" s="14" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="14" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="B469" s="14" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="C469" s="14" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="D469" s="14" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="14" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="B470" s="14" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="C470" s="14" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="D470" s="14" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="14" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B471" s="14" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="C471" s="14" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="D471" s="14" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="14" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="B472" s="14" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="C472" s="14" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="D472" s="14" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="14" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="B474" s="14" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="C474" s="16" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="D474" s="16" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="14" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B475" s="14" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="C475" s="16" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="D475" s="16" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="14" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="B476" s="14" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="C476" s="16" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="D476" s="16" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="14" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="B477" s="14" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="C477" s="16" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="D477" s="16" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="14" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="B478" s="14" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="C478" s="16" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="D478" s="16" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="14" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="B479" s="14" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="C479" s="16" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="D479" s="16" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="14" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="B480" s="14" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="C480" s="16" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="D480" s="16" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="14" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B481" s="14" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="C481" s="16" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="D481" s="16" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="33.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="14" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="B482" s="14" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="C482" s="16" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="D482" s="16" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="16.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A483" s="14" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="B483" s="17" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="C483" s="16" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="D483" s="16" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="14" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="B484" s="14" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="C484" s="14" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="D484" s="14" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="14" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="B485" s="14" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="C485" s="14" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="D485" s="14" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="14" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="B486" s="14" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="C486" s="16" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="D486" s="16" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="14" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="B487" s="14" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="C487" s="16" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="D487" s="16" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="22.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="14" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="B488" s="14" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="C488" s="16" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="D488" s="16" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="18" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="B489" s="14" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="C489" s="14" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="D489" s="14" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="14" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="B490" s="14" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="C490" s="14" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="D490" s="14" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:D1 B383:D391 B395:D395 B398:D424 B490:B1048576 C221:D343 C352:D352 C450:D473 D490:D1048576 C484:D485 C354:D357 C490:C1048576 C366:D366 C1:D64 C374:C375 B484:B488 C487:C488 B489:D489 B1:B482 C377:D449 C349:D349 C69:D220">
+  <conditionalFormatting sqref="B1:D1 B383:D391 B395:D395 B398:D424 B490:B1048576 C69:D343 C352:D352 C450:D473 D490:D1048576 C484:D485 C354:D357 C490:C1048576 C366:D366 C1:D64 C374:C375 B484:B488 C487:C488 B489:D489 B1:B482 C377:D449 C349:D349">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>

--- a/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
+++ b/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
@@ -4683,7 +4683,7 @@
     <t xml:space="preserve">1. Household member</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Número do agregado familiar</t>
+    <t xml:space="preserve">1. Membro do agregado familiar</t>
   </si>
   <si>
     <t xml:space="preserve">1. Mwanakaya</t>
@@ -5807,9 +5807,9 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.96875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="7.78"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6858,19 +6858,19 @@
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.96875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="40.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="18.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="10.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="15" style="0" width="10.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="38.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="9.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="15" style="0" width="10.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8367,13 +8367,13 @@
       <selection pane="bottomLeft" activeCell="C169" activeCellId="0" sqref="C169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.96875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="4" style="0" width="10.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="10.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="4" style="0" width="10.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.96"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13651,17 +13651,17 @@
       <selection pane="topLeft" activeCell="D64" activeCellId="0" sqref="D64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.96875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="9" style="0" width="8.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="10.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="9" style="0" width="7.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.96"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31320,17 +31320,17 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.96875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="9" style="0" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="9" style="0" width="7.78"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32463,17 +32463,17 @@
   </sheetPr>
   <dimension ref="A1:D491"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A387" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B399" activeCellId="0" sqref="B399"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A417" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="D427" activeCellId="0" sqref="D427"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.21484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="33.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="6" width="35.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="15" width="10.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="31.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="6" width="33.63"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="15" width="10.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
+++ b/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
@@ -3177,7 +3177,7 @@
     <t xml:space="preserve">Treatment for epilepsy</t>
   </si>
   <si>
-    <t xml:space="preserve">Tratamento para a epilepsia</t>
+    <t xml:space="preserve">Tratamento para a epilepsia (convulsões)</t>
   </si>
   <si>
     <t xml:space="preserve">Matibabu ya kifafa</t>
@@ -5807,9 +5807,9 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.96875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.22265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="7.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="7.36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6858,19 +6858,19 @@
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.96875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.22265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="38.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="9.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="15" style="0" width="10.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="36.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="9.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="15" style="0" width="9.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8367,13 +8367,13 @@
       <selection pane="bottomLeft" activeCell="C169" activeCellId="0" sqref="C169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.96875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.22265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="4" style="0" width="10.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="4" style="0" width="9.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13651,17 +13651,17 @@
       <selection pane="topLeft" activeCell="D64" activeCellId="0" sqref="D64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.96875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.22265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="9" style="0" width="7.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="9" style="0" width="7.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31320,17 +31320,17 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.96875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.22265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="9" style="0" width="7.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="9" style="0" width="7.36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32464,16 +32464,16 @@
   <dimension ref="A1:D491"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A417" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D427" activeCellId="0" sqref="D427"/>
+      <selection pane="bottomLeft" activeCell="C188" activeCellId="0" sqref="C188"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.21484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="31.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="6" width="33.63"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="15" width="10.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="29.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="6" width="31.83"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="15" width="9.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
+++ b/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -723,7 +723,7 @@
     <t xml:space="preserve">Malaria</t>
   </si>
   <si>
-    <t xml:space="preserve">Constipation</t>
+    <t xml:space="preserve">Cold</t>
   </si>
   <si>
     <t xml:space="preserve">Fever</t>
@@ -5807,9 +5807,9 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.22265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="7.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="6.96"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6858,19 +6858,19 @@
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.22265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="36.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="9.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="15" style="0" width="9.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="34.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="8.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="15" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8361,19 +8361,19 @@
   </sheetPr>
   <dimension ref="A1:Y1015"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C169" activeCellId="0" sqref="C169"/>
+      <selection pane="bottomLeft" activeCell="B172" activeCellId="0" sqref="B172"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.22265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="4" style="0" width="9.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="4" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="8.92"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13651,17 +13651,17 @@
       <selection pane="topLeft" activeCell="D64" activeCellId="0" sqref="D64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.22265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="9" style="0" width="7.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="9" style="0" width="6.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="8.92"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31320,17 +31320,17 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.22265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="9" style="0" width="7.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="9" style="0" width="6.96"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32463,17 +32463,17 @@
   </sheetPr>
   <dimension ref="A1:D491"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C188" activeCellId="0" sqref="C188"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A129" activeCellId="0" sqref="A129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="29.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="6" width="31.83"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="15" width="9.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="28.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="6" width="30.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="15" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
+++ b/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -2178,7 +2178,7 @@
     <t xml:space="preserve">Tatizo la afya ya kiakili</t>
   </si>
   <si>
-    <t xml:space="preserve">Parasitas</t>
+    <t xml:space="preserve">Vermes/Lombrigas</t>
   </si>
   <si>
     <t xml:space="preserve">Minyoo</t>
@@ -5043,7 +5043,7 @@
     <t xml:space="preserve">22. Has this participant recently passed worms in the stool in the last 15 days?</t>
   </si>
   <si>
-    <t xml:space="preserve">22. O participante teve parasitas nas fezes nos últimos 15 dias?</t>
+    <t xml:space="preserve">22. O participante teve vermes/lombrigas nas fezes nos últimos 15 dias?</t>
   </si>
   <si>
     <t xml:space="preserve">22. Je, mshiriki huyu alitoa kinyesi chenye minyoo hivi karibuni katika siku 15 zilizopita?</t>
@@ -5807,9 +5807,9 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.84375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="6.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="6.59"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6858,19 +6858,19 @@
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.84375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="34.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="8.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="15" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="32.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="8.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="15" style="0" width="8.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8361,19 +8361,19 @@
   </sheetPr>
   <dimension ref="A1:Y1015"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="B172" activeCellId="0" sqref="B172"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.84375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="4" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="8.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="4" style="0" width="8.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="8.44"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13651,17 +13651,17 @@
       <selection pane="topLeft" activeCell="D64" activeCellId="0" sqref="D64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.84375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="9" style="0" width="6.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="8.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="9" style="0" width="6.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="8.44"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31320,17 +31320,17 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.84375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="9" style="0" width="6.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="9" style="0" width="6.59"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32463,17 +32463,17 @@
   </sheetPr>
   <dimension ref="A1:D491"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A447" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A129" activeCellId="0" sqref="A129"/>
+      <selection pane="bottomLeft" activeCell="B457" activeCellId="0" sqref="B457"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.65625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="28.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="6" width="30.13"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="15" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="26.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="6" width="28.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="15" width="8.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
+++ b/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
@@ -4995,7 +4995,7 @@
     <t xml:space="preserve">18. Does this participant have any deficiency, lesion or invalidity?</t>
   </si>
   <si>
-    <t xml:space="preserve">18. O participante tem alguma deficiência, lesão ou invalidez?</t>
+    <t xml:space="preserve">18. O participante vive com alguma deficiência, lesão ou invalidez?</t>
   </si>
   <si>
     <t xml:space="preserve">18. Mshiriki huyu ana upungufu wowote, jeraha au ugonjwa?</t>
@@ -5807,9 +5807,9 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.84375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.21484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="6.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="6.24"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6858,19 +6858,19 @@
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.84375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.21484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="32.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="8.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="15" style="0" width="8.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="30.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="7.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="15" style="0" width="8.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8367,13 +8367,13 @@
       <selection pane="bottomLeft" activeCell="B172" activeCellId="0" sqref="B172"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.84375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.21484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="4" style="0" width="8.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="8.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="4" style="0" width="8.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="7.99"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13651,17 +13651,17 @@
       <selection pane="topLeft" activeCell="D64" activeCellId="0" sqref="D64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.84375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.21484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="9" style="0" width="6.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="8.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="9" style="0" width="6.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="7.99"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31320,17 +31320,17 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.84375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.21484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="9" style="0" width="6.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="9" style="0" width="6.24"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32466,14 +32466,14 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A447" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B457" activeCellId="0" sqref="B457"/>
+      <selection pane="bottomLeft" activeCell="C454" activeCellId="0" sqref="C454"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.65625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="26.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="6" width="28.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="15" width="8.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="25.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="6" width="27"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="15" width="8.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
+++ b/odkx/app/config/tables/hh_member/forms/hh_member/hh_member.xlsx
@@ -5019,7 +5019,7 @@
     <t xml:space="preserve">20. Does this participant have tunga?</t>
   </si>
   <si>
-    <t xml:space="preserve">20. O participante tem tunga?</t>
+    <t xml:space="preserve">20. O participante tem tunga? (matequenha)</t>
   </si>
   <si>
     <t xml:space="preserve">20. Je, mshiriki huyu ana tunga?</t>
@@ -5807,9 +5807,9 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.21484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="6.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="5.91"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6858,19 +6858,19 @@
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.21484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="30.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="7.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="15" style="0" width="8.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="29.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="7.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="15" style="0" width="7.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8367,13 +8367,13 @@
       <selection pane="bottomLeft" activeCell="B172" activeCellId="0" sqref="B172"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.21484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="4" style="0" width="8.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="7.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="4" style="0" width="7.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="7.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13651,17 +13651,17 @@
       <selection pane="topLeft" activeCell="D64" activeCellId="0" sqref="D64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.21484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="9" style="0" width="6.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="7.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="9" style="0" width="5.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="7.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31320,17 +31320,17 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.21484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="9" style="0" width="6.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="9" style="0" width="5.91"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32466,14 +32466,14 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A447" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C454" activeCellId="0" sqref="C454"/>
+      <selection pane="bottomLeft" activeCell="C456" activeCellId="0" sqref="C456"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="25.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="6" width="27"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="15" width="8.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="23.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="6" width="25.55"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="15" width="7.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
